--- a/FactorLib/resource/wind_tableinfo.xlsx
+++ b/FactorLib/resource/wind_tableinfo.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3238" uniqueCount="1534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3238" uniqueCount="1536">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4781,10 +4781,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DufaultColumns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DFIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4798,6 +4794,18 @@
   </si>
   <si>
     <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultColumns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stat_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ann_dt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5198,8 +5206,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E798"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A764" workbookViewId="0">
-      <selection activeCell="E764" sqref="E764"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="C352" sqref="C352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5208,6 +5216,7 @@
     <col min="2" max="2" width="57.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.25" customWidth="1"/>
     <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5221,10 +5230,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E1" t="s">
         <v>1529</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5241,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5258,7 +5267,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5275,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5292,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5309,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5326,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5343,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5360,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5377,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5394,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5411,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5428,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5445,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5462,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5479,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5496,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5513,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5530,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5547,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5564,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5581,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5598,7 +5607,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5615,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5632,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5649,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5666,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5683,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5700,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5717,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5734,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5751,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5768,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5785,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5802,7 +5811,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5819,7 +5828,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5836,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5853,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5870,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5887,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5904,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5921,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5938,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5955,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5972,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5989,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6006,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6023,7 +6032,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6040,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6057,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6074,7 +6083,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6091,7 +6100,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6108,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6125,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6142,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6159,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6176,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6193,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6210,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6227,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6244,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6261,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6278,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6295,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6312,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6329,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6346,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6363,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6380,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6397,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6414,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6431,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6448,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6465,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6482,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6499,7 +6508,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6516,7 +6525,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6533,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6550,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6567,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6584,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6601,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6618,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6635,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6652,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6669,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6686,7 +6695,7 @@
         <v>1</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6703,7 +6712,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6720,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6737,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6754,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6771,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6788,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6805,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6822,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6839,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6856,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6873,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6890,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6907,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6924,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6941,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6958,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6975,7 +6984,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6992,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7009,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7026,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7043,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7060,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7077,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7094,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7111,7 +7120,7 @@
         <v>0</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7128,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7145,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7162,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7179,7 +7188,7 @@
         <v>0</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7196,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7213,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7230,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7247,7 +7256,7 @@
         <v>0</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7264,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7281,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7298,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7315,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7332,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7349,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7366,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7383,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7400,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7417,7 +7426,7 @@
         <v>0</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7434,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7451,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7468,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7485,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7502,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7519,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7536,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7553,7 +7562,7 @@
         <v>0</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7570,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7587,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7604,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7621,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7638,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7655,7 +7664,7 @@
         <v>0</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7672,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7689,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7706,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7723,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7740,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7757,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7774,7 +7783,7 @@
         <v>1</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7791,7 +7800,7 @@
         <v>0</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7808,7 +7817,7 @@
         <v>1</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7825,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7842,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7859,7 +7868,7 @@
         <v>0</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7876,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7893,7 +7902,7 @@
         <v>0</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7910,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7927,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7944,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7961,7 +7970,7 @@
         <v>0</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7978,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7995,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8012,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8029,7 +8038,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8046,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8063,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8080,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8097,7 +8106,7 @@
         <v>0</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8114,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8131,7 +8140,7 @@
         <v>0</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8148,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8165,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8182,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8199,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8216,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8233,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8250,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8267,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8284,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8301,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8318,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8335,7 +8344,7 @@
         <v>0</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8352,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8369,7 +8378,7 @@
         <v>0</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8386,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8403,7 +8412,7 @@
         <v>0</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8420,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8437,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8454,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8471,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8488,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8505,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8522,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8539,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8556,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8573,7 +8582,7 @@
         <v>0</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8590,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8607,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8624,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8641,7 +8650,7 @@
         <v>0</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8658,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8675,7 +8684,7 @@
         <v>0</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8692,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8709,7 +8718,7 @@
         <v>0</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8726,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8743,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8760,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8777,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8794,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8811,7 +8820,7 @@
         <v>0</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8828,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8845,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8862,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8879,7 +8888,7 @@
         <v>0</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8896,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8913,7 +8922,7 @@
         <v>0</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8930,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8947,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8964,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8981,7 +8990,7 @@
         <v>0</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8998,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9015,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9032,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9049,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9066,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9083,7 +9092,7 @@
         <v>0</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9100,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9117,7 +9126,7 @@
         <v>0</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9134,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9151,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9168,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9185,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9202,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9219,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9236,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9253,7 +9262,7 @@
         <v>0</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9270,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9287,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9304,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9321,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9338,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9355,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9372,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9389,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9406,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9423,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9440,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9457,7 +9466,7 @@
         <v>0</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9474,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9491,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9508,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9525,7 +9534,7 @@
         <v>0</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9542,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9559,7 +9568,7 @@
         <v>0</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9576,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9593,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9610,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9627,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9644,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9661,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9678,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9695,7 +9704,7 @@
         <v>0</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9712,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9729,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9746,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9763,7 +9772,7 @@
         <v>0</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9780,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9797,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9814,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9831,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9848,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9865,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9882,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9899,7 +9908,7 @@
         <v>0</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9916,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9933,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9950,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9967,7 +9976,7 @@
         <v>0</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9984,7 +9993,7 @@
         <v>1</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10001,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10018,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10035,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10052,7 +10061,7 @@
         <v>1</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10066,10 +10075,10 @@
         <v>209</v>
       </c>
       <c r="D286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10086,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10103,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10120,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10137,7 +10146,7 @@
         <v>0</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10154,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10171,7 +10180,7 @@
         <v>0</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10188,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10205,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10222,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10239,7 +10248,7 @@
         <v>0</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10256,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10273,7 +10282,7 @@
         <v>0</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10290,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10307,7 +10316,7 @@
         <v>0</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10324,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10341,7 +10350,7 @@
         <v>0</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10358,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10375,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10392,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10409,7 +10418,7 @@
         <v>0</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10426,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10443,7 +10452,7 @@
         <v>0</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10460,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10477,7 +10486,7 @@
         <v>0</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10494,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10511,7 +10520,7 @@
         <v>0</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10528,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10545,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10562,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10579,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10596,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10613,7 +10622,7 @@
         <v>0</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10630,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10647,7 +10656,7 @@
         <v>0</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10664,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10681,7 +10690,7 @@
         <v>0</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10698,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10715,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10732,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10749,7 +10758,7 @@
         <v>0</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10766,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10783,7 +10792,7 @@
         <v>0</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10800,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10817,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10834,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10851,7 +10860,7 @@
         <v>0</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10868,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10885,7 +10894,7 @@
         <v>0</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10902,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10919,7 +10928,7 @@
         <v>0</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10936,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10953,7 +10962,7 @@
         <v>0</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10970,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10987,7 +10996,7 @@
         <v>0</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11004,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11021,7 +11030,7 @@
         <v>0</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11038,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11055,7 +11064,7 @@
         <v>0</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11072,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11089,7 +11098,7 @@
         <v>0</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11106,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11123,7 +11132,7 @@
         <v>0</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11140,7 +11149,7 @@
         <v>1</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11157,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11174,7 +11183,7 @@
         <v>1</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11191,7 +11200,7 @@
         <v>0</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11208,7 +11217,7 @@
         <v>1</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="354" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11225,7 +11234,7 @@
         <v>0</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11242,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="356" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11259,7 +11268,7 @@
         <v>0</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="357" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11276,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="358" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11293,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="359" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11310,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="360" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11327,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11344,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="362" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11361,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="363" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11378,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="364" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11395,7 +11404,7 @@
         <v>0</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11412,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="366" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11429,7 +11438,7 @@
         <v>0</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="367" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11446,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="368" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11463,7 +11472,7 @@
         <v>0</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11480,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="370" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11497,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="371" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11514,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="372" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11531,7 +11540,7 @@
         <v>0</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11548,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="374" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11565,7 +11574,7 @@
         <v>0</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="375" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11582,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="376" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11599,7 +11608,7 @@
         <v>0</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11616,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11633,7 +11642,7 @@
         <v>0</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11650,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="380" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11667,7 +11676,7 @@
         <v>0</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="381" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11684,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11701,7 +11710,7 @@
         <v>0</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11718,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="384" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11735,7 +11744,7 @@
         <v>0</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="385" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11752,7 +11761,7 @@
         <v>0</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="386" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11769,7 +11778,7 @@
         <v>0</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11786,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="388" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11803,7 +11812,7 @@
         <v>0</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="389" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11820,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="390" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11837,7 +11846,7 @@
         <v>0</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="391" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11854,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="392" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11871,7 +11880,7 @@
         <v>0</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="393" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11888,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="394" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11905,7 +11914,7 @@
         <v>0</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="395" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11922,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="396" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11939,7 +11948,7 @@
         <v>0</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="397" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11956,7 +11965,7 @@
         <v>0</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="398" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11973,7 +11982,7 @@
         <v>0</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="399" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11990,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="400" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12007,7 +12016,7 @@
         <v>0</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="401" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12024,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="402" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12041,7 +12050,7 @@
         <v>0</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="403" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12058,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="404" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12075,7 +12084,7 @@
         <v>0</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="405" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12092,7 +12101,7 @@
         <v>0</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="406" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12109,7 +12118,7 @@
         <v>0</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="407" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12126,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="408" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12143,7 +12152,7 @@
         <v>0</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="409" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12160,7 +12169,7 @@
         <v>0</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="410" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12177,7 +12186,7 @@
         <v>0</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="411" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12194,7 +12203,7 @@
         <v>0</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="412" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12211,7 +12220,7 @@
         <v>0</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="413" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12228,7 +12237,7 @@
         <v>0</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="414" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12245,7 +12254,7 @@
         <v>0</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="415" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12262,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="416" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12279,7 +12288,7 @@
         <v>0</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="417" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12296,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="418" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12313,7 +12322,7 @@
         <v>0</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="419" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12330,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="420" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12347,7 +12356,7 @@
         <v>0</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="421" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12364,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="422" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12381,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="423" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12398,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="424" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12415,7 +12424,7 @@
         <v>0</v>
       </c>
       <c r="E424" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="425" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12432,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="E425" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="426" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12449,7 +12458,7 @@
         <v>0</v>
       </c>
       <c r="E426" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="427" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12466,7 +12475,7 @@
         <v>0</v>
       </c>
       <c r="E427" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="428" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12483,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="E428" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="429" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12500,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="E429" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="430" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12517,7 +12526,7 @@
         <v>0</v>
       </c>
       <c r="E430" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="431" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12534,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="432" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12551,7 +12560,7 @@
         <v>0</v>
       </c>
       <c r="E432" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="433" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12568,7 +12577,7 @@
         <v>0</v>
       </c>
       <c r="E433" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="434" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12585,7 +12594,7 @@
         <v>0</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="435" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12602,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="436" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12619,7 +12628,7 @@
         <v>0</v>
       </c>
       <c r="E436" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="437" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12636,7 +12645,7 @@
         <v>0</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="438" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12653,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="439" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12670,7 +12679,7 @@
         <v>0</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="440" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12687,7 +12696,7 @@
         <v>0</v>
       </c>
       <c r="E440" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="441" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12704,7 +12713,7 @@
         <v>1</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="442" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12721,7 +12730,7 @@
         <v>0</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="443" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12738,7 +12747,7 @@
         <v>1</v>
       </c>
       <c r="E443" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="444" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12755,7 +12764,7 @@
         <v>1</v>
       </c>
       <c r="E444" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="445" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12772,7 +12781,7 @@
         <v>1</v>
       </c>
       <c r="E445" s="1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="446" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12789,7 +12798,7 @@
         <v>0</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="447" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12806,7 +12815,7 @@
         <v>0</v>
       </c>
       <c r="E447" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="448" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12823,7 +12832,7 @@
         <v>0</v>
       </c>
       <c r="E448" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="449" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12840,7 +12849,7 @@
         <v>0</v>
       </c>
       <c r="E449" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="450" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12857,7 +12866,7 @@
         <v>0</v>
       </c>
       <c r="E450" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="451" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12874,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="452" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12891,7 +12900,7 @@
         <v>0</v>
       </c>
       <c r="E452" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="453" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12908,7 +12917,7 @@
         <v>0</v>
       </c>
       <c r="E453" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="454" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12925,7 +12934,7 @@
         <v>0</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="455" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12942,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="E455" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="456" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12959,7 +12968,7 @@
         <v>0</v>
       </c>
       <c r="E456" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="457" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12976,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="E457" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="458" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12993,7 +13002,7 @@
         <v>0</v>
       </c>
       <c r="E458" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="459" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13010,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="E459" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="460" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13027,7 +13036,7 @@
         <v>0</v>
       </c>
       <c r="E460" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="461" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13044,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="E461" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="462" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13061,7 +13070,7 @@
         <v>0</v>
       </c>
       <c r="E462" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="463" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13078,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="E463" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="464" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13095,7 +13104,7 @@
         <v>0</v>
       </c>
       <c r="E464" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="465" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13112,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="E465" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="466" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13129,7 +13138,7 @@
         <v>0</v>
       </c>
       <c r="E466" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="467" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13146,7 +13155,7 @@
         <v>0</v>
       </c>
       <c r="E467" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="468" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13163,7 +13172,7 @@
         <v>0</v>
       </c>
       <c r="E468" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="469" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13180,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="470" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13197,7 +13206,7 @@
         <v>0</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="471" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13214,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="472" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13231,7 +13240,7 @@
         <v>0</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="473" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13248,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="474" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13265,7 +13274,7 @@
         <v>0</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="475" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13282,7 +13291,7 @@
         <v>0</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="476" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13299,7 +13308,7 @@
         <v>0</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="477" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13316,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="478" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13333,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="E478" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="479" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13350,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="480" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13367,7 +13376,7 @@
         <v>0</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="481" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13384,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="482" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13401,7 +13410,7 @@
         <v>0</v>
       </c>
       <c r="E482" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="483" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13418,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="484" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13435,7 +13444,7 @@
         <v>0</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="485" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13452,7 +13461,7 @@
         <v>0</v>
       </c>
       <c r="E485" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="486" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13469,7 +13478,7 @@
         <v>0</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="487" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13486,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="488" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13503,7 +13512,7 @@
         <v>0</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="489" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13520,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="490" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13537,7 +13546,7 @@
         <v>0</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="491" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13554,7 +13563,7 @@
         <v>0</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="492" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13571,7 +13580,7 @@
         <v>0</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="493" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13588,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="494" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13605,7 +13614,7 @@
         <v>0</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="495" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13622,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="E495" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="496" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13639,7 +13648,7 @@
         <v>0</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="497" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13656,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="E497" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="498" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13673,7 +13682,7 @@
         <v>0</v>
       </c>
       <c r="E498" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="499" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13690,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="500" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13707,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="501" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13724,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="502" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13741,7 +13750,7 @@
         <v>0</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="503" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13758,7 +13767,7 @@
         <v>0</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="504" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13775,7 +13784,7 @@
         <v>0</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="505" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13792,7 +13801,7 @@
         <v>0</v>
       </c>
       <c r="E505" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="506" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13809,7 +13818,7 @@
         <v>0</v>
       </c>
       <c r="E506" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="507" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13826,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="E507" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="508" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13843,7 +13852,7 @@
         <v>0</v>
       </c>
       <c r="E508" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="509" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13860,7 +13869,7 @@
         <v>0</v>
       </c>
       <c r="E509" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="510" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13877,7 +13886,7 @@
         <v>0</v>
       </c>
       <c r="E510" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="511" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13894,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="512" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13911,7 +13920,7 @@
         <v>0</v>
       </c>
       <c r="E512" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="513" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13928,7 +13937,7 @@
         <v>0</v>
       </c>
       <c r="E513" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="514" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13945,7 +13954,7 @@
         <v>0</v>
       </c>
       <c r="E514" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="515" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13962,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="E515" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="516" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13979,7 +13988,7 @@
         <v>0</v>
       </c>
       <c r="E516" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="517" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13996,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="E517" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="518" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14013,7 +14022,7 @@
         <v>0</v>
       </c>
       <c r="E518" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="519" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14030,7 +14039,7 @@
         <v>0</v>
       </c>
       <c r="E519" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="520" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14047,7 +14056,7 @@
         <v>0</v>
       </c>
       <c r="E520" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="521" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14064,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="E521" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="522" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14081,7 +14090,7 @@
         <v>0</v>
       </c>
       <c r="E522" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="523" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14098,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="E523" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="524" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14115,7 +14124,7 @@
         <v>0</v>
       </c>
       <c r="E524" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="525" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14132,7 +14141,7 @@
         <v>0</v>
       </c>
       <c r="E525" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="526" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14149,7 +14158,7 @@
         <v>0</v>
       </c>
       <c r="E526" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="527" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14166,7 +14175,7 @@
         <v>0</v>
       </c>
       <c r="E527" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="528" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14183,7 +14192,7 @@
         <v>0</v>
       </c>
       <c r="E528" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="529" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14200,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="E529" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="530" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14217,7 +14226,7 @@
         <v>0</v>
       </c>
       <c r="E530" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="531" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14234,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="532" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14251,7 +14260,7 @@
         <v>0</v>
       </c>
       <c r="E532" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="533" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14268,7 +14277,7 @@
         <v>0</v>
       </c>
       <c r="E533" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="534" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14285,7 +14294,7 @@
         <v>0</v>
       </c>
       <c r="E534" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="535" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14302,7 +14311,7 @@
         <v>0</v>
       </c>
       <c r="E535" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="536" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14319,7 +14328,7 @@
         <v>0</v>
       </c>
       <c r="E536" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="537" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14336,7 +14345,7 @@
         <v>0</v>
       </c>
       <c r="E537" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="538" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14353,7 +14362,7 @@
         <v>0</v>
       </c>
       <c r="E538" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="539" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14370,7 +14379,7 @@
         <v>0</v>
       </c>
       <c r="E539" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="540" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14387,7 +14396,7 @@
         <v>0</v>
       </c>
       <c r="E540" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="541" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14404,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="E541" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="542" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14421,7 +14430,7 @@
         <v>0</v>
       </c>
       <c r="E542" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="543" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14438,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="E543" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="544" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14455,7 +14464,7 @@
         <v>0</v>
       </c>
       <c r="E544" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="545" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14472,7 +14481,7 @@
         <v>0</v>
       </c>
       <c r="E545" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="546" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14489,7 +14498,7 @@
         <v>0</v>
       </c>
       <c r="E546" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="547" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14506,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="E547" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="548" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14523,7 +14532,7 @@
         <v>0</v>
       </c>
       <c r="E548" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="549" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14540,7 +14549,7 @@
         <v>0</v>
       </c>
       <c r="E549" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="550" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14557,7 +14566,7 @@
         <v>0</v>
       </c>
       <c r="E550" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="551" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14574,7 +14583,7 @@
         <v>0</v>
       </c>
       <c r="E551" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="552" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14591,7 +14600,7 @@
         <v>0</v>
       </c>
       <c r="E552" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="553" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14608,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="E553" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="554" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14625,7 +14634,7 @@
         <v>0</v>
       </c>
       <c r="E554" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="555" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14642,7 +14651,7 @@
         <v>0</v>
       </c>
       <c r="E555" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="556" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14659,7 +14668,7 @@
         <v>0</v>
       </c>
       <c r="E556" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="557" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14676,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="E557" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="558" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14693,7 +14702,7 @@
         <v>0</v>
       </c>
       <c r="E558" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="559" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14710,7 +14719,7 @@
         <v>0</v>
       </c>
       <c r="E559" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="560" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14727,7 +14736,7 @@
         <v>0</v>
       </c>
       <c r="E560" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="561" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14744,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="E561" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="562" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14761,7 +14770,7 @@
         <v>0</v>
       </c>
       <c r="E562" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="563" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14778,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="E563" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="564" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14795,7 +14804,7 @@
         <v>0</v>
       </c>
       <c r="E564" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="565" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14812,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="E565" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="566" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14829,7 +14838,7 @@
         <v>0</v>
       </c>
       <c r="E566" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="567" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14846,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="E567" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="568" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14863,7 +14872,7 @@
         <v>0</v>
       </c>
       <c r="E568" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="569" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14880,7 +14889,7 @@
         <v>0</v>
       </c>
       <c r="E569" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="570" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14897,7 +14906,7 @@
         <v>0</v>
       </c>
       <c r="E570" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="571" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14914,7 +14923,7 @@
         <v>0</v>
       </c>
       <c r="E571" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="572" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14931,7 +14940,7 @@
         <v>0</v>
       </c>
       <c r="E572" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="573" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14948,7 +14957,7 @@
         <v>0</v>
       </c>
       <c r="E573" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="574" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14965,7 +14974,7 @@
         <v>0</v>
       </c>
       <c r="E574" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="575" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14982,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="E575" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="576" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14999,7 +15008,7 @@
         <v>0</v>
       </c>
       <c r="E576" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="577" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15016,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="E577" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="578" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15033,7 +15042,7 @@
         <v>0</v>
       </c>
       <c r="E578" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="579" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15050,7 +15059,7 @@
         <v>0</v>
       </c>
       <c r="E579" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="580" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15067,7 +15076,7 @@
         <v>0</v>
       </c>
       <c r="E580" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="581" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15084,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="E581" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="582" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15101,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="E582" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="583" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15118,7 +15127,7 @@
         <v>0</v>
       </c>
       <c r="E583" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="584" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15135,7 +15144,7 @@
         <v>0</v>
       </c>
       <c r="E584" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="585" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15152,7 +15161,7 @@
         <v>0</v>
       </c>
       <c r="E585" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="586" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15169,7 +15178,7 @@
         <v>0</v>
       </c>
       <c r="E586" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="587" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15186,7 +15195,7 @@
         <v>0</v>
       </c>
       <c r="E587" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="588" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15203,7 +15212,7 @@
         <v>0</v>
       </c>
       <c r="E588" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="589" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15220,7 +15229,7 @@
         <v>0</v>
       </c>
       <c r="E589" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="590" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15237,7 +15246,7 @@
         <v>0</v>
       </c>
       <c r="E590" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="591" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15254,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="E591" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="592" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15271,7 +15280,7 @@
         <v>0</v>
       </c>
       <c r="E592" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="593" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15288,7 +15297,7 @@
         <v>0</v>
       </c>
       <c r="E593" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="594" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15305,7 +15314,7 @@
         <v>0</v>
       </c>
       <c r="E594" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="595" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15322,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="E595" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="596" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15339,7 +15348,7 @@
         <v>0</v>
       </c>
       <c r="E596" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="597" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15356,7 +15365,7 @@
         <v>0</v>
       </c>
       <c r="E597" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="598" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15373,7 +15382,7 @@
         <v>0</v>
       </c>
       <c r="E598" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="599" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15390,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="E599" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="600" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15407,7 +15416,7 @@
         <v>0</v>
       </c>
       <c r="E600" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="601" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15424,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="E601" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="602" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15441,7 +15450,7 @@
         <v>0</v>
       </c>
       <c r="E602" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="603" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15458,7 +15467,7 @@
         <v>0</v>
       </c>
       <c r="E603" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="604" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15475,7 +15484,7 @@
         <v>0</v>
       </c>
       <c r="E604" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="605" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15492,7 +15501,7 @@
         <v>0</v>
       </c>
       <c r="E605" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="606" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15509,7 +15518,7 @@
         <v>0</v>
       </c>
       <c r="E606" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="607" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15526,7 +15535,7 @@
         <v>0</v>
       </c>
       <c r="E607" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="608" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15543,7 +15552,7 @@
         <v>0</v>
       </c>
       <c r="E608" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="609" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15560,7 +15569,7 @@
         <v>1</v>
       </c>
       <c r="E609" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="610" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15577,7 +15586,7 @@
         <v>1</v>
       </c>
       <c r="E610" s="1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="611" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15594,7 +15603,7 @@
         <v>0</v>
       </c>
       <c r="E611" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="612" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15611,7 +15620,7 @@
         <v>0</v>
       </c>
       <c r="E612" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="613" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15628,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="E613" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="614" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15645,7 +15654,7 @@
         <v>0</v>
       </c>
       <c r="E614" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="615" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15662,7 +15671,7 @@
         <v>0</v>
       </c>
       <c r="E615" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="616" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15679,7 +15688,7 @@
         <v>0</v>
       </c>
       <c r="E616" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="617" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15696,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="E617" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="618" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15713,7 +15722,7 @@
         <v>0</v>
       </c>
       <c r="E618" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="619" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15730,7 +15739,7 @@
         <v>0</v>
       </c>
       <c r="E619" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="620" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15747,7 +15756,7 @@
         <v>0</v>
       </c>
       <c r="E620" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="621" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15764,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="E621" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="622" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -15781,7 +15790,7 @@
         <v>0</v>
       </c>
       <c r="E622" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="623" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -15798,7 +15807,7 @@
         <v>0</v>
       </c>
       <c r="E623" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="624" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -15815,7 +15824,7 @@
         <v>0</v>
       </c>
       <c r="E624" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="625" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -15832,7 +15841,7 @@
         <v>1</v>
       </c>
       <c r="E625" s="1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="626" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -15849,7 +15858,7 @@
         <v>0</v>
       </c>
       <c r="E626" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="627" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -15866,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="E627" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="628" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -15883,7 +15892,7 @@
         <v>0</v>
       </c>
       <c r="E628" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="629" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -15900,7 +15909,7 @@
         <v>0</v>
       </c>
       <c r="E629" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="630" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -15917,7 +15926,7 @@
         <v>0</v>
       </c>
       <c r="E630" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="631" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -15934,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="E631" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="632" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -15951,7 +15960,7 @@
         <v>0</v>
       </c>
       <c r="E632" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="633" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -15968,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="E633" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="634" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -15985,7 +15994,7 @@
         <v>0</v>
       </c>
       <c r="E634" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="635" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16002,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="E635" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="636" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16019,7 +16028,7 @@
         <v>0</v>
       </c>
       <c r="E636" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="637" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16036,7 +16045,7 @@
         <v>0</v>
       </c>
       <c r="E637" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="638" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16053,7 +16062,7 @@
         <v>0</v>
       </c>
       <c r="E638" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="639" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16070,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="E639" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="640" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16087,7 +16096,7 @@
         <v>0</v>
       </c>
       <c r="E640" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="641" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16104,7 +16113,7 @@
         <v>0</v>
       </c>
       <c r="E641" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="642" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16121,7 +16130,7 @@
         <v>0</v>
       </c>
       <c r="E642" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="643" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16138,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="E643" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="644" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16155,7 +16164,7 @@
         <v>0</v>
       </c>
       <c r="E644" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="645" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16172,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="E645" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="646" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16189,7 +16198,7 @@
         <v>0</v>
       </c>
       <c r="E646" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="647" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16206,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="E647" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="648" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16223,7 +16232,7 @@
         <v>0</v>
       </c>
       <c r="E648" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="649" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16240,7 +16249,7 @@
         <v>0</v>
       </c>
       <c r="E649" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="650" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16257,7 +16266,7 @@
         <v>0</v>
       </c>
       <c r="E650" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="651" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16274,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="E651" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="652" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16291,7 +16300,7 @@
         <v>0</v>
       </c>
       <c r="E652" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="653" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16308,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="E653" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="654" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16325,7 +16334,7 @@
         <v>0</v>
       </c>
       <c r="E654" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="655" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16342,7 +16351,7 @@
         <v>0</v>
       </c>
       <c r="E655" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="656" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16359,7 +16368,7 @@
         <v>0</v>
       </c>
       <c r="E656" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="657" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16376,7 +16385,7 @@
         <v>0</v>
       </c>
       <c r="E657" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="658" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16393,7 +16402,7 @@
         <v>0</v>
       </c>
       <c r="E658" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="659" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16410,7 +16419,7 @@
         <v>0</v>
       </c>
       <c r="E659" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="660" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16427,7 +16436,7 @@
         <v>0</v>
       </c>
       <c r="E660" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="661" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16444,7 +16453,7 @@
         <v>0</v>
       </c>
       <c r="E661" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="662" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16461,7 +16470,7 @@
         <v>0</v>
       </c>
       <c r="E662" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="663" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16478,7 +16487,7 @@
         <v>0</v>
       </c>
       <c r="E663" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="664" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16495,7 +16504,7 @@
         <v>0</v>
       </c>
       <c r="E664" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="665" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16512,7 +16521,7 @@
         <v>0</v>
       </c>
       <c r="E665" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="666" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16529,7 +16538,7 @@
         <v>0</v>
       </c>
       <c r="E666" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="667" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16546,7 +16555,7 @@
         <v>0</v>
       </c>
       <c r="E667" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="668" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16563,7 +16572,7 @@
         <v>0</v>
       </c>
       <c r="E668" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="669" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16580,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="E669" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="670" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16597,7 +16606,7 @@
         <v>0</v>
       </c>
       <c r="E670" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="671" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16614,7 +16623,7 @@
         <v>0</v>
       </c>
       <c r="E671" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="672" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16631,7 +16640,7 @@
         <v>0</v>
       </c>
       <c r="E672" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="673" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16648,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="E673" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="674" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16665,7 +16674,7 @@
         <v>0</v>
       </c>
       <c r="E674" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="675" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16682,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="E675" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="676" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16699,7 +16708,7 @@
         <v>0</v>
       </c>
       <c r="E676" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="677" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16716,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="E677" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="678" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16733,7 +16742,7 @@
         <v>0</v>
       </c>
       <c r="E678" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="679" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16750,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="E679" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="680" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16767,7 +16776,7 @@
         <v>0</v>
       </c>
       <c r="E680" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="681" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16784,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="E681" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="682" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16801,7 +16810,7 @@
         <v>0</v>
       </c>
       <c r="E682" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="683" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16818,7 +16827,7 @@
         <v>0</v>
       </c>
       <c r="E683" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="684" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16835,7 +16844,7 @@
         <v>0</v>
       </c>
       <c r="E684" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="685" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16852,7 +16861,7 @@
         <v>0</v>
       </c>
       <c r="E685" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="686" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16869,7 +16878,7 @@
         <v>0</v>
       </c>
       <c r="E686" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="687" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16886,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="E687" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="688" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16903,7 +16912,7 @@
         <v>0</v>
       </c>
       <c r="E688" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="689" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16920,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="E689" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="690" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16937,7 +16946,7 @@
         <v>0</v>
       </c>
       <c r="E690" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="691" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16954,7 +16963,7 @@
         <v>0</v>
       </c>
       <c r="E691" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="692" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16971,7 +16980,7 @@
         <v>0</v>
       </c>
       <c r="E692" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="693" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16988,7 +16997,7 @@
         <v>0</v>
       </c>
       <c r="E693" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="694" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17005,7 +17014,7 @@
         <v>0</v>
       </c>
       <c r="E694" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="695" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17022,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="E695" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="696" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17039,7 +17048,7 @@
         <v>0</v>
       </c>
       <c r="E696" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="697" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17056,7 +17065,7 @@
         <v>0</v>
       </c>
       <c r="E697" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="698" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17073,7 +17082,7 @@
         <v>0</v>
       </c>
       <c r="E698" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="699" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17090,7 +17099,7 @@
         <v>0</v>
       </c>
       <c r="E699" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="700" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17107,7 +17116,7 @@
         <v>0</v>
       </c>
       <c r="E700" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="701" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17124,7 +17133,7 @@
         <v>0</v>
       </c>
       <c r="E701" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="702" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17141,7 +17150,7 @@
         <v>0</v>
       </c>
       <c r="E702" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="703" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17158,7 +17167,7 @@
         <v>0</v>
       </c>
       <c r="E703" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="704" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17175,7 +17184,7 @@
         <v>0</v>
       </c>
       <c r="E704" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="705" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17192,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="E705" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="706" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17209,7 +17218,7 @@
         <v>0</v>
       </c>
       <c r="E706" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="707" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17226,7 +17235,7 @@
         <v>0</v>
       </c>
       <c r="E707" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="708" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17243,7 +17252,7 @@
         <v>0</v>
       </c>
       <c r="E708" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="709" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17260,7 +17269,7 @@
         <v>0</v>
       </c>
       <c r="E709" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="710" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17277,7 +17286,7 @@
         <v>0</v>
       </c>
       <c r="E710" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="711" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17294,7 +17303,7 @@
         <v>0</v>
       </c>
       <c r="E711" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="712" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17311,7 +17320,7 @@
         <v>0</v>
       </c>
       <c r="E712" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="713" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17328,7 +17337,7 @@
         <v>1</v>
       </c>
       <c r="E713" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="714" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17345,7 +17354,7 @@
         <v>1</v>
       </c>
       <c r="E714" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="715" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17362,7 +17371,7 @@
         <v>1</v>
       </c>
       <c r="E715" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="716" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17379,7 +17388,7 @@
         <v>0</v>
       </c>
       <c r="E716" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="717" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17396,7 +17405,7 @@
         <v>1</v>
       </c>
       <c r="E717" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="718" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17413,7 +17422,7 @@
         <v>1</v>
       </c>
       <c r="E718" s="1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="719" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17430,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="E719" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="720" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17447,7 +17456,7 @@
         <v>0</v>
       </c>
       <c r="E720" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="721" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17464,7 +17473,7 @@
         <v>0</v>
       </c>
       <c r="E721" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="722" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17481,7 +17490,7 @@
         <v>0</v>
       </c>
       <c r="E722" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="723" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17498,7 +17507,7 @@
         <v>0</v>
       </c>
       <c r="E723" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="724" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17515,7 +17524,7 @@
         <v>0</v>
       </c>
       <c r="E724" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="725" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17532,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="E725" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="726" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17549,7 +17558,7 @@
         <v>0</v>
       </c>
       <c r="E726" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="727" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17566,7 +17575,7 @@
         <v>0</v>
       </c>
       <c r="E727" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="728" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17583,7 +17592,7 @@
         <v>0</v>
       </c>
       <c r="E728" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="729" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17600,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="E729" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="730" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17617,7 +17626,7 @@
         <v>0</v>
       </c>
       <c r="E730" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="731" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17634,7 +17643,7 @@
         <v>0</v>
       </c>
       <c r="E731" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="732" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17651,7 +17660,7 @@
         <v>0</v>
       </c>
       <c r="E732" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="733" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17668,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="E733" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="734" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17685,7 +17694,7 @@
         <v>0</v>
       </c>
       <c r="E734" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="735" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17702,7 +17711,7 @@
         <v>0</v>
       </c>
       <c r="E735" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="736" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17719,7 +17728,7 @@
         <v>0</v>
       </c>
       <c r="E736" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="737" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17736,7 +17745,7 @@
         <v>0</v>
       </c>
       <c r="E737" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="738" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17753,7 +17762,7 @@
         <v>0</v>
       </c>
       <c r="E738" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="739" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17770,7 +17779,7 @@
         <v>0</v>
       </c>
       <c r="E739" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="740" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17787,7 +17796,7 @@
         <v>0</v>
       </c>
       <c r="E740" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="741" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17804,7 +17813,7 @@
         <v>0</v>
       </c>
       <c r="E741" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="742" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17821,7 +17830,7 @@
         <v>0</v>
       </c>
       <c r="E742" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="743" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17838,7 +17847,7 @@
         <v>0</v>
       </c>
       <c r="E743" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="744" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17855,7 +17864,7 @@
         <v>0</v>
       </c>
       <c r="E744" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="745" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17872,7 +17881,7 @@
         <v>0</v>
       </c>
       <c r="E745" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="746" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17889,7 +17898,7 @@
         <v>0</v>
       </c>
       <c r="E746" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="747" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17906,7 +17915,7 @@
         <v>0</v>
       </c>
       <c r="E747" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="748" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17923,7 +17932,7 @@
         <v>0</v>
       </c>
       <c r="E748" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="749" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17940,7 +17949,7 @@
         <v>0</v>
       </c>
       <c r="E749" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="750" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17957,7 +17966,7 @@
         <v>0</v>
       </c>
       <c r="E750" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="751" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17974,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="E751" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="752" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17991,7 +18000,7 @@
         <v>0</v>
       </c>
       <c r="E752" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="753" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18008,7 +18017,7 @@
         <v>0</v>
       </c>
       <c r="E753" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="754" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18025,7 +18034,7 @@
         <v>0</v>
       </c>
       <c r="E754" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="755" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18042,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="E755" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="756" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18059,7 +18068,7 @@
         <v>0</v>
       </c>
       <c r="E756" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="757" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18076,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="E757" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="758" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18093,7 +18102,7 @@
         <v>0</v>
       </c>
       <c r="E758" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="759" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18110,7 +18119,7 @@
         <v>1</v>
       </c>
       <c r="E759" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="760" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18127,7 +18136,7 @@
         <v>1</v>
       </c>
       <c r="E760" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="761" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18144,7 +18153,7 @@
         <v>0</v>
       </c>
       <c r="E761" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="762" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18161,7 +18170,7 @@
         <v>1</v>
       </c>
       <c r="E762" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="763" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18178,7 +18187,7 @@
         <v>1</v>
       </c>
       <c r="E763" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="764" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18195,7 +18204,7 @@
         <v>0</v>
       </c>
       <c r="E764" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="765" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18212,7 +18221,7 @@
         <v>0</v>
       </c>
       <c r="E765" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="766" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18229,7 +18238,7 @@
         <v>0</v>
       </c>
       <c r="E766" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="767" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18246,7 +18255,7 @@
         <v>0</v>
       </c>
       <c r="E767" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="768" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18263,7 +18272,7 @@
         <v>0</v>
       </c>
       <c r="E768" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="769" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18280,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="E769" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="770" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18297,7 +18306,7 @@
         <v>0</v>
       </c>
       <c r="E770" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="771" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18314,7 +18323,7 @@
         <v>0</v>
       </c>
       <c r="E771" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="772" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18331,7 +18340,7 @@
         <v>0</v>
       </c>
       <c r="E772" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="773" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18348,7 +18357,7 @@
         <v>0</v>
       </c>
       <c r="E773" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="774" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18365,7 +18374,7 @@
         <v>0</v>
       </c>
       <c r="E774" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="775" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18382,7 +18391,7 @@
         <v>0</v>
       </c>
       <c r="E775" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="776" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18399,7 +18408,7 @@
         <v>0</v>
       </c>
       <c r="E776" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="777" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18416,7 +18425,7 @@
         <v>0</v>
       </c>
       <c r="E777" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="778" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18433,7 +18442,7 @@
         <v>0</v>
       </c>
       <c r="E778" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="779" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18450,7 +18459,7 @@
         <v>0</v>
       </c>
       <c r="E779" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="780" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18467,7 +18476,7 @@
         <v>0</v>
       </c>
       <c r="E780" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="781" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18484,7 +18493,7 @@
         <v>0</v>
       </c>
       <c r="E781" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="782" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18501,7 +18510,7 @@
         <v>0</v>
       </c>
       <c r="E782" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="783" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18518,7 +18527,7 @@
         <v>0</v>
       </c>
       <c r="E783" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="784" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18535,7 +18544,7 @@
         <v>0</v>
       </c>
       <c r="E784" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="785" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18552,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="E785" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="786" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18569,7 +18578,7 @@
         <v>0</v>
       </c>
       <c r="E786" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="787" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18586,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="E787" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="788" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18603,7 +18612,7 @@
         <v>0</v>
       </c>
       <c r="E788" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="789" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18620,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="E789" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="790" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18637,7 +18646,7 @@
         <v>0</v>
       </c>
       <c r="E790" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="791" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18654,7 +18663,7 @@
         <v>0</v>
       </c>
       <c r="E791" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="792" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18671,7 +18680,7 @@
         <v>0</v>
       </c>
       <c r="E792" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="793" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18688,7 +18697,7 @@
         <v>0</v>
       </c>
       <c r="E793" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="794" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18705,7 +18714,7 @@
         <v>0</v>
       </c>
       <c r="E794" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="795" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18722,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="E795" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="796" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18739,7 +18748,7 @@
         <v>0</v>
       </c>
       <c r="E796" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="797" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18756,7 +18765,7 @@
         <v>0</v>
       </c>
       <c r="E797" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="798" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18773,7 +18782,7 @@
         <v>0</v>
       </c>
       <c r="E798" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
   </sheetData>

--- a/FactorLib/resource/wind_tableinfo.xlsx
+++ b/FactorLib/resource/wind_tableinfo.xlsx
@@ -5206,8 +5206,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E798"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="C352" sqref="C352"/>
+    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="B330" sqref="B330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/FactorLib/resource/wind_tableinfo.xlsx
+++ b/FactorLib/resource/wind_tableinfo.xlsx
@@ -5206,8 +5206,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E798"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="B330" sqref="B330"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F281" sqref="F281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7831,10 +7832,10 @@
         <v>209</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9993,7 +9994,7 @@
         <v>1</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>1532</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">

--- a/FactorLib/resource/wind_tableinfo.xlsx
+++ b/FactorLib/resource/wind_tableinfo.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3238" uniqueCount="1536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3293" uniqueCount="1565">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4806,6 +4806,122 @@
   </si>
   <si>
     <t>ann_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股业绩快报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AShareProfitExpress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股业绩快报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_windcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ann_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report_period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oper_rev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oper_profit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tot_profit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tot_assets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tot_shrhldr_eqy_excl_min_int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每股收益(摊跛)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eps_diluted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净资产收益率(摊簿)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roe_diluted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否审计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_isaudit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去年同期修正后净利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yoynet_profit_excl_min_int_inc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inst_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5204,11 +5320,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E798"/>
+  <dimension ref="A1:E811"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F281" sqref="F281"/>
+      <pane ySplit="1" topLeftCell="A785" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C792" sqref="C792"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18137,7 +18253,7 @@
         <v>1</v>
       </c>
       <c r="E760" s="1" t="s">
-        <v>1532</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="761" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18171,7 +18287,7 @@
         <v>1</v>
       </c>
       <c r="E762" s="1" t="s">
-        <v>1532</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="763" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18783,6 +18899,227 @@
         <v>0</v>
       </c>
       <c r="E798" s="1" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A799" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B799" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C799" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D799">
+        <v>1</v>
+      </c>
+      <c r="E799" s="1" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A800" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B800" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C800" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D800">
+        <v>1</v>
+      </c>
+      <c r="E800" s="1" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A801" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B801" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C801" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D801">
+        <v>1</v>
+      </c>
+      <c r="E801" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A802" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B802" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C802" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D802">
+        <v>0</v>
+      </c>
+      <c r="E802" s="1" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A803" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B803" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C803" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D803">
+        <v>0</v>
+      </c>
+      <c r="E803" s="1" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A804" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B804" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C804" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D804">
+        <v>0</v>
+      </c>
+      <c r="E804" s="1" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A805" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B805" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C805" t="s">
+        <v>494</v>
+      </c>
+      <c r="D805">
+        <v>0</v>
+      </c>
+      <c r="E805" s="1" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A806" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B806" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C806" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D806">
+        <v>0</v>
+      </c>
+      <c r="E806" s="1" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A807" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B807" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C807" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D807">
+        <v>0</v>
+      </c>
+      <c r="E807" s="1" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A808" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B808" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C808" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D808">
+        <v>0</v>
+      </c>
+      <c r="E808" s="1" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A809" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B809" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C809" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D809">
+        <v>0</v>
+      </c>
+      <c r="E809" s="1" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A810" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B810" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C810" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D810">
+        <v>0</v>
+      </c>
+      <c r="E810" s="1" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A811" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B811" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C811" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D811">
+        <v>0</v>
+      </c>
+      <c r="E811" s="1" t="s">
         <v>1532</v>
       </c>
     </row>
@@ -18797,10 +19134,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18975,6 +19312,17 @@
         <v>1367</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1538</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FactorLib/resource/wind_tableinfo.xlsx
+++ b/FactorLib/resource/wind_tableinfo.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9732"/>
   </bookViews>
   <sheets>
     <sheet name="FactorInfo" sheetId="2" r:id="rId1"/>
     <sheet name="TableInfo" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FactorInfo!$A$1:$C$797</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FactorInfo!$A$1:$C$813</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3300" uniqueCount="1569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3300" uniqueCount="1570">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4939,6 +4939,10 @@
   </si>
   <si>
     <t>s_fa_eps_basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5336,24 +5340,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:E813"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B347" sqref="B347"/>
+      <pane ySplit="1" topLeftCell="A688" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E715" sqref="E715"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.25" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5370,7 +5374,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1102</v>
       </c>
@@ -5387,7 +5391,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1102</v>
       </c>
@@ -5404,7 +5408,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1102</v>
       </c>
@@ -5421,7 +5425,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1102</v>
       </c>
@@ -5438,7 +5442,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1102</v>
       </c>
@@ -5455,7 +5459,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1102</v>
       </c>
@@ -5472,7 +5476,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1102</v>
       </c>
@@ -5489,7 +5493,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1102</v>
       </c>
@@ -5506,7 +5510,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1102</v>
       </c>
@@ -5523,7 +5527,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1102</v>
       </c>
@@ -5540,7 +5544,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1102</v>
       </c>
@@ -5557,7 +5561,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1102</v>
       </c>
@@ -5574,7 +5578,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1102</v>
       </c>
@@ -5591,7 +5595,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1102</v>
       </c>
@@ -5608,7 +5612,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1102</v>
       </c>
@@ -5625,7 +5629,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1102</v>
       </c>
@@ -5642,7 +5646,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1102</v>
       </c>
@@ -5659,7 +5663,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1102</v>
       </c>
@@ -5676,7 +5680,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1102</v>
       </c>
@@ -5693,7 +5697,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1102</v>
       </c>
@@ -5710,7 +5714,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1524</v>
       </c>
@@ -5727,7 +5731,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1104</v>
       </c>
@@ -5744,7 +5748,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1104</v>
       </c>
@@ -5761,7 +5765,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1104</v>
       </c>
@@ -5778,7 +5782,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1104</v>
       </c>
@@ -5795,7 +5799,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1104</v>
       </c>
@@ -5812,7 +5816,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1104</v>
       </c>
@@ -5829,7 +5833,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1104</v>
       </c>
@@ -5846,7 +5850,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1104</v>
       </c>
@@ -5863,7 +5867,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1104</v>
       </c>
@@ -5880,7 +5884,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1104</v>
       </c>
@@ -5897,7 +5901,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1104</v>
       </c>
@@ -5914,7 +5918,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1104</v>
       </c>
@@ -5931,7 +5935,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>1106</v>
       </c>
@@ -5948,7 +5952,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1106</v>
       </c>
@@ -5965,7 +5969,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>1106</v>
       </c>
@@ -5982,7 +5986,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>1106</v>
       </c>
@@ -5999,7 +6003,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>1106</v>
       </c>
@@ -6016,7 +6020,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>1106</v>
       </c>
@@ -6033,7 +6037,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>1106</v>
       </c>
@@ -6050,7 +6054,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>1106</v>
       </c>
@@ -6067,7 +6071,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>1106</v>
       </c>
@@ -6084,7 +6088,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>1106</v>
       </c>
@@ -6101,7 +6105,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>1106</v>
       </c>
@@ -6118,7 +6122,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>1106</v>
       </c>
@@ -6135,7 +6139,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>1106</v>
       </c>
@@ -6152,7 +6156,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>1106</v>
       </c>
@@ -6169,7 +6173,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>1106</v>
       </c>
@@ -6186,7 +6190,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>1106</v>
       </c>
@@ -6203,7 +6207,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1107</v>
       </c>
@@ -6220,7 +6224,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1107</v>
       </c>
@@ -6237,7 +6241,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1107</v>
       </c>
@@ -6254,7 +6258,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1107</v>
       </c>
@@ -6271,7 +6275,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1107</v>
       </c>
@@ -6288,7 +6292,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1107</v>
       </c>
@@ -6305,7 +6309,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1107</v>
       </c>
@@ -6322,7 +6326,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1107</v>
       </c>
@@ -6339,7 +6343,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1107</v>
       </c>
@@ -6356,7 +6360,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1107</v>
       </c>
@@ -6373,7 +6377,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1107</v>
       </c>
@@ -6390,7 +6394,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1107</v>
       </c>
@@ -6407,7 +6411,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1107</v>
       </c>
@@ -6424,7 +6428,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1107</v>
       </c>
@@ -6441,7 +6445,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1107</v>
       </c>
@@ -6458,7 +6462,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1107</v>
       </c>
@@ -6475,7 +6479,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1107</v>
       </c>
@@ -6492,7 +6496,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1107</v>
       </c>
@@ -6509,7 +6513,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1107</v>
       </c>
@@ -6526,7 +6530,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1107</v>
       </c>
@@ -6543,7 +6547,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1107</v>
       </c>
@@ -6560,7 +6564,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1107</v>
       </c>
@@ -6577,7 +6581,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1107</v>
       </c>
@@ -6594,7 +6598,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1107</v>
       </c>
@@ -6611,7 +6615,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1107</v>
       </c>
@@ -6628,7 +6632,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1108</v>
       </c>
@@ -6645,7 +6649,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1108</v>
       </c>
@@ -6662,7 +6666,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1108</v>
       </c>
@@ -6679,7 +6683,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1108</v>
       </c>
@@ -6696,7 +6700,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1108</v>
       </c>
@@ -6713,7 +6717,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1108</v>
       </c>
@@ -6730,7 +6734,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1108</v>
       </c>
@@ -6747,7 +6751,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1108</v>
       </c>
@@ -6764,7 +6768,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1108</v>
       </c>
@@ -6781,7 +6785,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1108</v>
       </c>
@@ -6798,7 +6802,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1108</v>
       </c>
@@ -6815,7 +6819,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1109</v>
       </c>
@@ -6832,7 +6836,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1109</v>
       </c>
@@ -6849,7 +6853,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1109</v>
       </c>
@@ -6866,7 +6870,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1109</v>
       </c>
@@ -6883,7 +6887,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1109</v>
       </c>
@@ -6900,7 +6904,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1109</v>
       </c>
@@ -6917,7 +6921,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1109</v>
       </c>
@@ -6934,7 +6938,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1109</v>
       </c>
@@ -6951,7 +6955,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1109</v>
       </c>
@@ -6968,7 +6972,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1109</v>
       </c>
@@ -6985,7 +6989,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1109</v>
       </c>
@@ -7002,7 +7006,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1109</v>
       </c>
@@ -7019,7 +7023,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1109</v>
       </c>
@@ -7036,7 +7040,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1109</v>
       </c>
@@ -7053,7 +7057,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1109</v>
       </c>
@@ -7070,7 +7074,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1109</v>
       </c>
@@ -7087,7 +7091,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1109</v>
       </c>
@@ -7104,7 +7108,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1109</v>
       </c>
@@ -7121,7 +7125,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1109</v>
       </c>
@@ -7138,7 +7142,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1109</v>
       </c>
@@ -7155,7 +7159,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1109</v>
       </c>
@@ -7172,7 +7176,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1109</v>
       </c>
@@ -7189,7 +7193,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1109</v>
       </c>
@@ -7206,7 +7210,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1109</v>
       </c>
@@ -7223,7 +7227,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1109</v>
       </c>
@@ -7240,7 +7244,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1109</v>
       </c>
@@ -7257,7 +7261,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1109</v>
       </c>
@@ -7274,7 +7278,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1109</v>
       </c>
@@ -7291,7 +7295,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1109</v>
       </c>
@@ -7308,7 +7312,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1109</v>
       </c>
@@ -7325,7 +7329,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1109</v>
       </c>
@@ -7342,7 +7346,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1109</v>
       </c>
@@ -7359,7 +7363,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1109</v>
       </c>
@@ -7376,7 +7380,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1109</v>
       </c>
@@ -7393,7 +7397,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1109</v>
       </c>
@@ -7410,7 +7414,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1109</v>
       </c>
@@ -7427,7 +7431,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1109</v>
       </c>
@@ -7444,7 +7448,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1109</v>
       </c>
@@ -7461,7 +7465,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1109</v>
       </c>
@@ -7478,7 +7482,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1109</v>
       </c>
@@ -7495,7 +7499,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1109</v>
       </c>
@@ -7512,7 +7516,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1109</v>
       </c>
@@ -7529,7 +7533,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1109</v>
       </c>
@@ -7546,7 +7550,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1109</v>
       </c>
@@ -7563,7 +7567,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1109</v>
       </c>
@@ -7580,7 +7584,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1109</v>
       </c>
@@ -7597,7 +7601,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1109</v>
       </c>
@@ -7614,7 +7618,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1109</v>
       </c>
@@ -7631,7 +7635,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1109</v>
       </c>
@@ -7648,7 +7652,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1109</v>
       </c>
@@ -7665,7 +7669,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1109</v>
       </c>
@@ -7682,7 +7686,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1109</v>
       </c>
@@ -7699,7 +7703,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1109</v>
       </c>
@@ -7716,7 +7720,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>1109</v>
       </c>
@@ -7733,7 +7737,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1109</v>
       </c>
@@ -7750,7 +7754,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1109</v>
       </c>
@@ -7767,7 +7771,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1109</v>
       </c>
@@ -7784,7 +7788,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1109</v>
       </c>
@@ -7801,7 +7805,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1109</v>
       </c>
@@ -7818,7 +7822,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1109</v>
       </c>
@@ -7835,7 +7839,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1109</v>
       </c>
@@ -7852,7 +7856,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>1109</v>
       </c>
@@ -7869,7 +7873,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1109</v>
       </c>
@@ -7886,7 +7890,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1109</v>
       </c>
@@ -7903,7 +7907,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1110</v>
       </c>
@@ -7920,7 +7924,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1110</v>
       </c>
@@ -7937,7 +7941,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1110</v>
       </c>
@@ -7954,7 +7958,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1110</v>
       </c>
@@ -7971,7 +7975,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1110</v>
       </c>
@@ -7988,7 +7992,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1110</v>
       </c>
@@ -8005,7 +8009,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1110</v>
       </c>
@@ -8022,7 +8026,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1110</v>
       </c>
@@ -8039,7 +8043,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1110</v>
       </c>
@@ -8056,7 +8060,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1110</v>
       </c>
@@ -8073,7 +8077,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1110</v>
       </c>
@@ -8090,7 +8094,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1110</v>
       </c>
@@ -8107,7 +8111,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1110</v>
       </c>
@@ -8124,7 +8128,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1110</v>
       </c>
@@ -8141,7 +8145,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1110</v>
       </c>
@@ -8158,7 +8162,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1110</v>
       </c>
@@ -8175,7 +8179,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1110</v>
       </c>
@@ -8192,7 +8196,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1110</v>
       </c>
@@ -8209,7 +8213,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1110</v>
       </c>
@@ -8226,7 +8230,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1110</v>
       </c>
@@ -8243,7 +8247,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1110</v>
       </c>
@@ -8260,7 +8264,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1110</v>
       </c>
@@ -8277,7 +8281,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1110</v>
       </c>
@@ -8294,7 +8298,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1110</v>
       </c>
@@ -8311,7 +8315,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1110</v>
       </c>
@@ -8328,7 +8332,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1110</v>
       </c>
@@ -8345,7 +8349,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1110</v>
       </c>
@@ -8362,7 +8366,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1110</v>
       </c>
@@ -8379,7 +8383,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1110</v>
       </c>
@@ -8396,7 +8400,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1110</v>
       </c>
@@ -8413,7 +8417,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1110</v>
       </c>
@@ -8430,7 +8434,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1110</v>
       </c>
@@ -8447,7 +8451,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1110</v>
       </c>
@@ -8464,7 +8468,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1110</v>
       </c>
@@ -8481,7 +8485,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1110</v>
       </c>
@@ -8498,7 +8502,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1110</v>
       </c>
@@ -8515,7 +8519,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1110</v>
       </c>
@@ -8532,7 +8536,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1110</v>
       </c>
@@ -8549,7 +8553,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1110</v>
       </c>
@@ -8566,7 +8570,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1110</v>
       </c>
@@ -8583,7 +8587,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1110</v>
       </c>
@@ -8600,7 +8604,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1110</v>
       </c>
@@ -8617,7 +8621,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1110</v>
       </c>
@@ -8634,7 +8638,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1110</v>
       </c>
@@ -8651,7 +8655,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1110</v>
       </c>
@@ -8668,7 +8672,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1110</v>
       </c>
@@ -8685,7 +8689,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1110</v>
       </c>
@@ -8702,7 +8706,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1110</v>
       </c>
@@ -8719,7 +8723,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1110</v>
       </c>
@@ -8736,7 +8740,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1110</v>
       </c>
@@ -8753,7 +8757,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1110</v>
       </c>
@@ -8770,7 +8774,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1110</v>
       </c>
@@ -8787,7 +8791,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1110</v>
       </c>
@@ -8804,7 +8808,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1110</v>
       </c>
@@ -8821,7 +8825,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>1110</v>
       </c>
@@ -8838,7 +8842,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1110</v>
       </c>
@@ -8855,7 +8859,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1110</v>
       </c>
@@ -8872,7 +8876,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1110</v>
       </c>
@@ -8889,7 +8893,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1110</v>
       </c>
@@ -8906,7 +8910,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1110</v>
       </c>
@@ -8923,7 +8927,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1110</v>
       </c>
@@ -8940,7 +8944,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1110</v>
       </c>
@@ -8957,7 +8961,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1110</v>
       </c>
@@ -8974,7 +8978,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1110</v>
       </c>
@@ -8991,7 +8995,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1110</v>
       </c>
@@ -9008,7 +9012,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>1110</v>
       </c>
@@ -9025,7 +9029,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1110</v>
       </c>
@@ -9042,7 +9046,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1110</v>
       </c>
@@ -9059,7 +9063,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1110</v>
       </c>
@@ -9076,7 +9080,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>1110</v>
       </c>
@@ -9093,7 +9097,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1110</v>
       </c>
@@ -9110,7 +9114,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1110</v>
       </c>
@@ -9127,7 +9131,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1110</v>
       </c>
@@ -9144,7 +9148,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1110</v>
       </c>
@@ -9161,7 +9165,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1110</v>
       </c>
@@ -9178,7 +9182,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1110</v>
       </c>
@@ -9195,7 +9199,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1110</v>
       </c>
@@ -9212,7 +9216,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1110</v>
       </c>
@@ -9229,7 +9233,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1110</v>
       </c>
@@ -9246,7 +9250,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1110</v>
       </c>
@@ -9263,7 +9267,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1110</v>
       </c>
@@ -9280,7 +9284,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1110</v>
       </c>
@@ -9297,7 +9301,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>1110</v>
       </c>
@@ -9314,7 +9318,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1110</v>
       </c>
@@ -9331,7 +9335,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1110</v>
       </c>
@@ -9348,7 +9352,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1110</v>
       </c>
@@ -9365,7 +9369,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1110</v>
       </c>
@@ -9382,7 +9386,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1110</v>
       </c>
@@ -9399,7 +9403,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1110</v>
       </c>
@@ -9416,7 +9420,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1110</v>
       </c>
@@ -9433,7 +9437,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1110</v>
       </c>
@@ -9450,7 +9454,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1110</v>
       </c>
@@ -9467,7 +9471,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1110</v>
       </c>
@@ -9484,7 +9488,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1110</v>
       </c>
@@ -9501,7 +9505,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1110</v>
       </c>
@@ -9518,7 +9522,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1110</v>
       </c>
@@ -9535,7 +9539,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1110</v>
       </c>
@@ -9552,7 +9556,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1110</v>
       </c>
@@ -9569,7 +9573,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1110</v>
       </c>
@@ -9586,7 +9590,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1110</v>
       </c>
@@ -9603,7 +9607,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1110</v>
       </c>
@@ -9620,7 +9624,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1110</v>
       </c>
@@ -9637,7 +9641,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1110</v>
       </c>
@@ -9654,7 +9658,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1110</v>
       </c>
@@ -9671,7 +9675,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1110</v>
       </c>
@@ -9688,7 +9692,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1110</v>
       </c>
@@ -9705,7 +9709,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1110</v>
       </c>
@@ -9722,7 +9726,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1110</v>
       </c>
@@ -9739,7 +9743,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1110</v>
       </c>
@@ -9756,7 +9760,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1110</v>
       </c>
@@ -9773,7 +9777,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1110</v>
       </c>
@@ -9790,7 +9794,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1110</v>
       </c>
@@ -9807,7 +9811,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1110</v>
       </c>
@@ -9824,7 +9828,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1110</v>
       </c>
@@ -9841,7 +9845,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1110</v>
       </c>
@@ -9858,7 +9862,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1110</v>
       </c>
@@ -9875,7 +9879,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1110</v>
       </c>
@@ -9892,7 +9896,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1110</v>
       </c>
@@ -9909,7 +9913,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1110</v>
       </c>
@@ -9926,7 +9930,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1110</v>
       </c>
@@ -9943,7 +9947,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1110</v>
       </c>
@@ -9960,7 +9964,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1110</v>
       </c>
@@ -9977,7 +9981,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1110</v>
       </c>
@@ -9994,7 +9998,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1110</v>
       </c>
@@ -10011,7 +10015,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1110</v>
       </c>
@@ -10028,7 +10032,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1110</v>
       </c>
@@ -10045,7 +10049,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1110</v>
       </c>
@@ -10062,7 +10066,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1110</v>
       </c>
@@ -10079,7 +10083,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1110</v>
       </c>
@@ -10096,7 +10100,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1110</v>
       </c>
@@ -10113,7 +10117,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1110</v>
       </c>
@@ -10130,7 +10134,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1110</v>
       </c>
@@ -10147,7 +10151,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1111</v>
       </c>
@@ -10164,7 +10168,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1111</v>
       </c>
@@ -10181,7 +10185,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1111</v>
       </c>
@@ -10198,7 +10202,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1111</v>
       </c>
@@ -10215,7 +10219,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1111</v>
       </c>
@@ -10232,7 +10236,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1111</v>
       </c>
@@ -10249,7 +10253,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1111</v>
       </c>
@@ -10266,7 +10270,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1111</v>
       </c>
@@ -10283,7 +10287,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1111</v>
       </c>
@@ -10300,7 +10304,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1111</v>
       </c>
@@ -10317,7 +10321,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1111</v>
       </c>
@@ -10334,7 +10338,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1111</v>
       </c>
@@ -10351,7 +10355,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1111</v>
       </c>
@@ -10368,7 +10372,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1111</v>
       </c>
@@ -10385,7 +10389,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1111</v>
       </c>
@@ -10402,7 +10406,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1111</v>
       </c>
@@ -10419,7 +10423,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1111</v>
       </c>
@@ -10436,7 +10440,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1111</v>
       </c>
@@ -10453,7 +10457,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1111</v>
       </c>
@@ -10470,7 +10474,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1111</v>
       </c>
@@ -10487,7 +10491,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1111</v>
       </c>
@@ -10504,7 +10508,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1111</v>
       </c>
@@ -10521,7 +10525,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1111</v>
       </c>
@@ -10538,7 +10542,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1111</v>
       </c>
@@ -10555,7 +10559,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1111</v>
       </c>
@@ -10572,7 +10576,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1111</v>
       </c>
@@ -10589,7 +10593,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1111</v>
       </c>
@@ -10606,7 +10610,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1111</v>
       </c>
@@ -10623,7 +10627,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1111</v>
       </c>
@@ -10640,7 +10644,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1111</v>
       </c>
@@ -10657,7 +10661,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1111</v>
       </c>
@@ -10674,7 +10678,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1111</v>
       </c>
@@ -10691,7 +10695,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1111</v>
       </c>
@@ -10708,7 +10712,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1111</v>
       </c>
@@ -10725,7 +10729,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1111</v>
       </c>
@@ -10742,7 +10746,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1111</v>
       </c>
@@ -10759,7 +10763,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1111</v>
       </c>
@@ -10776,7 +10780,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1111</v>
       </c>
@@ -10793,7 +10797,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1111</v>
       </c>
@@ -10810,7 +10814,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1111</v>
       </c>
@@ -10827,7 +10831,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1111</v>
       </c>
@@ -10844,7 +10848,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1111</v>
       </c>
@@ -10861,7 +10865,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1111</v>
       </c>
@@ -10878,7 +10882,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1111</v>
       </c>
@@ -10895,7 +10899,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1111</v>
       </c>
@@ -10912,7 +10916,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1111</v>
       </c>
@@ -10929,7 +10933,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1111</v>
       </c>
@@ -10946,7 +10950,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1111</v>
       </c>
@@ -10963,7 +10967,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1111</v>
       </c>
@@ -10980,7 +10984,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1111</v>
       </c>
@@ -10997,7 +11001,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1111</v>
       </c>
@@ -11014,7 +11018,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1111</v>
       </c>
@@ -11031,7 +11035,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1111</v>
       </c>
@@ -11048,7 +11052,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1111</v>
       </c>
@@ -11065,7 +11069,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1111</v>
       </c>
@@ -11082,7 +11086,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1111</v>
       </c>
@@ -11099,7 +11103,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1111</v>
       </c>
@@ -11116,7 +11120,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1111</v>
       </c>
@@ -11133,7 +11137,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1111</v>
       </c>
@@ -11150,7 +11154,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1111</v>
       </c>
@@ -11167,7 +11171,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1111</v>
       </c>
@@ -11184,7 +11188,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1111</v>
       </c>
@@ -11201,7 +11205,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1111</v>
       </c>
@@ -11218,7 +11222,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1111</v>
       </c>
@@ -11235,7 +11239,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1111</v>
       </c>
@@ -11252,7 +11256,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1111</v>
       </c>
@@ -11269,7 +11273,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1111</v>
       </c>
@@ -11286,7 +11290,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1111</v>
       </c>
@@ -11303,7 +11307,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1112</v>
       </c>
@@ -11320,7 +11324,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1112</v>
       </c>
@@ -11337,7 +11341,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1112</v>
       </c>
@@ -11354,7 +11358,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1112</v>
       </c>
@@ -11371,7 +11375,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1112</v>
       </c>
@@ -11388,7 +11392,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1112</v>
       </c>
@@ -11405,7 +11409,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1112</v>
       </c>
@@ -11422,7 +11426,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1112</v>
       </c>
@@ -11439,7 +11443,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1112</v>
       </c>
@@ -11456,7 +11460,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1112</v>
       </c>
@@ -11473,7 +11477,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1112</v>
       </c>
@@ -11490,7 +11494,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1112</v>
       </c>
@@ -11507,7 +11511,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1112</v>
       </c>
@@ -11524,7 +11528,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1112</v>
       </c>
@@ -11541,7 +11545,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1112</v>
       </c>
@@ -11558,7 +11562,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1112</v>
       </c>
@@ -11575,7 +11579,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1112</v>
       </c>
@@ -11592,7 +11596,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1112</v>
       </c>
@@ -11609,7 +11613,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1112</v>
       </c>
@@ -11626,7 +11630,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1112</v>
       </c>
@@ -11643,7 +11647,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1112</v>
       </c>
@@ -11660,7 +11664,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1112</v>
       </c>
@@ -11677,7 +11681,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1112</v>
       </c>
@@ -11694,7 +11698,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1112</v>
       </c>
@@ -11711,7 +11715,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1112</v>
       </c>
@@ -11728,7 +11732,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1112</v>
       </c>
@@ -11745,7 +11749,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1112</v>
       </c>
@@ -11762,7 +11766,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1112</v>
       </c>
@@ -11779,7 +11783,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1112</v>
       </c>
@@ -11796,7 +11800,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1112</v>
       </c>
@@ -11813,7 +11817,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1112</v>
       </c>
@@ -11830,7 +11834,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1112</v>
       </c>
@@ -11847,7 +11851,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1112</v>
       </c>
@@ -11864,7 +11868,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1112</v>
       </c>
@@ -11881,7 +11885,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1112</v>
       </c>
@@ -11898,7 +11902,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1112</v>
       </c>
@@ -11915,7 +11919,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1112</v>
       </c>
@@ -11932,7 +11936,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1112</v>
       </c>
@@ -11949,7 +11953,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>1112</v>
       </c>
@@ -11966,7 +11970,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1112</v>
       </c>
@@ -11983,7 +11987,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1112</v>
       </c>
@@ -12000,7 +12004,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1112</v>
       </c>
@@ -12017,7 +12021,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1112</v>
       </c>
@@ -12034,7 +12038,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1112</v>
       </c>
@@ -12051,7 +12055,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1112</v>
       </c>
@@ -12068,7 +12072,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1112</v>
       </c>
@@ -12085,7 +12089,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1112</v>
       </c>
@@ -12102,7 +12106,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1112</v>
       </c>
@@ -12119,7 +12123,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1112</v>
       </c>
@@ -12136,7 +12140,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1112</v>
       </c>
@@ -12153,7 +12157,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1112</v>
       </c>
@@ -12170,7 +12174,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1112</v>
       </c>
@@ -12187,7 +12191,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1112</v>
       </c>
@@ -12204,7 +12208,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1112</v>
       </c>
@@ -12221,7 +12225,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1112</v>
       </c>
@@ -12238,7 +12242,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1112</v>
       </c>
@@ -12255,7 +12259,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="407" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1112</v>
       </c>
@@ -12272,7 +12276,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="408" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1112</v>
       </c>
@@ -12289,7 +12293,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1112</v>
       </c>
@@ -12306,7 +12310,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="410" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1112</v>
       </c>
@@ -12323,7 +12327,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>1112</v>
       </c>
@@ -12340,7 +12344,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="412" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>1112</v>
       </c>
@@ -12357,7 +12361,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="413" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>1112</v>
       </c>
@@ -12374,7 +12378,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="414" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>1112</v>
       </c>
@@ -12391,7 +12395,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="415" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>1112</v>
       </c>
@@ -12408,7 +12412,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="416" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>1112</v>
       </c>
@@ -12425,7 +12429,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>1112</v>
       </c>
@@ -12442,7 +12446,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>1112</v>
       </c>
@@ -12459,7 +12463,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>1112</v>
       </c>
@@ -12476,7 +12480,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1112</v>
       </c>
@@ -12493,7 +12497,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="421" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1112</v>
       </c>
@@ -12510,7 +12514,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="422" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1112</v>
       </c>
@@ -12527,7 +12531,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="423" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>1112</v>
       </c>
@@ -12544,7 +12548,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="424" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>1112</v>
       </c>
@@ -12561,7 +12565,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="425" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>1112</v>
       </c>
@@ -12578,7 +12582,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="426" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>1112</v>
       </c>
@@ -12595,7 +12599,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="427" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1112</v>
       </c>
@@ -12612,7 +12616,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="428" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1112</v>
       </c>
@@ -12629,7 +12633,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="429" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>1112</v>
       </c>
@@ -12646,7 +12650,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="430" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>1112</v>
       </c>
@@ -12663,7 +12667,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="431" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>1112</v>
       </c>
@@ -12680,7 +12684,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="432" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>1112</v>
       </c>
@@ -12697,7 +12701,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="433" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>1112</v>
       </c>
@@ -12714,7 +12718,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="434" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>1112</v>
       </c>
@@ -12731,7 +12735,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="435" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>1112</v>
       </c>
@@ -12748,7 +12752,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>1112</v>
       </c>
@@ -12765,7 +12769,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="437" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>1112</v>
       </c>
@@ -12782,7 +12786,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>1112</v>
       </c>
@@ -12799,7 +12803,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="439" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>1112</v>
       </c>
@@ -12816,7 +12820,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="440" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>1112</v>
       </c>
@@ -12833,7 +12837,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="441" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>1112</v>
       </c>
@@ -12850,7 +12854,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="442" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>1112</v>
       </c>
@@ -12867,7 +12871,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="443" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>1113</v>
       </c>
@@ -12884,7 +12888,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="444" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>1113</v>
       </c>
@@ -12901,7 +12905,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="445" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>1113</v>
       </c>
@@ -12918,7 +12922,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="446" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>1113</v>
       </c>
@@ -12935,7 +12939,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="447" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>1113</v>
       </c>
@@ -12952,7 +12956,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="448" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>1113</v>
       </c>
@@ -12969,7 +12973,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="449" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>1113</v>
       </c>
@@ -12986,7 +12990,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="450" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13003,7 +13007,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="451" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13020,7 +13024,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="452" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13037,7 +13041,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="453" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13054,7 +13058,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="454" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13071,7 +13075,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="455" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13088,7 +13092,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="456" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13105,7 +13109,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="457" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13122,7 +13126,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="458" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13139,7 +13143,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="459" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13156,7 +13160,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="460" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13173,7 +13177,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="461" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13190,7 +13194,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="462" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13207,7 +13211,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="463" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13224,7 +13228,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="464" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13241,7 +13245,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="465" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13258,7 +13262,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="466" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13275,7 +13279,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="467" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13292,7 +13296,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="468" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13309,7 +13313,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="469" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13326,7 +13330,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="470" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13343,7 +13347,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="471" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13360,7 +13364,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="472" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13377,7 +13381,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="473" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13394,7 +13398,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="474" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13411,7 +13415,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="475" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13428,7 +13432,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="476" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13445,7 +13449,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="477" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13462,7 +13466,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="478" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13479,7 +13483,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="479" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13496,7 +13500,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="480" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13513,7 +13517,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="481" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13530,7 +13534,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="482" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13547,7 +13551,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="483" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13564,7 +13568,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="484" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13581,7 +13585,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="485" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13598,7 +13602,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="486" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13615,7 +13619,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="487" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13632,7 +13636,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="488" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13649,7 +13653,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="489" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13666,7 +13670,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="490" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13683,7 +13687,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="491" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13700,7 +13704,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="492" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13717,7 +13721,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="493" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13734,7 +13738,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="494" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13751,7 +13755,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="495" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13768,7 +13772,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="496" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13785,7 +13789,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="497" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13802,7 +13806,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="498" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13819,7 +13823,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="499" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13836,7 +13840,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="500" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13853,7 +13857,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="501" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13870,7 +13874,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="502" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13887,7 +13891,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="503" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13904,7 +13908,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="504" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13921,7 +13925,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="505" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13938,7 +13942,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="506" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13955,7 +13959,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="507" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13972,7 +13976,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="508" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13989,7 +13993,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="509" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14006,7 +14010,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="510" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14023,7 +14027,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="511" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14040,7 +14044,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="512" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14057,7 +14061,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="513" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14074,7 +14078,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="514" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14091,7 +14095,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="515" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14108,7 +14112,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="516" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14125,7 +14129,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="517" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14142,7 +14146,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="518" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14159,7 +14163,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="519" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14176,7 +14180,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="520" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14193,7 +14197,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="521" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14210,7 +14214,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="522" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14227,7 +14231,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="523" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14244,7 +14248,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="524" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14261,7 +14265,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="525" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14278,7 +14282,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="526" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14295,7 +14299,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="527" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14312,7 +14316,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="528" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14329,7 +14333,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="529" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14346,7 +14350,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="530" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14363,7 +14367,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="531" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14380,7 +14384,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="532" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14397,7 +14401,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="533" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14414,7 +14418,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="534" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14431,7 +14435,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="535" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14448,7 +14452,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="536" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14465,7 +14469,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="537" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14482,7 +14486,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="538" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14499,7 +14503,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="539" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14516,7 +14520,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="540" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14533,7 +14537,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="541" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14550,7 +14554,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="542" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14567,7 +14571,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="543" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14584,7 +14588,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="544" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14601,7 +14605,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="545" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14618,7 +14622,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="546" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14635,7 +14639,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="547" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14652,7 +14656,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="548" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14669,7 +14673,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="549" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14686,7 +14690,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="550" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14703,7 +14707,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="551" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14720,7 +14724,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="552" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14737,7 +14741,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="553" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14754,7 +14758,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="554" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14771,7 +14775,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="555" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14788,7 +14792,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="556" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14805,7 +14809,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="557" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14822,7 +14826,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="558" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14839,7 +14843,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="559" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14856,7 +14860,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="560" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14873,7 +14877,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="561" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14890,7 +14894,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="562" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14907,7 +14911,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="563" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14924,7 +14928,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="564" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14941,7 +14945,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="565" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14958,7 +14962,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="566" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14975,7 +14979,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="567" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14992,7 +14996,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="568" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15009,7 +15013,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="569" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15026,7 +15030,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="570" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15043,7 +15047,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="571" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15060,7 +15064,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="572" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15077,7 +15081,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="573" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15094,7 +15098,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="574" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15111,7 +15115,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="575" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15128,7 +15132,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="576" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15145,7 +15149,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="577" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15162,7 +15166,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="578" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15179,7 +15183,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="579" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15196,7 +15200,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="580" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15213,7 +15217,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="581" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15230,7 +15234,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="582" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15247,7 +15251,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="583" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15264,7 +15268,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="584" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15281,7 +15285,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="585" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15298,7 +15302,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="586" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15315,7 +15319,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="587" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15332,7 +15336,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="588" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15349,7 +15353,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="589" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15366,7 +15370,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="590" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15383,7 +15387,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="591" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15400,7 +15404,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="592" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15417,7 +15421,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="593" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15434,7 +15438,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="594" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15451,7 +15455,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="595" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15468,7 +15472,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="596" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15485,7 +15489,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="597" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15502,7 +15506,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="598" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15519,7 +15523,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="599" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15536,7 +15540,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="600" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15553,7 +15557,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="601" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15570,7 +15574,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="602" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15587,7 +15591,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="603" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15604,7 +15608,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="604" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15621,7 +15625,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="605" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15638,7 +15642,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="606" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15655,7 +15659,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="607" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15672,7 +15676,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="608" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15689,7 +15693,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="609" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>1144</v>
       </c>
@@ -15706,7 +15710,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="610" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>1144</v>
       </c>
@@ -15723,7 +15727,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="611" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>1144</v>
       </c>
@@ -15740,7 +15744,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="612" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>1144</v>
       </c>
@@ -15757,7 +15761,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="613" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>1144</v>
       </c>
@@ -15774,7 +15778,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="614" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>1144</v>
       </c>
@@ -15791,7 +15795,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="615" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>1144</v>
       </c>
@@ -15808,7 +15812,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="616" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>1144</v>
       </c>
@@ -15825,7 +15829,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="617" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>1144</v>
       </c>
@@ -15842,7 +15846,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="618" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>1144</v>
       </c>
@@ -15859,7 +15863,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="619" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>1144</v>
       </c>
@@ -15876,7 +15880,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="620" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>1144</v>
       </c>
@@ -15893,7 +15897,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="621" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>1144</v>
       </c>
@@ -15910,7 +15914,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="622" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>1144</v>
       </c>
@@ -15927,7 +15931,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="623" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>1144</v>
       </c>
@@ -15944,7 +15948,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="624" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>1144</v>
       </c>
@@ -15961,7 +15965,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="625" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>1184</v>
       </c>
@@ -15978,32 +15982,32 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="626" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>1184</v>
       </c>
-      <c r="B626" s="1" t="s">
-        <v>1187</v>
+      <c r="B626" t="s">
+        <v>966</v>
       </c>
       <c r="C626" t="s">
-        <v>1188</v>
+        <v>4</v>
       </c>
       <c r="D626">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E626" s="1" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="627" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>1184</v>
       </c>
-      <c r="B627" t="s">
-        <v>1189</v>
+      <c r="B627" s="1" t="s">
+        <v>1187</v>
       </c>
       <c r="C627" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="D627">
         <v>0</v>
@@ -16012,15 +16016,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="628" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>1184</v>
       </c>
       <c r="B628" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C628" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D628">
         <v>0</v>
@@ -16029,15 +16033,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="629" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>1184</v>
       </c>
       <c r="B629" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C629" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="D629">
         <v>0</v>
@@ -16046,15 +16050,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="630" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>1184</v>
       </c>
       <c r="B630" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C630" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="D630">
         <v>0</v>
@@ -16063,15 +16067,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="631" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>1184</v>
       </c>
       <c r="B631" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C631" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D631">
         <v>0</v>
@@ -16080,15 +16084,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="632" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>1184</v>
       </c>
       <c r="B632" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C632" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="D632">
         <v>0</v>
@@ -16097,15 +16101,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="633" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>1184</v>
       </c>
       <c r="B633" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C633" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="D633">
         <v>0</v>
@@ -16114,15 +16118,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="634" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>1184</v>
       </c>
       <c r="B634" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C634" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="D634">
         <v>0</v>
@@ -16131,15 +16135,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="635" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>1184</v>
       </c>
       <c r="B635" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C635" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="D635">
         <v>0</v>
@@ -16148,15 +16152,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="636" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>1184</v>
       </c>
       <c r="B636" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C636" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D636">
         <v>0</v>
@@ -16165,15 +16169,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="637" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>1184</v>
       </c>
       <c r="B637" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C637" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="D637">
         <v>0</v>
@@ -16182,32 +16186,32 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="638" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>1184</v>
       </c>
       <c r="B638" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C638" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="D638">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E638" s="1" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="639" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>1184</v>
       </c>
       <c r="B639" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C639" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="D639">
         <v>0</v>
@@ -16216,15 +16220,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="640" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>1184</v>
       </c>
       <c r="B640" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C640" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D640">
         <v>0</v>
@@ -16233,15 +16237,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="641" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>1184</v>
       </c>
       <c r="B641" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="C641" t="s">
-        <v>1260</v>
+        <v>1215</v>
       </c>
       <c r="D641">
         <v>0</v>
@@ -16250,15 +16254,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="642" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>1184</v>
       </c>
       <c r="B642" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C642" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D642">
         <v>0</v>
@@ -16267,15 +16271,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="643" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>1184</v>
       </c>
       <c r="B643" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C643" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D643">
         <v>0</v>
@@ -16284,15 +16288,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="644" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>1184</v>
       </c>
       <c r="B644" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C644" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D644">
         <v>0</v>
@@ -16301,15 +16305,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="645" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>1184</v>
       </c>
       <c r="B645" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C645" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D645">
         <v>0</v>
@@ -16318,15 +16322,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="646" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>1184</v>
       </c>
       <c r="B646" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C646" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D646">
         <v>0</v>
@@ -16335,15 +16339,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="647" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>1184</v>
       </c>
       <c r="B647" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C647" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D647">
         <v>0</v>
@@ -16352,15 +16356,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="648" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>1184</v>
       </c>
       <c r="B648" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C648" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D648">
         <v>0</v>
@@ -16369,15 +16373,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="649" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>1184</v>
       </c>
       <c r="B649" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C649" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D649">
         <v>0</v>
@@ -16386,15 +16390,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="650" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>1184</v>
       </c>
       <c r="B650" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C650" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D650">
         <v>0</v>
@@ -16403,15 +16407,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="651" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>1184</v>
       </c>
       <c r="B651" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C651" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D651">
         <v>0</v>
@@ -16420,15 +16424,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="652" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>1184</v>
       </c>
       <c r="B652" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C652" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D652">
         <v>0</v>
@@ -16437,15 +16441,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="653" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>1184</v>
       </c>
       <c r="B653" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C653" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D653">
         <v>0</v>
@@ -16454,15 +16458,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="654" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>1184</v>
       </c>
       <c r="B654" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C654" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D654">
         <v>0</v>
@@ -16471,15 +16475,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="655" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>1184</v>
       </c>
       <c r="B655" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C655" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D655">
         <v>0</v>
@@ -16488,15 +16492,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="656" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>1184</v>
       </c>
       <c r="B656" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C656" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D656">
         <v>0</v>
@@ -16505,15 +16509,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="657" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>1184</v>
       </c>
       <c r="B657" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C657" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D657">
         <v>0</v>
@@ -16522,15 +16526,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="658" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>1184</v>
       </c>
       <c r="B658" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C658" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D658">
         <v>0</v>
@@ -16539,15 +16543,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="659" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>1184</v>
       </c>
       <c r="B659" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C659" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D659">
         <v>0</v>
@@ -16556,15 +16560,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="660" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>1184</v>
       </c>
       <c r="B660" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C660" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D660">
         <v>0</v>
@@ -16573,15 +16577,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="661" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>1184</v>
       </c>
       <c r="B661" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C661" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D661">
         <v>0</v>
@@ -16590,15 +16594,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="662" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>1184</v>
       </c>
       <c r="B662" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C662" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D662">
         <v>0</v>
@@ -16607,15 +16611,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="663" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>1184</v>
       </c>
       <c r="B663" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C663" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D663">
         <v>0</v>
@@ -16624,15 +16628,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="664" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>1184</v>
       </c>
       <c r="B664" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C664" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D664">
         <v>0</v>
@@ -16641,15 +16645,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="665" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>1184</v>
       </c>
       <c r="B665" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C665" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D665">
         <v>0</v>
@@ -16658,15 +16662,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="666" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>1184</v>
       </c>
       <c r="B666" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C666" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D666">
         <v>0</v>
@@ -16675,15 +16679,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="667" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>1184</v>
       </c>
       <c r="B667" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C667" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D667">
         <v>0</v>
@@ -16692,15 +16696,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="668" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>1184</v>
       </c>
       <c r="B668" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C668" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D668">
         <v>0</v>
@@ -16709,15 +16713,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="669" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>1184</v>
       </c>
       <c r="B669" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C669" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D669">
         <v>0</v>
@@ -16726,15 +16730,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="670" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>1184</v>
       </c>
       <c r="B670" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C670" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D670">
         <v>0</v>
@@ -16743,15 +16747,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="671" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>1184</v>
       </c>
       <c r="B671" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C671" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D671">
         <v>0</v>
@@ -16760,15 +16764,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="672" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>1184</v>
       </c>
       <c r="B672" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C672" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D672">
         <v>0</v>
@@ -16777,15 +16781,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="673" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>1184</v>
       </c>
       <c r="B673" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C673" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D673">
         <v>0</v>
@@ -16794,15 +16798,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="674" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>1184</v>
       </c>
       <c r="B674" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C674" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D674">
         <v>0</v>
@@ -16811,15 +16815,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="675" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>1184</v>
       </c>
       <c r="B675" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C675" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="D675">
         <v>0</v>
@@ -16828,15 +16832,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="676" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>1184</v>
       </c>
       <c r="B676" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C676" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D676">
         <v>0</v>
@@ -16845,15 +16849,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="677" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>1184</v>
       </c>
       <c r="B677" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C677" t="s">
-        <v>1294</v>
+        <v>1300</v>
       </c>
       <c r="D677">
         <v>0</v>
@@ -16862,15 +16866,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="678" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>1184</v>
       </c>
       <c r="B678" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C678" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D678">
         <v>0</v>
@@ -16879,15 +16883,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="679" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>1184</v>
       </c>
       <c r="B679" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C679" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D679">
         <v>0</v>
@@ -16896,15 +16900,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="680" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>1184</v>
       </c>
       <c r="B680" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C680" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D680">
         <v>0</v>
@@ -16913,15 +16917,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="681" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>1184</v>
       </c>
       <c r="B681" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C681" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D681">
         <v>0</v>
@@ -16930,15 +16934,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="682" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>1184</v>
       </c>
       <c r="B682" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C682" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="D682">
         <v>0</v>
@@ -16947,15 +16951,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="683" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>1184</v>
       </c>
       <c r="B683" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C683" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D683">
         <v>0</v>
@@ -16964,15 +16968,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="684" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>1184</v>
       </c>
       <c r="B684" t="s">
-        <v>1303</v>
+        <v>1259</v>
       </c>
       <c r="C684" t="s">
-        <v>1333</v>
+        <v>1302</v>
       </c>
       <c r="D684">
         <v>0</v>
@@ -16981,15 +16985,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="685" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>1184</v>
       </c>
       <c r="B685" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C685" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D685">
         <v>0</v>
@@ -16998,15 +17002,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="686" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>1184</v>
       </c>
       <c r="B686" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C686" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D686">
         <v>0</v>
@@ -17015,15 +17019,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="687" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>1184</v>
       </c>
       <c r="B687" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C687" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="D687">
         <v>0</v>
@@ -17032,15 +17036,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="688" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>1184</v>
       </c>
       <c r="B688" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C688" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="D688">
         <v>0</v>
@@ -17049,15 +17053,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="689" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>1184</v>
       </c>
       <c r="B689" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C689" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="D689">
         <v>0</v>
@@ -17066,15 +17070,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="690" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>1184</v>
       </c>
       <c r="B690" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C690" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="D690">
         <v>0</v>
@@ -17083,15 +17087,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="691" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>1184</v>
       </c>
       <c r="B691" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C691" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D691">
         <v>0</v>
@@ -17100,15 +17104,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="692" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>1184</v>
       </c>
       <c r="B692" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C692" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D692">
         <v>0</v>
@@ -17117,15 +17121,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="693" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>1184</v>
       </c>
       <c r="B693" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C693" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D693">
         <v>0</v>
@@ -17134,15 +17138,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="694" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>1184</v>
       </c>
       <c r="B694" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C694" t="s">
-        <v>1339</v>
+        <v>1345</v>
       </c>
       <c r="D694">
         <v>0</v>
@@ -17151,15 +17155,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="695" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>1184</v>
       </c>
       <c r="B695" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C695" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D695">
         <v>0</v>
@@ -17168,15 +17172,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="696" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>1184</v>
       </c>
       <c r="B696" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C696" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D696">
         <v>0</v>
@@ -17185,15 +17189,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="697" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>1184</v>
       </c>
       <c r="B697" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C697" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="D697">
         <v>0</v>
@@ -17202,15 +17206,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="698" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>1184</v>
       </c>
       <c r="B698" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C698" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D698">
         <v>0</v>
@@ -17219,15 +17223,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="699" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>1184</v>
       </c>
       <c r="B699" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C699" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D699">
         <v>0</v>
@@ -17236,15 +17240,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="700" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>1184</v>
       </c>
       <c r="B700" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C700" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D700">
         <v>0</v>
@@ -17253,15 +17257,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="701" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>1184</v>
       </c>
       <c r="B701" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C701" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D701">
         <v>0</v>
@@ -17270,15 +17274,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="702" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>1184</v>
       </c>
       <c r="B702" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C702" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D702">
         <v>0</v>
@@ -17287,15 +17291,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="703" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>1184</v>
       </c>
       <c r="B703" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C703" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D703">
         <v>0</v>
@@ -17304,15 +17308,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="704" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>1184</v>
       </c>
       <c r="B704" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C704" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D704">
         <v>0</v>
@@ -17321,15 +17325,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="705" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>1184</v>
       </c>
       <c r="B705" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C705" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D705">
         <v>0</v>
@@ -17338,15 +17342,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="706" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>1184</v>
       </c>
       <c r="B706" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C706" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D706">
         <v>0</v>
@@ -17355,15 +17359,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="707" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>1184</v>
       </c>
       <c r="B707" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C707" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D707">
         <v>0</v>
@@ -17372,15 +17376,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="708" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>1184</v>
       </c>
       <c r="B708" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C708" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D708">
         <v>0</v>
@@ -17389,15 +17393,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="709" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>1184</v>
       </c>
       <c r="B709" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C709" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D709">
         <v>0</v>
@@ -17406,15 +17410,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="710" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>1184</v>
       </c>
       <c r="B710" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C710" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D710">
         <v>0</v>
@@ -17423,15 +17427,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="711" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>1184</v>
       </c>
       <c r="B711" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C711" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D711">
         <v>0</v>
@@ -17440,15 +17444,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="712" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>1184</v>
       </c>
       <c r="B712" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C712" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D712">
         <v>0</v>
@@ -17457,41 +17461,41 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="713" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>1184</v>
       </c>
       <c r="B713" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C713" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D713">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E713" s="1" t="s">
         <v>1531</v>
       </c>
     </row>
-    <row r="714" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>1184</v>
       </c>
       <c r="B714" t="s">
-        <v>966</v>
+        <v>1332</v>
       </c>
       <c r="C714" t="s">
-        <v>4</v>
+        <v>1362</v>
       </c>
       <c r="D714">
         <v>1</v>
       </c>
       <c r="E714" s="1" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="715" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>1184</v>
       </c>
@@ -17505,10 +17509,10 @@
         <v>1</v>
       </c>
       <c r="E715" s="1" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="716" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>1184</v>
       </c>
@@ -17525,7 +17529,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="717" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>1368</v>
       </c>
@@ -17542,7 +17546,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="718" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>1368</v>
       </c>
@@ -17559,7 +17563,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="719" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>1368</v>
       </c>
@@ -17576,7 +17580,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="720" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>1368</v>
       </c>
@@ -17593,7 +17597,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="721" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>1368</v>
       </c>
@@ -17610,7 +17614,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="722" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>1368</v>
       </c>
@@ -17627,7 +17631,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="723" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>1368</v>
       </c>
@@ -17644,7 +17648,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="724" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>1368</v>
       </c>
@@ -17661,7 +17665,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="725" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>1368</v>
       </c>
@@ -17678,7 +17682,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="726" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>1368</v>
       </c>
@@ -17695,7 +17699,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="727" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>1368</v>
       </c>
@@ -17712,7 +17716,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="728" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>1368</v>
       </c>
@@ -17729,7 +17733,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="729" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>1368</v>
       </c>
@@ -17746,7 +17750,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="730" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>1368</v>
       </c>
@@ -17763,7 +17767,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="731" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>1368</v>
       </c>
@@ -17780,7 +17784,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="732" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>1368</v>
       </c>
@@ -17797,7 +17801,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="733" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>1368</v>
       </c>
@@ -17814,7 +17818,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="734" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>1368</v>
       </c>
@@ -17831,7 +17835,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="735" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>1368</v>
       </c>
@@ -17848,7 +17852,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="736" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>1368</v>
       </c>
@@ -17865,7 +17869,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="737" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>1368</v>
       </c>
@@ -17882,7 +17886,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="738" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>1368</v>
       </c>
@@ -17899,7 +17903,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="739" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>1368</v>
       </c>
@@ -17916,7 +17920,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="740" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>1368</v>
       </c>
@@ -17933,7 +17937,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="741" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>1368</v>
       </c>
@@ -17950,7 +17954,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="742" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>1368</v>
       </c>
@@ -17967,7 +17971,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="743" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>1368</v>
       </c>
@@ -17984,7 +17988,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="744" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>1368</v>
       </c>
@@ -18001,7 +18005,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="745" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>1368</v>
       </c>
@@ -18018,7 +18022,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="746" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>1368</v>
       </c>
@@ -18035,7 +18039,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="747" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>1368</v>
       </c>
@@ -18052,7 +18056,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="748" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>1368</v>
       </c>
@@ -18069,7 +18073,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="749" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>1368</v>
       </c>
@@ -18086,7 +18090,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="750" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>1368</v>
       </c>
@@ -18103,7 +18107,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="751" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>1368</v>
       </c>
@@ -18120,7 +18124,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="752" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>1368</v>
       </c>
@@ -18137,7 +18141,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="753" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>1368</v>
       </c>
@@ -18154,7 +18158,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="754" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>1368</v>
       </c>
@@ -18171,7 +18175,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="755" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>1368</v>
       </c>
@@ -18188,7 +18192,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="756" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>1368</v>
       </c>
@@ -18205,7 +18209,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="757" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>1368</v>
       </c>
@@ -18222,7 +18226,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="758" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>1368</v>
       </c>
@@ -18239,7 +18243,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="759" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>1487</v>
       </c>
@@ -18256,7 +18260,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="760" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:5" ht="31.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>1487</v>
       </c>
@@ -18273,7 +18277,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="761" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>1487</v>
       </c>
@@ -18290,7 +18294,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="762" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>1487</v>
       </c>
@@ -18307,7 +18311,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="763" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>1487</v>
       </c>
@@ -18324,7 +18328,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="764" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>1487</v>
       </c>
@@ -18341,7 +18345,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="765" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>1487</v>
       </c>
@@ -18358,7 +18362,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="766" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>1487</v>
       </c>
@@ -18375,7 +18379,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="767" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>1487</v>
       </c>
@@ -18392,7 +18396,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="768" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>1487</v>
       </c>
@@ -18409,7 +18413,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="769" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>1487</v>
       </c>
@@ -18426,7 +18430,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="770" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>1487</v>
       </c>
@@ -18443,7 +18447,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="771" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>1487</v>
       </c>
@@ -18460,7 +18464,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="772" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>1487</v>
       </c>
@@ -18477,7 +18481,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="773" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>1487</v>
       </c>
@@ -18494,7 +18498,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="774" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>1487</v>
       </c>
@@ -18511,7 +18515,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="775" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>1487</v>
       </c>
@@ -18528,7 +18532,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="776" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>1487</v>
       </c>
@@ -18545,7 +18549,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="777" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>1487</v>
       </c>
@@ -18562,7 +18566,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="778" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>1487</v>
       </c>
@@ -18579,7 +18583,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="779" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>1487</v>
       </c>
@@ -18596,7 +18600,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="780" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>1487</v>
       </c>
@@ -18613,7 +18617,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="781" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>1487</v>
       </c>
@@ -18630,7 +18634,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="782" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>1487</v>
       </c>
@@ -18647,7 +18651,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="783" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>1487</v>
       </c>
@@ -18664,7 +18668,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="784" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>1487</v>
       </c>
@@ -18681,7 +18685,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="785" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>1487</v>
       </c>
@@ -18698,7 +18702,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="786" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>1487</v>
       </c>
@@ -18715,7 +18719,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="787" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>1487</v>
       </c>
@@ -18732,7 +18736,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="788" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>1487</v>
       </c>
@@ -18749,7 +18753,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="789" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>1487</v>
       </c>
@@ -18766,7 +18770,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="790" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>1487</v>
       </c>
@@ -18783,7 +18787,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="791" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>1487</v>
       </c>
@@ -18800,7 +18804,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="792" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>1487</v>
       </c>
@@ -18817,7 +18821,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="793" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>1487</v>
       </c>
@@ -18834,7 +18838,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="794" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>1487</v>
       </c>
@@ -18851,7 +18855,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="795" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>1487</v>
       </c>
@@ -18868,7 +18872,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="796" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>1487</v>
       </c>
@@ -18885,7 +18889,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="797" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>1487</v>
       </c>
@@ -18902,7 +18906,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="798" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>1487</v>
       </c>
@@ -18919,7 +18923,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="799" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>1538</v>
       </c>
@@ -18936,7 +18940,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="800" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>1538</v>
       </c>
@@ -18953,7 +18957,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="801" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>1538</v>
       </c>
@@ -18970,7 +18974,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="802" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>1538</v>
       </c>
@@ -18987,7 +18991,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="803" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>1538</v>
       </c>
@@ -19004,7 +19008,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="804" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>1538</v>
       </c>
@@ -19021,7 +19025,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="805" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>1538</v>
       </c>
@@ -19038,7 +19042,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="806" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>1538</v>
       </c>
@@ -19055,7 +19059,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="807" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>1538</v>
       </c>
@@ -19072,7 +19076,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="808" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>1538</v>
       </c>
@@ -19089,7 +19093,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="809" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>1538</v>
       </c>
@@ -19106,7 +19110,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="810" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>1538</v>
       </c>
@@ -19123,7 +19127,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="811" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>1538</v>
       </c>
@@ -19140,7 +19144,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="812" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:5" ht="31.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>1535</v>
       </c>
@@ -19157,7 +19161,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="813" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>1535</v>
       </c>
@@ -19175,7 +19179,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C797"/>
+  <autoFilter ref="A1:C813">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="中国A股利润表"/>
+        <filter val="中国A股盈利预测汇总"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19191,14 +19202,14 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19209,7 +19220,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1100</v>
       </c>
@@ -19220,7 +19231,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1103</v>
       </c>
@@ -19231,7 +19242,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1106</v>
       </c>
@@ -19242,7 +19253,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1107</v>
       </c>
@@ -19253,7 +19264,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1108</v>
       </c>
@@ -19264,7 +19275,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1109</v>
       </c>
@@ -19275,7 +19286,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1110</v>
       </c>
@@ -19286,7 +19297,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1111</v>
       </c>
@@ -19297,7 +19308,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1112</v>
       </c>
@@ -19308,7 +19319,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1113</v>
       </c>
@@ -19319,7 +19330,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1144</v>
       </c>
@@ -19330,7 +19341,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1184</v>
       </c>
@@ -19341,7 +19352,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1368</v>
       </c>
@@ -19352,7 +19363,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1487</v>
       </c>
@@ -19363,7 +19374,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1535</v>
       </c>

--- a/FactorLib/resource/wind_tableinfo.xlsx
+++ b/FactorLib/resource/wind_tableinfo.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="FactorInfo" sheetId="2" r:id="rId1"/>
     <sheet name="TableInfo" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FactorInfo!$A$1:$C$813</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FactorInfo!$A$1:$C$828</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3300" uniqueCount="1570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="1601">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4944,6 +4944,117 @@
   <si>
     <t>year_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股业绩预告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AShareProfitNotice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_windcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业绩预告类型代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否变脸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预告净利润变动幅度下限(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预告净利润变动幅度上限(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预告净利润下限(万元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预告净利润上限(万元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公布次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次公告日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业绩预告摘要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业绩变动原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上年同期归母净利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_profitnotice_date</t>
+  </si>
+  <si>
+    <t>s_profitnotice_period</t>
+  </si>
+  <si>
+    <t>s_profitnotice_style</t>
+  </si>
+  <si>
+    <t>s_profitnotice_signchange</t>
+  </si>
+  <si>
+    <t>s_profitnotice_changemin</t>
+  </si>
+  <si>
+    <t>s_profitnotice_changemax</t>
+  </si>
+  <si>
+    <t>s_profitnotice_netprofitmin</t>
+  </si>
+  <si>
+    <t>s_profitnotice_netprofitmax</t>
+  </si>
+  <si>
+    <t>s_profitnotice_number</t>
+  </si>
+  <si>
+    <t>s_profitnotice_firstanndate</t>
+  </si>
+  <si>
+    <t>s_profitnotice_abstract</t>
+  </si>
+  <si>
+    <t>s_profitnotice_reason</t>
+  </si>
+  <si>
+    <t>s_profitnotice_net_parent_firm</t>
   </si>
 </sst>
 </file>
@@ -5340,24 +5451,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
-  <dimension ref="A1:E813"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E828"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A688" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E715" sqref="E715"/>
+      <pane ySplit="1" topLeftCell="A775" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B786" sqref="B786"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.25" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5374,7 +5486,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1102</v>
       </c>
@@ -5391,7 +5503,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1102</v>
       </c>
@@ -5408,7 +5520,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1102</v>
       </c>
@@ -5425,7 +5537,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>1102</v>
       </c>
@@ -5442,7 +5554,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>1102</v>
       </c>
@@ -5459,7 +5571,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>1102</v>
       </c>
@@ -5476,7 +5588,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>1102</v>
       </c>
@@ -5493,7 +5605,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>1102</v>
       </c>
@@ -5510,7 +5622,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>1102</v>
       </c>
@@ -5527,7 +5639,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>1102</v>
       </c>
@@ -5544,7 +5656,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>1102</v>
       </c>
@@ -5561,7 +5673,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>1102</v>
       </c>
@@ -5578,7 +5690,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>1102</v>
       </c>
@@ -5595,7 +5707,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>1102</v>
       </c>
@@ -5612,7 +5724,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>1102</v>
       </c>
@@ -5629,7 +5741,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>1102</v>
       </c>
@@ -5646,7 +5758,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>1102</v>
       </c>
@@ -5663,7 +5775,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>1102</v>
       </c>
@@ -5680,7 +5792,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>1102</v>
       </c>
@@ -5697,7 +5809,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>1102</v>
       </c>
@@ -5714,7 +5826,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>1524</v>
       </c>
@@ -5731,7 +5843,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>1104</v>
       </c>
@@ -5748,7 +5860,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>1104</v>
       </c>
@@ -5765,7 +5877,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>1104</v>
       </c>
@@ -5782,7 +5894,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>1104</v>
       </c>
@@ -5799,7 +5911,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>1104</v>
       </c>
@@ -5816,7 +5928,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>1104</v>
       </c>
@@ -5833,7 +5945,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>1104</v>
       </c>
@@ -5850,7 +5962,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>1104</v>
       </c>
@@ -5867,7 +5979,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>1104</v>
       </c>
@@ -5884,7 +5996,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>1104</v>
       </c>
@@ -5901,7 +6013,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>1104</v>
       </c>
@@ -5918,7 +6030,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>1104</v>
       </c>
@@ -5935,7 +6047,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>1106</v>
       </c>
@@ -5952,7 +6064,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>1106</v>
       </c>
@@ -5969,7 +6081,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>1106</v>
       </c>
@@ -5986,7 +6098,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>1106</v>
       </c>
@@ -6003,7 +6115,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>1106</v>
       </c>
@@ -6020,7 +6132,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>1106</v>
       </c>
@@ -6037,7 +6149,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>1106</v>
       </c>
@@ -6054,7 +6166,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>1106</v>
       </c>
@@ -6071,7 +6183,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>1106</v>
       </c>
@@ -6088,7 +6200,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>1106</v>
       </c>
@@ -6105,7 +6217,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>1106</v>
       </c>
@@ -6122,7 +6234,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>1106</v>
       </c>
@@ -6139,7 +6251,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>1106</v>
       </c>
@@ -6156,7 +6268,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>1106</v>
       </c>
@@ -6173,7 +6285,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>1106</v>
       </c>
@@ -6190,7 +6302,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>1106</v>
       </c>
@@ -6207,7 +6319,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>1107</v>
       </c>
@@ -6224,7 +6336,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>1107</v>
       </c>
@@ -6241,7 +6353,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>1107</v>
       </c>
@@ -6258,7 +6370,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>1107</v>
       </c>
@@ -6275,7 +6387,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>1107</v>
       </c>
@@ -6292,7 +6404,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>1107</v>
       </c>
@@ -6309,7 +6421,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>1107</v>
       </c>
@@ -6326,7 +6438,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>1107</v>
       </c>
@@ -6343,7 +6455,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>1107</v>
       </c>
@@ -6360,7 +6472,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>1107</v>
       </c>
@@ -6377,7 +6489,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>1107</v>
       </c>
@@ -6394,7 +6506,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>1107</v>
       </c>
@@ -6411,7 +6523,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>1107</v>
       </c>
@@ -6428,7 +6540,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>1107</v>
       </c>
@@ -6445,7 +6557,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>1107</v>
       </c>
@@ -6462,7 +6574,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>1107</v>
       </c>
@@ -6479,7 +6591,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>1107</v>
       </c>
@@ -6496,7 +6608,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>1107</v>
       </c>
@@ -6513,7 +6625,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>1107</v>
       </c>
@@ -6530,7 +6642,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>1107</v>
       </c>
@@ -6547,7 +6659,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>1107</v>
       </c>
@@ -6564,7 +6676,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>1107</v>
       </c>
@@ -6581,7 +6693,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>1107</v>
       </c>
@@ -6598,7 +6710,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>1107</v>
       </c>
@@ -6615,7 +6727,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>1107</v>
       </c>
@@ -6632,7 +6744,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>1108</v>
       </c>
@@ -6649,7 +6761,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>1108</v>
       </c>
@@ -6666,7 +6778,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>1108</v>
       </c>
@@ -6683,7 +6795,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>1108</v>
       </c>
@@ -6700,7 +6812,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>1108</v>
       </c>
@@ -6717,7 +6829,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>1108</v>
       </c>
@@ -6734,7 +6846,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>1108</v>
       </c>
@@ -6751,7 +6863,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>1108</v>
       </c>
@@ -6768,7 +6880,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>1108</v>
       </c>
@@ -6785,7 +6897,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>1108</v>
       </c>
@@ -6802,7 +6914,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>1108</v>
       </c>
@@ -6819,7 +6931,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>1109</v>
       </c>
@@ -6836,7 +6948,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>1109</v>
       </c>
@@ -6853,7 +6965,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>1109</v>
       </c>
@@ -6870,7 +6982,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>1109</v>
       </c>
@@ -6887,7 +6999,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>1109</v>
       </c>
@@ -6904,7 +7016,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>1109</v>
       </c>
@@ -6921,7 +7033,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>1109</v>
       </c>
@@ -6938,7 +7050,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>1109</v>
       </c>
@@ -6955,7 +7067,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>1109</v>
       </c>
@@ -6972,7 +7084,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>1109</v>
       </c>
@@ -6989,7 +7101,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>1109</v>
       </c>
@@ -7006,7 +7118,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>1109</v>
       </c>
@@ -7023,7 +7135,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>1109</v>
       </c>
@@ -7040,7 +7152,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>1109</v>
       </c>
@@ -7057,7 +7169,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>1109</v>
       </c>
@@ -7074,7 +7186,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>1109</v>
       </c>
@@ -7091,7 +7203,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>1109</v>
       </c>
@@ -7108,7 +7220,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>1109</v>
       </c>
@@ -7125,7 +7237,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>1109</v>
       </c>
@@ -7142,7 +7254,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>1109</v>
       </c>
@@ -7159,7 +7271,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>1109</v>
       </c>
@@ -7176,7 +7288,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>1109</v>
       </c>
@@ -7193,7 +7305,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>1109</v>
       </c>
@@ -7210,7 +7322,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>1109</v>
       </c>
@@ -7227,7 +7339,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>1109</v>
       </c>
@@ -7244,7 +7356,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>1109</v>
       </c>
@@ -7261,7 +7373,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>1109</v>
       </c>
@@ -7278,7 +7390,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>1109</v>
       </c>
@@ -7295,7 +7407,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>1109</v>
       </c>
@@ -7312,7 +7424,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>1109</v>
       </c>
@@ -7329,7 +7441,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>1109</v>
       </c>
@@ -7346,7 +7458,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>1109</v>
       </c>
@@ -7363,7 +7475,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>1109</v>
       </c>
@@ -7380,7 +7492,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>1109</v>
       </c>
@@ -7397,7 +7509,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>1109</v>
       </c>
@@ -7414,7 +7526,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>1109</v>
       </c>
@@ -7431,7 +7543,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>1109</v>
       </c>
@@ -7448,7 +7560,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>1109</v>
       </c>
@@ -7465,7 +7577,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>1109</v>
       </c>
@@ -7482,7 +7594,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>1109</v>
       </c>
@@ -7499,7 +7611,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>1109</v>
       </c>
@@ -7516,7 +7628,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>1109</v>
       </c>
@@ -7533,7 +7645,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>1109</v>
       </c>
@@ -7550,7 +7662,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>1109</v>
       </c>
@@ -7567,7 +7679,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>1109</v>
       </c>
@@ -7584,7 +7696,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>1109</v>
       </c>
@@ -7601,7 +7713,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>1109</v>
       </c>
@@ -7618,7 +7730,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>1109</v>
       </c>
@@ -7635,7 +7747,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>1109</v>
       </c>
@@ -7652,7 +7764,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>1109</v>
       </c>
@@ -7669,7 +7781,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>1109</v>
       </c>
@@ -7686,7 +7798,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>1109</v>
       </c>
@@ -7703,7 +7815,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>1109</v>
       </c>
@@ -7720,7 +7832,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>1109</v>
       </c>
@@ -7737,7 +7849,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>1109</v>
       </c>
@@ -7754,7 +7866,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>1109</v>
       </c>
@@ -7771,7 +7883,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>1109</v>
       </c>
@@ -7788,7 +7900,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>1109</v>
       </c>
@@ -7805,7 +7917,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>1109</v>
       </c>
@@ -7822,7 +7934,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>1109</v>
       </c>
@@ -7839,7 +7951,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>1109</v>
       </c>
@@ -7856,7 +7968,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>1109</v>
       </c>
@@ -7873,7 +7985,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>1109</v>
       </c>
@@ -7890,7 +8002,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>1109</v>
       </c>
@@ -7907,7 +8019,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>1110</v>
       </c>
@@ -7924,7 +8036,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>1110</v>
       </c>
@@ -7941,7 +8053,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>1110</v>
       </c>
@@ -7958,7 +8070,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>1110</v>
       </c>
@@ -7975,7 +8087,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>1110</v>
       </c>
@@ -7992,7 +8104,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>1110</v>
       </c>
@@ -8009,7 +8121,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>1110</v>
       </c>
@@ -8026,7 +8138,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>1110</v>
       </c>
@@ -8043,7 +8155,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>1110</v>
       </c>
@@ -8060,7 +8172,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>1110</v>
       </c>
@@ -8077,7 +8189,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>1110</v>
       </c>
@@ -8094,7 +8206,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>1110</v>
       </c>
@@ -8111,7 +8223,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>1110</v>
       </c>
@@ -8128,7 +8240,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>1110</v>
       </c>
@@ -8145,7 +8257,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>1110</v>
       </c>
@@ -8162,7 +8274,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>1110</v>
       </c>
@@ -8179,7 +8291,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>1110</v>
       </c>
@@ -8196,7 +8308,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>1110</v>
       </c>
@@ -8213,7 +8325,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>1110</v>
       </c>
@@ -8230,7 +8342,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>1110</v>
       </c>
@@ -8247,7 +8359,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>1110</v>
       </c>
@@ -8264,7 +8376,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>1110</v>
       </c>
@@ -8281,7 +8393,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>1110</v>
       </c>
@@ -8298,7 +8410,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>1110</v>
       </c>
@@ -8315,7 +8427,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>1110</v>
       </c>
@@ -8332,7 +8444,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>1110</v>
       </c>
@@ -8349,7 +8461,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>1110</v>
       </c>
@@ -8366,7 +8478,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>1110</v>
       </c>
@@ -8383,7 +8495,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>1110</v>
       </c>
@@ -8400,7 +8512,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>1110</v>
       </c>
@@ -8417,7 +8529,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>1110</v>
       </c>
@@ -8434,7 +8546,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>1110</v>
       </c>
@@ -8451,7 +8563,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>1110</v>
       </c>
@@ -8468,7 +8580,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>1110</v>
       </c>
@@ -8485,7 +8597,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>1110</v>
       </c>
@@ -8502,7 +8614,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>1110</v>
       </c>
@@ -8519,7 +8631,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>1110</v>
       </c>
@@ -8536,7 +8648,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>1110</v>
       </c>
@@ -8553,7 +8665,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>1110</v>
       </c>
@@ -8570,7 +8682,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>1110</v>
       </c>
@@ -8587,7 +8699,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>1110</v>
       </c>
@@ -8604,7 +8716,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>1110</v>
       </c>
@@ -8621,7 +8733,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>1110</v>
       </c>
@@ -8638,7 +8750,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>1110</v>
       </c>
@@ -8655,7 +8767,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>1110</v>
       </c>
@@ -8672,7 +8784,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>1110</v>
       </c>
@@ -8689,7 +8801,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>1110</v>
       </c>
@@ -8706,7 +8818,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>1110</v>
       </c>
@@ -8723,7 +8835,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>1110</v>
       </c>
@@ -8740,7 +8852,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>1110</v>
       </c>
@@ -8757,7 +8869,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>1110</v>
       </c>
@@ -8774,7 +8886,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>1110</v>
       </c>
@@ -8791,7 +8903,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>1110</v>
       </c>
@@ -8808,7 +8920,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>1110</v>
       </c>
@@ -8825,7 +8937,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>1110</v>
       </c>
@@ -8842,7 +8954,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>1110</v>
       </c>
@@ -8859,7 +8971,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>1110</v>
       </c>
@@ -8876,7 +8988,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>1110</v>
       </c>
@@ -8893,7 +9005,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>1110</v>
       </c>
@@ -8910,7 +9022,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>1110</v>
       </c>
@@ -8927,7 +9039,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>1110</v>
       </c>
@@ -8944,7 +9056,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>1110</v>
       </c>
@@ -8961,7 +9073,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>1110</v>
       </c>
@@ -8978,7 +9090,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>1110</v>
       </c>
@@ -8995,7 +9107,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>1110</v>
       </c>
@@ -9012,7 +9124,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>1110</v>
       </c>
@@ -9029,7 +9141,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>1110</v>
       </c>
@@ -9046,7 +9158,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>1110</v>
       </c>
@@ -9063,7 +9175,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>1110</v>
       </c>
@@ -9080,7 +9192,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>1110</v>
       </c>
@@ -9097,7 +9209,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>1110</v>
       </c>
@@ -9114,7 +9226,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>1110</v>
       </c>
@@ -9131,7 +9243,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>1110</v>
       </c>
@@ -9148,7 +9260,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>1110</v>
       </c>
@@ -9165,7 +9277,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>1110</v>
       </c>
@@ -9182,7 +9294,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>1110</v>
       </c>
@@ -9199,7 +9311,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>1110</v>
       </c>
@@ -9216,7 +9328,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>1110</v>
       </c>
@@ -9233,7 +9345,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>1110</v>
       </c>
@@ -9250,7 +9362,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>1110</v>
       </c>
@@ -9267,7 +9379,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>1110</v>
       </c>
@@ -9284,7 +9396,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>1110</v>
       </c>
@@ -9301,7 +9413,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>1110</v>
       </c>
@@ -9318,7 +9430,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>1110</v>
       </c>
@@ -9335,7 +9447,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>1110</v>
       </c>
@@ -9352,7 +9464,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>1110</v>
       </c>
@@ -9369,7 +9481,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>1110</v>
       </c>
@@ -9386,7 +9498,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>1110</v>
       </c>
@@ -9403,7 +9515,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>1110</v>
       </c>
@@ -9420,7 +9532,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>1110</v>
       </c>
@@ -9437,7 +9549,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>1110</v>
       </c>
@@ -9454,7 +9566,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>1110</v>
       </c>
@@ -9471,7 +9583,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>1110</v>
       </c>
@@ -9488,7 +9600,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>1110</v>
       </c>
@@ -9505,7 +9617,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>1110</v>
       </c>
@@ -9522,7 +9634,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>1110</v>
       </c>
@@ -9539,7 +9651,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>1110</v>
       </c>
@@ -9556,7 +9668,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>1110</v>
       </c>
@@ -9573,7 +9685,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>1110</v>
       </c>
@@ -9590,7 +9702,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>1110</v>
       </c>
@@ -9607,7 +9719,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>1110</v>
       </c>
@@ -9624,7 +9736,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>1110</v>
       </c>
@@ -9641,7 +9753,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>1110</v>
       </c>
@@ -9658,7 +9770,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>1110</v>
       </c>
@@ -9675,7 +9787,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>1110</v>
       </c>
@@ -9692,7 +9804,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>1110</v>
       </c>
@@ -9709,7 +9821,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>1110</v>
       </c>
@@ -9726,7 +9838,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
         <v>1110</v>
       </c>
@@ -9743,7 +9855,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>1110</v>
       </c>
@@ -9760,7 +9872,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
         <v>1110</v>
       </c>
@@ -9777,7 +9889,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
         <v>1110</v>
       </c>
@@ -9794,7 +9906,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
         <v>1110</v>
       </c>
@@ -9811,7 +9923,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
         <v>1110</v>
       </c>
@@ -9828,7 +9940,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>1110</v>
       </c>
@@ -9845,7 +9957,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>1110</v>
       </c>
@@ -9862,7 +9974,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
         <v>1110</v>
       </c>
@@ -9879,7 +9991,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
         <v>1110</v>
       </c>
@@ -9896,7 +10008,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>1110</v>
       </c>
@@ -9913,7 +10025,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>1110</v>
       </c>
@@ -9930,7 +10042,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>1110</v>
       </c>
@@ -9947,7 +10059,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
         <v>1110</v>
       </c>
@@ -9964,7 +10076,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
         <v>1110</v>
       </c>
@@ -9981,7 +10093,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
         <v>1110</v>
       </c>
@@ -9998,7 +10110,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
         <v>1110</v>
       </c>
@@ -10015,7 +10127,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
         <v>1110</v>
       </c>
@@ -10032,7 +10144,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>1110</v>
       </c>
@@ -10049,7 +10161,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
         <v>1110</v>
       </c>
@@ -10066,7 +10178,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>1110</v>
       </c>
@@ -10083,7 +10195,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
         <v>1110</v>
       </c>
@@ -10100,7 +10212,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
         <v>1110</v>
       </c>
@@ -10117,7 +10229,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
         <v>1110</v>
       </c>
@@ -10134,7 +10246,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
         <v>1110</v>
       </c>
@@ -10151,7 +10263,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>1111</v>
       </c>
@@ -10168,7 +10280,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>1111</v>
       </c>
@@ -10185,7 +10297,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
         <v>1111</v>
       </c>
@@ -10202,7 +10314,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
         <v>1111</v>
       </c>
@@ -10219,7 +10331,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
         <v>1111</v>
       </c>
@@ -10236,7 +10348,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
         <v>1111</v>
       </c>
@@ -10253,7 +10365,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
         <v>1111</v>
       </c>
@@ -10270,7 +10382,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
         <v>1111</v>
       </c>
@@ -10287,7 +10399,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
         <v>1111</v>
       </c>
@@ -10304,7 +10416,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
         <v>1111</v>
       </c>
@@ -10321,7 +10433,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
         <v>1111</v>
       </c>
@@ -10338,7 +10450,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
         <v>1111</v>
       </c>
@@ -10355,7 +10467,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
         <v>1111</v>
       </c>
@@ -10372,7 +10484,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
         <v>1111</v>
       </c>
@@ -10389,7 +10501,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
         <v>1111</v>
       </c>
@@ -10406,7 +10518,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
         <v>1111</v>
       </c>
@@ -10423,7 +10535,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
         <v>1111</v>
       </c>
@@ -10440,7 +10552,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
         <v>1111</v>
       </c>
@@ -10457,7 +10569,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
         <v>1111</v>
       </c>
@@ -10474,7 +10586,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
         <v>1111</v>
       </c>
@@ -10491,7 +10603,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
         <v>1111</v>
       </c>
@@ -10508,7 +10620,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
         <v>1111</v>
       </c>
@@ -10525,7 +10637,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
         <v>1111</v>
       </c>
@@ -10542,7 +10654,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
         <v>1111</v>
       </c>
@@ -10559,7 +10671,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
         <v>1111</v>
       </c>
@@ -10576,7 +10688,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
         <v>1111</v>
       </c>
@@ -10593,7 +10705,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
         <v>1111</v>
       </c>
@@ -10610,7 +10722,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
         <v>1111</v>
       </c>
@@ -10627,7 +10739,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
         <v>1111</v>
       </c>
@@ -10644,7 +10756,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
         <v>1111</v>
       </c>
@@ -10661,7 +10773,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
         <v>1111</v>
       </c>
@@ -10678,7 +10790,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
         <v>1111</v>
       </c>
@@ -10695,7 +10807,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
         <v>1111</v>
       </c>
@@ -10712,7 +10824,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
         <v>1111</v>
       </c>
@@ -10729,7 +10841,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
         <v>1111</v>
       </c>
@@ -10746,7 +10858,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
         <v>1111</v>
       </c>
@@ -10763,7 +10875,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
         <v>1111</v>
       </c>
@@ -10780,7 +10892,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
         <v>1111</v>
       </c>
@@ -10797,7 +10909,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
         <v>1111</v>
       </c>
@@ -10814,7 +10926,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
         <v>1111</v>
       </c>
@@ -10831,7 +10943,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
         <v>1111</v>
       </c>
@@ -10848,7 +10960,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
         <v>1111</v>
       </c>
@@ -10865,7 +10977,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
         <v>1111</v>
       </c>
@@ -10882,7 +10994,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
         <v>1111</v>
       </c>
@@ -10899,7 +11011,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
         <v>1111</v>
       </c>
@@ -10916,7 +11028,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
         <v>1111</v>
       </c>
@@ -10933,7 +11045,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
         <v>1111</v>
       </c>
@@ -10950,7 +11062,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
         <v>1111</v>
       </c>
@@ -10967,7 +11079,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
         <v>1111</v>
       </c>
@@ -10984,7 +11096,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
         <v>1111</v>
       </c>
@@ -11001,7 +11113,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
         <v>1111</v>
       </c>
@@ -11018,7 +11130,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
         <v>1111</v>
       </c>
@@ -11035,7 +11147,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
         <v>1111</v>
       </c>
@@ -11052,7 +11164,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
         <v>1111</v>
       </c>
@@ -11069,7 +11181,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
         <v>1111</v>
       </c>
@@ -11086,7 +11198,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
         <v>1111</v>
       </c>
@@ -11103,7 +11215,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
         <v>1111</v>
       </c>
@@ -11120,7 +11232,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
         <v>1111</v>
       </c>
@@ -11137,7 +11249,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
         <v>1111</v>
       </c>
@@ -11154,7 +11266,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
         <v>1111</v>
       </c>
@@ -11171,7 +11283,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
         <v>1111</v>
       </c>
@@ -11188,7 +11300,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
         <v>1111</v>
       </c>
@@ -11205,7 +11317,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
         <v>1111</v>
       </c>
@@ -11222,7 +11334,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
         <v>1111</v>
       </c>
@@ -11239,7 +11351,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
         <v>1111</v>
       </c>
@@ -11256,7 +11368,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
         <v>1111</v>
       </c>
@@ -11273,7 +11385,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
         <v>1111</v>
       </c>
@@ -11290,7 +11402,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
         <v>1111</v>
       </c>
@@ -11307,7 +11419,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
         <v>1112</v>
       </c>
@@ -11324,7 +11436,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
         <v>1112</v>
       </c>
@@ -11341,7 +11453,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
         <v>1112</v>
       </c>
@@ -11358,7 +11470,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
         <v>1112</v>
       </c>
@@ -11375,7 +11487,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
         <v>1112</v>
       </c>
@@ -11392,7 +11504,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
         <v>1112</v>
       </c>
@@ -11409,7 +11521,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
         <v>1112</v>
       </c>
@@ -11426,7 +11538,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
         <v>1112</v>
       </c>
@@ -11443,7 +11555,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
         <v>1112</v>
       </c>
@@ -11460,7 +11572,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
         <v>1112</v>
       </c>
@@ -11477,7 +11589,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
         <v>1112</v>
       </c>
@@ -11494,7 +11606,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
         <v>1112</v>
       </c>
@@ -11511,7 +11623,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
         <v>1112</v>
       </c>
@@ -11528,7 +11640,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
         <v>1112</v>
       </c>
@@ -11545,7 +11657,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
         <v>1112</v>
       </c>
@@ -11562,7 +11674,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
         <v>1112</v>
       </c>
@@ -11579,7 +11691,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
         <v>1112</v>
       </c>
@@ -11596,7 +11708,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
         <v>1112</v>
       </c>
@@ -11613,7 +11725,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
         <v>1112</v>
       </c>
@@ -11630,7 +11742,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
         <v>1112</v>
       </c>
@@ -11647,7 +11759,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
         <v>1112</v>
       </c>
@@ -11664,7 +11776,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
         <v>1112</v>
       </c>
@@ -11681,7 +11793,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
         <v>1112</v>
       </c>
@@ -11698,7 +11810,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
         <v>1112</v>
       </c>
@@ -11715,7 +11827,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
         <v>1112</v>
       </c>
@@ -11732,7 +11844,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
         <v>1112</v>
       </c>
@@ -11749,7 +11861,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
         <v>1112</v>
       </c>
@@ -11766,7 +11878,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
         <v>1112</v>
       </c>
@@ -11783,7 +11895,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
         <v>1112</v>
       </c>
@@ -11800,7 +11912,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A380" t="s">
         <v>1112</v>
       </c>
@@ -11817,7 +11929,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A381" t="s">
         <v>1112</v>
       </c>
@@ -11834,7 +11946,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A382" t="s">
         <v>1112</v>
       </c>
@@ -11851,7 +11963,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A383" t="s">
         <v>1112</v>
       </c>
@@ -11868,7 +11980,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A384" t="s">
         <v>1112</v>
       </c>
@@ -11885,7 +11997,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A385" t="s">
         <v>1112</v>
       </c>
@@ -11902,7 +12014,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
         <v>1112</v>
       </c>
@@ -11919,7 +12031,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
         <v>1112</v>
       </c>
@@ -11936,7 +12048,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
         <v>1112</v>
       </c>
@@ -11953,7 +12065,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
         <v>1112</v>
       </c>
@@ -11970,7 +12082,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
         <v>1112</v>
       </c>
@@ -11987,7 +12099,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
         <v>1112</v>
       </c>
@@ -12004,7 +12116,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
         <v>1112</v>
       </c>
@@ -12021,7 +12133,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
         <v>1112</v>
       </c>
@@ -12038,7 +12150,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
         <v>1112</v>
       </c>
@@ -12055,7 +12167,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
         <v>1112</v>
       </c>
@@ -12072,7 +12184,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
         <v>1112</v>
       </c>
@@ -12089,7 +12201,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
         <v>1112</v>
       </c>
@@ -12106,7 +12218,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
         <v>1112</v>
       </c>
@@ -12123,7 +12235,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
         <v>1112</v>
       </c>
@@ -12140,7 +12252,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
         <v>1112</v>
       </c>
@@ -12157,7 +12269,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
         <v>1112</v>
       </c>
@@ -12174,7 +12286,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
         <v>1112</v>
       </c>
@@ -12191,7 +12303,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
         <v>1112</v>
       </c>
@@ -12208,7 +12320,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
         <v>1112</v>
       </c>
@@ -12225,7 +12337,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" t="s">
         <v>1112</v>
       </c>
@@ -12242,7 +12354,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A406" t="s">
         <v>1112</v>
       </c>
@@ -12259,7 +12371,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="407" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A407" t="s">
         <v>1112</v>
       </c>
@@ -12276,7 +12388,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="408" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A408" t="s">
         <v>1112</v>
       </c>
@@ -12293,7 +12405,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
         <v>1112</v>
       </c>
@@ -12310,7 +12422,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="410" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A410" t="s">
         <v>1112</v>
       </c>
@@ -12327,7 +12439,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A411" t="s">
         <v>1112</v>
       </c>
@@ -12344,7 +12456,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="412" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A412" t="s">
         <v>1112</v>
       </c>
@@ -12361,7 +12473,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="413" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A413" t="s">
         <v>1112</v>
       </c>
@@ -12378,7 +12490,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="414" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
         <v>1112</v>
       </c>
@@ -12395,7 +12507,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="415" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
         <v>1112</v>
       </c>
@@ -12412,7 +12524,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="416" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A416" t="s">
         <v>1112</v>
       </c>
@@ -12429,7 +12541,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A417" t="s">
         <v>1112</v>
       </c>
@@ -12446,7 +12558,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A418" t="s">
         <v>1112</v>
       </c>
@@ -12463,7 +12575,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A419" t="s">
         <v>1112</v>
       </c>
@@ -12480,7 +12592,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A420" t="s">
         <v>1112</v>
       </c>
@@ -12497,7 +12609,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="421" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A421" t="s">
         <v>1112</v>
       </c>
@@ -12514,7 +12626,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="422" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A422" t="s">
         <v>1112</v>
       </c>
@@ -12531,7 +12643,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="423" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A423" t="s">
         <v>1112</v>
       </c>
@@ -12548,7 +12660,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="424" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A424" t="s">
         <v>1112</v>
       </c>
@@ -12565,7 +12677,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="425" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A425" t="s">
         <v>1112</v>
       </c>
@@ -12582,7 +12694,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="426" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A426" t="s">
         <v>1112</v>
       </c>
@@ -12599,7 +12711,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="427" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A427" t="s">
         <v>1112</v>
       </c>
@@ -12616,7 +12728,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="428" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A428" t="s">
         <v>1112</v>
       </c>
@@ -12633,7 +12745,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="429" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A429" t="s">
         <v>1112</v>
       </c>
@@ -12650,7 +12762,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="430" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A430" t="s">
         <v>1112</v>
       </c>
@@ -12667,7 +12779,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="431" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A431" t="s">
         <v>1112</v>
       </c>
@@ -12684,7 +12796,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="432" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A432" t="s">
         <v>1112</v>
       </c>
@@ -12701,7 +12813,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="433" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A433" t="s">
         <v>1112</v>
       </c>
@@ -12718,7 +12830,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="434" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A434" t="s">
         <v>1112</v>
       </c>
@@ -12735,7 +12847,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="435" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A435" t="s">
         <v>1112</v>
       </c>
@@ -12752,7 +12864,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A436" t="s">
         <v>1112</v>
       </c>
@@ -12769,7 +12881,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="437" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A437" t="s">
         <v>1112</v>
       </c>
@@ -12786,7 +12898,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A438" t="s">
         <v>1112</v>
       </c>
@@ -12803,7 +12915,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="439" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A439" t="s">
         <v>1112</v>
       </c>
@@ -12820,7 +12932,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="440" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A440" t="s">
         <v>1112</v>
       </c>
@@ -12837,7 +12949,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="441" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A441" t="s">
         <v>1112</v>
       </c>
@@ -12854,7 +12966,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="442" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A442" t="s">
         <v>1112</v>
       </c>
@@ -12871,7 +12983,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="443" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="1" t="s">
         <v>1113</v>
       </c>
@@ -12888,7 +13000,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="444" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A444" s="1" t="s">
         <v>1113</v>
       </c>
@@ -12905,7 +13017,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="445" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A445" s="1" t="s">
         <v>1113</v>
       </c>
@@ -12922,7 +13034,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="446" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A446" s="1" t="s">
         <v>1113</v>
       </c>
@@ -12939,7 +13051,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="447" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A447" s="1" t="s">
         <v>1113</v>
       </c>
@@ -12956,7 +13068,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="448" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A448" s="1" t="s">
         <v>1113</v>
       </c>
@@ -12973,7 +13085,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="449" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A449" s="1" t="s">
         <v>1113</v>
       </c>
@@ -12990,7 +13102,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="450" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A450" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13007,7 +13119,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="451" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A451" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13024,7 +13136,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="452" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A452" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13041,7 +13153,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="453" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A453" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13058,7 +13170,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="454" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A454" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13075,7 +13187,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="455" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A455" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13092,7 +13204,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="456" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A456" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13109,7 +13221,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="457" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13126,7 +13238,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="458" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A458" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13143,7 +13255,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="459" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A459" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13160,7 +13272,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="460" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A460" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13177,7 +13289,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="461" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A461" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13194,7 +13306,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="462" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A462" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13211,7 +13323,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="463" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A463" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13228,7 +13340,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="464" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A464" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13245,7 +13357,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="465" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A465" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13262,7 +13374,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="466" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A466" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13279,7 +13391,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="467" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A467" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13296,7 +13408,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="468" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A468" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13313,7 +13425,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="469" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A469" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13330,7 +13442,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="470" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A470" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13347,7 +13459,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="471" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A471" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13364,7 +13476,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="472" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A472" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13381,7 +13493,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="473" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A473" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13398,7 +13510,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="474" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A474" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13415,7 +13527,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="475" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A475" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13432,7 +13544,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="476" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A476" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13449,7 +13561,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="477" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A477" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13466,7 +13578,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="478" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A478" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13483,7 +13595,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="479" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A479" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13500,7 +13612,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="480" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A480" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13517,7 +13629,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="481" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A481" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13534,7 +13646,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="482" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A482" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13551,7 +13663,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="483" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A483" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13568,7 +13680,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="484" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A484" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13585,7 +13697,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="485" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A485" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13602,7 +13714,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="486" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A486" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13619,7 +13731,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="487" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A487" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13636,7 +13748,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="488" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A488" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13653,7 +13765,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="489" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A489" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13670,7 +13782,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="490" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A490" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13687,7 +13799,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="491" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A491" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13704,7 +13816,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="492" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A492" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13721,7 +13833,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="493" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A493" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13738,7 +13850,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="494" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A494" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13755,7 +13867,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="495" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A495" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13772,7 +13884,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="496" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A496" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13789,7 +13901,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="497" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A497" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13806,7 +13918,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="498" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A498" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13823,7 +13935,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="499" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A499" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13840,7 +13952,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="500" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A500" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13857,7 +13969,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="501" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A501" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13874,7 +13986,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="502" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A502" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13891,7 +14003,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="503" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A503" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13908,7 +14020,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="504" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A504" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13925,7 +14037,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="505" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A505" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13942,7 +14054,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="506" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A506" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13959,7 +14071,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="507" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A507" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13976,7 +14088,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="508" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A508" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13993,7 +14105,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="509" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A509" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14010,7 +14122,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="510" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A510" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14027,7 +14139,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="511" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A511" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14044,7 +14156,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="512" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A512" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14061,7 +14173,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="513" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A513" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14078,7 +14190,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="514" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A514" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14095,7 +14207,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="515" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A515" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14112,7 +14224,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="516" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A516" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14129,7 +14241,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="517" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A517" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14146,7 +14258,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="518" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A518" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14163,7 +14275,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="519" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A519" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14180,7 +14292,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="520" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A520" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14197,7 +14309,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="521" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A521" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14214,7 +14326,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="522" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A522" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14231,7 +14343,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="523" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A523" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14248,7 +14360,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="524" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A524" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14265,7 +14377,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="525" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A525" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14282,7 +14394,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="526" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A526" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14299,7 +14411,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="527" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A527" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14316,7 +14428,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="528" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A528" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14333,7 +14445,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="529" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A529" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14350,7 +14462,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="530" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A530" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14367,7 +14479,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="531" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A531" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14384,7 +14496,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="532" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A532" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14401,7 +14513,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="533" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A533" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14418,7 +14530,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="534" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A534" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14435,7 +14547,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="535" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A535" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14452,7 +14564,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="536" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A536" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14469,7 +14581,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="537" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A537" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14486,7 +14598,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="538" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A538" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14503,7 +14615,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="539" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A539" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14520,7 +14632,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="540" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A540" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14537,7 +14649,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="541" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A541" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14554,7 +14666,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="542" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A542" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14571,7 +14683,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="543" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A543" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14588,7 +14700,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="544" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A544" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14605,7 +14717,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="545" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A545" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14622,7 +14734,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="546" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A546" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14639,7 +14751,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="547" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A547" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14656,7 +14768,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="548" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A548" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14673,7 +14785,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="549" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A549" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14690,7 +14802,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="550" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A550" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14707,7 +14819,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="551" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A551" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14724,7 +14836,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="552" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A552" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14741,7 +14853,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="553" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A553" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14758,7 +14870,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="554" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A554" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14775,7 +14887,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="555" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A555" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14792,7 +14904,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="556" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A556" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14809,7 +14921,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="557" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A557" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14826,7 +14938,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="558" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A558" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14843,7 +14955,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="559" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A559" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14860,7 +14972,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="560" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A560" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14877,7 +14989,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="561" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A561" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14894,7 +15006,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="562" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A562" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14911,7 +15023,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="563" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A563" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14928,7 +15040,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="564" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A564" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14945,7 +15057,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="565" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A565" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14962,7 +15074,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="566" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A566" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14979,7 +15091,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="567" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A567" s="1" t="s">
         <v>1113</v>
       </c>
@@ -14996,7 +15108,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="568" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A568" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15013,7 +15125,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="569" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A569" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15030,7 +15142,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="570" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A570" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15047,7 +15159,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="571" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A571" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15064,7 +15176,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="572" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A572" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15081,7 +15193,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="573" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A573" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15098,7 +15210,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="574" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A574" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15115,7 +15227,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="575" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A575" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15132,7 +15244,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="576" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A576" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15149,7 +15261,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="577" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A577" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15166,7 +15278,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="578" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A578" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15183,7 +15295,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="579" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A579" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15200,7 +15312,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="580" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A580" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15217,7 +15329,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="581" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A581" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15234,7 +15346,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="582" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A582" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15251,7 +15363,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="583" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A583" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15268,7 +15380,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="584" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A584" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15285,7 +15397,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="585" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A585" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15302,7 +15414,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="586" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A586" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15319,7 +15431,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="587" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A587" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15336,7 +15448,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="588" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A588" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15353,7 +15465,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="589" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A589" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15370,7 +15482,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="590" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A590" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15387,7 +15499,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="591" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A591" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15404,7 +15516,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="592" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A592" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15421,7 +15533,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="593" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A593" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15438,7 +15550,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="594" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A594" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15455,7 +15567,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="595" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A595" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15472,7 +15584,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="596" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A596" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15489,7 +15601,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="597" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A597" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15506,7 +15618,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="598" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A598" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15523,7 +15635,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="599" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A599" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15540,7 +15652,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="600" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A600" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15557,7 +15669,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="601" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A601" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15574,7 +15686,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="602" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A602" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15591,7 +15703,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="603" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A603" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15608,7 +15720,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="604" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A604" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15625,7 +15737,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="605" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A605" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15642,7 +15754,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="606" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A606" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15659,7 +15771,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="607" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A607" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15676,7 +15788,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="608" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A608" s="1" t="s">
         <v>1113</v>
       </c>
@@ -15693,7 +15805,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="609" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A609" t="s">
         <v>1144</v>
       </c>
@@ -15710,7 +15822,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="610" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A610" t="s">
         <v>1144</v>
       </c>
@@ -15727,7 +15839,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="611" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A611" t="s">
         <v>1144</v>
       </c>
@@ -15744,7 +15856,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="612" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A612" t="s">
         <v>1144</v>
       </c>
@@ -15761,7 +15873,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="613" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A613" t="s">
         <v>1144</v>
       </c>
@@ -15778,7 +15890,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="614" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A614" t="s">
         <v>1144</v>
       </c>
@@ -15795,7 +15907,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="615" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A615" t="s">
         <v>1144</v>
       </c>
@@ -15812,7 +15924,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="616" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A616" t="s">
         <v>1144</v>
       </c>
@@ -15829,7 +15941,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="617" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A617" t="s">
         <v>1144</v>
       </c>
@@ -15846,7 +15958,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="618" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A618" t="s">
         <v>1144</v>
       </c>
@@ -15863,7 +15975,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="619" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A619" t="s">
         <v>1144</v>
       </c>
@@ -15880,7 +15992,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="620" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A620" t="s">
         <v>1144</v>
       </c>
@@ -15897,7 +16009,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="621" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A621" t="s">
         <v>1144</v>
       </c>
@@ -15914,7 +16026,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="622" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A622" t="s">
         <v>1144</v>
       </c>
@@ -15931,7 +16043,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="623" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A623" t="s">
         <v>1144</v>
       </c>
@@ -15948,7 +16060,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="624" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A624" t="s">
         <v>1144</v>
       </c>
@@ -15965,7 +16077,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="625" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A625" t="s">
         <v>1184</v>
       </c>
@@ -15982,7 +16094,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="626" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A626" t="s">
         <v>1184</v>
       </c>
@@ -15999,7 +16111,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="627" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A627" t="s">
         <v>1184</v>
       </c>
@@ -16016,7 +16128,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="628" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A628" t="s">
         <v>1184</v>
       </c>
@@ -16033,7 +16145,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="629" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A629" t="s">
         <v>1184</v>
       </c>
@@ -16050,7 +16162,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="630" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A630" t="s">
         <v>1184</v>
       </c>
@@ -16067,7 +16179,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="631" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A631" t="s">
         <v>1184</v>
       </c>
@@ -16084,7 +16196,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="632" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A632" t="s">
         <v>1184</v>
       </c>
@@ -16101,7 +16213,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="633" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A633" t="s">
         <v>1184</v>
       </c>
@@ -16118,7 +16230,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="634" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A634" t="s">
         <v>1184</v>
       </c>
@@ -16135,7 +16247,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="635" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A635" t="s">
         <v>1184</v>
       </c>
@@ -16152,7 +16264,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="636" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A636" t="s">
         <v>1184</v>
       </c>
@@ -16169,7 +16281,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="637" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A637" t="s">
         <v>1184</v>
       </c>
@@ -16186,7 +16298,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="638" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A638" t="s">
         <v>1184</v>
       </c>
@@ -16203,7 +16315,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="639" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A639" t="s">
         <v>1184</v>
       </c>
@@ -16220,7 +16332,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="640" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A640" t="s">
         <v>1184</v>
       </c>
@@ -16237,7 +16349,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="641" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A641" t="s">
         <v>1184</v>
       </c>
@@ -16254,7 +16366,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="642" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A642" t="s">
         <v>1184</v>
       </c>
@@ -16271,7 +16383,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="643" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A643" t="s">
         <v>1184</v>
       </c>
@@ -16288,7 +16400,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="644" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A644" t="s">
         <v>1184</v>
       </c>
@@ -16305,7 +16417,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="645" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A645" t="s">
         <v>1184</v>
       </c>
@@ -16322,7 +16434,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="646" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A646" t="s">
         <v>1184</v>
       </c>
@@ -16339,7 +16451,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="647" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A647" t="s">
         <v>1184</v>
       </c>
@@ -16356,7 +16468,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="648" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A648" t="s">
         <v>1184</v>
       </c>
@@ -16373,7 +16485,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="649" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A649" t="s">
         <v>1184</v>
       </c>
@@ -16390,7 +16502,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="650" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A650" t="s">
         <v>1184</v>
       </c>
@@ -16407,7 +16519,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="651" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A651" t="s">
         <v>1184</v>
       </c>
@@ -16424,7 +16536,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="652" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A652" t="s">
         <v>1184</v>
       </c>
@@ -16441,7 +16553,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="653" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A653" t="s">
         <v>1184</v>
       </c>
@@ -16458,7 +16570,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="654" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A654" t="s">
         <v>1184</v>
       </c>
@@ -16475,7 +16587,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="655" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A655" t="s">
         <v>1184</v>
       </c>
@@ -16492,7 +16604,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="656" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A656" t="s">
         <v>1184</v>
       </c>
@@ -16509,7 +16621,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="657" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A657" t="s">
         <v>1184</v>
       </c>
@@ -16526,7 +16638,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="658" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A658" t="s">
         <v>1184</v>
       </c>
@@ -16543,7 +16655,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="659" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A659" t="s">
         <v>1184</v>
       </c>
@@ -16560,7 +16672,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="660" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A660" t="s">
         <v>1184</v>
       </c>
@@ -16577,7 +16689,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="661" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A661" t="s">
         <v>1184</v>
       </c>
@@ -16594,7 +16706,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="662" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A662" t="s">
         <v>1184</v>
       </c>
@@ -16611,7 +16723,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="663" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A663" t="s">
         <v>1184</v>
       </c>
@@ -16628,7 +16740,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="664" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A664" t="s">
         <v>1184</v>
       </c>
@@ -16645,7 +16757,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="665" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A665" t="s">
         <v>1184</v>
       </c>
@@ -16662,7 +16774,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="666" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A666" t="s">
         <v>1184</v>
       </c>
@@ -16679,7 +16791,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="667" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A667" t="s">
         <v>1184</v>
       </c>
@@ -16696,7 +16808,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="668" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A668" t="s">
         <v>1184</v>
       </c>
@@ -16713,7 +16825,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="669" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A669" t="s">
         <v>1184</v>
       </c>
@@ -16730,7 +16842,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="670" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A670" t="s">
         <v>1184</v>
       </c>
@@ -16747,7 +16859,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="671" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A671" t="s">
         <v>1184</v>
       </c>
@@ -16764,7 +16876,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="672" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A672" t="s">
         <v>1184</v>
       </c>
@@ -16781,7 +16893,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="673" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A673" t="s">
         <v>1184</v>
       </c>
@@ -16798,7 +16910,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="674" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A674" t="s">
         <v>1184</v>
       </c>
@@ -16815,7 +16927,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="675" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A675" t="s">
         <v>1184</v>
       </c>
@@ -16832,7 +16944,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="676" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A676" t="s">
         <v>1184</v>
       </c>
@@ -16849,7 +16961,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="677" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A677" t="s">
         <v>1184</v>
       </c>
@@ -16866,7 +16978,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="678" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A678" t="s">
         <v>1184</v>
       </c>
@@ -16883,7 +16995,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="679" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A679" t="s">
         <v>1184</v>
       </c>
@@ -16900,7 +17012,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="680" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A680" t="s">
         <v>1184</v>
       </c>
@@ -16917,7 +17029,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="681" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A681" t="s">
         <v>1184</v>
       </c>
@@ -16934,7 +17046,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="682" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A682" t="s">
         <v>1184</v>
       </c>
@@ -16951,7 +17063,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="683" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A683" t="s">
         <v>1184</v>
       </c>
@@ -16968,7 +17080,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="684" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A684" t="s">
         <v>1184</v>
       </c>
@@ -16985,7 +17097,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="685" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A685" t="s">
         <v>1184</v>
       </c>
@@ -17002,7 +17114,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="686" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A686" t="s">
         <v>1184</v>
       </c>
@@ -17019,7 +17131,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="687" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A687" t="s">
         <v>1184</v>
       </c>
@@ -17036,7 +17148,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="688" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A688" t="s">
         <v>1184</v>
       </c>
@@ -17053,7 +17165,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="689" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A689" t="s">
         <v>1184</v>
       </c>
@@ -17070,7 +17182,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="690" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A690" t="s">
         <v>1184</v>
       </c>
@@ -17087,7 +17199,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="691" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A691" t="s">
         <v>1184</v>
       </c>
@@ -17104,7 +17216,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="692" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A692" t="s">
         <v>1184</v>
       </c>
@@ -17121,7 +17233,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="693" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A693" t="s">
         <v>1184</v>
       </c>
@@ -17138,7 +17250,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="694" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A694" t="s">
         <v>1184</v>
       </c>
@@ -17155,7 +17267,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="695" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A695" t="s">
         <v>1184</v>
       </c>
@@ -17172,7 +17284,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="696" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A696" t="s">
         <v>1184</v>
       </c>
@@ -17189,7 +17301,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="697" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A697" t="s">
         <v>1184</v>
       </c>
@@ -17206,7 +17318,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="698" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A698" t="s">
         <v>1184</v>
       </c>
@@ -17223,7 +17335,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="699" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A699" t="s">
         <v>1184</v>
       </c>
@@ -17240,7 +17352,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="700" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A700" t="s">
         <v>1184</v>
       </c>
@@ -17257,7 +17369,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="701" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A701" t="s">
         <v>1184</v>
       </c>
@@ -17274,7 +17386,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="702" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A702" t="s">
         <v>1184</v>
       </c>
@@ -17291,7 +17403,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="703" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A703" t="s">
         <v>1184</v>
       </c>
@@ -17308,7 +17420,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="704" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A704" t="s">
         <v>1184</v>
       </c>
@@ -17325,7 +17437,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="705" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A705" t="s">
         <v>1184</v>
       </c>
@@ -17342,7 +17454,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="706" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A706" t="s">
         <v>1184</v>
       </c>
@@ -17359,7 +17471,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="707" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A707" t="s">
         <v>1184</v>
       </c>
@@ -17376,7 +17488,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="708" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A708" t="s">
         <v>1184</v>
       </c>
@@ -17393,7 +17505,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="709" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A709" t="s">
         <v>1184</v>
       </c>
@@ -17410,7 +17522,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="710" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A710" t="s">
         <v>1184</v>
       </c>
@@ -17427,7 +17539,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="711" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A711" t="s">
         <v>1184</v>
       </c>
@@ -17444,7 +17556,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="712" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A712" t="s">
         <v>1184</v>
       </c>
@@ -17461,7 +17573,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="713" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A713" t="s">
         <v>1184</v>
       </c>
@@ -17478,7 +17590,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="714" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A714" t="s">
         <v>1184</v>
       </c>
@@ -17495,7 +17607,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="715" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A715" t="s">
         <v>1184</v>
       </c>
@@ -17512,7 +17624,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="716" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A716" t="s">
         <v>1184</v>
       </c>
@@ -17529,7 +17641,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="717" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A717" t="s">
         <v>1368</v>
       </c>
@@ -17546,7 +17658,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="718" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A718" t="s">
         <v>1368</v>
       </c>
@@ -17563,7 +17675,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="719" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A719" t="s">
         <v>1368</v>
       </c>
@@ -17580,7 +17692,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="720" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A720" t="s">
         <v>1368</v>
       </c>
@@ -17597,7 +17709,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="721" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A721" t="s">
         <v>1368</v>
       </c>
@@ -17614,7 +17726,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="722" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A722" t="s">
         <v>1368</v>
       </c>
@@ -17631,7 +17743,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="723" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A723" t="s">
         <v>1368</v>
       </c>
@@ -17648,7 +17760,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="724" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A724" t="s">
         <v>1368</v>
       </c>
@@ -17665,7 +17777,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="725" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A725" t="s">
         <v>1368</v>
       </c>
@@ -17682,7 +17794,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="726" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A726" t="s">
         <v>1368</v>
       </c>
@@ -17699,7 +17811,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="727" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A727" t="s">
         <v>1368</v>
       </c>
@@ -17716,7 +17828,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="728" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A728" t="s">
         <v>1368</v>
       </c>
@@ -17733,7 +17845,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="729" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A729" t="s">
         <v>1368</v>
       </c>
@@ -17750,7 +17862,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="730" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A730" t="s">
         <v>1368</v>
       </c>
@@ -17767,7 +17879,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="731" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A731" t="s">
         <v>1368</v>
       </c>
@@ -17784,7 +17896,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="732" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A732" t="s">
         <v>1368</v>
       </c>
@@ -17801,7 +17913,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="733" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A733" t="s">
         <v>1368</v>
       </c>
@@ -17818,7 +17930,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="734" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A734" t="s">
         <v>1368</v>
       </c>
@@ -17835,7 +17947,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="735" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A735" t="s">
         <v>1368</v>
       </c>
@@ -17852,7 +17964,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="736" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A736" t="s">
         <v>1368</v>
       </c>
@@ -17869,7 +17981,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="737" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A737" t="s">
         <v>1368</v>
       </c>
@@ -17886,7 +17998,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="738" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A738" t="s">
         <v>1368</v>
       </c>
@@ -17903,7 +18015,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="739" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A739" t="s">
         <v>1368</v>
       </c>
@@ -17920,7 +18032,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="740" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A740" t="s">
         <v>1368</v>
       </c>
@@ -17937,7 +18049,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="741" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A741" t="s">
         <v>1368</v>
       </c>
@@ -17954,7 +18066,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="742" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A742" t="s">
         <v>1368</v>
       </c>
@@ -17971,7 +18083,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="743" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A743" t="s">
         <v>1368</v>
       </c>
@@ -17988,7 +18100,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="744" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A744" t="s">
         <v>1368</v>
       </c>
@@ -18005,7 +18117,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="745" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A745" t="s">
         <v>1368</v>
       </c>
@@ -18022,7 +18134,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="746" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A746" t="s">
         <v>1368</v>
       </c>
@@ -18039,7 +18151,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="747" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A747" t="s">
         <v>1368</v>
       </c>
@@ -18056,7 +18168,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="748" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A748" t="s">
         <v>1368</v>
       </c>
@@ -18073,7 +18185,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="749" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A749" t="s">
         <v>1368</v>
       </c>
@@ -18090,7 +18202,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="750" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A750" t="s">
         <v>1368</v>
       </c>
@@ -18107,7 +18219,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="751" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A751" t="s">
         <v>1368</v>
       </c>
@@ -18124,7 +18236,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="752" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A752" t="s">
         <v>1368</v>
       </c>
@@ -18141,7 +18253,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="753" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A753" t="s">
         <v>1368</v>
       </c>
@@ -18158,7 +18270,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="754" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A754" t="s">
         <v>1368</v>
       </c>
@@ -18175,7 +18287,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="755" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A755" t="s">
         <v>1368</v>
       </c>
@@ -18192,7 +18304,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="756" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A756" t="s">
         <v>1368</v>
       </c>
@@ -18209,7 +18321,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="757" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A757" t="s">
         <v>1368</v>
       </c>
@@ -18226,7 +18338,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="758" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A758" t="s">
         <v>1368</v>
       </c>
@@ -18243,7 +18355,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="759" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A759" t="s">
         <v>1487</v>
       </c>
@@ -18260,7 +18372,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="760" spans="1:5" ht="31.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A760" t="s">
         <v>1487</v>
       </c>
@@ -18277,7 +18389,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="761" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A761" t="s">
         <v>1487</v>
       </c>
@@ -18294,7 +18406,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="762" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A762" t="s">
         <v>1487</v>
       </c>
@@ -18311,7 +18423,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="763" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A763" t="s">
         <v>1487</v>
       </c>
@@ -18328,7 +18440,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="764" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A764" t="s">
         <v>1487</v>
       </c>
@@ -18345,7 +18457,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="765" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A765" t="s">
         <v>1487</v>
       </c>
@@ -18362,7 +18474,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="766" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A766" t="s">
         <v>1487</v>
       </c>
@@ -18379,7 +18491,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="767" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A767" t="s">
         <v>1487</v>
       </c>
@@ -18396,7 +18508,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="768" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A768" t="s">
         <v>1487</v>
       </c>
@@ -18413,7 +18525,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="769" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A769" t="s">
         <v>1487</v>
       </c>
@@ -18430,7 +18542,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="770" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A770" t="s">
         <v>1487</v>
       </c>
@@ -18447,7 +18559,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="771" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A771" t="s">
         <v>1487</v>
       </c>
@@ -18464,7 +18576,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="772" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A772" t="s">
         <v>1487</v>
       </c>
@@ -18481,7 +18593,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="773" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A773" t="s">
         <v>1487</v>
       </c>
@@ -18498,7 +18610,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="774" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A774" t="s">
         <v>1487</v>
       </c>
@@ -18515,7 +18627,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="775" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A775" t="s">
         <v>1487</v>
       </c>
@@ -18532,7 +18644,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="776" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A776" t="s">
         <v>1487</v>
       </c>
@@ -18549,7 +18661,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="777" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A777" t="s">
         <v>1487</v>
       </c>
@@ -18566,7 +18678,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="778" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A778" t="s">
         <v>1487</v>
       </c>
@@ -18583,7 +18695,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="779" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A779" t="s">
         <v>1487</v>
       </c>
@@ -18600,7 +18712,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="780" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A780" t="s">
         <v>1487</v>
       </c>
@@ -18617,7 +18729,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="781" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A781" t="s">
         <v>1487</v>
       </c>
@@ -18634,7 +18746,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="782" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A782" t="s">
         <v>1487</v>
       </c>
@@ -18651,7 +18763,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="783" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A783" t="s">
         <v>1487</v>
       </c>
@@ -18668,7 +18780,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="784" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A784" t="s">
         <v>1487</v>
       </c>
@@ -18685,7 +18797,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="785" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A785" t="s">
         <v>1487</v>
       </c>
@@ -18702,7 +18814,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="786" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A786" t="s">
         <v>1487</v>
       </c>
@@ -18719,7 +18831,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="787" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A787" t="s">
         <v>1487</v>
       </c>
@@ -18736,7 +18848,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="788" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A788" t="s">
         <v>1487</v>
       </c>
@@ -18753,7 +18865,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="789" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A789" t="s">
         <v>1487</v>
       </c>
@@ -18770,7 +18882,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="790" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A790" t="s">
         <v>1487</v>
       </c>
@@ -18787,7 +18899,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="791" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A791" t="s">
         <v>1487</v>
       </c>
@@ -18804,7 +18916,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="792" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A792" t="s">
         <v>1487</v>
       </c>
@@ -18821,7 +18933,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="793" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A793" t="s">
         <v>1487</v>
       </c>
@@ -18838,7 +18950,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="794" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A794" t="s">
         <v>1487</v>
       </c>
@@ -18855,7 +18967,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="795" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A795" t="s">
         <v>1487</v>
       </c>
@@ -18872,7 +18984,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="796" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A796" t="s">
         <v>1487</v>
       </c>
@@ -18889,7 +19001,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="797" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A797" t="s">
         <v>1487</v>
       </c>
@@ -18906,7 +19018,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="798" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A798" t="s">
         <v>1487</v>
       </c>
@@ -18923,7 +19035,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="799" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A799" t="s">
         <v>1538</v>
       </c>
@@ -18940,7 +19052,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="800" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A800" t="s">
         <v>1538</v>
       </c>
@@ -18957,7 +19069,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="801" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A801" t="s">
         <v>1538</v>
       </c>
@@ -18974,7 +19086,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="802" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A802" t="s">
         <v>1538</v>
       </c>
@@ -18991,7 +19103,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="803" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A803" t="s">
         <v>1538</v>
       </c>
@@ -19008,7 +19120,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="804" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A804" t="s">
         <v>1538</v>
       </c>
@@ -19025,7 +19137,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="805" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A805" t="s">
         <v>1538</v>
       </c>
@@ -19042,7 +19154,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="806" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A806" t="s">
         <v>1538</v>
       </c>
@@ -19059,7 +19171,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="807" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A807" t="s">
         <v>1538</v>
       </c>
@@ -19076,7 +19188,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="808" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A808" t="s">
         <v>1538</v>
       </c>
@@ -19093,7 +19205,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="809" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A809" t="s">
         <v>1538</v>
       </c>
@@ -19110,7 +19222,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="810" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A810" t="s">
         <v>1538</v>
       </c>
@@ -19127,7 +19239,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="811" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A811" t="s">
         <v>1538</v>
       </c>
@@ -19144,7 +19256,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="812" spans="1:5" ht="31.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A812" t="s">
         <v>1535</v>
       </c>
@@ -19161,7 +19273,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="813" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A813" t="s">
         <v>1535</v>
       </c>
@@ -19178,15 +19290,263 @@
         <v>1531</v>
       </c>
     </row>
+    <row r="814" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A814" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B814" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C814" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D814">
+        <v>1</v>
+      </c>
+      <c r="E814" s="1" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A815" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B815" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C815" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D815">
+        <v>1</v>
+      </c>
+      <c r="E815" s="1" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A816" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C816" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D816">
+        <v>1</v>
+      </c>
+      <c r="E816" s="1" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A817" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B817" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C817" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D817">
+        <v>1</v>
+      </c>
+      <c r="E817" s="1" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A818" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B818" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C818" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D818">
+        <v>0</v>
+      </c>
+      <c r="E818" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A819" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B819" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C819" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D819">
+        <v>0</v>
+      </c>
+      <c r="E819" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A820" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B820" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C820" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D820">
+        <v>0</v>
+      </c>
+      <c r="E820" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A821" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B821" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C821" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D821">
+        <v>0</v>
+      </c>
+      <c r="E821" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A822" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B822" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C822" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D822">
+        <v>0</v>
+      </c>
+      <c r="E822" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A823" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B823" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C823" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D823">
+        <v>0</v>
+      </c>
+      <c r="E823" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A824" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B824" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C824" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D824">
+        <v>0</v>
+      </c>
+      <c r="E824" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A825" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B825" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C825" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D825">
+        <v>0</v>
+      </c>
+      <c r="E825" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A826" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B826" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C826" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D826">
+        <v>0</v>
+      </c>
+      <c r="E826" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A827" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B827" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C827" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D827">
+        <v>0</v>
+      </c>
+      <c r="E827" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A828" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C828" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D828">
+        <v>0</v>
+      </c>
+      <c r="E828" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C813">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="中国A股利润表"/>
-        <filter val="中国A股盈利预测汇总"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C828"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19196,20 +19556,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19220,7 +19580,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1100</v>
       </c>
@@ -19231,7 +19591,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1103</v>
       </c>
@@ -19242,7 +19602,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1106</v>
       </c>
@@ -19253,7 +19613,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>1107</v>
       </c>
@@ -19264,7 +19624,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>1108</v>
       </c>
@@ -19275,7 +19635,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>1109</v>
       </c>
@@ -19286,7 +19646,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>1110</v>
       </c>
@@ -19297,7 +19657,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>1111</v>
       </c>
@@ -19308,7 +19668,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>1112</v>
       </c>
@@ -19319,7 +19679,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>1113</v>
       </c>
@@ -19330,7 +19690,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>1144</v>
       </c>
@@ -19341,7 +19701,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>1184</v>
       </c>
@@ -19352,7 +19712,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>1368</v>
       </c>
@@ -19363,7 +19723,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>1487</v>
       </c>
@@ -19374,7 +19734,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>1535</v>
       </c>
@@ -19383,6 +19743,17 @@
       </c>
       <c r="C16" t="s">
         <v>1537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1572</v>
       </c>
     </row>
   </sheetData>

--- a/FactorLib/resource/wind_tableinfo.xlsx
+++ b/FactorLib/resource/wind_tableinfo.xlsx
@@ -4941,9 +4941,6 @@
     <t>战略投资者持股(万股)</t>
   </si>
   <si>
-    <t>每股收益(摊跛)</t>
-  </si>
-  <si>
     <t>净资产收益率(摊簿)</t>
   </si>
   <si>
@@ -4975,6 +4972,10 @@
   </si>
   <si>
     <t>净资产收益率预测家数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每股收益(摊簿)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5376,8 +5377,8 @@
   <dimension ref="A1:E828"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C836" sqref="C836"/>
+      <pane ySplit="1" topLeftCell="A707" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B810" sqref="B810"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7940,7 +7941,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>1071</v>
       </c>
@@ -7957,7 +7958,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>1071</v>
       </c>
@@ -7974,7 +7975,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>1071</v>
       </c>
@@ -7991,7 +7992,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>1071</v>
       </c>
@@ -8008,7 +8009,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>1071</v>
       </c>
@@ -8025,7 +8026,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>1071</v>
       </c>
@@ -8042,7 +8043,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>1071</v>
       </c>
@@ -8059,7 +8060,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>1071</v>
       </c>
@@ -8076,7 +8077,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>1071</v>
       </c>
@@ -8093,7 +8094,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>1071</v>
       </c>
@@ -8110,7 +8111,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>1071</v>
       </c>
@@ -8127,7 +8128,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>1071</v>
       </c>
@@ -8144,7 +8145,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>1071</v>
       </c>
@@ -8161,7 +8162,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>1071</v>
       </c>
@@ -8178,7 +8179,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>1071</v>
       </c>
@@ -8195,7 +8196,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>1071</v>
       </c>
@@ -8212,7 +8213,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>1071</v>
       </c>
@@ -8229,7 +8230,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>1071</v>
       </c>
@@ -8246,7 +8247,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>1071</v>
       </c>
@@ -8263,7 +8264,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>1071</v>
       </c>
@@ -8280,7 +8281,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>1071</v>
       </c>
@@ -8297,7 +8298,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>1071</v>
       </c>
@@ -8314,7 +8315,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>1071</v>
       </c>
@@ -8331,7 +8332,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>1071</v>
       </c>
@@ -8348,7 +8349,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>1071</v>
       </c>
@@ -8365,7 +8366,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>1071</v>
       </c>
@@ -8382,7 +8383,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>1071</v>
       </c>
@@ -8399,7 +8400,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>1071</v>
       </c>
@@ -8416,7 +8417,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>1071</v>
       </c>
@@ -8433,7 +8434,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>1071</v>
       </c>
@@ -8450,7 +8451,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>1071</v>
       </c>
@@ -8467,7 +8468,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>1071</v>
       </c>
@@ -8484,7 +8485,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>1071</v>
       </c>
@@ -8501,7 +8502,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>1071</v>
       </c>
@@ -8518,7 +8519,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>1071</v>
       </c>
@@ -8535,7 +8536,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>1071</v>
       </c>
@@ -8552,7 +8553,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>1071</v>
       </c>
@@ -8569,7 +8570,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>1071</v>
       </c>
@@ -8586,7 +8587,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>1071</v>
       </c>
@@ -8603,7 +8604,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>1071</v>
       </c>
@@ -8620,7 +8621,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>1071</v>
       </c>
@@ -8637,7 +8638,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>1071</v>
       </c>
@@ -8654,7 +8655,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>1071</v>
       </c>
@@ -8671,7 +8672,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>1071</v>
       </c>
@@ -8688,7 +8689,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>1071</v>
       </c>
@@ -8705,7 +8706,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>1071</v>
       </c>
@@ -8722,7 +8723,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>1071</v>
       </c>
@@ -8739,7 +8740,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>1071</v>
       </c>
@@ -8756,7 +8757,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>1071</v>
       </c>
@@ -8773,7 +8774,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>1071</v>
       </c>
@@ -8790,7 +8791,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>1071</v>
       </c>
@@ -8807,7 +8808,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>1071</v>
       </c>
@@ -8824,7 +8825,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>1071</v>
       </c>
@@ -8841,7 +8842,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>1071</v>
       </c>
@@ -8858,7 +8859,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>1071</v>
       </c>
@@ -8875,7 +8876,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>1071</v>
       </c>
@@ -8892,7 +8893,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>1071</v>
       </c>
@@ -8909,7 +8910,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>1071</v>
       </c>
@@ -8926,7 +8927,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>1071</v>
       </c>
@@ -8943,7 +8944,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>1071</v>
       </c>
@@ -8960,7 +8961,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>1071</v>
       </c>
@@ -8977,7 +8978,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>1071</v>
       </c>
@@ -8994,7 +8995,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>1071</v>
       </c>
@@ -9011,7 +9012,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>1071</v>
       </c>
@@ -9028,7 +9029,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>1071</v>
       </c>
@@ -9045,7 +9046,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>1071</v>
       </c>
@@ -9062,7 +9063,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>1071</v>
       </c>
@@ -9079,7 +9080,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>1071</v>
       </c>
@@ -9096,7 +9097,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>1071</v>
       </c>
@@ -9113,7 +9114,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>1071</v>
       </c>
@@ -9130,7 +9131,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>1071</v>
       </c>
@@ -9147,7 +9148,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>1071</v>
       </c>
@@ -9164,7 +9165,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>1071</v>
       </c>
@@ -9181,7 +9182,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>1071</v>
       </c>
@@ -9198,7 +9199,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>1071</v>
       </c>
@@ -9215,7 +9216,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>1071</v>
       </c>
@@ -9232,7 +9233,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>1071</v>
       </c>
@@ -9249,7 +9250,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>1071</v>
       </c>
@@ -9266,7 +9267,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>1071</v>
       </c>
@@ -9283,7 +9284,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>1071</v>
       </c>
@@ -9300,7 +9301,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>1071</v>
       </c>
@@ -9317,7 +9318,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>1071</v>
       </c>
@@ -9334,7 +9335,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>1071</v>
       </c>
@@ -9351,7 +9352,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>1071</v>
       </c>
@@ -9368,7 +9369,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>1071</v>
       </c>
@@ -9385,7 +9386,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>1071</v>
       </c>
@@ -9402,7 +9403,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>1071</v>
       </c>
@@ -9419,7 +9420,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>1071</v>
       </c>
@@ -9436,7 +9437,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>1071</v>
       </c>
@@ -9453,7 +9454,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>1071</v>
       </c>
@@ -9470,7 +9471,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>1071</v>
       </c>
@@ -9487,7 +9488,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>1071</v>
       </c>
@@ -9504,7 +9505,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>1071</v>
       </c>
@@ -9521,7 +9522,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>1071</v>
       </c>
@@ -9538,7 +9539,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>1071</v>
       </c>
@@ -9555,7 +9556,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>1071</v>
       </c>
@@ -9572,7 +9573,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>1071</v>
       </c>
@@ -9589,7 +9590,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>1071</v>
       </c>
@@ -9606,7 +9607,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>1071</v>
       </c>
@@ -9623,7 +9624,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>1071</v>
       </c>
@@ -9640,7 +9641,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>1071</v>
       </c>
@@ -9657,7 +9658,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>1071</v>
       </c>
@@ -9674,7 +9675,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>1071</v>
       </c>
@@ -9691,7 +9692,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>1071</v>
       </c>
@@ -9708,7 +9709,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>1071</v>
       </c>
@@ -9725,7 +9726,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>1071</v>
       </c>
@@ -9742,7 +9743,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>1071</v>
       </c>
@@ -9759,7 +9760,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
         <v>1071</v>
       </c>
@@ -9776,7 +9777,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>1071</v>
       </c>
@@ -9793,7 +9794,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
         <v>1071</v>
       </c>
@@ -9810,7 +9811,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
         <v>1071</v>
       </c>
@@ -9827,7 +9828,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
         <v>1071</v>
       </c>
@@ -9844,7 +9845,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
         <v>1071</v>
       </c>
@@ -9861,7 +9862,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>1071</v>
       </c>
@@ -9878,7 +9879,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>1071</v>
       </c>
@@ -9895,7 +9896,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
         <v>1071</v>
       </c>
@@ -9912,7 +9913,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
         <v>1071</v>
       </c>
@@ -9929,7 +9930,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>1071</v>
       </c>
@@ -9946,7 +9947,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>1071</v>
       </c>
@@ -9963,7 +9964,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>1071</v>
       </c>
@@ -9980,7 +9981,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
         <v>1071</v>
       </c>
@@ -9997,7 +9998,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
         <v>1071</v>
       </c>
@@ -10014,7 +10015,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
         <v>1071</v>
       </c>
@@ -10031,7 +10032,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
         <v>1071</v>
       </c>
@@ -10048,7 +10049,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
         <v>1071</v>
       </c>
@@ -10065,7 +10066,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>1071</v>
       </c>
@@ -10082,7 +10083,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
         <v>1071</v>
       </c>
@@ -10099,7 +10100,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>1071</v>
       </c>
@@ -10116,7 +10117,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
         <v>1071</v>
       </c>
@@ -10133,7 +10134,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
         <v>1071</v>
       </c>
@@ -10150,7 +10151,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
         <v>1071</v>
       </c>
@@ -10167,7 +10168,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
         <v>1071</v>
       </c>
@@ -10184,7 +10185,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>1072</v>
       </c>
@@ -10201,7 +10202,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>1072</v>
       </c>
@@ -10218,7 +10219,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
         <v>1072</v>
       </c>
@@ -10235,7 +10236,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
         <v>1072</v>
       </c>
@@ -10252,7 +10253,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
         <v>1072</v>
       </c>
@@ -10269,7 +10270,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
         <v>1072</v>
       </c>
@@ -10286,7 +10287,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
         <v>1072</v>
       </c>
@@ -10303,7 +10304,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
         <v>1072</v>
       </c>
@@ -10320,7 +10321,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
         <v>1072</v>
       </c>
@@ -10337,7 +10338,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
         <v>1072</v>
       </c>
@@ -10354,7 +10355,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
         <v>1072</v>
       </c>
@@ -10371,7 +10372,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
         <v>1072</v>
       </c>
@@ -10388,7 +10389,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
         <v>1072</v>
       </c>
@@ -10405,7 +10406,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
         <v>1072</v>
       </c>
@@ -10422,7 +10423,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
         <v>1072</v>
       </c>
@@ -10439,7 +10440,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
         <v>1072</v>
       </c>
@@ -10456,7 +10457,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
         <v>1072</v>
       </c>
@@ -10473,7 +10474,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
         <v>1072</v>
       </c>
@@ -10490,7 +10491,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
         <v>1072</v>
       </c>
@@ -10507,7 +10508,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
         <v>1072</v>
       </c>
@@ -10524,7 +10525,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
         <v>1072</v>
       </c>
@@ -10541,7 +10542,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
         <v>1072</v>
       </c>
@@ -10558,7 +10559,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
         <v>1072</v>
       </c>
@@ -10575,7 +10576,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
         <v>1072</v>
       </c>
@@ -10592,7 +10593,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
         <v>1072</v>
       </c>
@@ -10609,7 +10610,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
         <v>1072</v>
       </c>
@@ -10626,7 +10627,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
         <v>1072</v>
       </c>
@@ -10643,7 +10644,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
         <v>1072</v>
       </c>
@@ -10660,7 +10661,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
         <v>1072</v>
       </c>
@@ -10677,7 +10678,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
         <v>1072</v>
       </c>
@@ -10694,7 +10695,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
         <v>1072</v>
       </c>
@@ -10711,7 +10712,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
         <v>1072</v>
       </c>
@@ -10728,7 +10729,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
         <v>1072</v>
       </c>
@@ -10745,7 +10746,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
         <v>1072</v>
       </c>
@@ -10762,7 +10763,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
         <v>1072</v>
       </c>
@@ -10779,7 +10780,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
         <v>1072</v>
       </c>
@@ -10796,7 +10797,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
         <v>1072</v>
       </c>
@@ -10813,7 +10814,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
         <v>1072</v>
       </c>
@@ -10830,7 +10831,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
         <v>1072</v>
       </c>
@@ -10847,7 +10848,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
         <v>1072</v>
       </c>
@@ -10864,7 +10865,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
         <v>1072</v>
       </c>
@@ -10881,7 +10882,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
         <v>1072</v>
       </c>
@@ -10898,7 +10899,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
         <v>1072</v>
       </c>
@@ -10915,7 +10916,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
         <v>1072</v>
       </c>
@@ -10932,7 +10933,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
         <v>1072</v>
       </c>
@@ -10949,7 +10950,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
         <v>1072</v>
       </c>
@@ -10966,7 +10967,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
         <v>1072</v>
       </c>
@@ -10983,7 +10984,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
         <v>1072</v>
       </c>
@@ -11000,7 +11001,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
         <v>1072</v>
       </c>
@@ -11017,7 +11018,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
         <v>1072</v>
       </c>
@@ -11034,7 +11035,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
         <v>1072</v>
       </c>
@@ -11051,7 +11052,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
         <v>1072</v>
       </c>
@@ -11068,7 +11069,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
         <v>1072</v>
       </c>
@@ -11085,7 +11086,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
         <v>1072</v>
       </c>
@@ -11102,7 +11103,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
         <v>1072</v>
       </c>
@@ -11119,7 +11120,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
         <v>1072</v>
       </c>
@@ -11136,7 +11137,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
         <v>1072</v>
       </c>
@@ -11153,7 +11154,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
         <v>1072</v>
       </c>
@@ -11170,7 +11171,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
         <v>1072</v>
       </c>
@@ -11187,7 +11188,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
         <v>1072</v>
       </c>
@@ -11204,7 +11205,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
         <v>1072</v>
       </c>
@@ -11221,7 +11222,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
         <v>1072</v>
       </c>
@@ -11238,7 +11239,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
         <v>1072</v>
       </c>
@@ -11255,7 +11256,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
         <v>1072</v>
       </c>
@@ -11272,7 +11273,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
         <v>1072</v>
       </c>
@@ -11289,7 +11290,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
         <v>1072</v>
       </c>
@@ -11306,7 +11307,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
         <v>1072</v>
       </c>
@@ -11323,7 +11324,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
         <v>1072</v>
       </c>
@@ -15998,7 +15999,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="625" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A625" t="s">
         <v>1142</v>
       </c>
@@ -16015,7 +16016,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="626" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A626" t="s">
         <v>1142</v>
       </c>
@@ -16032,7 +16033,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="627" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A627" t="s">
         <v>1142</v>
       </c>
@@ -16049,7 +16050,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="628" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A628" t="s">
         <v>1142</v>
       </c>
@@ -16066,7 +16067,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="629" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A629" t="s">
         <v>1142</v>
       </c>
@@ -16083,7 +16084,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="630" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A630" t="s">
         <v>1142</v>
       </c>
@@ -16100,7 +16101,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="631" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A631" t="s">
         <v>1142</v>
       </c>
@@ -16117,7 +16118,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="632" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A632" t="s">
         <v>1142</v>
       </c>
@@ -16134,7 +16135,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="633" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A633" t="s">
         <v>1142</v>
       </c>
@@ -16151,7 +16152,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="634" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A634" t="s">
         <v>1142</v>
       </c>
@@ -16168,7 +16169,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="635" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A635" t="s">
         <v>1142</v>
       </c>
@@ -16185,7 +16186,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="636" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A636" t="s">
         <v>1142</v>
       </c>
@@ -16202,7 +16203,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="637" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A637" t="s">
         <v>1142</v>
       </c>
@@ -16219,7 +16220,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="638" spans="1:5" ht="16.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A638" t="s">
         <v>1142</v>
       </c>
@@ -16236,7 +16237,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="639" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A639" t="s">
         <v>1142</v>
       </c>
@@ -16253,7 +16254,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="640" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A640" t="s">
         <v>1142</v>
       </c>
@@ -16270,7 +16271,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="641" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A641" t="s">
         <v>1142</v>
       </c>
@@ -16287,7 +16288,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="642" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A642" t="s">
         <v>1142</v>
       </c>
@@ -16304,7 +16305,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="643" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A643" t="s">
         <v>1142</v>
       </c>
@@ -16321,7 +16322,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="644" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A644" t="s">
         <v>1142</v>
       </c>
@@ -16338,7 +16339,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="645" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A645" t="s">
         <v>1142</v>
       </c>
@@ -16355,7 +16356,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="646" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A646" t="s">
         <v>1142</v>
       </c>
@@ -16372,7 +16373,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="647" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A647" t="s">
         <v>1142</v>
       </c>
@@ -16389,7 +16390,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="648" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A648" t="s">
         <v>1142</v>
       </c>
@@ -16406,7 +16407,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="649" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A649" t="s">
         <v>1142</v>
       </c>
@@ -16423,7 +16424,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="650" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A650" t="s">
         <v>1142</v>
       </c>
@@ -16440,7 +16441,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="651" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A651" t="s">
         <v>1142</v>
       </c>
@@ -16457,7 +16458,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="652" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A652" t="s">
         <v>1142</v>
       </c>
@@ -16474,7 +16475,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="653" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A653" t="s">
         <v>1142</v>
       </c>
@@ -16491,7 +16492,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="654" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A654" t="s">
         <v>1142</v>
       </c>
@@ -16508,7 +16509,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="655" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A655" t="s">
         <v>1142</v>
       </c>
@@ -16525,7 +16526,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="656" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A656" t="s">
         <v>1142</v>
       </c>
@@ -16542,7 +16543,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="657" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A657" t="s">
         <v>1142</v>
       </c>
@@ -16559,7 +16560,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="658" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A658" t="s">
         <v>1142</v>
       </c>
@@ -16576,7 +16577,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="659" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A659" t="s">
         <v>1142</v>
       </c>
@@ -16593,7 +16594,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="660" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A660" t="s">
         <v>1142</v>
       </c>
@@ -16610,7 +16611,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="661" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A661" t="s">
         <v>1142</v>
       </c>
@@ -16627,7 +16628,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="662" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A662" t="s">
         <v>1142</v>
       </c>
@@ -16644,7 +16645,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="663" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A663" t="s">
         <v>1142</v>
       </c>
@@ -16661,7 +16662,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="664" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A664" t="s">
         <v>1142</v>
       </c>
@@ -16678,7 +16679,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="665" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A665" t="s">
         <v>1142</v>
       </c>
@@ -16695,7 +16696,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="666" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A666" t="s">
         <v>1142</v>
       </c>
@@ -16712,7 +16713,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="667" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A667" t="s">
         <v>1142</v>
       </c>
@@ -16729,7 +16730,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="668" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A668" t="s">
         <v>1142</v>
       </c>
@@ -16746,7 +16747,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="669" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A669" t="s">
         <v>1142</v>
       </c>
@@ -16848,7 +16849,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="675" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A675" t="s">
         <v>1142</v>
       </c>
@@ -16865,7 +16866,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="676" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A676" t="s">
         <v>1142</v>
       </c>
@@ -16882,7 +16883,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="677" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A677" t="s">
         <v>1142</v>
       </c>
@@ -16899,7 +16900,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="678" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A678" t="s">
         <v>1142</v>
       </c>
@@ -16916,7 +16917,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="679" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A679" t="s">
         <v>1142</v>
       </c>
@@ -16933,7 +16934,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="680" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A680" t="s">
         <v>1142</v>
       </c>
@@ -16950,7 +16951,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="681" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A681" t="s">
         <v>1142</v>
       </c>
@@ -16967,7 +16968,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="682" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A682" t="s">
         <v>1142</v>
       </c>
@@ -16984,7 +16985,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="683" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A683" t="s">
         <v>1142</v>
       </c>
@@ -17001,7 +17002,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="684" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A684" t="s">
         <v>1142</v>
       </c>
@@ -17103,7 +17104,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="690" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A690" t="s">
         <v>1142</v>
       </c>
@@ -17120,7 +17121,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="691" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A691" t="s">
         <v>1142</v>
       </c>
@@ -17137,7 +17138,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="692" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A692" t="s">
         <v>1142</v>
       </c>
@@ -17154,7 +17155,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="693" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A693" t="s">
         <v>1142</v>
       </c>
@@ -17171,7 +17172,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="694" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A694" t="s">
         <v>1142</v>
       </c>
@@ -17188,7 +17189,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="695" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A695" t="s">
         <v>1142</v>
       </c>
@@ -17205,7 +17206,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="696" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A696" t="s">
         <v>1142</v>
       </c>
@@ -17222,7 +17223,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="697" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A697" t="s">
         <v>1142</v>
       </c>
@@ -17239,7 +17240,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="698" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A698" t="s">
         <v>1142</v>
       </c>
@@ -17256,7 +17257,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="699" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A699" t="s">
         <v>1142</v>
       </c>
@@ -17273,7 +17274,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="700" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A700" t="s">
         <v>1142</v>
       </c>
@@ -17290,7 +17291,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="701" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A701" t="s">
         <v>1142</v>
       </c>
@@ -17324,7 +17325,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="703" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A703" t="s">
         <v>1142</v>
       </c>
@@ -17341,7 +17342,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="704" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A704" t="s">
         <v>1142</v>
       </c>
@@ -17363,7 +17364,7 @@
         <v>1142</v>
       </c>
       <c r="B705" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C705" t="s">
         <v>1284</v>
@@ -17375,7 +17376,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="706" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A706" t="s">
         <v>1142</v>
       </c>
@@ -17392,7 +17393,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="707" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A707" t="s">
         <v>1142</v>
       </c>
@@ -17409,7 +17410,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="708" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A708" t="s">
         <v>1142</v>
       </c>
@@ -17426,7 +17427,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="709" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A709" t="s">
         <v>1142</v>
       </c>
@@ -17443,7 +17444,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="710" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A710" t="s">
         <v>1142</v>
       </c>
@@ -17460,7 +17461,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="711" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A711" t="s">
         <v>1142</v>
       </c>
@@ -17477,7 +17478,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="712" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A712" t="s">
         <v>1142</v>
       </c>
@@ -17494,7 +17495,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="713" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A713" t="s">
         <v>1142</v>
       </c>
@@ -17511,7 +17512,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="714" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A714" t="s">
         <v>1142</v>
       </c>
@@ -17528,7 +17529,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="715" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A715" t="s">
         <v>1142</v>
       </c>
@@ -17545,7 +17546,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="716" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A716" t="s">
         <v>1142</v>
       </c>
@@ -18536,7 +18537,7 @@
         <v>1400</v>
       </c>
       <c r="B774" s="1" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="C774" t="s">
         <v>1413</v>
@@ -18587,7 +18588,7 @@
         <v>1400</v>
       </c>
       <c r="B777" s="1" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="C777" t="s">
         <v>1416</v>
@@ -18638,7 +18639,7 @@
         <v>1400</v>
       </c>
       <c r="B780" s="1" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C780" t="s">
         <v>1419</v>
@@ -18655,7 +18656,7 @@
         <v>1400</v>
       </c>
       <c r="B781" s="1" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C781" t="s">
         <v>1420</v>
@@ -18672,7 +18673,7 @@
         <v>1400</v>
       </c>
       <c r="B782" s="1" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C782" t="s">
         <v>1421</v>
@@ -18956,7 +18957,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="799" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A799" t="s">
         <v>1451</v>
       </c>
@@ -18973,7 +18974,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="800" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A800" t="s">
         <v>1451</v>
       </c>
@@ -18990,7 +18991,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="801" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A801" t="s">
         <v>1451</v>
       </c>
@@ -19007,7 +19008,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="802" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A802" t="s">
         <v>1451</v>
       </c>
@@ -19024,7 +19025,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="803" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A803" t="s">
         <v>1451</v>
       </c>
@@ -19041,7 +19042,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="804" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A804" t="s">
         <v>1451</v>
       </c>
@@ -19058,7 +19059,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="805" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A805" t="s">
         <v>1451</v>
       </c>
@@ -19075,7 +19076,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="806" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A806" t="s">
         <v>1451</v>
       </c>
@@ -19092,7 +19093,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="807" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A807" t="s">
         <v>1451</v>
       </c>
@@ -19109,12 +19110,12 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="808" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A808" t="s">
         <v>1451</v>
       </c>
       <c r="B808" s="1" t="s">
-        <v>1588</v>
+        <v>1599</v>
       </c>
       <c r="C808" t="s">
         <v>1468</v>
@@ -19126,12 +19127,12 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="809" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A809" t="s">
         <v>1451</v>
       </c>
       <c r="B809" s="1" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="C809" t="s">
         <v>1469</v>
@@ -19143,7 +19144,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="810" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A810" t="s">
         <v>1451</v>
       </c>
@@ -19160,7 +19161,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="811" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A811" t="s">
         <v>1451</v>
       </c>
@@ -19177,7 +19178,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="812" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A812" t="s">
         <v>1448</v>
       </c>
@@ -19194,7 +19195,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="813" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A813" t="s">
         <v>1448</v>
       </c>
@@ -19211,7 +19212,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="814" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A814" t="s">
         <v>1481</v>
       </c>
@@ -19228,7 +19229,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="815" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A815" t="s">
         <v>1481</v>
       </c>
@@ -19245,7 +19246,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="816" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A816" t="s">
         <v>1481</v>
       </c>
@@ -19262,7 +19263,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="817" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A817" t="s">
         <v>1481</v>
       </c>
@@ -19279,7 +19280,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="818" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A818" t="s">
         <v>1481</v>
       </c>
@@ -19296,12 +19297,12 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="819" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A819" t="s">
         <v>1481</v>
       </c>
       <c r="B819" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C819" t="s">
         <v>1499</v>
@@ -19313,12 +19314,12 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="820" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A820" t="s">
         <v>1481</v>
       </c>
       <c r="B820" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="C820" t="s">
         <v>1500</v>
@@ -19330,12 +19331,12 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="821" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A821" t="s">
         <v>1481</v>
       </c>
       <c r="B821" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C821" t="s">
         <v>1501</v>
@@ -19347,12 +19348,12 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="822" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A822" t="s">
         <v>1481</v>
       </c>
       <c r="B822" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="C822" t="s">
         <v>1502</v>
@@ -19364,7 +19365,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="823" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A823" t="s">
         <v>1481</v>
       </c>
@@ -19381,7 +19382,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="824" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A824" t="s">
         <v>1481</v>
       </c>
@@ -19398,7 +19399,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="825" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A825" t="s">
         <v>1481</v>
       </c>
@@ -19415,7 +19416,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="826" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A826" t="s">
         <v>1481</v>
       </c>
@@ -19432,7 +19433,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="827" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A827" t="s">
         <v>1481</v>
       </c>
@@ -19449,7 +19450,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="828" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="828" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A828" t="s">
         <v>1481</v>
       </c>
@@ -19470,23 +19471,11 @@
   <autoFilter ref="A1:C828">
     <filterColumn colId="0">
       <filters>
+        <filter val="中国A股利润表"/>
+        <filter val="中国A股业绩快报"/>
+        <filter val="中国A股业绩预告"/>
         <filter val="中国A股盈利预测汇总"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="净资产收益率标准差(%)"/>
-        <filter val="净资产收益率平均值(%)"/>
-        <filter val="净资产收益率中值(%)"/>
-        <filter val="净资产收益率最大值(%)"/>
-        <filter val="净资产收益率最小值(%)"/>
-        <filter val="净资产资产收益率预测家数"/>
-        <filter val="每股净资产标准差"/>
-        <filter val="每股净资产平均值"/>
-        <filter val="每股净资产预测家数"/>
-        <filter val="每股净资产中值"/>
-        <filter val="每股净资产最大值"/>
-        <filter val="每股净资产最小值"/>
+        <filter val="中国A股资产负债表"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/FactorLib/resource/wind_tableinfo.xlsx
+++ b/FactorLib/resource/wind_tableinfo.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="1600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3409" uniqueCount="1620">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4979,6 +4979,85 @@
   </si>
   <si>
     <t>总股本(万股)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股指数成分股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_windcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成分股代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_con_windcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳入日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_con_indate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剔除日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_con_outdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cur_sign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股万得指数成分股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIndexMembers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIndexMembersWIND</t>
+  </si>
+  <si>
+    <t>idx_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_info_windcode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5376,12 +5455,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
-  <dimension ref="A1:E828"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E838"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E721" sqref="E721"/>
+      <pane ySplit="1" topLeftCell="A818" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C839" sqref="C839"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5411,7 +5490,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1063</v>
       </c>
@@ -5428,7 +5507,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1063</v>
       </c>
@@ -5445,7 +5524,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1063</v>
       </c>
@@ -5462,7 +5541,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>1063</v>
       </c>
@@ -5479,7 +5558,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>1063</v>
       </c>
@@ -5496,7 +5575,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>1063</v>
       </c>
@@ -5513,7 +5592,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>1063</v>
       </c>
@@ -5530,7 +5609,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>1063</v>
       </c>
@@ -5547,7 +5626,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>1063</v>
       </c>
@@ -5564,7 +5643,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>1063</v>
       </c>
@@ -5581,7 +5660,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>1063</v>
       </c>
@@ -5598,7 +5677,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>1063</v>
       </c>
@@ -5615,7 +5694,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>1063</v>
       </c>
@@ -5632,7 +5711,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>1063</v>
       </c>
@@ -5649,7 +5728,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>1063</v>
       </c>
@@ -5666,7 +5745,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>1063</v>
       </c>
@@ -5683,7 +5762,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>1063</v>
       </c>
@@ -5700,7 +5779,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>1063</v>
       </c>
@@ -5717,7 +5796,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>1063</v>
       </c>
@@ -5734,7 +5813,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>1063</v>
       </c>
@@ -5751,7 +5830,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>1434</v>
       </c>
@@ -5768,7 +5847,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>1065</v>
       </c>
@@ -5785,7 +5864,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>1065</v>
       </c>
@@ -5802,7 +5881,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>1065</v>
       </c>
@@ -5819,7 +5898,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>1065</v>
       </c>
@@ -5836,7 +5915,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>1065</v>
       </c>
@@ -5853,7 +5932,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>1065</v>
       </c>
@@ -5870,7 +5949,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>1065</v>
       </c>
@@ -5887,7 +5966,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>1065</v>
       </c>
@@ -5904,7 +5983,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>1065</v>
       </c>
@@ -5921,7 +6000,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>1065</v>
       </c>
@@ -5938,7 +6017,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>1065</v>
       </c>
@@ -5955,7 +6034,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>1065</v>
       </c>
@@ -5972,7 +6051,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>1067</v>
       </c>
@@ -5989,7 +6068,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>1067</v>
       </c>
@@ -6006,7 +6085,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>1067</v>
       </c>
@@ -6023,7 +6102,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>1067</v>
       </c>
@@ -6040,7 +6119,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>1067</v>
       </c>
@@ -6057,7 +6136,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>1067</v>
       </c>
@@ -6074,7 +6153,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>1067</v>
       </c>
@@ -6091,7 +6170,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>1067</v>
       </c>
@@ -6108,7 +6187,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>1067</v>
       </c>
@@ -6125,7 +6204,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>1067</v>
       </c>
@@ -6142,7 +6221,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>1067</v>
       </c>
@@ -6159,7 +6238,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>1067</v>
       </c>
@@ -6176,7 +6255,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>1067</v>
       </c>
@@ -6193,7 +6272,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>1067</v>
       </c>
@@ -6210,7 +6289,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>1067</v>
       </c>
@@ -6227,7 +6306,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>1067</v>
       </c>
@@ -6244,7 +6323,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>1068</v>
       </c>
@@ -6261,7 +6340,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>1068</v>
       </c>
@@ -6278,7 +6357,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>1068</v>
       </c>
@@ -6295,7 +6374,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>1068</v>
       </c>
@@ -6312,7 +6391,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>1068</v>
       </c>
@@ -6329,7 +6408,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>1068</v>
       </c>
@@ -6346,7 +6425,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>1068</v>
       </c>
@@ -6363,7 +6442,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>1068</v>
       </c>
@@ -6380,7 +6459,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>1068</v>
       </c>
@@ -6397,7 +6476,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>1068</v>
       </c>
@@ -6414,7 +6493,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>1068</v>
       </c>
@@ -6431,7 +6510,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>1068</v>
       </c>
@@ -6448,7 +6527,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>1068</v>
       </c>
@@ -6465,7 +6544,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>1068</v>
       </c>
@@ -6482,7 +6561,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>1068</v>
       </c>
@@ -6499,7 +6578,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>1068</v>
       </c>
@@ -6516,7 +6595,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>1068</v>
       </c>
@@ -6533,7 +6612,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>1068</v>
       </c>
@@ -6550,7 +6629,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>1068</v>
       </c>
@@ -6567,7 +6646,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>1068</v>
       </c>
@@ -6584,7 +6663,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>1068</v>
       </c>
@@ -6601,7 +6680,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>1068</v>
       </c>
@@ -6618,7 +6697,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>1068</v>
       </c>
@@ -6635,7 +6714,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>1068</v>
       </c>
@@ -6652,7 +6731,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>1068</v>
       </c>
@@ -6669,7 +6748,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>1069</v>
       </c>
@@ -6686,7 +6765,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>1069</v>
       </c>
@@ -6703,7 +6782,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>1069</v>
       </c>
@@ -6720,7 +6799,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>1069</v>
       </c>
@@ -6737,7 +6816,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>1069</v>
       </c>
@@ -6754,7 +6833,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>1069</v>
       </c>
@@ -6771,7 +6850,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>1069</v>
       </c>
@@ -6788,7 +6867,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>1069</v>
       </c>
@@ -6805,7 +6884,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>1069</v>
       </c>
@@ -6822,7 +6901,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>1069</v>
       </c>
@@ -6839,7 +6918,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>1069</v>
       </c>
@@ -6856,7 +6935,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>1070</v>
       </c>
@@ -6873,7 +6952,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>1070</v>
       </c>
@@ -6890,7 +6969,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>1070</v>
       </c>
@@ -6907,7 +6986,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>1070</v>
       </c>
@@ -6924,7 +7003,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>1070</v>
       </c>
@@ -6941,7 +7020,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>1070</v>
       </c>
@@ -6958,7 +7037,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>1070</v>
       </c>
@@ -6975,7 +7054,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>1070</v>
       </c>
@@ -6992,7 +7071,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>1070</v>
       </c>
@@ -7009,7 +7088,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>1070</v>
       </c>
@@ -7026,7 +7105,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>1070</v>
       </c>
@@ -7043,7 +7122,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>1070</v>
       </c>
@@ -7060,7 +7139,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>1070</v>
       </c>
@@ -7077,7 +7156,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>1070</v>
       </c>
@@ -7094,7 +7173,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>1070</v>
       </c>
@@ -7111,7 +7190,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>1070</v>
       </c>
@@ -7128,7 +7207,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>1070</v>
       </c>
@@ -7145,7 +7224,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>1070</v>
       </c>
@@ -7162,7 +7241,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>1070</v>
       </c>
@@ -7179,7 +7258,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>1070</v>
       </c>
@@ -7196,7 +7275,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>1070</v>
       </c>
@@ -7213,7 +7292,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>1070</v>
       </c>
@@ -7230,7 +7309,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>1070</v>
       </c>
@@ -7247,7 +7326,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>1070</v>
       </c>
@@ -7264,7 +7343,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>1070</v>
       </c>
@@ -7281,7 +7360,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>1070</v>
       </c>
@@ -7298,7 +7377,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>1070</v>
       </c>
@@ -7315,7 +7394,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>1070</v>
       </c>
@@ -7332,7 +7411,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>1070</v>
       </c>
@@ -7349,7 +7428,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>1070</v>
       </c>
@@ -7366,7 +7445,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>1070</v>
       </c>
@@ -7383,7 +7462,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>1070</v>
       </c>
@@ -7400,7 +7479,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>1070</v>
       </c>
@@ -7417,7 +7496,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>1070</v>
       </c>
@@ -7434,7 +7513,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>1070</v>
       </c>
@@ -7451,7 +7530,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>1070</v>
       </c>
@@ -7468,7 +7547,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>1070</v>
       </c>
@@ -7485,7 +7564,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>1070</v>
       </c>
@@ -7502,7 +7581,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>1070</v>
       </c>
@@ -7519,7 +7598,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>1070</v>
       </c>
@@ -7536,7 +7615,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>1070</v>
       </c>
@@ -7553,7 +7632,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>1070</v>
       </c>
@@ -7570,7 +7649,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>1070</v>
       </c>
@@ -7587,7 +7666,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>1070</v>
       </c>
@@ -7604,7 +7683,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>1070</v>
       </c>
@@ -7621,7 +7700,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>1070</v>
       </c>
@@ -7638,7 +7717,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>1070</v>
       </c>
@@ -7655,7 +7734,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>1070</v>
       </c>
@@ -7672,7 +7751,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>1070</v>
       </c>
@@ -7689,7 +7768,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>1070</v>
       </c>
@@ -7706,7 +7785,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>1070</v>
       </c>
@@ -7723,7 +7802,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>1070</v>
       </c>
@@ -7740,7 +7819,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>1070</v>
       </c>
@@ -7757,7 +7836,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>1070</v>
       </c>
@@ -7774,7 +7853,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>1070</v>
       </c>
@@ -7791,7 +7870,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>1070</v>
       </c>
@@ -7808,7 +7887,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>1070</v>
       </c>
@@ -7825,7 +7904,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>1070</v>
       </c>
@@ -7842,7 +7921,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>1070</v>
       </c>
@@ -7859,7 +7938,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>1070</v>
       </c>
@@ -7876,7 +7955,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>1070</v>
       </c>
@@ -7893,7 +7972,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>1070</v>
       </c>
@@ -7910,7 +7989,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>1070</v>
       </c>
@@ -7927,7 +8006,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>1070</v>
       </c>
@@ -7944,7 +8023,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>1071</v>
       </c>
@@ -7961,7 +8040,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>1071</v>
       </c>
@@ -7978,7 +8057,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>1071</v>
       </c>
@@ -7995,7 +8074,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>1071</v>
       </c>
@@ -8012,7 +8091,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>1071</v>
       </c>
@@ -8029,7 +8108,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>1071</v>
       </c>
@@ -8046,7 +8125,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>1071</v>
       </c>
@@ -8063,7 +8142,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>1071</v>
       </c>
@@ -8080,7 +8159,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>1071</v>
       </c>
@@ -8097,7 +8176,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>1071</v>
       </c>
@@ -8114,7 +8193,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>1071</v>
       </c>
@@ -8131,7 +8210,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>1071</v>
       </c>
@@ -8148,7 +8227,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>1071</v>
       </c>
@@ -8165,7 +8244,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>1071</v>
       </c>
@@ -8182,7 +8261,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>1071</v>
       </c>
@@ -8199,7 +8278,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>1071</v>
       </c>
@@ -8216,7 +8295,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>1071</v>
       </c>
@@ -8233,7 +8312,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>1071</v>
       </c>
@@ -8250,7 +8329,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>1071</v>
       </c>
@@ -8267,7 +8346,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>1071</v>
       </c>
@@ -8284,7 +8363,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>1071</v>
       </c>
@@ -8301,7 +8380,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>1071</v>
       </c>
@@ -8318,7 +8397,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>1071</v>
       </c>
@@ -8335,7 +8414,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>1071</v>
       </c>
@@ -8352,7 +8431,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>1071</v>
       </c>
@@ -8369,7 +8448,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>1071</v>
       </c>
@@ -8386,7 +8465,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>1071</v>
       </c>
@@ -8403,7 +8482,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>1071</v>
       </c>
@@ -8420,7 +8499,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>1071</v>
       </c>
@@ -8437,7 +8516,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>1071</v>
       </c>
@@ -8454,7 +8533,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>1071</v>
       </c>
@@ -8471,7 +8550,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>1071</v>
       </c>
@@ -8488,7 +8567,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>1071</v>
       </c>
@@ -8505,7 +8584,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>1071</v>
       </c>
@@ -8522,7 +8601,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>1071</v>
       </c>
@@ -8539,7 +8618,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>1071</v>
       </c>
@@ -8556,7 +8635,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>1071</v>
       </c>
@@ -8573,7 +8652,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>1071</v>
       </c>
@@ -8590,7 +8669,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>1071</v>
       </c>
@@ -8607,7 +8686,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>1071</v>
       </c>
@@ -8624,7 +8703,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>1071</v>
       </c>
@@ -8641,7 +8720,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>1071</v>
       </c>
@@ -8658,7 +8737,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>1071</v>
       </c>
@@ -8675,7 +8754,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>1071</v>
       </c>
@@ -8692,7 +8771,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>1071</v>
       </c>
@@ -8709,7 +8788,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>1071</v>
       </c>
@@ -8726,7 +8805,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>1071</v>
       </c>
@@ -8743,7 +8822,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>1071</v>
       </c>
@@ -8760,7 +8839,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>1071</v>
       </c>
@@ -8777,7 +8856,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>1071</v>
       </c>
@@ -8794,7 +8873,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>1071</v>
       </c>
@@ -8811,7 +8890,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>1071</v>
       </c>
@@ -8828,7 +8907,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>1071</v>
       </c>
@@ -8845,7 +8924,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>1071</v>
       </c>
@@ -8862,7 +8941,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>1071</v>
       </c>
@@ -8879,7 +8958,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>1071</v>
       </c>
@@ -8896,7 +8975,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>1071</v>
       </c>
@@ -8913,7 +8992,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>1071</v>
       </c>
@@ -8930,7 +9009,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>1071</v>
       </c>
@@ -8947,7 +9026,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>1071</v>
       </c>
@@ -8964,7 +9043,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>1071</v>
       </c>
@@ -8981,7 +9060,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>1071</v>
       </c>
@@ -8998,7 +9077,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>1071</v>
       </c>
@@ -9015,7 +9094,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>1071</v>
       </c>
@@ -9032,7 +9111,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>1071</v>
       </c>
@@ -9049,7 +9128,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>1071</v>
       </c>
@@ -9066,7 +9145,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>1071</v>
       </c>
@@ -9083,7 +9162,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>1071</v>
       </c>
@@ -9100,7 +9179,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>1071</v>
       </c>
@@ -9117,7 +9196,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>1071</v>
       </c>
@@ -9134,7 +9213,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>1071</v>
       </c>
@@ -9151,7 +9230,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>1071</v>
       </c>
@@ -9168,7 +9247,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>1071</v>
       </c>
@@ -9185,7 +9264,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>1071</v>
       </c>
@@ -9202,7 +9281,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>1071</v>
       </c>
@@ -9219,7 +9298,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>1071</v>
       </c>
@@ -9236,7 +9315,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>1071</v>
       </c>
@@ -9253,7 +9332,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>1071</v>
       </c>
@@ -9270,7 +9349,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>1071</v>
       </c>
@@ -9287,7 +9366,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>1071</v>
       </c>
@@ -9304,7 +9383,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>1071</v>
       </c>
@@ -9321,7 +9400,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>1071</v>
       </c>
@@ -9338,7 +9417,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>1071</v>
       </c>
@@ -9355,7 +9434,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>1071</v>
       </c>
@@ -9372,7 +9451,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>1071</v>
       </c>
@@ -9389,7 +9468,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>1071</v>
       </c>
@@ -9406,7 +9485,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>1071</v>
       </c>
@@ -9423,7 +9502,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>1071</v>
       </c>
@@ -9440,7 +9519,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>1071</v>
       </c>
@@ -9457,7 +9536,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>1071</v>
       </c>
@@ -9474,7 +9553,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>1071</v>
       </c>
@@ -9491,7 +9570,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>1071</v>
       </c>
@@ -9508,7 +9587,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>1071</v>
       </c>
@@ -9525,7 +9604,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>1071</v>
       </c>
@@ -9542,7 +9621,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>1071</v>
       </c>
@@ -9559,7 +9638,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>1071</v>
       </c>
@@ -9576,7 +9655,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>1071</v>
       </c>
@@ -9593,7 +9672,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>1071</v>
       </c>
@@ -9610,7 +9689,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>1071</v>
       </c>
@@ -9627,7 +9706,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>1071</v>
       </c>
@@ -9644,7 +9723,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>1071</v>
       </c>
@@ -9661,7 +9740,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>1071</v>
       </c>
@@ -9678,7 +9757,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>1071</v>
       </c>
@@ -9695,7 +9774,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>1071</v>
       </c>
@@ -9712,7 +9791,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>1071</v>
       </c>
@@ -9729,7 +9808,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>1071</v>
       </c>
@@ -9746,7 +9825,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>1071</v>
       </c>
@@ -9763,7 +9842,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
         <v>1071</v>
       </c>
@@ -9780,7 +9859,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>1071</v>
       </c>
@@ -9797,7 +9876,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
         <v>1071</v>
       </c>
@@ -9814,7 +9893,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
         <v>1071</v>
       </c>
@@ -9831,7 +9910,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
         <v>1071</v>
       </c>
@@ -9848,7 +9927,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
         <v>1071</v>
       </c>
@@ -9865,7 +9944,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>1071</v>
       </c>
@@ -9882,7 +9961,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>1071</v>
       </c>
@@ -9899,7 +9978,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
         <v>1071</v>
       </c>
@@ -9916,7 +9995,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
         <v>1071</v>
       </c>
@@ -9933,7 +10012,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>1071</v>
       </c>
@@ -9950,7 +10029,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>1071</v>
       </c>
@@ -9967,7 +10046,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>1071</v>
       </c>
@@ -9984,7 +10063,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
         <v>1071</v>
       </c>
@@ -10001,7 +10080,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
         <v>1071</v>
       </c>
@@ -10018,7 +10097,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
         <v>1071</v>
       </c>
@@ -10035,7 +10114,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
         <v>1071</v>
       </c>
@@ -10052,7 +10131,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
         <v>1071</v>
       </c>
@@ -10069,7 +10148,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>1071</v>
       </c>
@@ -10086,7 +10165,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
         <v>1071</v>
       </c>
@@ -10103,7 +10182,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>1071</v>
       </c>
@@ -10120,7 +10199,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
         <v>1071</v>
       </c>
@@ -10137,7 +10216,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
         <v>1071</v>
       </c>
@@ -10154,7 +10233,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
         <v>1071</v>
       </c>
@@ -10171,7 +10250,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
         <v>1071</v>
       </c>
@@ -10188,7 +10267,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>1072</v>
       </c>
@@ -10205,7 +10284,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>1072</v>
       </c>
@@ -10222,7 +10301,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
         <v>1072</v>
       </c>
@@ -10239,7 +10318,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
         <v>1072</v>
       </c>
@@ -10256,7 +10335,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
         <v>1072</v>
       </c>
@@ -10273,7 +10352,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
         <v>1072</v>
       </c>
@@ -10290,7 +10369,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
         <v>1072</v>
       </c>
@@ -10307,7 +10386,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
         <v>1072</v>
       </c>
@@ -10324,7 +10403,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
         <v>1072</v>
       </c>
@@ -10341,7 +10420,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
         <v>1072</v>
       </c>
@@ -10358,7 +10437,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
         <v>1072</v>
       </c>
@@ -10375,7 +10454,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
         <v>1072</v>
       </c>
@@ -10392,7 +10471,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
         <v>1072</v>
       </c>
@@ -10409,7 +10488,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
         <v>1072</v>
       </c>
@@ -10426,7 +10505,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
         <v>1072</v>
       </c>
@@ -10443,7 +10522,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
         <v>1072</v>
       </c>
@@ -10460,7 +10539,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
         <v>1072</v>
       </c>
@@ -10477,7 +10556,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
         <v>1072</v>
       </c>
@@ -10494,7 +10573,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
         <v>1072</v>
       </c>
@@ -10511,7 +10590,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
         <v>1072</v>
       </c>
@@ -10528,7 +10607,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
         <v>1072</v>
       </c>
@@ -10545,7 +10624,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
         <v>1072</v>
       </c>
@@ -10562,7 +10641,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
         <v>1072</v>
       </c>
@@ -10579,7 +10658,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
         <v>1072</v>
       </c>
@@ -10596,7 +10675,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
         <v>1072</v>
       </c>
@@ -10613,7 +10692,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
         <v>1072</v>
       </c>
@@ -10630,7 +10709,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
         <v>1072</v>
       </c>
@@ -10647,7 +10726,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
         <v>1072</v>
       </c>
@@ -10664,7 +10743,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
         <v>1072</v>
       </c>
@@ -10681,7 +10760,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
         <v>1072</v>
       </c>
@@ -10698,7 +10777,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
         <v>1072</v>
       </c>
@@ -10715,7 +10794,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
         <v>1072</v>
       </c>
@@ -10732,7 +10811,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
         <v>1072</v>
       </c>
@@ -10749,7 +10828,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
         <v>1072</v>
       </c>
@@ -10766,7 +10845,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
         <v>1072</v>
       </c>
@@ -10783,7 +10862,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
         <v>1072</v>
       </c>
@@ -10800,7 +10879,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
         <v>1072</v>
       </c>
@@ -10817,7 +10896,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
         <v>1072</v>
       </c>
@@ -10834,7 +10913,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
         <v>1072</v>
       </c>
@@ -10851,7 +10930,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
         <v>1072</v>
       </c>
@@ -10868,7 +10947,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
         <v>1072</v>
       </c>
@@ -10885,7 +10964,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
         <v>1072</v>
       </c>
@@ -10902,7 +10981,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
         <v>1072</v>
       </c>
@@ -10919,7 +10998,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
         <v>1072</v>
       </c>
@@ -10936,7 +11015,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
         <v>1072</v>
       </c>
@@ -10953,7 +11032,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
         <v>1072</v>
       </c>
@@ -10970,7 +11049,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
         <v>1072</v>
       </c>
@@ -10987,7 +11066,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
         <v>1072</v>
       </c>
@@ -11004,7 +11083,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
         <v>1072</v>
       </c>
@@ -11021,7 +11100,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
         <v>1072</v>
       </c>
@@ -11038,7 +11117,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
         <v>1072</v>
       </c>
@@ -11055,7 +11134,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
         <v>1072</v>
       </c>
@@ -11072,7 +11151,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
         <v>1072</v>
       </c>
@@ -11089,7 +11168,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
         <v>1072</v>
       </c>
@@ -11106,7 +11185,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
         <v>1072</v>
       </c>
@@ -11123,7 +11202,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
         <v>1072</v>
       </c>
@@ -11140,7 +11219,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
         <v>1072</v>
       </c>
@@ -11157,7 +11236,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
         <v>1072</v>
       </c>
@@ -11174,7 +11253,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
         <v>1072</v>
       </c>
@@ -11191,7 +11270,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
         <v>1072</v>
       </c>
@@ -11208,7 +11287,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
         <v>1072</v>
       </c>
@@ -11225,7 +11304,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
         <v>1072</v>
       </c>
@@ -11242,7 +11321,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
         <v>1072</v>
       </c>
@@ -11259,7 +11338,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
         <v>1072</v>
       </c>
@@ -11276,7 +11355,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
         <v>1072</v>
       </c>
@@ -11293,7 +11372,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
         <v>1072</v>
       </c>
@@ -11310,7 +11389,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
         <v>1072</v>
       </c>
@@ -11327,7 +11406,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
         <v>1072</v>
       </c>
@@ -11344,7 +11423,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
         <v>1073</v>
       </c>
@@ -11361,7 +11440,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
         <v>1073</v>
       </c>
@@ -11378,7 +11457,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
         <v>1073</v>
       </c>
@@ -11395,7 +11474,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
         <v>1073</v>
       </c>
@@ -11412,7 +11491,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
         <v>1073</v>
       </c>
@@ -11429,7 +11508,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
         <v>1073</v>
       </c>
@@ -11446,7 +11525,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
         <v>1073</v>
       </c>
@@ -11463,7 +11542,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
         <v>1073</v>
       </c>
@@ -11480,7 +11559,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
         <v>1073</v>
       </c>
@@ -11497,7 +11576,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
         <v>1073</v>
       </c>
@@ -11514,7 +11593,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
         <v>1073</v>
       </c>
@@ -11531,7 +11610,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
         <v>1073</v>
       </c>
@@ -11548,7 +11627,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
         <v>1073</v>
       </c>
@@ -11565,7 +11644,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
         <v>1073</v>
       </c>
@@ -11582,7 +11661,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
         <v>1073</v>
       </c>
@@ -11599,7 +11678,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
         <v>1073</v>
       </c>
@@ -11616,7 +11695,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
         <v>1073</v>
       </c>
@@ -11633,7 +11712,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
         <v>1073</v>
       </c>
@@ -11650,7 +11729,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
         <v>1073</v>
       </c>
@@ -11667,7 +11746,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
         <v>1073</v>
       </c>
@@ -11684,7 +11763,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
         <v>1073</v>
       </c>
@@ -11701,7 +11780,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
         <v>1073</v>
       </c>
@@ -11718,7 +11797,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
         <v>1073</v>
       </c>
@@ -11735,7 +11814,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
         <v>1073</v>
       </c>
@@ -11752,7 +11831,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
         <v>1073</v>
       </c>
@@ -11769,7 +11848,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
         <v>1073</v>
       </c>
@@ -11786,7 +11865,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
         <v>1073</v>
       </c>
@@ -11803,7 +11882,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
         <v>1073</v>
       </c>
@@ -11820,7 +11899,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
         <v>1073</v>
       </c>
@@ -11837,7 +11916,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A380" t="s">
         <v>1073</v>
       </c>
@@ -11854,7 +11933,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A381" t="s">
         <v>1073</v>
       </c>
@@ -11871,7 +11950,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A382" t="s">
         <v>1073</v>
       </c>
@@ -11888,7 +11967,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A383" t="s">
         <v>1073</v>
       </c>
@@ -11905,7 +11984,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A384" t="s">
         <v>1073</v>
       </c>
@@ -11922,7 +12001,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A385" t="s">
         <v>1073</v>
       </c>
@@ -11939,7 +12018,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
         <v>1073</v>
       </c>
@@ -11956,7 +12035,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
         <v>1073</v>
       </c>
@@ -11973,7 +12052,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
         <v>1073</v>
       </c>
@@ -11990,7 +12069,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
         <v>1073</v>
       </c>
@@ -12007,7 +12086,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
         <v>1073</v>
       </c>
@@ -12024,7 +12103,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
         <v>1073</v>
       </c>
@@ -12041,7 +12120,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
         <v>1073</v>
       </c>
@@ -12058,7 +12137,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
         <v>1073</v>
       </c>
@@ -12075,7 +12154,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
         <v>1073</v>
       </c>
@@ -12092,7 +12171,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
         <v>1073</v>
       </c>
@@ -12109,7 +12188,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
         <v>1073</v>
       </c>
@@ -12126,7 +12205,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
         <v>1073</v>
       </c>
@@ -12143,7 +12222,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
         <v>1073</v>
       </c>
@@ -12160,7 +12239,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
         <v>1073</v>
       </c>
@@ -12177,7 +12256,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
         <v>1073</v>
       </c>
@@ -12194,7 +12273,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
         <v>1073</v>
       </c>
@@ -12211,7 +12290,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
         <v>1073</v>
       </c>
@@ -12228,7 +12307,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
         <v>1073</v>
       </c>
@@ -12245,7 +12324,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
         <v>1073</v>
       </c>
@@ -12262,7 +12341,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" t="s">
         <v>1073</v>
       </c>
@@ -12279,7 +12358,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A406" t="s">
         <v>1073</v>
       </c>
@@ -12296,7 +12375,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="407" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A407" t="s">
         <v>1073</v>
       </c>
@@ -12313,7 +12392,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="408" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A408" t="s">
         <v>1073</v>
       </c>
@@ -12330,7 +12409,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
         <v>1073</v>
       </c>
@@ -12347,7 +12426,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="410" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A410" t="s">
         <v>1073</v>
       </c>
@@ -12364,7 +12443,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A411" t="s">
         <v>1073</v>
       </c>
@@ -12381,7 +12460,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="412" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A412" t="s">
         <v>1073</v>
       </c>
@@ -12398,7 +12477,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="413" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A413" t="s">
         <v>1073</v>
       </c>
@@ -12415,7 +12494,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="414" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
         <v>1073</v>
       </c>
@@ -12432,7 +12511,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="415" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
         <v>1073</v>
       </c>
@@ -12449,7 +12528,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="416" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A416" t="s">
         <v>1073</v>
       </c>
@@ -12466,7 +12545,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A417" t="s">
         <v>1073</v>
       </c>
@@ -12483,7 +12562,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A418" t="s">
         <v>1073</v>
       </c>
@@ -12500,7 +12579,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A419" t="s">
         <v>1073</v>
       </c>
@@ -12517,7 +12596,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A420" t="s">
         <v>1073</v>
       </c>
@@ -12534,7 +12613,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="421" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A421" t="s">
         <v>1073</v>
       </c>
@@ -12551,7 +12630,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="422" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A422" t="s">
         <v>1073</v>
       </c>
@@ -12568,7 +12647,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="423" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A423" t="s">
         <v>1073</v>
       </c>
@@ -12585,7 +12664,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="424" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A424" t="s">
         <v>1073</v>
       </c>
@@ -12602,7 +12681,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="425" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A425" t="s">
         <v>1073</v>
       </c>
@@ -12619,7 +12698,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="426" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A426" t="s">
         <v>1073</v>
       </c>
@@ -12636,7 +12715,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="427" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A427" t="s">
         <v>1073</v>
       </c>
@@ -12653,7 +12732,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="428" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A428" t="s">
         <v>1073</v>
       </c>
@@ -12670,7 +12749,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="429" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A429" t="s">
         <v>1073</v>
       </c>
@@ -12687,7 +12766,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="430" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A430" t="s">
         <v>1073</v>
       </c>
@@ -12704,7 +12783,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="431" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A431" t="s">
         <v>1073</v>
       </c>
@@ -12721,7 +12800,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="432" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A432" t="s">
         <v>1073</v>
       </c>
@@ -12738,7 +12817,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="433" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A433" t="s">
         <v>1073</v>
       </c>
@@ -12755,7 +12834,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="434" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A434" t="s">
         <v>1073</v>
       </c>
@@ -12772,7 +12851,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="435" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A435" t="s">
         <v>1073</v>
       </c>
@@ -12789,7 +12868,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A436" t="s">
         <v>1073</v>
       </c>
@@ -12806,7 +12885,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="437" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A437" t="s">
         <v>1073</v>
       </c>
@@ -12823,7 +12902,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A438" t="s">
         <v>1073</v>
       </c>
@@ -12840,7 +12919,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="439" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A439" t="s">
         <v>1073</v>
       </c>
@@ -12857,7 +12936,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="440" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A440" t="s">
         <v>1073</v>
       </c>
@@ -12874,7 +12953,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="441" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A441" t="s">
         <v>1073</v>
       </c>
@@ -12891,7 +12970,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="442" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A442" t="s">
         <v>1073</v>
       </c>
@@ -12908,7 +12987,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="443" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="1" t="s">
         <v>1074</v>
       </c>
@@ -12925,7 +13004,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="444" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A444" s="1" t="s">
         <v>1074</v>
       </c>
@@ -12942,7 +13021,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="445" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A445" s="1" t="s">
         <v>1074</v>
       </c>
@@ -12959,7 +13038,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="446" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A446" s="1" t="s">
         <v>1074</v>
       </c>
@@ -12976,7 +13055,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="447" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A447" s="1" t="s">
         <v>1074</v>
       </c>
@@ -12993,7 +13072,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="448" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A448" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13010,7 +13089,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="449" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A449" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13027,7 +13106,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="450" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A450" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13044,7 +13123,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="451" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A451" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13061,7 +13140,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="452" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A452" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13078,7 +13157,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="453" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A453" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13095,7 +13174,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="454" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A454" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13112,7 +13191,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="455" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A455" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13129,7 +13208,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="456" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A456" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13146,7 +13225,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="457" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13163,7 +13242,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="458" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A458" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13180,7 +13259,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="459" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A459" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13197,7 +13276,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="460" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A460" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13214,7 +13293,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="461" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A461" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13231,7 +13310,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="462" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A462" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13248,7 +13327,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="463" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A463" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13265,7 +13344,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="464" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A464" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13282,7 +13361,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="465" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A465" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13299,7 +13378,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="466" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A466" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13316,7 +13395,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="467" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A467" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13333,7 +13412,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="468" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A468" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13350,7 +13429,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="469" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A469" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13367,7 +13446,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="470" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A470" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13384,7 +13463,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="471" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A471" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13401,7 +13480,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="472" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A472" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13418,7 +13497,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="473" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A473" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13435,7 +13514,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="474" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A474" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13452,7 +13531,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="475" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A475" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13469,7 +13548,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="476" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A476" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13486,7 +13565,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="477" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A477" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13503,7 +13582,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="478" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A478" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13520,7 +13599,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="479" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A479" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13537,7 +13616,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="480" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A480" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13554,7 +13633,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="481" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A481" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13571,7 +13650,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="482" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A482" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13588,7 +13667,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="483" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A483" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13605,7 +13684,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="484" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A484" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13622,7 +13701,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="485" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A485" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13639,7 +13718,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="486" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A486" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13656,7 +13735,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="487" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A487" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13673,7 +13752,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="488" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A488" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13690,7 +13769,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="489" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A489" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13707,7 +13786,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="490" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A490" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13724,7 +13803,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="491" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A491" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13741,7 +13820,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="492" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A492" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13758,7 +13837,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="493" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A493" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13775,7 +13854,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="494" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A494" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13792,7 +13871,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="495" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A495" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13809,7 +13888,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="496" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A496" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13826,7 +13905,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="497" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A497" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13843,7 +13922,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="498" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A498" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13860,7 +13939,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="499" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A499" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13877,7 +13956,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="500" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A500" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13894,7 +13973,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="501" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A501" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13911,7 +13990,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="502" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A502" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13928,7 +14007,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="503" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A503" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13945,7 +14024,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="504" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A504" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13962,7 +14041,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="505" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A505" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13979,7 +14058,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="506" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A506" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13996,7 +14075,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="507" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A507" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14013,7 +14092,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="508" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A508" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14030,7 +14109,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="509" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A509" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14047,7 +14126,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="510" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A510" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14064,7 +14143,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="511" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A511" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14081,7 +14160,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="512" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A512" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14098,7 +14177,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="513" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A513" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14115,7 +14194,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="514" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A514" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14132,7 +14211,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="515" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A515" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14149,7 +14228,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="516" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A516" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14166,7 +14245,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="517" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A517" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14183,7 +14262,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="518" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A518" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14200,7 +14279,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="519" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A519" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14217,7 +14296,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="520" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A520" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14234,7 +14313,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="521" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A521" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14251,7 +14330,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="522" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A522" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14268,7 +14347,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="523" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A523" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14285,7 +14364,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="524" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A524" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14302,7 +14381,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="525" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A525" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14319,7 +14398,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="526" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A526" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14336,7 +14415,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="527" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A527" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14353,7 +14432,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="528" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A528" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14370,7 +14449,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="529" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A529" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14387,7 +14466,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="530" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A530" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14404,7 +14483,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="531" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A531" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14421,7 +14500,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="532" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A532" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14438,7 +14517,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="533" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A533" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14455,7 +14534,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="534" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A534" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14472,7 +14551,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="535" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A535" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14489,7 +14568,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="536" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A536" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14506,7 +14585,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="537" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A537" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14523,7 +14602,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="538" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A538" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14540,7 +14619,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="539" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A539" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14557,7 +14636,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="540" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A540" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14574,7 +14653,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="541" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A541" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14591,7 +14670,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="542" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A542" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14608,7 +14687,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="543" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A543" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14625,7 +14704,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="544" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A544" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14642,7 +14721,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="545" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A545" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14659,7 +14738,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="546" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A546" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14676,7 +14755,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="547" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A547" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14693,7 +14772,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="548" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A548" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14710,7 +14789,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="549" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A549" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14727,7 +14806,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="550" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A550" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14744,7 +14823,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="551" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A551" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14761,7 +14840,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="552" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A552" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14778,7 +14857,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="553" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A553" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14795,7 +14874,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="554" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A554" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14812,7 +14891,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="555" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A555" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14829,7 +14908,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="556" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A556" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14846,7 +14925,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="557" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A557" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14863,7 +14942,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="558" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A558" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14880,7 +14959,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="559" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A559" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14897,7 +14976,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="560" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A560" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14914,7 +14993,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="561" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A561" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14931,7 +15010,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="562" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A562" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14948,7 +15027,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="563" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A563" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14965,7 +15044,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="564" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A564" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14982,7 +15061,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="565" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A565" s="1" t="s">
         <v>1074</v>
       </c>
@@ -14999,7 +15078,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="566" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A566" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15016,7 +15095,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="567" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A567" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15033,7 +15112,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="568" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A568" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15050,7 +15129,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="569" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A569" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15067,7 +15146,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="570" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A570" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15084,7 +15163,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="571" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A571" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15101,7 +15180,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="572" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A572" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15118,7 +15197,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="573" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A573" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15135,7 +15214,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="574" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A574" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15152,7 +15231,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="575" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A575" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15169,7 +15248,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="576" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A576" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15186,7 +15265,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="577" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A577" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15203,7 +15282,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="578" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A578" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15220,7 +15299,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="579" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A579" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15237,7 +15316,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="580" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A580" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15254,7 +15333,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="581" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A581" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15271,7 +15350,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="582" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A582" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15288,7 +15367,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="583" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A583" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15305,7 +15384,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="584" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A584" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15322,7 +15401,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="585" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A585" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15339,7 +15418,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="586" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A586" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15356,7 +15435,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="587" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A587" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15373,7 +15452,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="588" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A588" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15390,7 +15469,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="589" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A589" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15407,7 +15486,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="590" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A590" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15424,7 +15503,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="591" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A591" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15441,7 +15520,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="592" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A592" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15458,7 +15537,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="593" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A593" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15475,7 +15554,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="594" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A594" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15492,7 +15571,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="595" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A595" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15509,7 +15588,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="596" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A596" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15526,7 +15605,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="597" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A597" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15543,7 +15622,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="598" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A598" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15560,7 +15639,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="599" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A599" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15577,7 +15656,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="600" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A600" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15594,7 +15673,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="601" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A601" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15611,7 +15690,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="602" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A602" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15628,7 +15707,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="603" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A603" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15645,7 +15724,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="604" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A604" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15662,7 +15741,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="605" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A605" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15679,7 +15758,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="606" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A606" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15696,7 +15775,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="607" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A607" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15713,7 +15792,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="608" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A608" s="1" t="s">
         <v>1074</v>
       </c>
@@ -15730,7 +15809,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="609" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A609" t="s">
         <v>1105</v>
       </c>
@@ -15747,7 +15826,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="610" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A610" t="s">
         <v>1105</v>
       </c>
@@ -15764,7 +15843,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="611" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A611" t="s">
         <v>1105</v>
       </c>
@@ -15781,7 +15860,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="612" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A612" t="s">
         <v>1105</v>
       </c>
@@ -15798,7 +15877,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="613" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A613" t="s">
         <v>1105</v>
       </c>
@@ -15815,7 +15894,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="614" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A614" t="s">
         <v>1105</v>
       </c>
@@ -15832,7 +15911,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="615" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A615" t="s">
         <v>1105</v>
       </c>
@@ -15849,7 +15928,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="616" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A616" t="s">
         <v>1105</v>
       </c>
@@ -15866,7 +15945,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="617" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A617" t="s">
         <v>1105</v>
       </c>
@@ -15883,7 +15962,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="618" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A618" t="s">
         <v>1105</v>
       </c>
@@ -15900,7 +15979,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="619" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A619" t="s">
         <v>1105</v>
       </c>
@@ -15917,7 +15996,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="620" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A620" t="s">
         <v>1105</v>
       </c>
@@ -15934,7 +16013,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="621" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A621" t="s">
         <v>1105</v>
       </c>
@@ -15951,7 +16030,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="622" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A622" t="s">
         <v>1105</v>
       </c>
@@ -15968,7 +16047,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="623" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A623" t="s">
         <v>1105</v>
       </c>
@@ -15985,7 +16064,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="624" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A624" t="s">
         <v>1105</v>
       </c>
@@ -16002,7 +16081,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="625" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A625" t="s">
         <v>1142</v>
       </c>
@@ -16019,7 +16098,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="626" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A626" t="s">
         <v>1142</v>
       </c>
@@ -16036,7 +16115,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="627" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A627" t="s">
         <v>1142</v>
       </c>
@@ -16053,7 +16132,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="628" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A628" t="s">
         <v>1142</v>
       </c>
@@ -16070,7 +16149,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="629" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A629" t="s">
         <v>1142</v>
       </c>
@@ -16087,7 +16166,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="630" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A630" t="s">
         <v>1142</v>
       </c>
@@ -16104,7 +16183,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="631" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A631" t="s">
         <v>1142</v>
       </c>
@@ -16121,7 +16200,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="632" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A632" t="s">
         <v>1142</v>
       </c>
@@ -16138,7 +16217,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="633" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A633" t="s">
         <v>1142</v>
       </c>
@@ -16155,7 +16234,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="634" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A634" t="s">
         <v>1142</v>
       </c>
@@ -16172,7 +16251,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="635" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A635" t="s">
         <v>1142</v>
       </c>
@@ -16189,7 +16268,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="636" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A636" t="s">
         <v>1142</v>
       </c>
@@ -16206,7 +16285,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="637" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A637" t="s">
         <v>1142</v>
       </c>
@@ -16223,7 +16302,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="638" spans="1:5" ht="16.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A638" t="s">
         <v>1142</v>
       </c>
@@ -16240,7 +16319,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="639" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A639" t="s">
         <v>1142</v>
       </c>
@@ -16257,7 +16336,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="640" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A640" t="s">
         <v>1142</v>
       </c>
@@ -16274,7 +16353,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="641" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A641" t="s">
         <v>1142</v>
       </c>
@@ -16291,7 +16370,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="642" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A642" t="s">
         <v>1142</v>
       </c>
@@ -16308,7 +16387,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="643" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A643" t="s">
         <v>1142</v>
       </c>
@@ -16325,7 +16404,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="644" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A644" t="s">
         <v>1142</v>
       </c>
@@ -16342,7 +16421,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="645" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A645" t="s">
         <v>1142</v>
       </c>
@@ -16359,7 +16438,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="646" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A646" t="s">
         <v>1142</v>
       </c>
@@ -16376,7 +16455,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="647" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A647" t="s">
         <v>1142</v>
       </c>
@@ -16393,7 +16472,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="648" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A648" t="s">
         <v>1142</v>
       </c>
@@ -16410,7 +16489,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="649" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A649" t="s">
         <v>1142</v>
       </c>
@@ -16427,7 +16506,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="650" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A650" t="s">
         <v>1142</v>
       </c>
@@ -16444,7 +16523,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="651" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A651" t="s">
         <v>1142</v>
       </c>
@@ -16461,7 +16540,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="652" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A652" t="s">
         <v>1142</v>
       </c>
@@ -16478,7 +16557,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="653" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A653" t="s">
         <v>1142</v>
       </c>
@@ -16495,7 +16574,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="654" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A654" t="s">
         <v>1142</v>
       </c>
@@ -16512,7 +16591,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="655" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A655" t="s">
         <v>1142</v>
       </c>
@@ -16529,7 +16608,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="656" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A656" t="s">
         <v>1142</v>
       </c>
@@ -16546,7 +16625,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="657" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A657" t="s">
         <v>1142</v>
       </c>
@@ -16563,7 +16642,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="658" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A658" t="s">
         <v>1142</v>
       </c>
@@ -16580,7 +16659,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="659" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A659" t="s">
         <v>1142</v>
       </c>
@@ -16597,7 +16676,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="660" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A660" t="s">
         <v>1142</v>
       </c>
@@ -16614,7 +16693,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="661" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A661" t="s">
         <v>1142</v>
       </c>
@@ -16631,7 +16710,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="662" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A662" t="s">
         <v>1142</v>
       </c>
@@ -16648,7 +16727,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="663" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A663" t="s">
         <v>1142</v>
       </c>
@@ -16665,7 +16744,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="664" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A664" t="s">
         <v>1142</v>
       </c>
@@ -16682,7 +16761,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="665" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A665" t="s">
         <v>1142</v>
       </c>
@@ -16699,7 +16778,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="666" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A666" t="s">
         <v>1142</v>
       </c>
@@ -16716,7 +16795,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="667" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A667" t="s">
         <v>1142</v>
       </c>
@@ -16733,7 +16812,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="668" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A668" t="s">
         <v>1142</v>
       </c>
@@ -16750,7 +16829,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="669" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A669" t="s">
         <v>1142</v>
       </c>
@@ -16767,7 +16846,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="670" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A670" t="s">
         <v>1142</v>
       </c>
@@ -16784,7 +16863,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="671" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A671" t="s">
         <v>1142</v>
       </c>
@@ -16801,7 +16880,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="672" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A672" t="s">
         <v>1142</v>
       </c>
@@ -16818,7 +16897,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="673" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A673" t="s">
         <v>1142</v>
       </c>
@@ -16835,7 +16914,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="674" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A674" t="s">
         <v>1142</v>
       </c>
@@ -16852,7 +16931,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="675" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A675" t="s">
         <v>1142</v>
       </c>
@@ -16869,7 +16948,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="676" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A676" t="s">
         <v>1142</v>
       </c>
@@ -16886,7 +16965,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="677" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A677" t="s">
         <v>1142</v>
       </c>
@@ -16903,7 +16982,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="678" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A678" t="s">
         <v>1142</v>
       </c>
@@ -16920,7 +16999,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="679" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A679" t="s">
         <v>1142</v>
       </c>
@@ -16937,7 +17016,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="680" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A680" t="s">
         <v>1142</v>
       </c>
@@ -16954,7 +17033,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="681" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A681" t="s">
         <v>1142</v>
       </c>
@@ -16971,7 +17050,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="682" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A682" t="s">
         <v>1142</v>
       </c>
@@ -16988,7 +17067,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="683" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A683" t="s">
         <v>1142</v>
       </c>
@@ -17005,7 +17084,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="684" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A684" t="s">
         <v>1142</v>
       </c>
@@ -17022,7 +17101,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="685" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A685" t="s">
         <v>1142</v>
       </c>
@@ -17039,7 +17118,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="686" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A686" t="s">
         <v>1142</v>
       </c>
@@ -17056,7 +17135,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="687" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A687" t="s">
         <v>1142</v>
       </c>
@@ -17073,7 +17152,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="688" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A688" t="s">
         <v>1142</v>
       </c>
@@ -17090,7 +17169,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="689" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A689" t="s">
         <v>1142</v>
       </c>
@@ -17107,7 +17186,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="690" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A690" t="s">
         <v>1142</v>
       </c>
@@ -17124,7 +17203,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="691" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A691" t="s">
         <v>1142</v>
       </c>
@@ -17141,7 +17220,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="692" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A692" t="s">
         <v>1142</v>
       </c>
@@ -17158,7 +17237,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="693" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A693" t="s">
         <v>1142</v>
       </c>
@@ -17175,7 +17254,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="694" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A694" t="s">
         <v>1142</v>
       </c>
@@ -17192,7 +17271,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="695" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A695" t="s">
         <v>1142</v>
       </c>
@@ -17209,7 +17288,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="696" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A696" t="s">
         <v>1142</v>
       </c>
@@ -17226,7 +17305,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="697" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A697" t="s">
         <v>1142</v>
       </c>
@@ -17243,7 +17322,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="698" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A698" t="s">
         <v>1142</v>
       </c>
@@ -17260,7 +17339,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="699" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A699" t="s">
         <v>1142</v>
       </c>
@@ -17277,7 +17356,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="700" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A700" t="s">
         <v>1142</v>
       </c>
@@ -17294,7 +17373,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="701" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A701" t="s">
         <v>1142</v>
       </c>
@@ -17311,7 +17390,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="702" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A702" t="s">
         <v>1142</v>
       </c>
@@ -17328,7 +17407,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="703" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A703" t="s">
         <v>1142</v>
       </c>
@@ -17345,7 +17424,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="704" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A704" t="s">
         <v>1142</v>
       </c>
@@ -17362,7 +17441,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="705" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A705" t="s">
         <v>1142</v>
       </c>
@@ -17379,7 +17458,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="706" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A706" t="s">
         <v>1142</v>
       </c>
@@ -17396,7 +17475,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="707" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A707" t="s">
         <v>1142</v>
       </c>
@@ -17413,7 +17492,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="708" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A708" t="s">
         <v>1142</v>
       </c>
@@ -17430,7 +17509,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="709" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A709" t="s">
         <v>1142</v>
       </c>
@@ -17447,7 +17526,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="710" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A710" t="s">
         <v>1142</v>
       </c>
@@ -17464,7 +17543,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="711" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A711" t="s">
         <v>1142</v>
       </c>
@@ -17481,7 +17560,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="712" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A712" t="s">
         <v>1142</v>
       </c>
@@ -17498,7 +17577,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="713" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A713" t="s">
         <v>1142</v>
       </c>
@@ -17515,7 +17594,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="714" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A714" t="s">
         <v>1142</v>
       </c>
@@ -17532,7 +17611,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="715" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A715" t="s">
         <v>1142</v>
       </c>
@@ -17549,7 +17628,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="716" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A716" t="s">
         <v>1142</v>
       </c>
@@ -18280,7 +18359,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="759" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A759" t="s">
         <v>1397</v>
       </c>
@@ -18297,7 +18376,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="760" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A760" t="s">
         <v>1397</v>
       </c>
@@ -18314,7 +18393,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="761" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A761" t="s">
         <v>1397</v>
       </c>
@@ -18331,7 +18410,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="762" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A762" t="s">
         <v>1397</v>
       </c>
@@ -18348,7 +18427,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="763" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A763" t="s">
         <v>1397</v>
       </c>
@@ -18365,7 +18444,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="764" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A764" t="s">
         <v>1397</v>
       </c>
@@ -18382,7 +18461,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="765" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A765" t="s">
         <v>1397</v>
       </c>
@@ -18399,7 +18478,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="766" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A766" t="s">
         <v>1397</v>
       </c>
@@ -18416,7 +18495,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="767" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A767" t="s">
         <v>1397</v>
       </c>
@@ -18433,7 +18512,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="768" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A768" t="s">
         <v>1397</v>
       </c>
@@ -18450,7 +18529,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="769" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A769" t="s">
         <v>1397</v>
       </c>
@@ -18467,7 +18546,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="770" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A770" t="s">
         <v>1397</v>
       </c>
@@ -18484,7 +18563,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="771" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A771" t="s">
         <v>1397</v>
       </c>
@@ -18501,7 +18580,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="772" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A772" t="s">
         <v>1397</v>
       </c>
@@ -18518,7 +18597,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="773" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A773" t="s">
         <v>1397</v>
       </c>
@@ -18535,7 +18614,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="774" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A774" t="s">
         <v>1397</v>
       </c>
@@ -18552,7 +18631,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="775" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A775" t="s">
         <v>1397</v>
       </c>
@@ -18569,7 +18648,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="776" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A776" t="s">
         <v>1397</v>
       </c>
@@ -18586,7 +18665,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="777" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A777" t="s">
         <v>1397</v>
       </c>
@@ -18603,7 +18682,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="778" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A778" t="s">
         <v>1397</v>
       </c>
@@ -18620,7 +18699,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="779" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A779" t="s">
         <v>1397</v>
       </c>
@@ -18637,7 +18716,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="780" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A780" t="s">
         <v>1397</v>
       </c>
@@ -18654,7 +18733,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="781" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A781" t="s">
         <v>1397</v>
       </c>
@@ -18671,7 +18750,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="782" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A782" t="s">
         <v>1397</v>
       </c>
@@ -18688,7 +18767,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="783" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A783" t="s">
         <v>1397</v>
       </c>
@@ -18705,7 +18784,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="784" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A784" t="s">
         <v>1397</v>
       </c>
@@ -18722,7 +18801,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="785" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A785" t="s">
         <v>1397</v>
       </c>
@@ -18739,7 +18818,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="786" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A786" t="s">
         <v>1397</v>
       </c>
@@ -18756,7 +18835,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="787" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A787" t="s">
         <v>1397</v>
       </c>
@@ -18773,7 +18852,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="788" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A788" t="s">
         <v>1397</v>
       </c>
@@ -18790,7 +18869,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="789" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A789" t="s">
         <v>1397</v>
       </c>
@@ -18807,7 +18886,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="790" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A790" t="s">
         <v>1397</v>
       </c>
@@ -18824,7 +18903,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="791" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A791" t="s">
         <v>1397</v>
       </c>
@@ -18841,7 +18920,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="792" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A792" t="s">
         <v>1397</v>
       </c>
@@ -18858,7 +18937,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="793" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A793" t="s">
         <v>1397</v>
       </c>
@@ -18875,7 +18954,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="794" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A794" t="s">
         <v>1397</v>
       </c>
@@ -18892,7 +18971,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="795" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A795" t="s">
         <v>1397</v>
       </c>
@@ -18909,7 +18988,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="796" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A796" t="s">
         <v>1397</v>
       </c>
@@ -18926,7 +19005,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="797" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A797" t="s">
         <v>1397</v>
       </c>
@@ -18943,7 +19022,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="798" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A798" t="s">
         <v>1397</v>
       </c>
@@ -18960,7 +19039,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="799" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A799" t="s">
         <v>1448</v>
       </c>
@@ -18977,7 +19056,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="800" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A800" t="s">
         <v>1448</v>
       </c>
@@ -18994,7 +19073,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="801" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A801" t="s">
         <v>1448</v>
       </c>
@@ -19011,7 +19090,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="802" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A802" t="s">
         <v>1448</v>
       </c>
@@ -19028,7 +19107,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="803" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A803" t="s">
         <v>1448</v>
       </c>
@@ -19045,7 +19124,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="804" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A804" t="s">
         <v>1448</v>
       </c>
@@ -19062,7 +19141,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="805" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A805" t="s">
         <v>1448</v>
       </c>
@@ -19079,7 +19158,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="806" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A806" t="s">
         <v>1448</v>
       </c>
@@ -19096,7 +19175,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="807" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A807" t="s">
         <v>1448</v>
       </c>
@@ -19113,7 +19192,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="808" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A808" t="s">
         <v>1448</v>
       </c>
@@ -19130,7 +19209,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="809" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A809" t="s">
         <v>1448</v>
       </c>
@@ -19147,7 +19226,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="810" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A810" t="s">
         <v>1448</v>
       </c>
@@ -19164,7 +19243,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="811" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A811" t="s">
         <v>1448</v>
       </c>
@@ -19181,7 +19260,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="812" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A812" t="s">
         <v>1445</v>
       </c>
@@ -19198,7 +19277,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="813" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A813" t="s">
         <v>1445</v>
       </c>
@@ -19215,7 +19294,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="814" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A814" t="s">
         <v>1478</v>
       </c>
@@ -19232,7 +19311,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="815" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A815" t="s">
         <v>1478</v>
       </c>
@@ -19249,7 +19328,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="816" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A816" t="s">
         <v>1478</v>
       </c>
@@ -19266,7 +19345,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="817" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A817" t="s">
         <v>1478</v>
       </c>
@@ -19283,7 +19362,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="818" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A818" t="s">
         <v>1478</v>
       </c>
@@ -19300,7 +19379,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="819" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A819" t="s">
         <v>1478</v>
       </c>
@@ -19317,7 +19396,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="820" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A820" t="s">
         <v>1478</v>
       </c>
@@ -19334,7 +19413,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="821" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A821" t="s">
         <v>1478</v>
       </c>
@@ -19351,7 +19430,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="822" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A822" t="s">
         <v>1478</v>
       </c>
@@ -19368,7 +19447,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="823" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A823" t="s">
         <v>1478</v>
       </c>
@@ -19385,7 +19464,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="824" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A824" t="s">
         <v>1478</v>
       </c>
@@ -19402,7 +19481,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="825" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A825" t="s">
         <v>1478</v>
       </c>
@@ -19419,7 +19498,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="826" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A826" t="s">
         <v>1478</v>
       </c>
@@ -19436,7 +19515,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="827" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A827" t="s">
         <v>1478</v>
       </c>
@@ -19453,7 +19532,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="828" spans="1:5" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="828" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A828" t="s">
         <v>1478</v>
       </c>
@@ -19470,14 +19549,178 @@
         <v>1441</v>
       </c>
     </row>
+    <row r="829" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A829" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C829" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D829">
+        <v>1</v>
+      </c>
+      <c r="E829" s="1" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A830" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B830" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C830" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D830">
+        <v>1</v>
+      </c>
+      <c r="E830" s="1" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A831" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B831" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C831" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D831">
+        <v>1</v>
+      </c>
+      <c r="E831" s="1" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A832" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B832" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C832" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D832">
+        <v>1</v>
+      </c>
+      <c r="E832" s="1" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A833" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B833" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C833" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D833">
+        <v>1</v>
+      </c>
+      <c r="E833" s="1" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A834" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B834" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C834" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D834">
+        <v>1</v>
+      </c>
+      <c r="E834" s="1" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A835" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B835" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C835" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D835">
+        <v>1</v>
+      </c>
+      <c r="E835" s="1" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A836" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B836" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C836" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D836">
+        <v>1</v>
+      </c>
+      <c r="E836" s="1" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A837" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B837" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C837" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D837">
+        <v>1</v>
+      </c>
+      <c r="E837" s="1" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A838" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B838" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C838" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D838">
+        <v>1</v>
+      </c>
+      <c r="E838" s="1" t="s">
+        <v>1612</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C828">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="中国A股股本"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C828"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19487,10 +19730,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19687,6 +19930,28 @@
         <v>1480</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1615</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FactorLib/resource/wind_tableinfo.xlsx
+++ b/FactorLib/resource/wind_tableinfo.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FactorInfo" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3409" uniqueCount="1620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3424" uniqueCount="1632">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5058,6 +5058,53 @@
   </si>
   <si>
     <t>f_info_windcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股Wind代码变更表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更前代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_oldwindcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更后代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_newwindcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AshareChangeWindcode</t>
+  </si>
+  <si>
+    <t>财务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5456,11 +5503,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E838"/>
+  <dimension ref="A1:E841"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A818" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C839" sqref="C839"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A824" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A840" sqref="A840"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19719,6 +19766,57 @@
         <v>1612</v>
       </c>
     </row>
+    <row r="839" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A839" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B839" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C839" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D839">
+        <v>1</v>
+      </c>
+      <c r="E839" s="1" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A840" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B840" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C840" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D840">
+        <v>1</v>
+      </c>
+      <c r="E840" s="1" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A841" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B841" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C841" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D841">
+        <v>1</v>
+      </c>
+      <c r="E841" s="1" t="s">
+        <v>1629</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C828"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -19730,10 +19828,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19952,6 +20050,17 @@
         <v>1615</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1631</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FactorLib/resource/wind_tableinfo.xlsx
+++ b/FactorLib/resource/wind_tableinfo.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="FactorInfo" sheetId="2" r:id="rId1"/>
     <sheet name="TableInfo" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FactorInfo!$A$1:$C$828</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FactorInfo!$A$1:$C$830</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3424" uniqueCount="1632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3431" uniqueCount="1635">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4218,9 +4218,6 @@
     <t>分析师名称</t>
   </si>
   <si>
-    <t>预测报告期</t>
-  </si>
-  <si>
     <t>预测每股收益(摊薄)(元)</t>
   </si>
   <si>
@@ -4239,9 +4236,6 @@
     <t>预测基准股本(万股)</t>
   </si>
   <si>
-    <t>公告日期(内部)</t>
-  </si>
-  <si>
     <t>预测每股现金流</t>
   </si>
   <si>
@@ -4252,9 +4246,6 @@
   </si>
   <si>
     <t>预测总资产收益率</t>
-  </si>
-  <si>
-    <t>预测净资产收益率</t>
   </si>
   <si>
     <t>预测每股收益(稀释)(元)</t>
@@ -4318,9 +4309,6 @@
     <t>analyst_name</t>
   </si>
   <si>
-    <t>reporting_period</t>
-  </si>
-  <si>
     <t>est_eps_diluted</t>
   </si>
   <si>
@@ -4956,9 +4944,6 @@
     <t>预测营业成本及附加(万元)</t>
   </si>
   <si>
-    <t>预测净利润(换算)(万元)</t>
-  </si>
-  <si>
     <t>预测每股收益(换算)</t>
   </si>
   <si>
@@ -5105,6 +5090,38 @@
   </si>
   <si>
     <t>财务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合值计算标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_est_value_calculation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测净利润(换算)(万元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测净资产收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告日期(内部)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测报告期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reporting_period</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5503,11 +5520,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E841"/>
+  <dimension ref="A1:E843"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A824" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A840" sqref="A840"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A757" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C762" sqref="C762"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5531,10 +5548,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="E1" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5551,7 +5568,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5568,7 +5585,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5585,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5602,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5619,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5636,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5653,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5670,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5687,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5704,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5721,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5738,7 +5755,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5755,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5772,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5789,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5806,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5823,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5840,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5857,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5874,24 +5891,24 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5908,7 +5925,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5925,7 +5942,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5942,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5959,7 +5976,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5976,7 +5993,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5993,7 +6010,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6010,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6018,7 +6035,7 @@
         <v>1065</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>50</v>
@@ -6027,7 +6044,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6035,7 +6052,7 @@
         <v>1065</v>
       </c>
       <c r="B31" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="C31" t="s">
         <v>54</v>
@@ -6044,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6061,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6069,7 +6086,7 @@
         <v>1065</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>56</v>
@@ -6078,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6086,16 +6103,16 @@
         <v>1065</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6112,7 +6129,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6129,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6146,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6163,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6180,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6197,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6214,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6222,7 +6239,7 @@
         <v>1067</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>62</v>
@@ -6231,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6239,7 +6256,7 @@
         <v>1067</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>63</v>
@@ -6248,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6256,7 +6273,7 @@
         <v>1067</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>64</v>
@@ -6265,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6282,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6290,7 +6307,7 @@
         <v>1067</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>66</v>
@@ -6299,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6307,7 +6324,7 @@
         <v>1067</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>67</v>
@@ -6316,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6333,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6341,7 +6358,7 @@
         <v>1067</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>69</v>
@@ -6350,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6358,16 +6375,16 @@
         <v>1067</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6384,7 +6401,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6401,7 +6418,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6418,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6435,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6452,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6469,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6486,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6503,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6520,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6528,7 +6545,7 @@
         <v>1068</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>79</v>
@@ -6537,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6545,7 +6562,7 @@
         <v>1068</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>80</v>
@@ -6554,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6571,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6588,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6605,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6622,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6639,7 +6656,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6656,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6664,7 +6681,7 @@
         <v>1068</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>87</v>
@@ -6673,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6690,7 +6707,7 @@
         <v>0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6707,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6724,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6741,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6758,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6775,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6783,16 +6800,16 @@
         <v>1068</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6809,7 +6826,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6826,7 +6843,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6843,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6860,7 +6877,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6877,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6894,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6911,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6928,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6936,7 +6953,7 @@
         <v>1069</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>111</v>
@@ -6945,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6962,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6970,16 +6987,16 @@
         <v>1069</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6996,7 +7013,7 @@
         <v>1</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7013,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7030,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7047,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7064,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7081,7 +7098,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7098,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7115,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7132,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7149,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7166,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7183,7 +7200,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7200,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7217,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7234,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7251,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7268,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7285,7 +7302,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7302,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7319,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7336,7 +7353,7 @@
         <v>0</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7353,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7370,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7387,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7404,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7421,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7438,7 +7455,7 @@
         <v>0</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7455,7 +7472,7 @@
         <v>0</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7463,7 +7480,7 @@
         <v>1070</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>139</v>
@@ -7472,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7489,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7497,7 +7514,7 @@
         <v>1070</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>141</v>
@@ -7506,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7523,7 +7540,7 @@
         <v>0</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7531,7 +7548,7 @@
         <v>1070</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>143</v>
@@ -7540,7 +7557,7 @@
         <v>0</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7557,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7565,7 +7582,7 @@
         <v>1070</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>145</v>
@@ -7574,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7591,7 +7608,7 @@
         <v>0</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7599,7 +7616,7 @@
         <v>1070</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>147</v>
@@ -7608,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7625,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7633,7 +7650,7 @@
         <v>1070</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>149</v>
@@ -7642,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7659,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7667,7 +7684,7 @@
         <v>1070</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>151</v>
@@ -7676,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7693,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7701,7 +7718,7 @@
         <v>1070</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>153</v>
@@ -7710,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7727,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7744,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7761,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7769,7 +7786,7 @@
         <v>1070</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>157</v>
@@ -7778,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7795,7 +7812,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7803,7 +7820,7 @@
         <v>1070</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>159</v>
@@ -7812,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7829,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7846,7 +7863,7 @@
         <v>0</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7863,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7880,7 +7897,7 @@
         <v>0</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7897,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7914,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7931,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7948,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7965,7 +7982,7 @@
         <v>0</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7973,7 +7990,7 @@
         <v>1070</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>169</v>
@@ -7982,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7999,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8007,7 +8024,7 @@
         <v>1070</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>171</v>
@@ -8016,7 +8033,7 @@
         <v>0</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8033,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8041,7 +8058,7 @@
         <v>1070</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>173</v>
@@ -8050,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8058,16 +8075,16 @@
         <v>1070</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8084,7 +8101,7 @@
         <v>1</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8101,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8118,7 +8135,7 @@
         <v>1</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8135,7 +8152,7 @@
         <v>1</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8152,7 +8169,7 @@
         <v>0</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8169,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8186,7 +8203,7 @@
         <v>0</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8203,7 +8220,7 @@
         <v>0</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8220,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8237,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8254,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8271,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8288,7 +8305,7 @@
         <v>0</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8305,7 +8322,7 @@
         <v>0</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8322,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8339,7 +8356,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8356,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8373,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8390,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8407,7 +8424,7 @@
         <v>0</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8424,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8441,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8458,7 +8475,7 @@
         <v>0</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8475,7 +8492,7 @@
         <v>0</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8492,7 +8509,7 @@
         <v>0</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8509,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8526,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8543,7 +8560,7 @@
         <v>0</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8560,7 +8577,7 @@
         <v>0</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8577,7 +8594,7 @@
         <v>0</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8594,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8611,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8628,7 +8645,7 @@
         <v>0</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8645,7 +8662,7 @@
         <v>0</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8662,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8679,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8696,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8713,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8730,7 +8747,7 @@
         <v>0</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8747,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8764,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8781,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8798,7 +8815,7 @@
         <v>0</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8815,7 +8832,7 @@
         <v>0</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8832,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8849,7 +8866,7 @@
         <v>0</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8866,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8883,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8900,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8917,7 +8934,7 @@
         <v>0</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8934,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8951,7 +8968,7 @@
         <v>0</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8968,7 +8985,7 @@
         <v>0</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8985,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9002,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9019,7 +9036,7 @@
         <v>0</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9036,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9053,7 +9070,7 @@
         <v>0</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9070,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9087,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9104,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9121,7 +9138,7 @@
         <v>0</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9138,7 +9155,7 @@
         <v>0</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9155,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9172,7 +9189,7 @@
         <v>0</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9189,7 +9206,7 @@
         <v>0</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9206,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9223,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9240,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9257,7 +9274,7 @@
         <v>0</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9274,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9291,7 +9308,7 @@
         <v>0</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9308,7 +9325,7 @@
         <v>0</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9325,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9342,7 +9359,7 @@
         <v>0</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9359,7 +9376,7 @@
         <v>0</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9376,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9393,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9410,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9427,7 +9444,7 @@
         <v>0</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9444,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9461,7 +9478,7 @@
         <v>0</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9478,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9495,7 +9512,7 @@
         <v>0</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9512,7 +9529,7 @@
         <v>0</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9529,7 +9546,7 @@
         <v>0</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9546,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9563,7 +9580,7 @@
         <v>0</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9580,7 +9597,7 @@
         <v>0</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9597,7 +9614,7 @@
         <v>0</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9614,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9631,7 +9648,7 @@
         <v>0</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9648,7 +9665,7 @@
         <v>0</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9665,7 +9682,7 @@
         <v>0</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9682,7 +9699,7 @@
         <v>0</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9699,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9716,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9733,7 +9750,7 @@
         <v>0</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9750,7 +9767,7 @@
         <v>0</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9767,7 +9784,7 @@
         <v>0</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9784,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9801,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9818,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9835,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9852,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9869,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9886,7 +9903,7 @@
         <v>0</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9903,7 +9920,7 @@
         <v>0</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9920,7 +9937,7 @@
         <v>0</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9937,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9954,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9971,7 +9988,7 @@
         <v>0</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9988,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10005,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10022,7 +10039,7 @@
         <v>0</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10039,7 +10056,7 @@
         <v>0</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10056,7 +10073,7 @@
         <v>0</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10073,7 +10090,7 @@
         <v>0</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10090,7 +10107,7 @@
         <v>0</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10107,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10124,7 +10141,7 @@
         <v>0</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10141,7 +10158,7 @@
         <v>0</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10158,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10175,7 +10192,7 @@
         <v>0</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10192,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10209,7 +10226,7 @@
         <v>0</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10217,7 +10234,7 @@
         <v>1071</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>327</v>
@@ -10226,7 +10243,7 @@
         <v>0</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10234,16 +10251,16 @@
         <v>1071</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="D278">
         <v>0</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10260,7 +10277,7 @@
         <v>0</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10277,7 +10294,7 @@
         <v>0</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10294,7 +10311,7 @@
         <v>1</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10302,16 +10319,16 @@
         <v>1071</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="D282">
         <v>0</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10328,7 +10345,7 @@
         <v>1</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10345,7 +10362,7 @@
         <v>0</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10362,7 +10379,7 @@
         <v>1</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10379,7 +10396,7 @@
         <v>1</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10396,7 +10413,7 @@
         <v>0</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10413,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10430,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10447,7 +10464,7 @@
         <v>0</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10464,7 +10481,7 @@
         <v>0</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10481,7 +10498,7 @@
         <v>0</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10498,7 +10515,7 @@
         <v>0</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10515,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10532,7 +10549,7 @@
         <v>0</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10549,7 +10566,7 @@
         <v>0</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10566,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10583,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10600,7 +10617,7 @@
         <v>0</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10617,7 +10634,7 @@
         <v>0</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10634,7 +10651,7 @@
         <v>0</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10651,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10668,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10685,7 +10702,7 @@
         <v>0</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10702,7 +10719,7 @@
         <v>0</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10719,7 +10736,7 @@
         <v>0</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10736,7 +10753,7 @@
         <v>0</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10753,7 +10770,7 @@
         <v>0</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10770,7 +10787,7 @@
         <v>0</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10787,7 +10804,7 @@
         <v>0</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10804,7 +10821,7 @@
         <v>0</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10821,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10838,7 +10855,7 @@
         <v>0</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10855,7 +10872,7 @@
         <v>0</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10872,7 +10889,7 @@
         <v>0</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10889,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10906,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10923,7 +10940,7 @@
         <v>0</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10940,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10957,7 +10974,7 @@
         <v>0</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10974,7 +10991,7 @@
         <v>0</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10991,7 +11008,7 @@
         <v>0</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11008,7 +11025,7 @@
         <v>0</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11025,7 +11042,7 @@
         <v>0</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11042,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11059,7 +11076,7 @@
         <v>0</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11076,7 +11093,7 @@
         <v>0</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11093,7 +11110,7 @@
         <v>0</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11110,7 +11127,7 @@
         <v>0</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11127,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11144,7 +11161,7 @@
         <v>0</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11161,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11178,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11195,7 +11212,7 @@
         <v>0</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11203,7 +11220,7 @@
         <v>1072</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>488</v>
@@ -11212,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11220,7 +11237,7 @@
         <v>1072</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>489</v>
@@ -11229,7 +11246,7 @@
         <v>0</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11246,7 +11263,7 @@
         <v>0</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11263,7 +11280,7 @@
         <v>0</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11280,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11297,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11314,7 +11331,7 @@
         <v>0</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11331,7 +11348,7 @@
         <v>0</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11348,7 +11365,7 @@
         <v>0</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11365,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11382,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11399,7 +11416,7 @@
         <v>0</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11410,13 +11427,13 @@
         <v>545</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="D347">
         <v>0</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11433,7 +11450,7 @@
         <v>0</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11450,7 +11467,7 @@
         <v>1</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11458,16 +11475,16 @@
         <v>1072</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="D350">
         <v>0</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11484,7 +11501,7 @@
         <v>1</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11501,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11518,7 +11535,7 @@
         <v>1</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="354" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11535,7 +11552,7 @@
         <v>0</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11552,7 +11569,7 @@
         <v>0</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="356" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11569,7 +11586,7 @@
         <v>0</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="357" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11586,7 +11603,7 @@
         <v>0</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="358" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11603,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="359" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11620,7 +11637,7 @@
         <v>0</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="360" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11637,7 +11654,7 @@
         <v>0</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11654,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="362" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11671,7 +11688,7 @@
         <v>0</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="363" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11688,7 +11705,7 @@
         <v>0</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="364" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11705,7 +11722,7 @@
         <v>0</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11722,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="366" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11739,7 +11756,7 @@
         <v>0</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="367" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11756,7 +11773,7 @@
         <v>0</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="368" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11773,7 +11790,7 @@
         <v>0</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11790,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="370" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11807,7 +11824,7 @@
         <v>0</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="371" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11824,7 +11841,7 @@
         <v>0</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="372" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11841,7 +11858,7 @@
         <v>0</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11858,7 +11875,7 @@
         <v>0</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="374" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11875,7 +11892,7 @@
         <v>0</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="375" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11892,7 +11909,7 @@
         <v>0</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="376" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11909,7 +11926,7 @@
         <v>0</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11926,7 +11943,7 @@
         <v>0</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11943,7 +11960,7 @@
         <v>0</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11960,7 +11977,7 @@
         <v>0</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="380" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11977,7 +11994,7 @@
         <v>0</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="381" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11994,7 +12011,7 @@
         <v>0</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12011,7 +12028,7 @@
         <v>0</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12028,7 +12045,7 @@
         <v>0</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="384" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12045,7 +12062,7 @@
         <v>0</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="385" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12062,7 +12079,7 @@
         <v>0</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="386" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12079,7 +12096,7 @@
         <v>0</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12096,7 +12113,7 @@
         <v>0</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="388" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12113,7 +12130,7 @@
         <v>0</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="389" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12130,7 +12147,7 @@
         <v>0</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="390" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12147,7 +12164,7 @@
         <v>0</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="391" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12164,7 +12181,7 @@
         <v>0</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="392" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12181,7 +12198,7 @@
         <v>0</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="393" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12198,7 +12215,7 @@
         <v>0</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="394" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12215,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="395" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12232,7 +12249,7 @@
         <v>0</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="396" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12249,7 +12266,7 @@
         <v>0</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="397" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12266,7 +12283,7 @@
         <v>0</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="398" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12283,7 +12300,7 @@
         <v>0</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="399" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12300,7 +12317,7 @@
         <v>0</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="400" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12317,7 +12334,7 @@
         <v>0</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="401" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12334,7 +12351,7 @@
         <v>0</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="402" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12351,7 +12368,7 @@
         <v>0</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="403" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12368,7 +12385,7 @@
         <v>0</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="404" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12385,7 +12402,7 @@
         <v>0</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="405" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12402,7 +12419,7 @@
         <v>0</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="406" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12419,7 +12436,7 @@
         <v>0</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="407" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12436,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="408" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12453,7 +12470,7 @@
         <v>0</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="409" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12470,7 +12487,7 @@
         <v>0</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="410" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12487,7 +12504,7 @@
         <v>0</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="411" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12504,7 +12521,7 @@
         <v>0</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="412" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12521,7 +12538,7 @@
         <v>0</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="413" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12538,7 +12555,7 @@
         <v>0</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="414" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12555,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="415" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12572,7 +12589,7 @@
         <v>0</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="416" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12589,7 +12606,7 @@
         <v>0</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="417" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12606,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="418" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12623,7 +12640,7 @@
         <v>0</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="419" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12640,7 +12657,7 @@
         <v>0</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="420" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12657,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="421" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12674,7 +12691,7 @@
         <v>0</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="422" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12691,7 +12708,7 @@
         <v>0</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="423" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12708,7 +12725,7 @@
         <v>0</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="424" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12725,7 +12742,7 @@
         <v>0</v>
       </c>
       <c r="E424" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="425" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12742,7 +12759,7 @@
         <v>0</v>
       </c>
       <c r="E425" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="426" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12759,7 +12776,7 @@
         <v>0</v>
       </c>
       <c r="E426" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="427" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12776,7 +12793,7 @@
         <v>0</v>
       </c>
       <c r="E427" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="428" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12793,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="E428" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="429" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12810,7 +12827,7 @@
         <v>0</v>
       </c>
       <c r="E429" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="430" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12827,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="E430" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="431" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12844,7 +12861,7 @@
         <v>0</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="432" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12861,7 +12878,7 @@
         <v>0</v>
       </c>
       <c r="E432" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="433" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12878,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="E433" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="434" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12895,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="435" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12912,7 +12929,7 @@
         <v>0</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="436" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12929,7 +12946,7 @@
         <v>0</v>
       </c>
       <c r="E436" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="437" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12946,7 +12963,7 @@
         <v>0</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="438" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12963,7 +12980,7 @@
         <v>0</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="439" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12980,7 +12997,7 @@
         <v>0</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="440" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12997,7 +13014,7 @@
         <v>0</v>
       </c>
       <c r="E440" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="441" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13014,7 +13031,7 @@
         <v>1</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="442" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13022,16 +13039,16 @@
         <v>1073</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="D442">
         <v>0</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="443" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13048,7 +13065,7 @@
         <v>1</v>
       </c>
       <c r="E443" s="1" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="444" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13065,7 +13082,7 @@
         <v>1</v>
       </c>
       <c r="E444" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="445" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13082,7 +13099,7 @@
         <v>1</v>
       </c>
       <c r="E445" s="1" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="446" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13099,7 +13116,7 @@
         <v>0</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="447" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13116,7 +13133,7 @@
         <v>0</v>
       </c>
       <c r="E447" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="448" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13133,7 +13150,7 @@
         <v>0</v>
       </c>
       <c r="E448" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="449" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13150,7 +13167,7 @@
         <v>0</v>
       </c>
       <c r="E449" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="450" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13167,7 +13184,7 @@
         <v>0</v>
       </c>
       <c r="E450" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="451" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13184,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="452" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13201,7 +13218,7 @@
         <v>0</v>
       </c>
       <c r="E452" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="453" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13218,7 +13235,7 @@
         <v>0</v>
       </c>
       <c r="E453" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="454" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13235,7 +13252,7 @@
         <v>0</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="455" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13252,7 +13269,7 @@
         <v>0</v>
       </c>
       <c r="E455" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="456" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13269,7 +13286,7 @@
         <v>0</v>
       </c>
       <c r="E456" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="457" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13277,7 +13294,7 @@
         <v>1074</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>668</v>
@@ -13286,7 +13303,7 @@
         <v>0</v>
       </c>
       <c r="E457" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="458" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13303,7 +13320,7 @@
         <v>0</v>
       </c>
       <c r="E458" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="459" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13320,7 +13337,7 @@
         <v>0</v>
       </c>
       <c r="E459" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="460" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13337,7 +13354,7 @@
         <v>0</v>
       </c>
       <c r="E460" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="461" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13354,7 +13371,7 @@
         <v>0</v>
       </c>
       <c r="E461" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="462" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13371,7 +13388,7 @@
         <v>0</v>
       </c>
       <c r="E462" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="463" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13388,7 +13405,7 @@
         <v>0</v>
       </c>
       <c r="E463" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="464" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13405,7 +13422,7 @@
         <v>0</v>
       </c>
       <c r="E464" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="465" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13422,7 +13439,7 @@
         <v>0</v>
       </c>
       <c r="E465" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="466" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13439,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="E466" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="467" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13456,7 +13473,7 @@
         <v>0</v>
       </c>
       <c r="E467" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="468" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13473,7 +13490,7 @@
         <v>0</v>
       </c>
       <c r="E468" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="469" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13490,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="470" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13507,7 +13524,7 @@
         <v>0</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="471" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13524,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="472" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13541,7 +13558,7 @@
         <v>0</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="473" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13558,7 +13575,7 @@
         <v>0</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="474" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13575,7 +13592,7 @@
         <v>0</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="475" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13592,7 +13609,7 @@
         <v>0</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="476" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13609,7 +13626,7 @@
         <v>0</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="477" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13626,7 +13643,7 @@
         <v>0</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="478" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13643,7 +13660,7 @@
         <v>0</v>
       </c>
       <c r="E478" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="479" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13660,7 +13677,7 @@
         <v>0</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="480" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13677,7 +13694,7 @@
         <v>0</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="481" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13694,7 +13711,7 @@
         <v>0</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="482" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13711,7 +13728,7 @@
         <v>0</v>
       </c>
       <c r="E482" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="483" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13728,7 +13745,7 @@
         <v>0</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="484" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13745,7 +13762,7 @@
         <v>0</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="485" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13762,7 +13779,7 @@
         <v>0</v>
       </c>
       <c r="E485" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="486" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13779,7 +13796,7 @@
         <v>0</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="487" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13796,7 +13813,7 @@
         <v>0</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="488" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13813,7 +13830,7 @@
         <v>0</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="489" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13830,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="490" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13847,7 +13864,7 @@
         <v>0</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="491" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13864,7 +13881,7 @@
         <v>0</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="492" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13881,7 +13898,7 @@
         <v>0</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="493" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13898,7 +13915,7 @@
         <v>0</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="494" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13915,7 +13932,7 @@
         <v>0</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="495" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13923,7 +13940,7 @@
         <v>1074</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>704</v>
@@ -13932,7 +13949,7 @@
         <v>0</v>
       </c>
       <c r="E495" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="496" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13949,7 +13966,7 @@
         <v>0</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="497" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13966,7 +13983,7 @@
         <v>0</v>
       </c>
       <c r="E497" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="498" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13983,7 +14000,7 @@
         <v>0</v>
       </c>
       <c r="E498" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="499" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14000,7 +14017,7 @@
         <v>0</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="500" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14017,7 +14034,7 @@
         <v>0</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="501" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14034,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="502" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14051,7 +14068,7 @@
         <v>0</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="503" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14068,7 +14085,7 @@
         <v>0</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="504" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14085,7 +14102,7 @@
         <v>0</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="505" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14102,7 +14119,7 @@
         <v>0</v>
       </c>
       <c r="E505" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="506" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14119,7 +14136,7 @@
         <v>0</v>
       </c>
       <c r="E506" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="507" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14136,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="E507" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="508" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14153,7 +14170,7 @@
         <v>0</v>
       </c>
       <c r="E508" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="509" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14170,7 +14187,7 @@
         <v>0</v>
       </c>
       <c r="E509" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="510" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14187,7 +14204,7 @@
         <v>0</v>
       </c>
       <c r="E510" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="511" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14204,7 +14221,7 @@
         <v>0</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="512" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14221,7 +14238,7 @@
         <v>0</v>
       </c>
       <c r="E512" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="513" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14238,7 +14255,7 @@
         <v>0</v>
       </c>
       <c r="E513" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="514" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14255,7 +14272,7 @@
         <v>0</v>
       </c>
       <c r="E514" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="515" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14272,7 +14289,7 @@
         <v>0</v>
       </c>
       <c r="E515" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="516" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14289,7 +14306,7 @@
         <v>0</v>
       </c>
       <c r="E516" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="517" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14306,7 +14323,7 @@
         <v>0</v>
       </c>
       <c r="E517" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="518" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14323,7 +14340,7 @@
         <v>0</v>
       </c>
       <c r="E518" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="519" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14340,7 +14357,7 @@
         <v>0</v>
       </c>
       <c r="E519" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="520" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14357,7 +14374,7 @@
         <v>0</v>
       </c>
       <c r="E520" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="521" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14374,7 +14391,7 @@
         <v>0</v>
       </c>
       <c r="E521" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="522" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14391,7 +14408,7 @@
         <v>0</v>
       </c>
       <c r="E522" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="523" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14408,7 +14425,7 @@
         <v>0</v>
       </c>
       <c r="E523" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="524" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14425,7 +14442,7 @@
         <v>0</v>
       </c>
       <c r="E524" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="525" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14442,7 +14459,7 @@
         <v>0</v>
       </c>
       <c r="E525" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="526" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14459,7 +14476,7 @@
         <v>0</v>
       </c>
       <c r="E526" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="527" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14476,7 +14493,7 @@
         <v>0</v>
       </c>
       <c r="E527" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="528" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14493,7 +14510,7 @@
         <v>0</v>
       </c>
       <c r="E528" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="529" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14510,7 +14527,7 @@
         <v>0</v>
       </c>
       <c r="E529" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="530" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14527,7 +14544,7 @@
         <v>0</v>
       </c>
       <c r="E530" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="531" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14544,7 +14561,7 @@
         <v>0</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="532" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14561,7 +14578,7 @@
         <v>0</v>
       </c>
       <c r="E532" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="533" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14578,7 +14595,7 @@
         <v>0</v>
       </c>
       <c r="E533" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="534" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14595,7 +14612,7 @@
         <v>0</v>
       </c>
       <c r="E534" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="535" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14612,7 +14629,7 @@
         <v>0</v>
       </c>
       <c r="E535" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="536" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14629,7 +14646,7 @@
         <v>0</v>
       </c>
       <c r="E536" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="537" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14646,7 +14663,7 @@
         <v>0</v>
       </c>
       <c r="E537" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="538" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14663,7 +14680,7 @@
         <v>0</v>
       </c>
       <c r="E538" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="539" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14680,7 +14697,7 @@
         <v>0</v>
       </c>
       <c r="E539" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="540" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14697,7 +14714,7 @@
         <v>0</v>
       </c>
       <c r="E540" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="541" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14714,7 +14731,7 @@
         <v>0</v>
       </c>
       <c r="E541" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="542" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14731,7 +14748,7 @@
         <v>0</v>
       </c>
       <c r="E542" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="543" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14748,7 +14765,7 @@
         <v>0</v>
       </c>
       <c r="E543" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="544" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14765,7 +14782,7 @@
         <v>0</v>
       </c>
       <c r="E544" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="545" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14782,7 +14799,7 @@
         <v>0</v>
       </c>
       <c r="E545" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="546" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14799,7 +14816,7 @@
         <v>0</v>
       </c>
       <c r="E546" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="547" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14816,7 +14833,7 @@
         <v>0</v>
       </c>
       <c r="E547" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="548" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14833,7 +14850,7 @@
         <v>0</v>
       </c>
       <c r="E548" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="549" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14850,7 +14867,7 @@
         <v>0</v>
       </c>
       <c r="E549" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="550" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14867,7 +14884,7 @@
         <v>0</v>
       </c>
       <c r="E550" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="551" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14884,7 +14901,7 @@
         <v>0</v>
       </c>
       <c r="E551" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="552" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14901,7 +14918,7 @@
         <v>0</v>
       </c>
       <c r="E552" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="553" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14918,7 +14935,7 @@
         <v>0</v>
       </c>
       <c r="E553" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="554" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14935,7 +14952,7 @@
         <v>0</v>
       </c>
       <c r="E554" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="555" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14952,7 +14969,7 @@
         <v>0</v>
       </c>
       <c r="E555" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="556" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14969,7 +14986,7 @@
         <v>0</v>
       </c>
       <c r="E556" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="557" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14986,7 +15003,7 @@
         <v>0</v>
       </c>
       <c r="E557" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="558" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15003,7 +15020,7 @@
         <v>0</v>
       </c>
       <c r="E558" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="559" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15020,7 +15037,7 @@
         <v>0</v>
       </c>
       <c r="E559" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="560" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15037,7 +15054,7 @@
         <v>0</v>
       </c>
       <c r="E560" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="561" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15054,7 +15071,7 @@
         <v>0</v>
       </c>
       <c r="E561" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="562" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15071,7 +15088,7 @@
         <v>0</v>
       </c>
       <c r="E562" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="563" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15088,7 +15105,7 @@
         <v>0</v>
       </c>
       <c r="E563" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="564" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15105,7 +15122,7 @@
         <v>0</v>
       </c>
       <c r="E564" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="565" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15122,7 +15139,7 @@
         <v>0</v>
       </c>
       <c r="E565" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="566" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15139,7 +15156,7 @@
         <v>0</v>
       </c>
       <c r="E566" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="567" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15156,7 +15173,7 @@
         <v>0</v>
       </c>
       <c r="E567" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="568" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15173,7 +15190,7 @@
         <v>0</v>
       </c>
       <c r="E568" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="569" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15190,7 +15207,7 @@
         <v>0</v>
       </c>
       <c r="E569" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="570" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15207,7 +15224,7 @@
         <v>0</v>
       </c>
       <c r="E570" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="571" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15224,7 +15241,7 @@
         <v>0</v>
       </c>
       <c r="E571" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="572" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15241,7 +15258,7 @@
         <v>0</v>
       </c>
       <c r="E572" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="573" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15258,7 +15275,7 @@
         <v>0</v>
       </c>
       <c r="E573" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="574" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15275,7 +15292,7 @@
         <v>0</v>
       </c>
       <c r="E574" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="575" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15283,7 +15300,7 @@
         <v>1074</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="C575" s="1" t="s">
         <v>784</v>
@@ -15292,7 +15309,7 @@
         <v>0</v>
       </c>
       <c r="E575" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="576" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15309,7 +15326,7 @@
         <v>0</v>
       </c>
       <c r="E576" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="577" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15326,7 +15343,7 @@
         <v>0</v>
       </c>
       <c r="E577" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="578" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15343,7 +15360,7 @@
         <v>0</v>
       </c>
       <c r="E578" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="579" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15360,7 +15377,7 @@
         <v>0</v>
       </c>
       <c r="E579" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="580" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15377,7 +15394,7 @@
         <v>0</v>
       </c>
       <c r="E580" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="581" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15394,7 +15411,7 @@
         <v>0</v>
       </c>
       <c r="E581" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="582" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15411,7 +15428,7 @@
         <v>0</v>
       </c>
       <c r="E582" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="583" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15428,7 +15445,7 @@
         <v>0</v>
       </c>
       <c r="E583" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="584" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15445,7 +15462,7 @@
         <v>0</v>
       </c>
       <c r="E584" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="585" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15462,7 +15479,7 @@
         <v>0</v>
       </c>
       <c r="E585" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="586" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15479,7 +15496,7 @@
         <v>0</v>
       </c>
       <c r="E586" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="587" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15496,7 +15513,7 @@
         <v>0</v>
       </c>
       <c r="E587" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="588" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15504,7 +15521,7 @@
         <v>1074</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="C588" s="1" t="s">
         <v>797</v>
@@ -15513,7 +15530,7 @@
         <v>0</v>
       </c>
       <c r="E588" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="589" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15530,7 +15547,7 @@
         <v>0</v>
       </c>
       <c r="E589" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="590" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15547,7 +15564,7 @@
         <v>0</v>
       </c>
       <c r="E590" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="591" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15564,7 +15581,7 @@
         <v>0</v>
       </c>
       <c r="E591" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="592" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15572,7 +15589,7 @@
         <v>1074</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="C592" s="1" t="s">
         <v>801</v>
@@ -15581,7 +15598,7 @@
         <v>0</v>
       </c>
       <c r="E592" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="593" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15598,7 +15615,7 @@
         <v>0</v>
       </c>
       <c r="E593" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="594" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15606,7 +15623,7 @@
         <v>1074</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="C594" s="1" t="s">
         <v>803</v>
@@ -15615,7 +15632,7 @@
         <v>0</v>
       </c>
       <c r="E594" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="595" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15632,7 +15649,7 @@
         <v>0</v>
       </c>
       <c r="E595" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="596" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15649,7 +15666,7 @@
         <v>0</v>
       </c>
       <c r="E596" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="597" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15666,7 +15683,7 @@
         <v>0</v>
       </c>
       <c r="E597" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="598" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15683,7 +15700,7 @@
         <v>0</v>
       </c>
       <c r="E598" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="599" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15700,7 +15717,7 @@
         <v>0</v>
       </c>
       <c r="E599" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="600" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15717,7 +15734,7 @@
         <v>0</v>
       </c>
       <c r="E600" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="601" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15725,7 +15742,7 @@
         <v>1074</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="C601" s="1" t="s">
         <v>810</v>
@@ -15734,7 +15751,7 @@
         <v>0</v>
       </c>
       <c r="E601" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="602" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15742,7 +15759,7 @@
         <v>1074</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="C602" s="1" t="s">
         <v>811</v>
@@ -15751,7 +15768,7 @@
         <v>0</v>
       </c>
       <c r="E602" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="603" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15768,7 +15785,7 @@
         <v>0</v>
       </c>
       <c r="E603" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="604" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15785,7 +15802,7 @@
         <v>0</v>
       </c>
       <c r="E604" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="605" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15802,7 +15819,7 @@
         <v>0</v>
       </c>
       <c r="E605" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="606" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15819,7 +15836,7 @@
         <v>0</v>
       </c>
       <c r="E606" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="607" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15836,7 +15853,7 @@
         <v>0</v>
       </c>
       <c r="E607" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="608" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15844,16 +15861,16 @@
         <v>1074</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="C608" s="1" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="D608">
         <v>0</v>
       </c>
       <c r="E608" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="609" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15870,7 +15887,7 @@
         <v>1</v>
       </c>
       <c r="E609" s="1" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="610" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15887,7 +15904,7 @@
         <v>1</v>
       </c>
       <c r="E610" s="1" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="611" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15904,7 +15921,7 @@
         <v>0</v>
       </c>
       <c r="E611" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="612" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15921,7 +15938,7 @@
         <v>0</v>
       </c>
       <c r="E612" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="613" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15929,7 +15946,7 @@
         <v>1105</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="C613" s="1" t="s">
         <v>1120</v>
@@ -15938,7 +15955,7 @@
         <v>0</v>
       </c>
       <c r="E613" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="614" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15946,7 +15963,7 @@
         <v>1105</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="C614" s="1" t="s">
         <v>1106</v>
@@ -15955,7 +15972,7 @@
         <v>0</v>
       </c>
       <c r="E614" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="615" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15963,7 +15980,7 @@
         <v>1105</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="C615" s="1" t="s">
         <v>1121</v>
@@ -15972,7 +15989,7 @@
         <v>0</v>
       </c>
       <c r="E615" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="616" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15989,7 +16006,7 @@
         <v>0</v>
       </c>
       <c r="E616" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="617" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16006,7 +16023,7 @@
         <v>0</v>
       </c>
       <c r="E617" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="618" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16023,7 +16040,7 @@
         <v>0</v>
       </c>
       <c r="E618" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="619" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16040,7 +16057,7 @@
         <v>0</v>
       </c>
       <c r="E619" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="620" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16057,7 +16074,7 @@
         <v>0</v>
       </c>
       <c r="E620" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="621" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16074,7 +16091,7 @@
         <v>0</v>
       </c>
       <c r="E621" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="622" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16091,7 +16108,7 @@
         <v>0</v>
       </c>
       <c r="E622" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="623" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16108,7 +16125,7 @@
         <v>0</v>
       </c>
       <c r="E623" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="624" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16116,16 +16133,16 @@
         <v>1105</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="C624" s="1" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="D624">
         <v>0</v>
       </c>
       <c r="E624" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="625" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16142,7 +16159,7 @@
         <v>1</v>
       </c>
       <c r="E625" s="1" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="626" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16159,7 +16176,7 @@
         <v>1</v>
       </c>
       <c r="E626" s="1" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="627" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16176,7 +16193,7 @@
         <v>0</v>
       </c>
       <c r="E627" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="628" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16193,7 +16210,7 @@
         <v>0</v>
       </c>
       <c r="E628" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="629" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16210,7 +16227,7 @@
         <v>0</v>
       </c>
       <c r="E629" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="630" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16227,7 +16244,7 @@
         <v>0</v>
       </c>
       <c r="E630" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="631" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16244,7 +16261,7 @@
         <v>0</v>
       </c>
       <c r="E631" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="632" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16252,7 +16269,7 @@
         <v>1142</v>
       </c>
       <c r="B632" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="C632" t="s">
         <v>1155</v>
@@ -16261,7 +16278,7 @@
         <v>0</v>
       </c>
       <c r="E632" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="633" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16278,7 +16295,7 @@
         <v>0</v>
       </c>
       <c r="E633" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="634" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16295,7 +16312,7 @@
         <v>0</v>
       </c>
       <c r="E634" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="635" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16312,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="E635" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="636" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16329,7 +16346,7 @@
         <v>0</v>
       </c>
       <c r="E636" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="637" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16337,7 +16354,7 @@
         <v>1142</v>
       </c>
       <c r="B637" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="C637" t="s">
         <v>1164</v>
@@ -16346,7 +16363,7 @@
         <v>0</v>
       </c>
       <c r="E637" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="638" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
@@ -16363,7 +16380,7 @@
         <v>1</v>
       </c>
       <c r="E638" s="1" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="639" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16380,7 +16397,7 @@
         <v>0</v>
       </c>
       <c r="E639" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="640" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16397,7 +16414,7 @@
         <v>0</v>
       </c>
       <c r="E640" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="641" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16405,7 +16422,7 @@
         <v>1142</v>
       </c>
       <c r="B641" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="C641" t="s">
         <v>1170</v>
@@ -16414,7 +16431,7 @@
         <v>0</v>
       </c>
       <c r="E641" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="642" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16431,7 +16448,7 @@
         <v>0</v>
       </c>
       <c r="E642" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="643" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16439,7 +16456,7 @@
         <v>1142</v>
       </c>
       <c r="B643" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="C643" t="s">
         <v>1197</v>
@@ -16448,7 +16465,7 @@
         <v>0</v>
       </c>
       <c r="E643" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="644" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16465,7 +16482,7 @@
         <v>0</v>
       </c>
       <c r="E644" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="645" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16482,7 +16499,7 @@
         <v>0</v>
       </c>
       <c r="E645" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="646" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16499,7 +16516,7 @@
         <v>0</v>
       </c>
       <c r="E646" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="647" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16516,7 +16533,7 @@
         <v>0</v>
       </c>
       <c r="E647" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="648" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16524,7 +16541,7 @@
         <v>1142</v>
       </c>
       <c r="B648" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="C648" t="s">
         <v>1202</v>
@@ -16533,7 +16550,7 @@
         <v>0</v>
       </c>
       <c r="E648" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="649" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16541,7 +16558,7 @@
         <v>1142</v>
       </c>
       <c r="B649" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="C649" t="s">
         <v>1203</v>
@@ -16550,7 +16567,7 @@
         <v>0</v>
       </c>
       <c r="E649" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="650" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16558,7 +16575,7 @@
         <v>1142</v>
       </c>
       <c r="B650" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="C650" t="s">
         <v>1204</v>
@@ -16567,7 +16584,7 @@
         <v>0</v>
       </c>
       <c r="E650" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="651" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16575,7 +16592,7 @@
         <v>1142</v>
       </c>
       <c r="B651" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="C651" t="s">
         <v>1205</v>
@@ -16584,7 +16601,7 @@
         <v>0</v>
       </c>
       <c r="E651" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="652" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16592,7 +16609,7 @@
         <v>1142</v>
       </c>
       <c r="B652" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="C652" t="s">
         <v>1206</v>
@@ -16601,7 +16618,7 @@
         <v>0</v>
       </c>
       <c r="E652" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="653" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16609,7 +16626,7 @@
         <v>1142</v>
       </c>
       <c r="B653" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="C653" t="s">
         <v>1207</v>
@@ -16618,7 +16635,7 @@
         <v>0</v>
       </c>
       <c r="E653" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="654" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16626,7 +16643,7 @@
         <v>1142</v>
       </c>
       <c r="B654" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="C654" t="s">
         <v>1208</v>
@@ -16635,7 +16652,7 @@
         <v>0</v>
       </c>
       <c r="E654" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="655" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16643,7 +16660,7 @@
         <v>1142</v>
       </c>
       <c r="B655" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="C655" t="s">
         <v>1209</v>
@@ -16652,7 +16669,7 @@
         <v>0</v>
       </c>
       <c r="E655" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="656" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16669,7 +16686,7 @@
         <v>0</v>
       </c>
       <c r="E656" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="657" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16686,7 +16703,7 @@
         <v>0</v>
       </c>
       <c r="E657" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="658" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16703,7 +16720,7 @@
         <v>0</v>
       </c>
       <c r="E658" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="659" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16720,7 +16737,7 @@
         <v>0</v>
       </c>
       <c r="E659" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="660" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16737,7 +16754,7 @@
         <v>0</v>
       </c>
       <c r="E660" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="661" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16754,7 +16771,7 @@
         <v>0</v>
       </c>
       <c r="E661" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="662" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16771,7 +16788,7 @@
         <v>0</v>
       </c>
       <c r="E662" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="663" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16788,7 +16805,7 @@
         <v>0</v>
       </c>
       <c r="E663" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="664" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16805,7 +16822,7 @@
         <v>0</v>
       </c>
       <c r="E664" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="665" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16822,7 +16839,7 @@
         <v>0</v>
       </c>
       <c r="E665" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="666" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16830,7 +16847,7 @@
         <v>1142</v>
       </c>
       <c r="B666" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="C666" t="s">
         <v>1220</v>
@@ -16839,7 +16856,7 @@
         <v>0</v>
       </c>
       <c r="E666" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="667" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16856,7 +16873,7 @@
         <v>0</v>
       </c>
       <c r="E667" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="668" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16864,7 +16881,7 @@
         <v>1142</v>
       </c>
       <c r="B668" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="C668" t="s">
         <v>1222</v>
@@ -16873,7 +16890,7 @@
         <v>0</v>
       </c>
       <c r="E668" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="669" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16881,7 +16898,7 @@
         <v>1142</v>
       </c>
       <c r="B669" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="C669" t="s">
         <v>1223</v>
@@ -16890,7 +16907,7 @@
         <v>0</v>
       </c>
       <c r="E669" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="670" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16898,7 +16915,7 @@
         <v>1142</v>
       </c>
       <c r="B670" t="s">
-        <v>1597</v>
+        <v>1592</v>
       </c>
       <c r="C670" t="s">
         <v>1224</v>
@@ -16907,7 +16924,7 @@
         <v>0</v>
       </c>
       <c r="E670" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="671" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16924,7 +16941,7 @@
         <v>0</v>
       </c>
       <c r="E671" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="672" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16941,7 +16958,7 @@
         <v>0</v>
       </c>
       <c r="E672" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="673" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16958,7 +16975,7 @@
         <v>0</v>
       </c>
       <c r="E673" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="674" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16975,7 +16992,7 @@
         <v>0</v>
       </c>
       <c r="E674" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="675" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16983,7 +17000,7 @@
         <v>1142</v>
       </c>
       <c r="B675" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="C675" t="s">
         <v>1229</v>
@@ -16992,7 +17009,7 @@
         <v>0</v>
       </c>
       <c r="E675" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="676" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17009,7 +17026,7 @@
         <v>0</v>
       </c>
       <c r="E676" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="677" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17026,7 +17043,7 @@
         <v>0</v>
       </c>
       <c r="E677" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="678" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17043,7 +17060,7 @@
         <v>0</v>
       </c>
       <c r="E678" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="679" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17060,7 +17077,7 @@
         <v>0</v>
       </c>
       <c r="E679" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="680" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17068,7 +17085,7 @@
         <v>1142</v>
       </c>
       <c r="B680" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="C680" t="s">
         <v>1232</v>
@@ -17077,7 +17094,7 @@
         <v>0</v>
       </c>
       <c r="E680" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="681" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17085,7 +17102,7 @@
         <v>1142</v>
       </c>
       <c r="B681" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="C681" t="s">
         <v>1233</v>
@@ -17094,7 +17111,7 @@
         <v>0</v>
       </c>
       <c r="E681" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="682" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17102,7 +17119,7 @@
         <v>1142</v>
       </c>
       <c r="B682" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="C682" t="s">
         <v>1234</v>
@@ -17111,7 +17128,7 @@
         <v>0</v>
       </c>
       <c r="E682" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="683" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17119,7 +17136,7 @@
         <v>1142</v>
       </c>
       <c r="B683" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="C683" t="s">
         <v>1237</v>
@@ -17128,7 +17145,7 @@
         <v>0</v>
       </c>
       <c r="E683" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="684" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17136,7 +17153,7 @@
         <v>1142</v>
       </c>
       <c r="B684" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="C684" t="s">
         <v>1238</v>
@@ -17145,7 +17162,7 @@
         <v>0</v>
       </c>
       <c r="E684" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="685" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17153,7 +17170,7 @@
         <v>1142</v>
       </c>
       <c r="B685" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="C685" t="s">
         <v>1262</v>
@@ -17162,7 +17179,7 @@
         <v>0</v>
       </c>
       <c r="E685" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="686" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17170,7 +17187,7 @@
         <v>1142</v>
       </c>
       <c r="B686" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="C686" t="s">
         <v>1263</v>
@@ -17179,7 +17196,7 @@
         <v>0</v>
       </c>
       <c r="E686" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="687" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17187,7 +17204,7 @@
         <v>1142</v>
       </c>
       <c r="B687" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="C687" t="s">
         <v>1264</v>
@@ -17196,7 +17213,7 @@
         <v>0</v>
       </c>
       <c r="E687" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="688" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17204,7 +17221,7 @@
         <v>1142</v>
       </c>
       <c r="B688" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="C688" t="s">
         <v>1265</v>
@@ -17213,7 +17230,7 @@
         <v>0</v>
       </c>
       <c r="E688" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="689" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17221,7 +17238,7 @@
         <v>1142</v>
       </c>
       <c r="B689" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="C689" t="s">
         <v>1266</v>
@@ -17230,7 +17247,7 @@
         <v>0</v>
       </c>
       <c r="E689" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="690" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17247,7 +17264,7 @@
         <v>0</v>
       </c>
       <c r="E690" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="691" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17264,7 +17281,7 @@
         <v>0</v>
       </c>
       <c r="E691" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="692" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17281,7 +17298,7 @@
         <v>0</v>
       </c>
       <c r="E692" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="693" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17298,7 +17315,7 @@
         <v>0</v>
       </c>
       <c r="E693" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="694" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17315,7 +17332,7 @@
         <v>0</v>
       </c>
       <c r="E694" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="695" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17332,7 +17349,7 @@
         <v>0</v>
       </c>
       <c r="E695" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="696" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17349,7 +17366,7 @@
         <v>0</v>
       </c>
       <c r="E696" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="697" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17366,7 +17383,7 @@
         <v>0</v>
       </c>
       <c r="E697" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="698" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17383,7 +17400,7 @@
         <v>0</v>
       </c>
       <c r="E698" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="699" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17400,7 +17417,7 @@
         <v>0</v>
       </c>
       <c r="E699" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="700" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17417,7 +17434,7 @@
         <v>0</v>
       </c>
       <c r="E700" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="701" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17434,7 +17451,7 @@
         <v>0</v>
       </c>
       <c r="E701" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="702" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17451,7 +17468,7 @@
         <v>0</v>
       </c>
       <c r="E702" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="703" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17468,7 +17485,7 @@
         <v>0</v>
       </c>
       <c r="E703" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="704" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17485,7 +17502,7 @@
         <v>0</v>
       </c>
       <c r="E704" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="705" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17493,7 +17510,7 @@
         <v>1142</v>
       </c>
       <c r="B705" t="s">
-        <v>1595</v>
+        <v>1590</v>
       </c>
       <c r="C705" t="s">
         <v>1282</v>
@@ -17502,7 +17519,7 @@
         <v>0</v>
       </c>
       <c r="E705" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="706" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17519,7 +17536,7 @@
         <v>0</v>
       </c>
       <c r="E706" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="707" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17536,7 +17553,7 @@
         <v>0</v>
       </c>
       <c r="E707" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="708" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17553,7 +17570,7 @@
         <v>0</v>
       </c>
       <c r="E708" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="709" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17570,7 +17587,7 @@
         <v>0</v>
       </c>
       <c r="E709" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="710" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17587,7 +17604,7 @@
         <v>0</v>
       </c>
       <c r="E710" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="711" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17604,7 +17621,7 @@
         <v>0</v>
       </c>
       <c r="E711" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="712" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17621,7 +17638,7 @@
         <v>0</v>
       </c>
       <c r="E712" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="713" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17629,7 +17646,7 @@
         <v>1142</v>
       </c>
       <c r="B713" t="s">
-        <v>1598</v>
+        <v>1593</v>
       </c>
       <c r="C713" t="s">
         <v>1290</v>
@@ -17638,7 +17655,7 @@
         <v>0</v>
       </c>
       <c r="E713" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="714" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17655,7 +17672,7 @@
         <v>1</v>
       </c>
       <c r="E714" s="1" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="715" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17672,7 +17689,7 @@
         <v>1</v>
       </c>
       <c r="E715" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="716" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17680,16 +17697,16 @@
         <v>1142</v>
       </c>
       <c r="B716" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="C716" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="D716">
         <v>0</v>
       </c>
       <c r="E716" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="717" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17706,7 +17723,7 @@
         <v>1</v>
       </c>
       <c r="E717" s="1" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="718" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17723,7 +17740,7 @@
         <v>1</v>
       </c>
       <c r="E718" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="719" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17731,7 +17748,7 @@
         <v>1297</v>
       </c>
       <c r="B719" t="s">
-        <v>1599</v>
+        <v>1594</v>
       </c>
       <c r="C719" t="s">
         <v>1324</v>
@@ -17740,7 +17757,7 @@
         <v>0</v>
       </c>
       <c r="E719" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="720" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17757,7 +17774,7 @@
         <v>0</v>
       </c>
       <c r="E720" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="721" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17774,7 +17791,7 @@
         <v>0</v>
       </c>
       <c r="E721" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="722" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17791,7 +17808,7 @@
         <v>0</v>
       </c>
       <c r="E722" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="723" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17808,7 +17825,7 @@
         <v>0</v>
       </c>
       <c r="E723" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="724" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17825,7 +17842,7 @@
         <v>0</v>
       </c>
       <c r="E724" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="725" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17842,7 +17859,7 @@
         <v>0</v>
       </c>
       <c r="E725" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="726" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17850,7 +17867,7 @@
         <v>1297</v>
       </c>
       <c r="B726" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="C726" t="s">
         <v>1331</v>
@@ -17859,7 +17876,7 @@
         <v>0</v>
       </c>
       <c r="E726" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="727" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17867,7 +17884,7 @@
         <v>1297</v>
       </c>
       <c r="B727" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="C727" t="s">
         <v>1332</v>
@@ -17876,7 +17893,7 @@
         <v>0</v>
       </c>
       <c r="E727" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="728" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17884,7 +17901,7 @@
         <v>1297</v>
       </c>
       <c r="B728" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="C728" t="s">
         <v>1333</v>
@@ -17893,7 +17910,7 @@
         <v>0</v>
       </c>
       <c r="E728" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="729" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17901,7 +17918,7 @@
         <v>1297</v>
       </c>
       <c r="B729" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="C729" t="s">
         <v>1334</v>
@@ -17910,7 +17927,7 @@
         <v>0</v>
       </c>
       <c r="E729" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="730" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17918,7 +17935,7 @@
         <v>1297</v>
       </c>
       <c r="B730" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="C730" t="s">
         <v>1335</v>
@@ -17927,7 +17944,7 @@
         <v>0</v>
       </c>
       <c r="E730" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="731" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17935,7 +17952,7 @@
         <v>1297</v>
       </c>
       <c r="B731" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="C731" t="s">
         <v>1336</v>
@@ -17944,7 +17961,7 @@
         <v>0</v>
       </c>
       <c r="E731" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="732" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17952,7 +17969,7 @@
         <v>1297</v>
       </c>
       <c r="B732" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="C732" t="s">
         <v>1337</v>
@@ -17961,7 +17978,7 @@
         <v>0</v>
       </c>
       <c r="E732" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="733" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17969,7 +17986,7 @@
         <v>1297</v>
       </c>
       <c r="B733" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="C733" t="s">
         <v>1338</v>
@@ -17978,7 +17995,7 @@
         <v>0</v>
       </c>
       <c r="E733" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="734" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -17986,7 +18003,7 @@
         <v>1297</v>
       </c>
       <c r="B734" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="C734" t="s">
         <v>1339</v>
@@ -17995,7 +18012,7 @@
         <v>0</v>
       </c>
       <c r="E734" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="735" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18003,7 +18020,7 @@
         <v>1297</v>
       </c>
       <c r="B735" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="C735" t="s">
         <v>1340</v>
@@ -18012,7 +18029,7 @@
         <v>0</v>
       </c>
       <c r="E735" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="736" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18029,7 +18046,7 @@
         <v>0</v>
       </c>
       <c r="E736" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="737" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18046,7 +18063,7 @@
         <v>0</v>
       </c>
       <c r="E737" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="738" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18063,7 +18080,7 @@
         <v>0</v>
       </c>
       <c r="E738" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="739" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18071,7 +18088,7 @@
         <v>1297</v>
       </c>
       <c r="B739" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="C739" t="s">
         <v>1344</v>
@@ -18080,7 +18097,7 @@
         <v>0</v>
       </c>
       <c r="E739" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="740" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18088,7 +18105,7 @@
         <v>1297</v>
       </c>
       <c r="B740" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="C740" t="s">
         <v>1345</v>
@@ -18097,7 +18114,7 @@
         <v>0</v>
       </c>
       <c r="E740" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="741" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18114,7 +18131,7 @@
         <v>0</v>
       </c>
       <c r="E741" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="742" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18131,7 +18148,7 @@
         <v>0</v>
       </c>
       <c r="E742" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="743" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18148,7 +18165,7 @@
         <v>0</v>
       </c>
       <c r="E743" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="744" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18165,7 +18182,7 @@
         <v>0</v>
       </c>
       <c r="E744" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="745" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18182,7 +18199,7 @@
         <v>0</v>
       </c>
       <c r="E745" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="746" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18190,7 +18207,7 @@
         <v>1297</v>
       </c>
       <c r="B746" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="C746" t="s">
         <v>1351</v>
@@ -18199,7 +18216,7 @@
         <v>0</v>
       </c>
       <c r="E746" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="747" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18216,7 +18233,7 @@
         <v>0</v>
       </c>
       <c r="E747" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="748" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18233,7 +18250,7 @@
         <v>0</v>
       </c>
       <c r="E748" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="749" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18250,7 +18267,7 @@
         <v>0</v>
       </c>
       <c r="E749" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="750" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18267,7 +18284,7 @@
         <v>0</v>
       </c>
       <c r="E750" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="751" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18284,7 +18301,7 @@
         <v>0</v>
       </c>
       <c r="E751" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="752" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18301,7 +18318,7 @@
         <v>0</v>
       </c>
       <c r="E752" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="753" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18318,7 +18335,7 @@
         <v>0</v>
       </c>
       <c r="E753" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="754" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18335,7 +18352,7 @@
         <v>0</v>
       </c>
       <c r="E754" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="755" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18352,7 +18369,7 @@
         <v>0</v>
       </c>
       <c r="E755" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="756" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18369,7 +18386,7 @@
         <v>0</v>
       </c>
       <c r="E756" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="757" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18386,7 +18403,7 @@
         <v>0</v>
       </c>
       <c r="E757" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="758" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18394,21 +18411,21 @@
         <v>1297</v>
       </c>
       <c r="B758" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="C758" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="D758">
         <v>0</v>
       </c>
       <c r="E758" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="759" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A759" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B759" s="1" t="s">
         <v>927</v>
@@ -18420,46 +18437,46 @@
         <v>1</v>
       </c>
       <c r="E759" s="1" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="760" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A760" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B760" s="1" t="s">
         <v>1365</v>
       </c>
       <c r="C760" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="D760">
         <v>1</v>
       </c>
       <c r="E760" s="1" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="761" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A761" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B761" s="1" t="s">
         <v>1366</v>
       </c>
       <c r="C761" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="D761">
         <v>0</v>
       </c>
       <c r="E761" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="762" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A762" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B762" s="1" t="s">
         <v>1293</v>
@@ -18468,633 +18485,633 @@
         <v>1292</v>
       </c>
       <c r="D762">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E762" s="1" t="s">
-        <v>1444</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="763" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A763" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B763" s="1" t="s">
-        <v>1367</v>
+        <v>1632</v>
       </c>
       <c r="C763" t="s">
-        <v>1400</v>
+        <v>1634</v>
       </c>
       <c r="D763">
         <v>1</v>
       </c>
       <c r="E763" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="764" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A764" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C764" t="s">
         <v>1397</v>
       </c>
-      <c r="B764" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C764" t="s">
-        <v>1401</v>
-      </c>
       <c r="D764">
         <v>0</v>
       </c>
       <c r="E764" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="765" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A765" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B765" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C765" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="D765">
         <v>0</v>
       </c>
       <c r="E765" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="766" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A766" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B766" s="1" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C766" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="D766">
         <v>0</v>
       </c>
       <c r="E766" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="767" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A767" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B767" s="1" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C767" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="D767">
         <v>0</v>
       </c>
       <c r="E767" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="768" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A768" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B768" s="1" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C768" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="D768">
         <v>0</v>
       </c>
       <c r="E768" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="769" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A769" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B769" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C769" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="D769">
         <v>0</v>
       </c>
       <c r="E769" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="770" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A770" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>1374</v>
+        <v>1631</v>
       </c>
       <c r="C770" t="s">
         <v>5</v>
       </c>
       <c r="D770">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E770" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="771" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A771" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C771" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="D771">
         <v>0</v>
       </c>
       <c r="E771" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="772" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A772" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B772" s="1" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C772" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="D772">
         <v>0</v>
       </c>
       <c r="E772" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="773" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A773" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B773" s="1" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C773" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="D773">
         <v>0</v>
       </c>
       <c r="E773" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="774" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A774" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B774" s="1" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="C774" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="D774">
         <v>0</v>
       </c>
       <c r="E774" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="775" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A775" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B775" s="1" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C775" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="D775">
         <v>0</v>
       </c>
       <c r="E775" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="776" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A776" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B776" s="1" t="s">
-        <v>1379</v>
+        <v>1630</v>
       </c>
       <c r="C776" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="D776">
         <v>0</v>
       </c>
       <c r="E776" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="777" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A777" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B777" s="1" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="C777" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="D777">
         <v>0</v>
       </c>
       <c r="E777" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="778" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A778" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B778" s="1" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="C778" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="D778">
         <v>0</v>
       </c>
       <c r="E778" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="779" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A779" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B779" s="1" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="C779" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="D779">
         <v>0</v>
       </c>
       <c r="E779" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="780" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A780" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B780" s="1" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="C780" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="D780">
         <v>0</v>
       </c>
       <c r="E780" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="781" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A781" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B781" s="1" t="s">
-        <v>1593</v>
+        <v>1629</v>
       </c>
       <c r="C781" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="D781">
         <v>0</v>
       </c>
       <c r="E781" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="782" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A782" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B782" s="1" t="s">
-        <v>1594</v>
+        <v>1589</v>
       </c>
       <c r="C782" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="D782">
         <v>0</v>
       </c>
       <c r="E782" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="783" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A783" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B783" s="1" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="C783" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="D783">
         <v>0</v>
       </c>
       <c r="E783" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="784" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A784" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B784" s="1" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="C784" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="D784">
         <v>0</v>
       </c>
       <c r="E784" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="785" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A785" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B785" s="1" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="C785" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="D785">
         <v>0</v>
       </c>
       <c r="E785" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="786" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A786" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B786" s="1" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="C786" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="D786">
         <v>0</v>
       </c>
       <c r="E786" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="787" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A787" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B787" s="1" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="C787" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="D787">
         <v>0</v>
       </c>
       <c r="E787" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="788" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A788" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B788" s="1" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="C788" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="D788">
         <v>0</v>
       </c>
       <c r="E788" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="789" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A789" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B789" s="1" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="C789" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="D789">
         <v>0</v>
       </c>
       <c r="E789" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="790" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A790" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B790" s="1" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="C790" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="D790">
         <v>0</v>
       </c>
       <c r="E790" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="791" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A791" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B791" s="1" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="C791" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="D791">
         <v>0</v>
       </c>
       <c r="E791" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="792" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A792" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B792" s="1" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="C792" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="D792">
         <v>0</v>
       </c>
       <c r="E792" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="793" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A793" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B793" s="1" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="C793" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="D793">
         <v>0</v>
       </c>
       <c r="E793" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="794" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A794" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B794" s="1" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="C794" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="D794">
         <v>0</v>
       </c>
       <c r="E794" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="795" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A795" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B795" s="1" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="C795" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="D795">
         <v>0</v>
       </c>
       <c r="E795" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="796" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A796" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B796" s="1" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="C796" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="D796">
         <v>0</v>
       </c>
       <c r="E796" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="797" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A797" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B797" s="1" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="C797" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="D797">
         <v>0</v>
       </c>
       <c r="E797" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="798" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A798" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B798" s="1" t="s">
-        <v>1435</v>
+        <v>1627</v>
       </c>
       <c r="C798" t="s">
-        <v>1436</v>
+        <v>1628</v>
       </c>
       <c r="D798">
         <v>0</v>
       </c>
       <c r="E798" s="1" t="s">
-        <v>1441</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="799" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A799" t="s">
-        <v>1448</v>
+        <v>1394</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>1449</v>
-      </c>
-      <c r="C799" t="s">
-        <v>1450</v>
+        <v>1470</v>
+      </c>
+      <c r="C799">
+        <v>0</v>
       </c>
       <c r="D799">
         <v>1</v>
@@ -19105,251 +19122,251 @@
     </row>
     <row r="800" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A800" t="s">
-        <v>1448</v>
+        <v>1394</v>
       </c>
       <c r="B800" s="1" t="s">
-        <v>1451</v>
+        <v>1431</v>
       </c>
       <c r="C800" t="s">
-        <v>1452</v>
+        <v>1432</v>
       </c>
       <c r="D800">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E800" s="1" t="s">
-        <v>1444</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="801" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A801" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="B801" s="1" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="C801" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
       <c r="D801">
         <v>1</v>
       </c>
       <c r="E801" s="1" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="802" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A802" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B802" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C802" t="s">
         <v>1448</v>
       </c>
-      <c r="B802" s="1" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C802" t="s">
-        <v>1456</v>
-      </c>
       <c r="D802">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E802" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="803" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A803" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="B803" s="1" t="s">
-        <v>1457</v>
+        <v>1449</v>
       </c>
       <c r="C803" t="s">
-        <v>1458</v>
+        <v>1450</v>
       </c>
       <c r="D803">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E803" s="1" t="s">
-        <v>1441</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="804" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A804" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="B804" s="1" t="s">
-        <v>1459</v>
+        <v>1451</v>
       </c>
       <c r="C804" t="s">
-        <v>1460</v>
+        <v>1452</v>
       </c>
       <c r="D804">
         <v>0</v>
       </c>
       <c r="E804" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="805" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A805" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="B805" s="1" t="s">
-        <v>1461</v>
+        <v>1453</v>
       </c>
       <c r="C805" t="s">
-        <v>489</v>
+        <v>1454</v>
       </c>
       <c r="D805">
         <v>0</v>
       </c>
       <c r="E805" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="806" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A806" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="B806" s="1" t="s">
-        <v>1462</v>
+        <v>1455</v>
       </c>
       <c r="C806" t="s">
-        <v>1463</v>
+        <v>1456</v>
       </c>
       <c r="D806">
         <v>0</v>
       </c>
       <c r="E806" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="807" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A807" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>1557</v>
+        <v>1457</v>
       </c>
       <c r="C807" t="s">
-        <v>1464</v>
+        <v>489</v>
       </c>
       <c r="D807">
         <v>0</v>
       </c>
       <c r="E807" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="808" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A808" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="B808" s="1" t="s">
-        <v>1596</v>
+        <v>1458</v>
       </c>
       <c r="C808" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="D808">
         <v>0</v>
       </c>
       <c r="E808" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="809" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A809" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="B809" s="1" t="s">
-        <v>1585</v>
+        <v>1553</v>
       </c>
       <c r="C809" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="D809">
         <v>0</v>
       </c>
       <c r="E809" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="810" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A810" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>1467</v>
+        <v>1591</v>
       </c>
       <c r="C810" t="s">
-        <v>1468</v>
+        <v>1461</v>
       </c>
       <c r="D810">
         <v>0</v>
       </c>
       <c r="E810" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="811" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A811" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="B811" s="1" t="s">
-        <v>1469</v>
+        <v>1581</v>
       </c>
       <c r="C811" t="s">
-        <v>1470</v>
+        <v>1462</v>
       </c>
       <c r="D811">
         <v>0</v>
       </c>
       <c r="E811" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="812" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A812" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C812">
-        <v>0</v>
+        <v>1463</v>
+      </c>
+      <c r="C812" t="s">
+        <v>1464</v>
       </c>
       <c r="D812">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E812" s="1" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="813" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A813" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B813" s="1" t="s">
-        <v>1472</v>
+        <v>1465</v>
       </c>
       <c r="C813" t="s">
-        <v>1473</v>
+        <v>1466</v>
       </c>
       <c r="D813">
         <v>0</v>
       </c>
       <c r="E813" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="814" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A814" t="s">
-        <v>1478</v>
-      </c>
-      <c r="B814" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C814" t="s">
-        <v>1482</v>
+        <v>1441</v>
+      </c>
+      <c r="B814" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C814">
+        <v>0</v>
       </c>
       <c r="D814">
         <v>1</v>
@@ -19360,465 +19377,499 @@
     </row>
     <row r="815" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A815" t="s">
-        <v>1478</v>
-      </c>
-      <c r="B815" t="s">
-        <v>1483</v>
+        <v>1441</v>
+      </c>
+      <c r="B815" s="1" t="s">
+        <v>1468</v>
       </c>
       <c r="C815" t="s">
-        <v>1492</v>
+        <v>1469</v>
       </c>
       <c r="D815">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E815" s="1" t="s">
-        <v>1444</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="816" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A816" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C816" t="s">
         <v>1478</v>
-      </c>
-      <c r="B816" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C816" t="s">
-        <v>1493</v>
       </c>
       <c r="D816">
         <v>1</v>
       </c>
       <c r="E816" s="1" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="817" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A817" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="B817" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="C817" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="D817">
         <v>1</v>
       </c>
       <c r="E817" s="1" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="818" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A818" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="B818" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="C818" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="D818">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E818" s="1" t="s">
-        <v>1441</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="819" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A819" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="B819" t="s">
-        <v>1586</v>
+        <v>1481</v>
       </c>
       <c r="C819" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="D819">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E819" s="1" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="820" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A820" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="B820" t="s">
-        <v>1587</v>
+        <v>1482</v>
       </c>
       <c r="C820" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="D820">
         <v>0</v>
       </c>
       <c r="E820" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="821" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A821" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="B821" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="C821" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="D821">
         <v>0</v>
       </c>
       <c r="E821" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="822" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A822" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="B822" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="C822" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="D822">
         <v>0</v>
       </c>
       <c r="E822" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="823" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A823" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="B823" t="s">
-        <v>1487</v>
+        <v>1584</v>
       </c>
       <c r="C823" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="D823">
         <v>0</v>
       </c>
       <c r="E823" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="824" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A824" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="B824" t="s">
-        <v>1488</v>
+        <v>1585</v>
       </c>
       <c r="C824" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="D824">
         <v>0</v>
       </c>
       <c r="E824" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="825" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A825" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="B825" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="C825" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="D825">
         <v>0</v>
       </c>
       <c r="E825" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="826" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A826" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="B826" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="C826" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="D826">
         <v>0</v>
       </c>
       <c r="E826" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="827" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A827" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="B827" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="C827" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="D827">
         <v>0</v>
       </c>
       <c r="E827" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="828" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A828" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="B828" t="s">
-        <v>1435</v>
+        <v>1486</v>
       </c>
       <c r="C828" t="s">
-        <v>1436</v>
+        <v>1499</v>
       </c>
       <c r="D828">
         <v>0</v>
       </c>
       <c r="E828" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="829" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A829" t="s">
-        <v>1600</v>
+        <v>1474</v>
       </c>
       <c r="B829" t="s">
-        <v>1601</v>
+        <v>1487</v>
       </c>
       <c r="C829" t="s">
-        <v>1602</v>
+        <v>1500</v>
       </c>
       <c r="D829">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E829" s="1" t="s">
-        <v>1617</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="830" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A830" t="s">
-        <v>1600</v>
+        <v>1474</v>
       </c>
       <c r="B830" t="s">
-        <v>1603</v>
+        <v>1431</v>
       </c>
       <c r="C830" t="s">
-        <v>1604</v>
+        <v>1432</v>
       </c>
       <c r="D830">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E830" s="1" t="s">
-        <v>1618</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="831" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A831" t="s">
-        <v>1600</v>
+        <v>1595</v>
       </c>
       <c r="B831" t="s">
-        <v>1605</v>
+        <v>1596</v>
       </c>
       <c r="C831" t="s">
-        <v>1606</v>
+        <v>1597</v>
       </c>
       <c r="D831">
         <v>1</v>
       </c>
       <c r="E831" s="1" t="s">
-        <v>1607</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="832" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A832" t="s">
-        <v>1600</v>
+        <v>1595</v>
       </c>
       <c r="B832" t="s">
-        <v>1608</v>
+        <v>1598</v>
       </c>
       <c r="C832" t="s">
-        <v>1609</v>
+        <v>1599</v>
       </c>
       <c r="D832">
         <v>1</v>
       </c>
       <c r="E832" s="1" t="s">
-        <v>1610</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="833" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A833" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B833" t="s">
         <v>1600</v>
       </c>
-      <c r="B833" t="s">
-        <v>1611</v>
-      </c>
       <c r="C833" t="s">
-        <v>1612</v>
+        <v>1601</v>
       </c>
       <c r="D833">
         <v>1</v>
       </c>
       <c r="E833" s="1" t="s">
-        <v>1612</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="834" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A834" t="s">
-        <v>1613</v>
+        <v>1595</v>
       </c>
       <c r="B834" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="C834" t="s">
-        <v>1619</v>
+        <v>1604</v>
       </c>
       <c r="D834">
         <v>1</v>
       </c>
       <c r="E834" s="1" t="s">
-        <v>1617</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="835" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A835" t="s">
-        <v>1613</v>
+        <v>1595</v>
       </c>
       <c r="B835" t="s">
-        <v>1603</v>
+        <v>1606</v>
       </c>
       <c r="C835" t="s">
-        <v>1604</v>
+        <v>1607</v>
       </c>
       <c r="D835">
         <v>1</v>
       </c>
       <c r="E835" s="1" t="s">
-        <v>1618</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="836" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A836" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
       <c r="B836" t="s">
-        <v>1605</v>
+        <v>1596</v>
       </c>
       <c r="C836" t="s">
-        <v>1606</v>
+        <v>1614</v>
       </c>
       <c r="D836">
         <v>1</v>
       </c>
       <c r="E836" s="1" t="s">
-        <v>1607</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="837" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A837" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
       <c r="B837" t="s">
-        <v>1608</v>
+        <v>1598</v>
       </c>
       <c r="C837" t="s">
-        <v>1609</v>
+        <v>1599</v>
       </c>
       <c r="D837">
         <v>1</v>
       </c>
       <c r="E837" s="1" t="s">
-        <v>1610</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="838" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A838" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
       <c r="B838" t="s">
-        <v>1611</v>
+        <v>1600</v>
       </c>
       <c r="C838" t="s">
-        <v>1612</v>
+        <v>1601</v>
       </c>
       <c r="D838">
         <v>1</v>
       </c>
       <c r="E838" s="1" t="s">
-        <v>1612</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="839" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A839" t="s">
-        <v>1620</v>
+        <v>1608</v>
       </c>
       <c r="B839" t="s">
-        <v>1621</v>
+        <v>1603</v>
       </c>
       <c r="C839" t="s">
-        <v>1622</v>
+        <v>1604</v>
       </c>
       <c r="D839">
         <v>1</v>
       </c>
       <c r="E839" s="1" t="s">
-        <v>1623</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="840" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A840" t="s">
-        <v>1620</v>
+        <v>1608</v>
       </c>
       <c r="B840" t="s">
-        <v>1624</v>
+        <v>1606</v>
       </c>
       <c r="C840" t="s">
-        <v>1625</v>
+        <v>1607</v>
       </c>
       <c r="D840">
         <v>1</v>
       </c>
       <c r="E840" s="1" t="s">
-        <v>1626</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="841" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A841" t="s">
-        <v>1620</v>
+        <v>1615</v>
       </c>
       <c r="B841" t="s">
-        <v>1627</v>
+        <v>1616</v>
       </c>
       <c r="C841" t="s">
-        <v>1628</v>
+        <v>1617</v>
       </c>
       <c r="D841">
         <v>1</v>
       </c>
       <c r="E841" s="1" t="s">
-        <v>1629</v>
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A842" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B842" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C842" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D842">
+        <v>1</v>
+      </c>
+      <c r="E842" s="1" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A843" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C843" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D843">
+        <v>1</v>
+      </c>
+      <c r="E843" s="1" t="s">
+        <v>1624</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C828"/>
+  <autoFilter ref="A1:C830"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19830,8 +19881,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19997,10 +20048,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B15" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="C15" t="s">
         <v>1295</v>
@@ -20008,57 +20059,57 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="B16" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="C16" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="B17" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="C17" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>1600</v>
+        <v>1595</v>
       </c>
       <c r="B18" t="s">
-        <v>1614</v>
+        <v>1609</v>
       </c>
       <c r="C18" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
       <c r="B19" t="s">
-        <v>1616</v>
+        <v>1611</v>
       </c>
       <c r="C19" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>1620</v>
+        <v>1615</v>
       </c>
       <c r="B20" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="C20" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
     </row>
   </sheetData>

--- a/FactorLib/resource/wind_tableinfo.xlsx
+++ b/FactorLib/resource/wind_tableinfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FactorInfo" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3431" uniqueCount="1635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3450" uniqueCount="1646">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5123,6 +5123,49 @@
   <si>
     <t>reporting_period</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股定期报告披露日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_windcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计披露日期(最新)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_stm_predict_issuingdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre_ann_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际披露日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_stm_actual_issuingdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AShareIssuingDatePredict</t>
   </si>
 </sst>
 </file>
@@ -5520,11 +5563,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E843"/>
+  <dimension ref="A1:E847"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A757" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C762" sqref="C762"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A832" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A847" sqref="A847"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19868,6 +19911,74 @@
         <v>1624</v>
       </c>
     </row>
+    <row r="844" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A844" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B844" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C844" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D844">
+        <v>1</v>
+      </c>
+      <c r="E844" s="1" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A845" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B845" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C845" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D845">
+        <v>1</v>
+      </c>
+      <c r="E845" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A846" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B846" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C846" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D846">
+        <v>1</v>
+      </c>
+      <c r="E846" s="1" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A847" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B847" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C847" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D847">
+        <v>1</v>
+      </c>
+      <c r="E847" s="1" t="s">
+        <v>1440</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C830"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -19879,10 +19990,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20112,6 +20223,17 @@
         <v>1626</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1130</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FactorLib/resource/wind_tableinfo.xlsx
+++ b/FactorLib/resource/wind_tableinfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="FactorInfo" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3450" uniqueCount="1646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3477" uniqueCount="1666">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5166,6 +5166,85 @@
   </si>
   <si>
     <t>AShareIssuingDatePredict</t>
+  </si>
+  <si>
+    <t>中国A股基本资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_windcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_exchmarket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchmarket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上市板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_listboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上市日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_listdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退市日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_delistdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delistdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否在沪股通或深港通范围内</t>
+  </si>
+  <si>
+    <t>is_shsc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shsc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AShareDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5563,11 +5642,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E847"/>
+  <dimension ref="A1:E853"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A832" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A847" sqref="A847"/>
+      <selection pane="bottomLeft" activeCell="B845" sqref="B845"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19979,6 +20058,108 @@
         <v>1440</v>
       </c>
     </row>
+    <row r="848" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A848" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B848" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C848" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D848">
+        <v>1</v>
+      </c>
+      <c r="E848" s="1" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A849" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B849" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C849" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D849">
+        <v>1</v>
+      </c>
+      <c r="E849" s="1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A850" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B850" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C850" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D850">
+        <v>1</v>
+      </c>
+      <c r="E850" s="1" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A851" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B851" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C851" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D851">
+        <v>1</v>
+      </c>
+      <c r="E851" s="1" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A852" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B852" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C852" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D852">
+        <v>1</v>
+      </c>
+      <c r="E852" s="1" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A853" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C853" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D853">
+        <v>1</v>
+      </c>
+      <c r="E853" s="1" t="s">
+        <v>1664</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C830"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -19990,10 +20171,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20234,6 +20415,17 @@
         <v>1130</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1130</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FactorLib/resource/wind_tableinfo.xlsx
+++ b/FactorLib/resource/wind_tableinfo.xlsx
@@ -5645,8 +5645,8 @@
   <dimension ref="A1:E853"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A832" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B845" sqref="B845"/>
+      <pane ySplit="1" topLeftCell="A424" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E437" sqref="E437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11671,10 +11671,10 @@
         <v>205</v>
       </c>
       <c r="D354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13153,7 +13153,7 @@
         <v>1</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="442" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">

--- a/FactorLib/resource/wind_tableinfo.xlsx
+++ b/FactorLib/resource/wind_tableinfo.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3629045D-18E3-45F3-A2D9-396317471A84}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FactorInfo" sheetId="2" r:id="rId1"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3477" uniqueCount="1666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3558" uniqueCount="1711">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5244,13 +5245,193 @@
   </si>
   <si>
     <t>AShareDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国共同基金基本资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_info_front_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_info_backend_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backend_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金简称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_info_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发行日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_info_issuedate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否指数基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_indexfund</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fund_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChinaMutualFundDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国Wind基金分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_info_windcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属板块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_sector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_sectorentrydt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_sectorexitdt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChinaMutualFundSector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国共同基金净值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位净值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_nav_unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计净值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计分红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_nav_accumulated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_nav_divaccumulated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复权因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_nav_adjfactor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复权单位净值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_nav_adjusted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChinaMutualFundNav</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5640,13 +5821,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E853"/>
+  <dimension ref="A1:E871"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A424" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E437" sqref="E437"/>
+      <pane ySplit="1" topLeftCell="A846" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C850" sqref="C850"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20160,8 +20341,314 @@
         <v>1664</v>
       </c>
     </row>
+    <row r="854" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A854" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B854" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C854" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D854">
+        <v>1</v>
+      </c>
+      <c r="E854" s="1" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A855" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B855" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C855" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D855">
+        <v>1</v>
+      </c>
+      <c r="E855" s="1" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A856" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C856" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D856">
+        <v>1</v>
+      </c>
+      <c r="E856" s="1" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A857" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B857" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C857" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D857">
+        <v>1</v>
+      </c>
+      <c r="E857" s="1" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A858" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C858" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D858">
+        <v>1</v>
+      </c>
+      <c r="E858" s="1" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A859" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C859" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D859">
+        <v>1</v>
+      </c>
+      <c r="E859" s="1" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A860" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B860" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C860" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D860">
+        <v>1</v>
+      </c>
+      <c r="E860" s="1" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A861" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C861" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D861">
+        <v>1</v>
+      </c>
+      <c r="E861" s="1" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A862" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C862" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D862">
+        <v>1</v>
+      </c>
+      <c r="E862" s="1" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A863" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C863" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D863">
+        <v>1</v>
+      </c>
+      <c r="E863" s="1" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A864" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C864" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D864">
+        <v>1</v>
+      </c>
+      <c r="E864" s="1" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A865" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B865" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C865" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D865">
+        <v>1</v>
+      </c>
+      <c r="E865" s="1" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A866" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C866" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D866">
+        <v>1</v>
+      </c>
+      <c r="E866" s="1" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A867" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C867" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D867">
+        <v>0</v>
+      </c>
+      <c r="E867" s="1" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="868" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A868" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B868" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C868" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D868">
+        <v>0</v>
+      </c>
+      <c r="E868" s="1" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="869" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A869" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C869" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D869">
+        <v>0</v>
+      </c>
+      <c r="E869" s="1" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A870" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C870" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D870">
+        <v>0</v>
+      </c>
+      <c r="E870" s="1" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A871" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C871" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D871">
+        <v>0</v>
+      </c>
+      <c r="E871" s="1" t="s">
+        <v>1677</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C830"/>
+  <autoFilter ref="A1:C830" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20169,12 +20656,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20426,6 +20913,39 @@
         <v>1130</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1682</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FactorLib/resource/wind_tableinfo.xlsx
+++ b/FactorLib/resource/wind_tableinfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3629045D-18E3-45F3-A2D9-396317471A84}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C0367342-3BC2-4952-9AF3-4DBF93D5F21F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3558" uniqueCount="1711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="1711">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5823,11 +5823,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E871"/>
+  <dimension ref="A1:E872"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A846" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C850" sqref="C850"/>
+      <pane ySplit="1" topLeftCell="A864" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B871" sqref="B871"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20645,6 +20645,23 @@
       </c>
       <c r="E871" s="1" t="s">
         <v>1677</v>
+      </c>
+    </row>
+    <row r="872" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A872" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C872" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D872">
+        <v>0</v>
+      </c>
+      <c r="E872" s="1" t="s">
+        <v>1437</v>
       </c>
     </row>
   </sheetData>

--- a/FactorLib/resource/wind_tableinfo.xlsx
+++ b/FactorLib/resource/wind_tableinfo.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C0367342-3BC2-4952-9AF3-4DBF93D5F21F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E274A020-DBF2-4DD8-B4F3-C181C901E366}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,14 +12,14 @@
     <sheet name="TableInfo" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FactorInfo!$A$1:$C$830</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FactorInfo!$A$1:$C$872</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="1711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="1713">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5425,6 +5425,14 @@
   </si>
   <si>
     <t>ChinaMutualFundNav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inst_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5823,11 +5831,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E872"/>
+  <dimension ref="A1:E875"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A864" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B871" sqref="B871"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16238,10 +16246,10 @@
         <v>1119</v>
       </c>
       <c r="D612">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E612" s="1" t="s">
-        <v>1437</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="613" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16391,10 +16399,10 @@
         <v>1127</v>
       </c>
       <c r="D621">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E621" s="1" t="s">
-        <v>1437</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="622" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20664,8 +20672,17 @@
         <v>1437</v>
       </c>
     </row>
+    <row r="873" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E873" s="1"/>
+    </row>
+    <row r="874" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E874" s="1"/>
+    </row>
+    <row r="875" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E875" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C830" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C872" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/FactorLib/resource/wind_tableinfo.xlsx
+++ b/FactorLib/resource/wind_tableinfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E274A020-DBF2-4DD8-B4F3-C181C901E366}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B4C40F56-2985-4028-A7E1-9076EC42D929}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,14 +12,14 @@
     <sheet name="TableInfo" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FactorInfo!$A$1:$C$872</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FactorInfo!$A$1:$C$873</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="1713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3566" uniqueCount="1716">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5433,6 +5433,18 @@
   </si>
   <si>
     <t>inst_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成立日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_info_setupdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setup_dt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5831,11 +5843,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E875"/>
+  <dimension ref="A1:E876"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <pane ySplit="1" topLeftCell="A842" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E861" sqref="E861"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20453,19 +20465,19 @@
     </row>
     <row r="860" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A860" t="s">
-        <v>1686</v>
+        <v>1666</v>
       </c>
       <c r="B860" t="s">
-        <v>1667</v>
+        <v>1713</v>
       </c>
       <c r="C860" t="s">
-        <v>1687</v>
+        <v>1714</v>
       </c>
       <c r="D860">
         <v>1</v>
       </c>
       <c r="E860" s="1" t="s">
-        <v>1668</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="861" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20473,16 +20485,16 @@
         <v>1686</v>
       </c>
       <c r="B861" t="s">
-        <v>1688</v>
+        <v>1667</v>
       </c>
       <c r="C861" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D861">
         <v>1</v>
       </c>
       <c r="E861" s="1" t="s">
-        <v>1690</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="862" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20490,16 +20502,16 @@
         <v>1686</v>
       </c>
       <c r="B862" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="C862" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="D862">
         <v>1</v>
       </c>
       <c r="E862" s="1" t="s">
-        <v>1602</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="863" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20507,16 +20519,16 @@
         <v>1686</v>
       </c>
       <c r="B863" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C863" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D863">
         <v>1</v>
       </c>
       <c r="E863" s="1" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="864" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20524,33 +20536,33 @@
         <v>1686</v>
       </c>
       <c r="B864" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="C864" t="s">
-        <v>1607</v>
+        <v>1694</v>
       </c>
       <c r="D864">
         <v>1</v>
       </c>
       <c r="E864" s="1" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="865" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A865" t="s">
-        <v>1697</v>
+        <v>1686</v>
       </c>
       <c r="B865" t="s">
-        <v>1445</v>
+        <v>1695</v>
       </c>
       <c r="C865" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
       <c r="D865">
         <v>1</v>
       </c>
       <c r="E865" s="1" t="s">
-        <v>1668</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="866" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20558,16 +20570,16 @@
         <v>1697</v>
       </c>
       <c r="B866" t="s">
-        <v>1692</v>
+        <v>1445</v>
       </c>
       <c r="C866" t="s">
-        <v>1698</v>
+        <v>1614</v>
       </c>
       <c r="D866">
         <v>1</v>
       </c>
       <c r="E866" s="1" t="s">
-        <v>1699</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="867" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20575,16 +20587,16 @@
         <v>1697</v>
       </c>
       <c r="B867" t="s">
-        <v>1700</v>
+        <v>1692</v>
       </c>
       <c r="C867" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="D867">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E867" s="1" t="s">
-        <v>1677</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="868" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20592,10 +20604,10 @@
         <v>1697</v>
       </c>
       <c r="B868" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="C868" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="D868">
         <v>0</v>
@@ -20609,10 +20621,10 @@
         <v>1697</v>
       </c>
       <c r="B869" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="C869" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D869">
         <v>0</v>
@@ -20626,10 +20638,10 @@
         <v>1697</v>
       </c>
       <c r="B870" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="C870" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="D870">
         <v>0</v>
@@ -20643,10 +20655,10 @@
         <v>1697</v>
       </c>
       <c r="B871" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="C871" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D871">
         <v>0</v>
@@ -20660,20 +20672,34 @@
         <v>1697</v>
       </c>
       <c r="B872" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C872" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D872">
+        <v>0</v>
+      </c>
+      <c r="E872" s="1" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A873" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B873" t="s">
         <v>1431</v>
       </c>
-      <c r="C872" t="s">
+      <c r="C873" t="s">
         <v>1432</v>
       </c>
-      <c r="D872">
-        <v>0</v>
-      </c>
-      <c r="E872" s="1" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="873" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E873" s="1"/>
+      <c r="D873">
+        <v>0</v>
+      </c>
+      <c r="E873" s="1" t="s">
+        <v>1437</v>
+      </c>
     </row>
     <row r="874" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E874" s="1"/>
@@ -20681,8 +20707,11 @@
     <row r="875" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E875" s="1"/>
     </row>
+    <row r="876" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E876" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C872" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C873" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/FactorLib/resource/wind_tableinfo.xlsx
+++ b/FactorLib/resource/wind_tableinfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B4C40F56-2985-4028-A7E1-9076EC42D929}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9DC56EDC-7474-40C1-AE79-DF0C93E344E4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,14 +12,14 @@
     <sheet name="TableInfo" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FactorInfo!$A$1:$C$873</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FactorInfo!$A$1:$C$874</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3566" uniqueCount="1716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3569" uniqueCount="1717">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5445,6 +5445,10 @@
   </si>
   <si>
     <t>setup_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5843,11 +5847,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E876"/>
+  <dimension ref="A1:E877"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A842" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E861" sqref="E861"/>
+      <pane ySplit="1" topLeftCell="A434" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C449" sqref="C449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13405,7 +13409,7 @@
         <v>1</v>
       </c>
       <c r="E444" s="1" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="445" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13430,16 +13434,16 @@
         <v>1074</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="C446" s="1" t="s">
-        <v>8</v>
+        <v>1716</v>
+      </c>
+      <c r="C446" s="1">
+        <v>1</v>
       </c>
       <c r="D446">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="447" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13447,10 +13451,10 @@
         <v>1074</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>817</v>
+        <v>920</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>658</v>
+        <v>8</v>
       </c>
       <c r="D447">
         <v>0</v>
@@ -13464,10 +13468,10 @@
         <v>1074</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>1011</v>
+        <v>817</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D448">
         <v>0</v>
@@ -13481,10 +13485,10 @@
         <v>1074</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>818</v>
+        <v>1011</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D449">
         <v>0</v>
@@ -13498,10 +13502,10 @@
         <v>1074</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D450">
         <v>0</v>
@@ -13515,10 +13519,10 @@
         <v>1074</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D451">
         <v>0</v>
@@ -13532,10 +13536,10 @@
         <v>1074</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D452">
         <v>0</v>
@@ -13549,10 +13553,10 @@
         <v>1074</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D453">
         <v>0</v>
@@ -13566,10 +13570,10 @@
         <v>1074</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>543</v>
+        <v>822</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D454">
         <v>0</v>
@@ -13583,10 +13587,10 @@
         <v>1074</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D455">
         <v>0</v>
@@ -13600,10 +13604,10 @@
         <v>1074</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>1010</v>
+        <v>544</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D456">
         <v>0</v>
@@ -13617,10 +13621,10 @@
         <v>1074</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>1557</v>
+        <v>1010</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D457">
         <v>0</v>
@@ -13634,10 +13638,10 @@
         <v>1074</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>823</v>
+        <v>1557</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D458">
         <v>0</v>
@@ -13651,10 +13655,10 @@
         <v>1074</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>921</v>
+        <v>823</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D459">
         <v>0</v>
@@ -13668,10 +13672,10 @@
         <v>1074</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>824</v>
+        <v>921</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D460">
         <v>0</v>
@@ -13685,10 +13689,10 @@
         <v>1074</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D461">
         <v>0</v>
@@ -13702,10 +13706,10 @@
         <v>1074</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D462">
         <v>0</v>
@@ -13719,10 +13723,10 @@
         <v>1074</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D463">
         <v>0</v>
@@ -13736,10 +13740,10 @@
         <v>1074</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D464">
         <v>0</v>
@@ -13753,10 +13757,10 @@
         <v>1074</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D465">
         <v>0</v>
@@ -13770,10 +13774,10 @@
         <v>1074</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D466">
         <v>0</v>
@@ -13787,10 +13791,10 @@
         <v>1074</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>545</v>
+        <v>830</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>499</v>
+        <v>677</v>
       </c>
       <c r="D467">
         <v>0</v>
@@ -13804,10 +13808,10 @@
         <v>1074</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D468">
         <v>0</v>
@@ -13821,10 +13825,10 @@
         <v>1074</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>831</v>
+        <v>546</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>678</v>
+        <v>500</v>
       </c>
       <c r="D469">
         <v>0</v>
@@ -13838,10 +13842,10 @@
         <v>1074</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D470">
         <v>0</v>
@@ -13855,10 +13859,10 @@
         <v>1074</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>1012</v>
+        <v>832</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D471">
         <v>0</v>
@@ -13872,10 +13876,10 @@
         <v>1074</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>833</v>
+        <v>1012</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D472">
         <v>0</v>
@@ -13889,10 +13893,10 @@
         <v>1074</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D473">
         <v>0</v>
@@ -13906,10 +13910,10 @@
         <v>1074</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D474">
         <v>0</v>
@@ -13923,10 +13927,10 @@
         <v>1074</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D475">
         <v>0</v>
@@ -13940,10 +13944,10 @@
         <v>1074</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D476">
         <v>0</v>
@@ -13957,10 +13961,10 @@
         <v>1074</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D477">
         <v>0</v>
@@ -13974,10 +13978,10 @@
         <v>1074</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D478">
         <v>0</v>
@@ -13991,10 +13995,10 @@
         <v>1074</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D479">
         <v>0</v>
@@ -14008,10 +14012,10 @@
         <v>1074</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D480">
         <v>0</v>
@@ -14025,10 +14029,10 @@
         <v>1074</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>922</v>
+        <v>1013</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D481">
         <v>0</v>
@@ -14042,10 +14046,10 @@
         <v>1074</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>841</v>
+        <v>922</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D482">
         <v>0</v>
@@ -14059,10 +14063,10 @@
         <v>1074</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D483">
         <v>0</v>
@@ -14076,10 +14080,10 @@
         <v>1074</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D484">
         <v>0</v>
@@ -14093,10 +14097,10 @@
         <v>1074</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D485">
         <v>0</v>
@@ -14110,10 +14114,10 @@
         <v>1074</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D486">
         <v>0</v>
@@ -14127,10 +14131,10 @@
         <v>1074</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D487">
         <v>0</v>
@@ -14144,10 +14148,10 @@
         <v>1074</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D488">
         <v>0</v>
@@ -14161,10 +14165,10 @@
         <v>1074</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D489">
         <v>0</v>
@@ -14178,10 +14182,10 @@
         <v>1074</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1014</v>
+        <v>848</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D490">
         <v>0</v>
@@ -14195,10 +14199,10 @@
         <v>1074</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D491">
         <v>0</v>
@@ -14212,10 +14216,10 @@
         <v>1074</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>1076</v>
+        <v>1015</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D492">
         <v>0</v>
@@ -14229,10 +14233,10 @@
         <v>1074</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1016</v>
+        <v>1076</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D493">
         <v>0</v>
@@ -14246,10 +14250,10 @@
         <v>1074</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>849</v>
+        <v>1016</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D494">
         <v>0</v>
@@ -14263,10 +14267,10 @@
         <v>1074</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>1558</v>
+        <v>849</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D495">
         <v>0</v>
@@ -14280,10 +14284,10 @@
         <v>1074</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>850</v>
+        <v>1558</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D496">
         <v>0</v>
@@ -14297,10 +14301,10 @@
         <v>1074</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D497">
         <v>0</v>
@@ -14314,10 +14318,10 @@
         <v>1074</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D498">
         <v>0</v>
@@ -14331,10 +14335,10 @@
         <v>1074</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>923</v>
+        <v>852</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D499">
         <v>0</v>
@@ -14348,10 +14352,10 @@
         <v>1074</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D500">
         <v>0</v>
@@ -14365,10 +14369,10 @@
         <v>1074</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>1017</v>
+        <v>924</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D501">
         <v>0</v>
@@ -14382,10 +14386,10 @@
         <v>1074</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D502">
         <v>0</v>
@@ -14399,10 +14403,10 @@
         <v>1074</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D503">
         <v>0</v>
@@ -14416,10 +14420,10 @@
         <v>1074</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D504">
         <v>0</v>
@@ -14433,10 +14437,10 @@
         <v>1074</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1077</v>
+        <v>1020</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D505">
         <v>0</v>
@@ -14450,10 +14454,10 @@
         <v>1074</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1021</v>
+        <v>1077</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D506">
         <v>0</v>
@@ -14467,10 +14471,10 @@
         <v>1074</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>1078</v>
+        <v>1021</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D507">
         <v>0</v>
@@ -14484,10 +14488,10 @@
         <v>1074</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>1022</v>
+        <v>1078</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D508">
         <v>0</v>
@@ -14501,10 +14505,10 @@
         <v>1074</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D509">
         <v>0</v>
@@ -14518,10 +14522,10 @@
         <v>1074</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>1079</v>
+        <v>1023</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D510">
         <v>0</v>
@@ -14535,10 +14539,10 @@
         <v>1074</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>925</v>
+        <v>1079</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D511">
         <v>0</v>
@@ -14552,10 +14556,10 @@
         <v>1074</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>853</v>
+        <v>925</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D512">
         <v>0</v>
@@ -14569,10 +14573,10 @@
         <v>1074</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>1024</v>
+        <v>853</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D513">
         <v>0</v>
@@ -14586,10 +14590,10 @@
         <v>1074</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>854</v>
+        <v>1024</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D514">
         <v>0</v>
@@ -14603,10 +14607,10 @@
         <v>1074</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D515">
         <v>0</v>
@@ -14620,10 +14624,10 @@
         <v>1074</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D516">
         <v>0</v>
@@ -14637,10 +14641,10 @@
         <v>1074</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>1025</v>
+        <v>856</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D517">
         <v>0</v>
@@ -14654,10 +14658,10 @@
         <v>1074</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D518">
         <v>0</v>
@@ -14671,10 +14675,10 @@
         <v>1074</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>857</v>
+        <v>1026</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D519">
         <v>0</v>
@@ -14688,10 +14692,10 @@
         <v>1074</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D520">
         <v>0</v>
@@ -14705,10 +14709,10 @@
         <v>1074</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D521">
         <v>0</v>
@@ -14722,10 +14726,10 @@
         <v>1074</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D522">
         <v>0</v>
@@ -14739,10 +14743,10 @@
         <v>1074</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>926</v>
+        <v>860</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D523">
         <v>0</v>
@@ -14756,10 +14760,10 @@
         <v>1074</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>1080</v>
+        <v>926</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D524">
         <v>0</v>
@@ -14773,10 +14777,10 @@
         <v>1074</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>861</v>
+        <v>1080</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D525">
         <v>0</v>
@@ -14790,10 +14794,10 @@
         <v>1074</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>1081</v>
+        <v>861</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D526">
         <v>0</v>
@@ -14807,10 +14811,10 @@
         <v>1074</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D527">
         <v>0</v>
@@ -14824,10 +14828,10 @@
         <v>1074</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>862</v>
+        <v>1082</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D528">
         <v>0</v>
@@ -14841,10 +14845,10 @@
         <v>1074</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D529">
         <v>0</v>
@@ -14858,10 +14862,10 @@
         <v>1074</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D530">
         <v>0</v>
@@ -14875,10 +14879,10 @@
         <v>1074</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>1027</v>
+        <v>864</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D531">
         <v>0</v>
@@ -14892,10 +14896,10 @@
         <v>1074</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>1083</v>
+        <v>1027</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D532">
         <v>0</v>
@@ -14909,10 +14913,10 @@
         <v>1074</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>1028</v>
+        <v>1083</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D533">
         <v>0</v>
@@ -14926,10 +14930,10 @@
         <v>1074</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D534">
         <v>0</v>
@@ -14943,10 +14947,10 @@
         <v>1074</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D535">
         <v>0</v>
@@ -14960,10 +14964,10 @@
         <v>1074</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>1084</v>
+        <v>1030</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D536">
         <v>0</v>
@@ -14977,10 +14981,10 @@
         <v>1074</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>865</v>
+        <v>1084</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D537">
         <v>0</v>
@@ -14994,10 +14998,10 @@
         <v>1074</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D538">
         <v>0</v>
@@ -15011,10 +15015,10 @@
         <v>1074</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D539">
         <v>0</v>
@@ -15028,10 +15032,10 @@
         <v>1074</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D540">
         <v>0</v>
@@ -15045,10 +15049,10 @@
         <v>1074</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D541">
         <v>0</v>
@@ -15062,10 +15066,10 @@
         <v>1074</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D542">
         <v>0</v>
@@ -15079,10 +15083,10 @@
         <v>1074</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D543">
         <v>0</v>
@@ -15096,10 +15100,10 @@
         <v>1074</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D544">
         <v>0</v>
@@ -15113,10 +15117,10 @@
         <v>1074</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D545">
         <v>0</v>
@@ -15130,10 +15134,10 @@
         <v>1074</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>1031</v>
+        <v>873</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D546">
         <v>0</v>
@@ -15147,10 +15151,10 @@
         <v>1074</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>874</v>
+        <v>1031</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D547">
         <v>0</v>
@@ -15164,10 +15168,10 @@
         <v>1074</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>1032</v>
+        <v>874</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D548">
         <v>0</v>
@@ -15181,10 +15185,10 @@
         <v>1074</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>875</v>
+        <v>1032</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D549">
         <v>0</v>
@@ -15198,10 +15202,10 @@
         <v>1074</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>1085</v>
+        <v>875</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D550">
         <v>0</v>
@@ -15215,10 +15219,10 @@
         <v>1074</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D551">
         <v>0</v>
@@ -15232,10 +15236,10 @@
         <v>1074</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D552">
         <v>0</v>
@@ -15249,10 +15253,10 @@
         <v>1074</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>1075</v>
+        <v>1087</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D553">
         <v>0</v>
@@ -15266,10 +15270,10 @@
         <v>1074</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>1088</v>
+        <v>1075</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D554">
         <v>0</v>
@@ -15283,10 +15287,10 @@
         <v>1074</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D555">
         <v>0</v>
@@ -15300,10 +15304,10 @@
         <v>1074</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D556">
         <v>0</v>
@@ -15317,10 +15321,10 @@
         <v>1074</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>876</v>
+        <v>1090</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D557">
         <v>0</v>
@@ -15334,10 +15338,10 @@
         <v>1074</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D558">
         <v>0</v>
@@ -15351,10 +15355,10 @@
         <v>1074</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>1091</v>
+        <v>877</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D559">
         <v>0</v>
@@ -15368,10 +15372,10 @@
         <v>1074</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>1033</v>
+        <v>1091</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D560">
         <v>0</v>
@@ -15385,10 +15389,10 @@
         <v>1074</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D561">
         <v>0</v>
@@ -15402,10 +15406,10 @@
         <v>1074</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D562">
         <v>0</v>
@@ -15419,10 +15423,10 @@
         <v>1074</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>878</v>
+        <v>1035</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D563">
         <v>0</v>
@@ -15436,10 +15440,10 @@
         <v>1074</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D564">
         <v>0</v>
@@ -15453,10 +15457,10 @@
         <v>1074</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D565">
         <v>0</v>
@@ -15470,10 +15474,10 @@
         <v>1074</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>1036</v>
+        <v>880</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D566">
         <v>0</v>
@@ -15487,10 +15491,10 @@
         <v>1074</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>1092</v>
+        <v>1036</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D567">
         <v>0</v>
@@ -15504,10 +15508,10 @@
         <v>1074</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D568">
         <v>0</v>
@@ -15521,10 +15525,10 @@
         <v>1074</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D569">
         <v>0</v>
@@ -15538,10 +15542,10 @@
         <v>1074</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D570">
         <v>0</v>
@@ -15555,10 +15559,10 @@
         <v>1074</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D571">
         <v>0</v>
@@ -15572,10 +15576,10 @@
         <v>1074</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D572">
         <v>0</v>
@@ -15589,10 +15593,10 @@
         <v>1074</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D573">
         <v>0</v>
@@ -15606,10 +15610,10 @@
         <v>1074</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>881</v>
+        <v>1098</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D574">
         <v>0</v>
@@ -15623,10 +15627,10 @@
         <v>1074</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>1559</v>
+        <v>881</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D575">
         <v>0</v>
@@ -15640,10 +15644,10 @@
         <v>1074</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>882</v>
+        <v>1559</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D576">
         <v>0</v>
@@ -15657,10 +15661,10 @@
         <v>1074</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>1099</v>
+        <v>882</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D577">
         <v>0</v>
@@ -15674,10 +15678,10 @@
         <v>1074</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D578">
         <v>0</v>
@@ -15691,10 +15695,10 @@
         <v>1074</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D579">
         <v>0</v>
@@ -15708,10 +15712,10 @@
         <v>1074</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D580">
         <v>0</v>
@@ -15725,10 +15729,10 @@
         <v>1074</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D581">
         <v>0</v>
@@ -15742,10 +15746,10 @@
         <v>1074</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D582">
         <v>0</v>
@@ -15759,10 +15763,10 @@
         <v>1074</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>1037</v>
+        <v>1104</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D583">
         <v>0</v>
@@ -15776,10 +15780,10 @@
         <v>1074</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D584">
         <v>0</v>
@@ -15793,10 +15797,10 @@
         <v>1074</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D585">
         <v>0</v>
@@ -15810,10 +15814,10 @@
         <v>1074</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D586">
         <v>0</v>
@@ -15827,10 +15831,10 @@
         <v>1074</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D587">
         <v>0</v>
@@ -15844,10 +15848,10 @@
         <v>1074</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>1560</v>
+        <v>1041</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D588">
         <v>0</v>
@@ -15861,10 +15865,10 @@
         <v>1074</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>1042</v>
+        <v>1560</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D589">
         <v>0</v>
@@ -15878,10 +15882,10 @@
         <v>1074</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D590">
         <v>0</v>
@@ -15895,10 +15899,10 @@
         <v>1074</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D591">
         <v>0</v>
@@ -15912,10 +15916,10 @@
         <v>1074</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>1561</v>
+        <v>1044</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D592">
         <v>0</v>
@@ -15929,10 +15933,10 @@
         <v>1074</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>1045</v>
+        <v>1561</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D593">
         <v>0</v>
@@ -15946,10 +15950,10 @@
         <v>1074</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>1562</v>
+        <v>1045</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D594">
         <v>0</v>
@@ -15963,10 +15967,10 @@
         <v>1074</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>1046</v>
+        <v>1562</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D595">
         <v>0</v>
@@ -15980,10 +15984,10 @@
         <v>1074</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D596">
         <v>0</v>
@@ -15997,10 +16001,10 @@
         <v>1074</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D597">
         <v>0</v>
@@ -16014,10 +16018,10 @@
         <v>1074</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D598">
         <v>0</v>
@@ -16031,10 +16035,10 @@
         <v>1074</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D599">
         <v>0</v>
@@ -16048,10 +16052,10 @@
         <v>1074</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D600">
         <v>0</v>
@@ -16065,10 +16069,10 @@
         <v>1074</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>1563</v>
+        <v>1051</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D601">
         <v>0</v>
@@ -16082,10 +16086,10 @@
         <v>1074</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D602">
         <v>0</v>
@@ -16099,10 +16103,10 @@
         <v>1074</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>1052</v>
+        <v>1564</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D603">
         <v>0</v>
@@ -16116,10 +16120,10 @@
         <v>1074</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D604">
         <v>0</v>
@@ -16133,10 +16137,10 @@
         <v>1074</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D605">
         <v>0</v>
@@ -16150,10 +16154,10 @@
         <v>1074</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D606">
         <v>0</v>
@@ -16167,10 +16171,10 @@
         <v>1074</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>883</v>
+        <v>1055</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D607">
         <v>0</v>
@@ -16184,33 +16188,33 @@
         <v>1074</v>
       </c>
       <c r="B608" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="D608">
+        <v>0</v>
+      </c>
+      <c r="E608" s="1" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A609" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B609" s="1" t="s">
         <v>1431</v>
       </c>
-      <c r="C608" s="1" t="s">
+      <c r="C609" s="1" t="s">
         <v>1432</v>
       </c>
-      <c r="D608">
-        <v>0</v>
-      </c>
-      <c r="E608" s="1" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="609" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A609" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B609" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="C609" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D609">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E609" s="1" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="610" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16218,16 +16222,16 @@
         <v>1105</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>1364</v>
+        <v>927</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>1107</v>
+        <v>4</v>
       </c>
       <c r="D610">
         <v>1</v>
       </c>
       <c r="E610" s="1" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="611" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16235,16 +16239,16 @@
         <v>1105</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>1109</v>
+        <v>1364</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D611">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E611" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="612" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16252,16 +16256,16 @@
         <v>1105</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="D612">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E612" s="1" t="s">
-        <v>1712</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="613" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16269,16 +16273,16 @@
         <v>1105</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>1565</v>
+        <v>1110</v>
       </c>
       <c r="C613" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D613">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E613" s="1" t="s">
-        <v>1437</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="614" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16286,10 +16290,10 @@
         <v>1105</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>1106</v>
+        <v>1120</v>
       </c>
       <c r="D614">
         <v>0</v>
@@ -16303,10 +16307,10 @@
         <v>1105</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>1121</v>
+        <v>1106</v>
       </c>
       <c r="D615">
         <v>0</v>
@@ -16320,10 +16324,10 @@
         <v>1105</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>1111</v>
+        <v>1567</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D616">
         <v>0</v>
@@ -16337,10 +16341,10 @@
         <v>1105</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C617" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D617">
         <v>0</v>
@@ -16354,10 +16358,10 @@
         <v>1105</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C618" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D618">
         <v>0</v>
@@ -16371,10 +16375,10 @@
         <v>1105</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C619" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D619">
         <v>0</v>
@@ -16388,10 +16392,10 @@
         <v>1105</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D620">
         <v>0</v>
@@ -16405,33 +16409,33 @@
         <v>1105</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C621" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D621">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E621" s="1" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="622" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A622" t="s">
         <v>1105</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C622" t="s">
-        <v>1128</v>
+        <v>1116</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>1127</v>
       </c>
       <c r="D622">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E622" s="1" t="s">
-        <v>1437</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="623" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16439,10 +16443,10 @@
         <v>1105</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C623" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D623">
         <v>0</v>
@@ -16456,10 +16460,10 @@
         <v>1105</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C624" s="1" t="s">
-        <v>1432</v>
+        <v>1118</v>
+      </c>
+      <c r="C624" t="s">
+        <v>1129</v>
       </c>
       <c r="D624">
         <v>0</v>
@@ -16470,64 +16474,64 @@
     </row>
     <row r="625" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A625" t="s">
-        <v>1142</v>
+        <v>1105</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>1143</v>
+        <v>1431</v>
       </c>
       <c r="C625" s="1" t="s">
-        <v>1144</v>
+        <v>1432</v>
       </c>
       <c r="D625">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E625" s="1" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="626" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A626" t="s">
         <v>1142</v>
       </c>
-      <c r="B626" t="s">
-        <v>927</v>
-      </c>
-      <c r="C626" t="s">
-        <v>4</v>
+      <c r="B626" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>1144</v>
       </c>
       <c r="D626">
         <v>1</v>
       </c>
       <c r="E626" s="1" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="627" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A627" t="s">
         <v>1142</v>
       </c>
-      <c r="B627" s="1" t="s">
-        <v>1145</v>
+      <c r="B627" t="s">
+        <v>927</v>
       </c>
       <c r="C627" t="s">
-        <v>1146</v>
+        <v>4</v>
       </c>
       <c r="D627">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E627" s="1" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="628" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A628" t="s">
         <v>1142</v>
       </c>
-      <c r="B628" t="s">
-        <v>1147</v>
+      <c r="B628" s="1" t="s">
+        <v>1145</v>
       </c>
       <c r="C628" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="D628">
         <v>0</v>
@@ -16541,10 +16545,10 @@
         <v>1142</v>
       </c>
       <c r="B629" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="C629" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D629">
         <v>0</v>
@@ -16558,10 +16562,10 @@
         <v>1142</v>
       </c>
       <c r="B630" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C630" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="D630">
         <v>0</v>
@@ -16575,10 +16579,10 @@
         <v>1142</v>
       </c>
       <c r="B631" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C631" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="D631">
         <v>0</v>
@@ -16592,10 +16596,10 @@
         <v>1142</v>
       </c>
       <c r="B632" t="s">
-        <v>1501</v>
+        <v>1153</v>
       </c>
       <c r="C632" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D632">
         <v>0</v>
@@ -16609,10 +16613,10 @@
         <v>1142</v>
       </c>
       <c r="B633" t="s">
-        <v>1156</v>
+        <v>1501</v>
       </c>
       <c r="C633" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D633">
         <v>0</v>
@@ -16626,10 +16630,10 @@
         <v>1142</v>
       </c>
       <c r="B634" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C634" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D634">
         <v>0</v>
@@ -16643,10 +16647,10 @@
         <v>1142</v>
       </c>
       <c r="B635" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C635" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="D635">
         <v>0</v>
@@ -16660,10 +16664,10 @@
         <v>1142</v>
       </c>
       <c r="B636" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C636" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D636">
         <v>0</v>
@@ -16677,10 +16681,10 @@
         <v>1142</v>
       </c>
       <c r="B637" t="s">
-        <v>1502</v>
+        <v>1162</v>
       </c>
       <c r="C637" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D637">
         <v>0</v>
@@ -16689,38 +16693,38 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="638" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A638" t="s">
         <v>1142</v>
       </c>
       <c r="B638" t="s">
-        <v>1165</v>
+        <v>1502</v>
       </c>
       <c r="C638" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="D638">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E638" s="1" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="639" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A639" t="s">
         <v>1142</v>
       </c>
       <c r="B639" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C639" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="D639">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E639" s="1" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="640" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -16728,10 +16732,10 @@
         <v>1142</v>
       </c>
       <c r="B640" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C640" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="D640">
         <v>0</v>
@@ -16745,10 +16749,10 @@
         <v>1142</v>
       </c>
       <c r="B641" t="s">
-        <v>1503</v>
+        <v>1168</v>
       </c>
       <c r="C641" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D641">
         <v>0</v>
@@ -16762,10 +16766,10 @@
         <v>1142</v>
       </c>
       <c r="B642" t="s">
-        <v>1172</v>
+        <v>1503</v>
       </c>
       <c r="C642" t="s">
-        <v>1196</v>
+        <v>1170</v>
       </c>
       <c r="D642">
         <v>0</v>
@@ -16779,10 +16783,10 @@
         <v>1142</v>
       </c>
       <c r="B643" t="s">
-        <v>1504</v>
+        <v>1172</v>
       </c>
       <c r="C643" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D643">
         <v>0</v>
@@ -16796,10 +16800,10 @@
         <v>1142</v>
       </c>
       <c r="B644" t="s">
-        <v>1173</v>
+        <v>1504</v>
       </c>
       <c r="C644" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D644">
         <v>0</v>
@@ -16813,10 +16817,10 @@
         <v>1142</v>
       </c>
       <c r="B645" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C645" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D645">
         <v>0</v>
@@ -16830,10 +16834,10 @@
         <v>1142</v>
       </c>
       <c r="B646" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C646" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D646">
         <v>0</v>
@@ -16847,10 +16851,10 @@
         <v>1142</v>
       </c>
       <c r="B647" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C647" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D647">
         <v>0</v>
@@ -16864,10 +16868,10 @@
         <v>1142</v>
       </c>
       <c r="B648" t="s">
-        <v>1512</v>
+        <v>1176</v>
       </c>
       <c r="C648" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D648">
         <v>0</v>
@@ -16881,10 +16885,10 @@
         <v>1142</v>
       </c>
       <c r="B649" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C649" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D649">
         <v>0</v>
@@ -16898,10 +16902,10 @@
         <v>1142</v>
       </c>
       <c r="B650" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="C650" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D650">
         <v>0</v>
@@ -16915,10 +16919,10 @@
         <v>1142</v>
       </c>
       <c r="B651" t="s">
-        <v>1505</v>
+        <v>1514</v>
       </c>
       <c r="C651" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D651">
         <v>0</v>
@@ -16932,10 +16936,10 @@
         <v>1142</v>
       </c>
       <c r="B652" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="C652" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D652">
         <v>0</v>
@@ -16949,10 +16953,10 @@
         <v>1142</v>
       </c>
       <c r="B653" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="C653" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D653">
         <v>0</v>
@@ -16966,10 +16970,10 @@
         <v>1142</v>
       </c>
       <c r="B654" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="C654" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D654">
         <v>0</v>
@@ -16983,10 +16987,10 @@
         <v>1142</v>
       </c>
       <c r="B655" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="C655" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D655">
         <v>0</v>
@@ -17000,10 +17004,10 @@
         <v>1142</v>
       </c>
       <c r="B656" t="s">
-        <v>1177</v>
+        <v>1517</v>
       </c>
       <c r="C656" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D656">
         <v>0</v>
@@ -17017,10 +17021,10 @@
         <v>1142</v>
       </c>
       <c r="B657" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C657" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D657">
         <v>0</v>
@@ -17034,10 +17038,10 @@
         <v>1142</v>
       </c>
       <c r="B658" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C658" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D658">
         <v>0</v>
@@ -17051,10 +17055,10 @@
         <v>1142</v>
       </c>
       <c r="B659" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C659" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D659">
         <v>0</v>
@@ -17068,10 +17072,10 @@
         <v>1142</v>
       </c>
       <c r="B660" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C660" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D660">
         <v>0</v>
@@ -17085,10 +17089,10 @@
         <v>1142</v>
       </c>
       <c r="B661" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C661" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D661">
         <v>0</v>
@@ -17102,10 +17106,10 @@
         <v>1142</v>
       </c>
       <c r="B662" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C662" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D662">
         <v>0</v>
@@ -17119,10 +17123,10 @@
         <v>1142</v>
       </c>
       <c r="B663" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C663" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D663">
         <v>0</v>
@@ -17136,10 +17140,10 @@
         <v>1142</v>
       </c>
       <c r="B664" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C664" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D664">
         <v>0</v>
@@ -17153,10 +17157,10 @@
         <v>1142</v>
       </c>
       <c r="B665" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C665" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D665">
         <v>0</v>
@@ -17170,10 +17174,10 @@
         <v>1142</v>
       </c>
       <c r="B666" t="s">
-        <v>1507</v>
+        <v>1186</v>
       </c>
       <c r="C666" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D666">
         <v>0</v>
@@ -17187,10 +17191,10 @@
         <v>1142</v>
       </c>
       <c r="B667" t="s">
-        <v>1187</v>
+        <v>1507</v>
       </c>
       <c r="C667" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D667">
         <v>0</v>
@@ -17204,10 +17208,10 @@
         <v>1142</v>
       </c>
       <c r="B668" t="s">
-        <v>1508</v>
+        <v>1187</v>
       </c>
       <c r="C668" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D668">
         <v>0</v>
@@ -17221,10 +17225,10 @@
         <v>1142</v>
       </c>
       <c r="B669" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C669" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D669">
         <v>0</v>
@@ -17238,10 +17242,10 @@
         <v>1142</v>
       </c>
       <c r="B670" t="s">
-        <v>1592</v>
+        <v>1509</v>
       </c>
       <c r="C670" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D670">
         <v>0</v>
@@ -17255,10 +17259,10 @@
         <v>1142</v>
       </c>
       <c r="B671" t="s">
-        <v>1188</v>
+        <v>1592</v>
       </c>
       <c r="C671" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D671">
         <v>0</v>
@@ -17272,10 +17276,10 @@
         <v>1142</v>
       </c>
       <c r="B672" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C672" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D672">
         <v>0</v>
@@ -17289,10 +17293,10 @@
         <v>1142</v>
       </c>
       <c r="B673" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C673" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D673">
         <v>0</v>
@@ -17306,10 +17310,10 @@
         <v>1142</v>
       </c>
       <c r="B674" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C674" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D674">
         <v>0</v>
@@ -17323,10 +17327,10 @@
         <v>1142</v>
       </c>
       <c r="B675" t="s">
-        <v>1510</v>
+        <v>1191</v>
       </c>
       <c r="C675" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D675">
         <v>0</v>
@@ -17340,10 +17344,10 @@
         <v>1142</v>
       </c>
       <c r="B676" t="s">
-        <v>1192</v>
+        <v>1510</v>
       </c>
       <c r="C676" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="D676">
         <v>0</v>
@@ -17357,10 +17361,10 @@
         <v>1142</v>
       </c>
       <c r="B677" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C677" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D677">
         <v>0</v>
@@ -17374,10 +17378,10 @@
         <v>1142</v>
       </c>
       <c r="B678" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C678" t="s">
-        <v>1230</v>
+        <v>1236</v>
       </c>
       <c r="D678">
         <v>0</v>
@@ -17391,10 +17395,10 @@
         <v>1142</v>
       </c>
       <c r="B679" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C679" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D679">
         <v>0</v>
@@ -17408,10 +17412,10 @@
         <v>1142</v>
       </c>
       <c r="B680" t="s">
-        <v>1518</v>
+        <v>1195</v>
       </c>
       <c r="C680" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D680">
         <v>0</v>
@@ -17425,10 +17429,10 @@
         <v>1142</v>
       </c>
       <c r="B681" t="s">
-        <v>1511</v>
+        <v>1518</v>
       </c>
       <c r="C681" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D681">
         <v>0</v>
@@ -17442,10 +17446,10 @@
         <v>1142</v>
       </c>
       <c r="B682" t="s">
-        <v>1519</v>
+        <v>1511</v>
       </c>
       <c r="C682" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D682">
         <v>0</v>
@@ -17459,10 +17463,10 @@
         <v>1142</v>
       </c>
       <c r="B683" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C683" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="D683">
         <v>0</v>
@@ -17476,10 +17480,10 @@
         <v>1142</v>
       </c>
       <c r="B684" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="C684" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D684">
         <v>0</v>
@@ -17493,10 +17497,10 @@
         <v>1142</v>
       </c>
       <c r="B685" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="C685" t="s">
-        <v>1262</v>
+        <v>1238</v>
       </c>
       <c r="D685">
         <v>0</v>
@@ -17510,10 +17514,10 @@
         <v>1142</v>
       </c>
       <c r="B686" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C686" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D686">
         <v>0</v>
@@ -17527,10 +17531,10 @@
         <v>1142</v>
       </c>
       <c r="B687" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C687" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D687">
         <v>0</v>
@@ -17544,10 +17548,10 @@
         <v>1142</v>
       </c>
       <c r="B688" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C688" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D688">
         <v>0</v>
@@ -17561,10 +17565,10 @@
         <v>1142</v>
       </c>
       <c r="B689" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C689" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D689">
         <v>0</v>
@@ -17578,10 +17582,10 @@
         <v>1142</v>
       </c>
       <c r="B690" t="s">
-        <v>1239</v>
+        <v>1526</v>
       </c>
       <c r="C690" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D690">
         <v>0</v>
@@ -17595,10 +17599,10 @@
         <v>1142</v>
       </c>
       <c r="B691" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C691" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="D691">
         <v>0</v>
@@ -17612,10 +17616,10 @@
         <v>1142</v>
       </c>
       <c r="B692" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C692" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D692">
         <v>0</v>
@@ -17629,10 +17633,10 @@
         <v>1142</v>
       </c>
       <c r="B693" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C693" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D693">
         <v>0</v>
@@ -17646,10 +17650,10 @@
         <v>1142</v>
       </c>
       <c r="B694" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C694" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D694">
         <v>0</v>
@@ -17663,10 +17667,10 @@
         <v>1142</v>
       </c>
       <c r="B695" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C695" t="s">
-        <v>1268</v>
+        <v>1274</v>
       </c>
       <c r="D695">
         <v>0</v>
@@ -17680,10 +17684,10 @@
         <v>1142</v>
       </c>
       <c r="B696" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C696" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D696">
         <v>0</v>
@@ -17697,10 +17701,10 @@
         <v>1142</v>
       </c>
       <c r="B697" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C697" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D697">
         <v>0</v>
@@ -17714,10 +17718,10 @@
         <v>1142</v>
       </c>
       <c r="B698" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C698" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D698">
         <v>0</v>
@@ -17731,10 +17735,10 @@
         <v>1142</v>
       </c>
       <c r="B699" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C699" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D699">
         <v>0</v>
@@ -17748,10 +17752,10 @@
         <v>1142</v>
       </c>
       <c r="B700" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C700" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D700">
         <v>0</v>
@@ -17765,10 +17769,10 @@
         <v>1142</v>
       </c>
       <c r="B701" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C701" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D701">
         <v>0</v>
@@ -17782,10 +17786,10 @@
         <v>1142</v>
       </c>
       <c r="B702" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C702" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D702">
         <v>0</v>
@@ -17799,10 +17803,10 @@
         <v>1142</v>
       </c>
       <c r="B703" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C703" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D703">
         <v>0</v>
@@ -17816,10 +17820,10 @@
         <v>1142</v>
       </c>
       <c r="B704" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C704" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D704">
         <v>0</v>
@@ -17833,10 +17837,10 @@
         <v>1142</v>
       </c>
       <c r="B705" t="s">
-        <v>1590</v>
+        <v>1253</v>
       </c>
       <c r="C705" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D705">
         <v>0</v>
@@ -17850,10 +17854,10 @@
         <v>1142</v>
       </c>
       <c r="B706" t="s">
-        <v>1254</v>
+        <v>1590</v>
       </c>
       <c r="C706" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D706">
         <v>0</v>
@@ -17867,10 +17871,10 @@
         <v>1142</v>
       </c>
       <c r="B707" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C707" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D707">
         <v>0</v>
@@ -17884,10 +17888,10 @@
         <v>1142</v>
       </c>
       <c r="B708" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C708" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D708">
         <v>0</v>
@@ -17901,10 +17905,10 @@
         <v>1142</v>
       </c>
       <c r="B709" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C709" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D709">
         <v>0</v>
@@ -17918,10 +17922,10 @@
         <v>1142</v>
       </c>
       <c r="B710" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C710" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D710">
         <v>0</v>
@@ -17935,10 +17939,10 @@
         <v>1142</v>
       </c>
       <c r="B711" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C711" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D711">
         <v>0</v>
@@ -17952,10 +17956,10 @@
         <v>1142</v>
       </c>
       <c r="B712" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C712" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D712">
         <v>0</v>
@@ -17969,10 +17973,10 @@
         <v>1142</v>
       </c>
       <c r="B713" t="s">
-        <v>1593</v>
+        <v>1260</v>
       </c>
       <c r="C713" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D713">
         <v>0</v>
@@ -17986,16 +17990,16 @@
         <v>1142</v>
       </c>
       <c r="B714" t="s">
-        <v>1261</v>
+        <v>1593</v>
       </c>
       <c r="C714" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D714">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E714" s="1" t="s">
-        <v>1473</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="715" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18003,16 +18007,16 @@
         <v>1142</v>
       </c>
       <c r="B715" t="s">
-        <v>1293</v>
+        <v>1261</v>
       </c>
       <c r="C715" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D715">
         <v>1</v>
       </c>
       <c r="E715" s="1" t="s">
-        <v>1440</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="716" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18020,33 +18024,33 @@
         <v>1142</v>
       </c>
       <c r="B716" t="s">
-        <v>1431</v>
+        <v>1293</v>
       </c>
       <c r="C716" t="s">
-        <v>1432</v>
+        <v>1292</v>
       </c>
       <c r="D716">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E716" s="1" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="717" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A717" t="s">
-        <v>1297</v>
+        <v>1142</v>
       </c>
       <c r="B717" t="s">
-        <v>927</v>
+        <v>1431</v>
       </c>
       <c r="C717" t="s">
-        <v>4</v>
+        <v>1432</v>
       </c>
       <c r="D717">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E717" s="1" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="718" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18054,16 +18058,16 @@
         <v>1297</v>
       </c>
       <c r="B718" t="s">
-        <v>1298</v>
+        <v>927</v>
       </c>
       <c r="C718" t="s">
-        <v>1323</v>
+        <v>4</v>
       </c>
       <c r="D718">
         <v>1</v>
       </c>
       <c r="E718" s="1" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="719" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18071,16 +18075,16 @@
         <v>1297</v>
       </c>
       <c r="B719" t="s">
-        <v>1594</v>
+        <v>1298</v>
       </c>
       <c r="C719" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D719">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E719" s="1" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="720" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18088,10 +18092,10 @@
         <v>1297</v>
       </c>
       <c r="B720" t="s">
-        <v>1299</v>
+        <v>1594</v>
       </c>
       <c r="C720" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D720">
         <v>0</v>
@@ -18105,10 +18109,10 @@
         <v>1297</v>
       </c>
       <c r="B721" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C721" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="D721">
         <v>0</v>
@@ -18122,10 +18126,10 @@
         <v>1297</v>
       </c>
       <c r="B722" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C722" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D722">
         <v>0</v>
@@ -18139,10 +18143,10 @@
         <v>1297</v>
       </c>
       <c r="B723" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C723" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="D723">
         <v>0</v>
@@ -18156,10 +18160,10 @@
         <v>1297</v>
       </c>
       <c r="B724" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C724" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D724">
         <v>0</v>
@@ -18173,10 +18177,10 @@
         <v>1297</v>
       </c>
       <c r="B725" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C725" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D725">
         <v>0</v>
@@ -18190,10 +18194,10 @@
         <v>1297</v>
       </c>
       <c r="B726" t="s">
-        <v>1568</v>
+        <v>1304</v>
       </c>
       <c r="C726" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D726">
         <v>0</v>
@@ -18207,10 +18211,10 @@
         <v>1297</v>
       </c>
       <c r="B727" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C727" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="D727">
         <v>0</v>
@@ -18224,10 +18228,10 @@
         <v>1297</v>
       </c>
       <c r="B728" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="C728" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D728">
         <v>0</v>
@@ -18241,10 +18245,10 @@
         <v>1297</v>
       </c>
       <c r="B729" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="C729" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D729">
         <v>0</v>
@@ -18258,10 +18262,10 @@
         <v>1297</v>
       </c>
       <c r="B730" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="C730" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D730">
         <v>0</v>
@@ -18275,10 +18279,10 @@
         <v>1297</v>
       </c>
       <c r="B731" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="C731" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="D731">
         <v>0</v>
@@ -18292,10 +18296,10 @@
         <v>1297</v>
       </c>
       <c r="B732" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="C732" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="D732">
         <v>0</v>
@@ -18309,10 +18313,10 @@
         <v>1297</v>
       </c>
       <c r="B733" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C733" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="D733">
         <v>0</v>
@@ -18326,10 +18330,10 @@
         <v>1297</v>
       </c>
       <c r="B734" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="C734" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D734">
         <v>0</v>
@@ -18343,10 +18347,10 @@
         <v>1297</v>
       </c>
       <c r="B735" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="C735" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D735">
         <v>0</v>
@@ -18360,10 +18364,10 @@
         <v>1297</v>
       </c>
       <c r="B736" t="s">
-        <v>1305</v>
+        <v>1577</v>
       </c>
       <c r="C736" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D736">
         <v>0</v>
@@ -18377,10 +18381,10 @@
         <v>1297</v>
       </c>
       <c r="B737" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C737" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D737">
         <v>0</v>
@@ -18394,10 +18398,10 @@
         <v>1297</v>
       </c>
       <c r="B738" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C738" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D738">
         <v>0</v>
@@ -18411,10 +18415,10 @@
         <v>1297</v>
       </c>
       <c r="B739" t="s">
-        <v>1578</v>
+        <v>1307</v>
       </c>
       <c r="C739" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D739">
         <v>0</v>
@@ -18428,10 +18432,10 @@
         <v>1297</v>
       </c>
       <c r="B740" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="C740" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D740">
         <v>0</v>
@@ -18445,10 +18449,10 @@
         <v>1297</v>
       </c>
       <c r="B741" t="s">
-        <v>1308</v>
+        <v>1579</v>
       </c>
       <c r="C741" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D741">
         <v>0</v>
@@ -18462,10 +18466,10 @@
         <v>1297</v>
       </c>
       <c r="B742" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C742" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D742">
         <v>0</v>
@@ -18479,10 +18483,10 @@
         <v>1297</v>
       </c>
       <c r="B743" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C743" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D743">
         <v>0</v>
@@ -18496,10 +18500,10 @@
         <v>1297</v>
       </c>
       <c r="B744" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C744" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D744">
         <v>0</v>
@@ -18513,10 +18517,10 @@
         <v>1297</v>
       </c>
       <c r="B745" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C745" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D745">
         <v>0</v>
@@ -18530,10 +18534,10 @@
         <v>1297</v>
       </c>
       <c r="B746" t="s">
-        <v>1580</v>
+        <v>1312</v>
       </c>
       <c r="C746" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D746">
         <v>0</v>
@@ -18547,10 +18551,10 @@
         <v>1297</v>
       </c>
       <c r="B747" t="s">
-        <v>1313</v>
+        <v>1580</v>
       </c>
       <c r="C747" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D747">
         <v>0</v>
@@ -18564,10 +18568,10 @@
         <v>1297</v>
       </c>
       <c r="B748" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C748" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D748">
         <v>0</v>
@@ -18581,10 +18585,10 @@
         <v>1297</v>
       </c>
       <c r="B749" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C749" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D749">
         <v>0</v>
@@ -18598,10 +18602,10 @@
         <v>1297</v>
       </c>
       <c r="B750" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C750" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D750">
         <v>0</v>
@@ -18615,10 +18619,10 @@
         <v>1297</v>
       </c>
       <c r="B751" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C751" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D751">
         <v>0</v>
@@ -18632,10 +18636,10 @@
         <v>1297</v>
       </c>
       <c r="B752" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C752" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D752">
         <v>0</v>
@@ -18649,10 +18653,10 @@
         <v>1297</v>
       </c>
       <c r="B753" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C753" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D753">
         <v>0</v>
@@ -18666,10 +18670,10 @@
         <v>1297</v>
       </c>
       <c r="B754" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C754" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D754">
         <v>0</v>
@@ -18683,10 +18687,10 @@
         <v>1297</v>
       </c>
       <c r="B755" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C755" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D755">
         <v>0</v>
@@ -18700,10 +18704,10 @@
         <v>1297</v>
       </c>
       <c r="B756" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C756" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D756">
         <v>0</v>
@@ -18717,10 +18721,10 @@
         <v>1297</v>
       </c>
       <c r="B757" t="s">
-        <v>6</v>
+        <v>1322</v>
       </c>
       <c r="C757" t="s">
-        <v>5</v>
+        <v>1361</v>
       </c>
       <c r="D757">
         <v>0</v>
@@ -18734,10 +18738,10 @@
         <v>1297</v>
       </c>
       <c r="B758" t="s">
-        <v>1431</v>
+        <v>6</v>
       </c>
       <c r="C758" t="s">
-        <v>1432</v>
+        <v>5</v>
       </c>
       <c r="D758">
         <v>0</v>
@@ -18748,19 +18752,19 @@
     </row>
     <row r="759" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A759" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B759" s="1" t="s">
-        <v>927</v>
+        <v>1297</v>
+      </c>
+      <c r="B759" t="s">
+        <v>1431</v>
       </c>
       <c r="C759" t="s">
-        <v>4</v>
+        <v>1432</v>
       </c>
       <c r="D759">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E759" s="1" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="760" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18768,16 +18772,16 @@
         <v>1394</v>
       </c>
       <c r="B760" s="1" t="s">
-        <v>1365</v>
+        <v>927</v>
       </c>
       <c r="C760" t="s">
-        <v>1395</v>
+        <v>4</v>
       </c>
       <c r="D760">
         <v>1</v>
       </c>
       <c r="E760" s="1" t="s">
-        <v>1467</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="761" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18785,16 +18789,16 @@
         <v>1394</v>
       </c>
       <c r="B761" s="1" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C761" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D761">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E761" s="1" t="s">
-        <v>1437</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="762" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18802,10 +18806,10 @@
         <v>1394</v>
       </c>
       <c r="B762" s="1" t="s">
-        <v>1293</v>
+        <v>1366</v>
       </c>
       <c r="C762" t="s">
-        <v>1292</v>
+        <v>1396</v>
       </c>
       <c r="D762">
         <v>0</v>
@@ -18819,16 +18823,16 @@
         <v>1394</v>
       </c>
       <c r="B763" s="1" t="s">
-        <v>1632</v>
+        <v>1293</v>
       </c>
       <c r="C763" t="s">
-        <v>1634</v>
+        <v>1292</v>
       </c>
       <c r="D763">
-        <v>1</v>
-      </c>
-      <c r="E763" t="s">
-        <v>1436</v>
+        <v>0</v>
+      </c>
+      <c r="E763" s="1" t="s">
+        <v>1437</v>
       </c>
     </row>
     <row r="764" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18836,16 +18840,16 @@
         <v>1394</v>
       </c>
       <c r="B764" s="1" t="s">
-        <v>1367</v>
+        <v>1632</v>
       </c>
       <c r="C764" t="s">
-        <v>1397</v>
+        <v>1634</v>
       </c>
       <c r="D764">
-        <v>0</v>
-      </c>
-      <c r="E764" s="1" t="s">
-        <v>1437</v>
+        <v>1</v>
+      </c>
+      <c r="E764" t="s">
+        <v>1436</v>
       </c>
     </row>
     <row r="765" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18853,10 +18857,10 @@
         <v>1394</v>
       </c>
       <c r="B765" s="1" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C765" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D765">
         <v>0</v>
@@ -18870,10 +18874,10 @@
         <v>1394</v>
       </c>
       <c r="B766" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C766" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D766">
         <v>0</v>
@@ -18887,10 +18891,10 @@
         <v>1394</v>
       </c>
       <c r="B767" s="1" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C767" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D767">
         <v>0</v>
@@ -18899,15 +18903,15 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="768" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A768" t="s">
         <v>1394</v>
       </c>
       <c r="B768" s="1" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C768" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D768">
         <v>0</v>
@@ -18916,15 +18920,15 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="769" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A769" t="s">
         <v>1394</v>
       </c>
       <c r="B769" s="1" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C769" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D769">
         <v>0</v>
@@ -18938,16 +18942,16 @@
         <v>1394</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>1631</v>
+        <v>1372</v>
       </c>
       <c r="C770" t="s">
-        <v>5</v>
+        <v>1402</v>
       </c>
       <c r="D770">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E770" s="1" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="771" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18955,16 +18959,16 @@
         <v>1394</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>1373</v>
+        <v>1631</v>
       </c>
       <c r="C771" t="s">
-        <v>1403</v>
+        <v>5</v>
       </c>
       <c r="D771">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E771" s="1" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="772" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -18972,10 +18976,10 @@
         <v>1394</v>
       </c>
       <c r="B772" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C772" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D772">
         <v>0</v>
@@ -18989,10 +18993,10 @@
         <v>1394</v>
       </c>
       <c r="B773" s="1" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C773" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="D773">
         <v>0</v>
@@ -19006,10 +19010,10 @@
         <v>1394</v>
       </c>
       <c r="B774" s="1" t="s">
-        <v>1586</v>
+        <v>1375</v>
       </c>
       <c r="C774" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D774">
         <v>0</v>
@@ -19023,10 +19027,10 @@
         <v>1394</v>
       </c>
       <c r="B775" s="1" t="s">
-        <v>1376</v>
+        <v>1586</v>
       </c>
       <c r="C775" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D775">
         <v>0</v>
@@ -19040,10 +19044,10 @@
         <v>1394</v>
       </c>
       <c r="B776" s="1" t="s">
-        <v>1630</v>
+        <v>1376</v>
       </c>
       <c r="C776" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D776">
         <v>0</v>
@@ -19057,10 +19061,10 @@
         <v>1394</v>
       </c>
       <c r="B777" s="1" t="s">
-        <v>1587</v>
+        <v>1630</v>
       </c>
       <c r="C777" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D777">
         <v>0</v>
@@ -19074,10 +19078,10 @@
         <v>1394</v>
       </c>
       <c r="B778" s="1" t="s">
-        <v>1377</v>
+        <v>1587</v>
       </c>
       <c r="C778" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="D778">
         <v>0</v>
@@ -19091,10 +19095,10 @@
         <v>1394</v>
       </c>
       <c r="B779" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C779" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D779">
         <v>0</v>
@@ -19108,10 +19112,10 @@
         <v>1394</v>
       </c>
       <c r="B780" s="1" t="s">
-        <v>1588</v>
+        <v>1378</v>
       </c>
       <c r="C780" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D780">
         <v>0</v>
@@ -19125,10 +19129,10 @@
         <v>1394</v>
       </c>
       <c r="B781" s="1" t="s">
-        <v>1629</v>
+        <v>1588</v>
       </c>
       <c r="C781" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="D781">
         <v>0</v>
@@ -19142,10 +19146,10 @@
         <v>1394</v>
       </c>
       <c r="B782" s="1" t="s">
-        <v>1589</v>
+        <v>1629</v>
       </c>
       <c r="C782" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="D782">
         <v>0</v>
@@ -19159,10 +19163,10 @@
         <v>1394</v>
       </c>
       <c r="B783" s="1" t="s">
-        <v>1379</v>
+        <v>1589</v>
       </c>
       <c r="C783" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D783">
         <v>0</v>
@@ -19176,10 +19180,10 @@
         <v>1394</v>
       </c>
       <c r="B784" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C784" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D784">
         <v>0</v>
@@ -19193,10 +19197,10 @@
         <v>1394</v>
       </c>
       <c r="B785" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C785" t="s">
-        <v>1433</v>
+        <v>1416</v>
       </c>
       <c r="D785">
         <v>0</v>
@@ -19210,10 +19214,10 @@
         <v>1394</v>
       </c>
       <c r="B786" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C786" t="s">
-        <v>1417</v>
+        <v>1433</v>
       </c>
       <c r="D786">
         <v>0</v>
@@ -19227,10 +19231,10 @@
         <v>1394</v>
       </c>
       <c r="B787" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C787" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D787">
         <v>0</v>
@@ -19244,10 +19248,10 @@
         <v>1394</v>
       </c>
       <c r="B788" s="1" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C788" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D788">
         <v>0</v>
@@ -19261,10 +19265,10 @@
         <v>1394</v>
       </c>
       <c r="B789" s="1" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C789" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D789">
         <v>0</v>
@@ -19278,10 +19282,10 @@
         <v>1394</v>
       </c>
       <c r="B790" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C790" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D790">
         <v>0</v>
@@ -19295,10 +19299,10 @@
         <v>1394</v>
       </c>
       <c r="B791" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C791" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D791">
         <v>0</v>
@@ -19312,10 +19316,10 @@
         <v>1394</v>
       </c>
       <c r="B792" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C792" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D792">
         <v>0</v>
@@ -19329,10 +19333,10 @@
         <v>1394</v>
       </c>
       <c r="B793" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C793" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D793">
         <v>0</v>
@@ -19346,10 +19350,10 @@
         <v>1394</v>
       </c>
       <c r="B794" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C794" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D794">
         <v>0</v>
@@ -19363,10 +19367,10 @@
         <v>1394</v>
       </c>
       <c r="B795" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C795" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D795">
         <v>0</v>
@@ -19380,10 +19384,10 @@
         <v>1394</v>
       </c>
       <c r="B796" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C796" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D796">
         <v>0</v>
@@ -19397,10 +19401,10 @@
         <v>1394</v>
       </c>
       <c r="B797" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C797" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D797">
         <v>0</v>
@@ -19414,16 +19418,16 @@
         <v>1394</v>
       </c>
       <c r="B798" s="1" t="s">
-        <v>1627</v>
+        <v>1393</v>
       </c>
       <c r="C798" t="s">
-        <v>1628</v>
+        <v>1428</v>
       </c>
       <c r="D798">
         <v>0</v>
       </c>
       <c r="E798" s="1" t="s">
-        <v>1633</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="799" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -19431,16 +19435,16 @@
         <v>1394</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>1470</v>
-      </c>
-      <c r="C799">
-        <v>0</v>
+        <v>1627</v>
+      </c>
+      <c r="C799" t="s">
+        <v>1628</v>
       </c>
       <c r="D799">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E799" s="1" t="s">
-        <v>1439</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="800" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -19448,33 +19452,33 @@
         <v>1394</v>
       </c>
       <c r="B800" s="1" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C800" t="s">
-        <v>1432</v>
+        <v>1470</v>
+      </c>
+      <c r="C800">
+        <v>0</v>
       </c>
       <c r="D800">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E800" s="1" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="801" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A801" t="s">
-        <v>1444</v>
+        <v>1394</v>
       </c>
       <c r="B801" s="1" t="s">
-        <v>1445</v>
+        <v>1431</v>
       </c>
       <c r="C801" t="s">
-        <v>1446</v>
+        <v>1432</v>
       </c>
       <c r="D801">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E801" s="1" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="802" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -19482,16 +19486,16 @@
         <v>1444</v>
       </c>
       <c r="B802" s="1" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="C802" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="D802">
         <v>1</v>
       </c>
       <c r="E802" s="1" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="803" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -19499,16 +19503,16 @@
         <v>1444</v>
       </c>
       <c r="B803" s="1" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="C803" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D803">
         <v>1</v>
       </c>
       <c r="E803" s="1" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="804" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -19516,16 +19520,16 @@
         <v>1444</v>
       </c>
       <c r="B804" s="1" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="C804" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D804">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E804" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="805" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -19533,10 +19537,10 @@
         <v>1444</v>
       </c>
       <c r="B805" s="1" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="C805" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="D805">
         <v>0</v>
@@ -19550,10 +19554,10 @@
         <v>1444</v>
       </c>
       <c r="B806" s="1" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="C806" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="D806">
         <v>0</v>
@@ -19567,10 +19571,10 @@
         <v>1444</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="C807" t="s">
-        <v>489</v>
+        <v>1456</v>
       </c>
       <c r="D807">
         <v>0</v>
@@ -19584,10 +19588,10 @@
         <v>1444</v>
       </c>
       <c r="B808" s="1" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="C808" t="s">
-        <v>1459</v>
+        <v>489</v>
       </c>
       <c r="D808">
         <v>0</v>
@@ -19601,10 +19605,10 @@
         <v>1444</v>
       </c>
       <c r="B809" s="1" t="s">
-        <v>1553</v>
+        <v>1458</v>
       </c>
       <c r="C809" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D809">
         <v>0</v>
@@ -19618,10 +19622,10 @@
         <v>1444</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>1591</v>
+        <v>1553</v>
       </c>
       <c r="C810" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D810">
         <v>0</v>
@@ -19635,10 +19639,10 @@
         <v>1444</v>
       </c>
       <c r="B811" s="1" t="s">
-        <v>1581</v>
+        <v>1591</v>
       </c>
       <c r="C811" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D811">
         <v>0</v>
@@ -19652,10 +19656,10 @@
         <v>1444</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>1463</v>
+        <v>1581</v>
       </c>
       <c r="C812" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D812">
         <v>0</v>
@@ -19669,10 +19673,10 @@
         <v>1444</v>
       </c>
       <c r="B813" s="1" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="C813" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="D813">
         <v>0</v>
@@ -19683,19 +19687,19 @@
     </row>
     <row r="814" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A814" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="B814" s="1" t="s">
-        <v>1470</v>
-      </c>
-      <c r="C814">
-        <v>0</v>
+        <v>1465</v>
+      </c>
+      <c r="C814" t="s">
+        <v>1466</v>
       </c>
       <c r="D814">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E814" s="1" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="815" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -19703,33 +19707,33 @@
         <v>1441</v>
       </c>
       <c r="B815" s="1" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C815" t="s">
-        <v>1469</v>
+        <v>1470</v>
+      </c>
+      <c r="C815">
+        <v>0</v>
       </c>
       <c r="D815">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E815" s="1" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="816" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A816" t="s">
-        <v>1474</v>
-      </c>
-      <c r="B816" t="s">
-        <v>1477</v>
+        <v>1441</v>
+      </c>
+      <c r="B816" s="1" t="s">
+        <v>1468</v>
       </c>
       <c r="C816" t="s">
-        <v>1478</v>
+        <v>1469</v>
       </c>
       <c r="D816">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E816" s="1" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="817" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -19737,16 +19741,16 @@
         <v>1474</v>
       </c>
       <c r="B817" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="C817" t="s">
-        <v>1488</v>
+        <v>1478</v>
       </c>
       <c r="D817">
         <v>1</v>
       </c>
       <c r="E817" s="1" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="818" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -19754,16 +19758,16 @@
         <v>1474</v>
       </c>
       <c r="B818" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C818" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D818">
         <v>1</v>
       </c>
       <c r="E818" s="1" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="819" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -19771,16 +19775,16 @@
         <v>1474</v>
       </c>
       <c r="B819" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C819" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D819">
         <v>1</v>
       </c>
       <c r="E819" s="1" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="820" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -19788,16 +19792,16 @@
         <v>1474</v>
       </c>
       <c r="B820" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C820" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D820">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E820" s="1" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="821" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -19805,10 +19809,10 @@
         <v>1474</v>
       </c>
       <c r="B821" t="s">
-        <v>1582</v>
+        <v>1482</v>
       </c>
       <c r="C821" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D821">
         <v>0</v>
@@ -19822,10 +19826,10 @@
         <v>1474</v>
       </c>
       <c r="B822" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="C822" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D822">
         <v>0</v>
@@ -19839,10 +19843,10 @@
         <v>1474</v>
       </c>
       <c r="B823" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="C823" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D823">
         <v>0</v>
@@ -19856,10 +19860,10 @@
         <v>1474</v>
       </c>
       <c r="B824" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="C824" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D824">
         <v>0</v>
@@ -19873,10 +19877,10 @@
         <v>1474</v>
       </c>
       <c r="B825" t="s">
-        <v>1483</v>
+        <v>1585</v>
       </c>
       <c r="C825" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="D825">
         <v>0</v>
@@ -19890,10 +19894,10 @@
         <v>1474</v>
       </c>
       <c r="B826" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C826" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="D826">
         <v>0</v>
@@ -19907,10 +19911,10 @@
         <v>1474</v>
       </c>
       <c r="B827" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="C827" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="D827">
         <v>0</v>
@@ -19924,10 +19928,10 @@
         <v>1474</v>
       </c>
       <c r="B828" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C828" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D828">
         <v>0</v>
@@ -19941,10 +19945,10 @@
         <v>1474</v>
       </c>
       <c r="B829" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C829" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D829">
         <v>0</v>
@@ -19958,10 +19962,10 @@
         <v>1474</v>
       </c>
       <c r="B830" t="s">
-        <v>1431</v>
+        <v>1487</v>
       </c>
       <c r="C830" t="s">
-        <v>1432</v>
+        <v>1500</v>
       </c>
       <c r="D830">
         <v>0</v>
@@ -19972,19 +19976,19 @@
     </row>
     <row r="831" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A831" t="s">
-        <v>1595</v>
+        <v>1474</v>
       </c>
       <c r="B831" t="s">
-        <v>1596</v>
+        <v>1431</v>
       </c>
       <c r="C831" t="s">
-        <v>1597</v>
+        <v>1432</v>
       </c>
       <c r="D831">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E831" s="1" t="s">
-        <v>1612</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="832" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -19992,16 +19996,16 @@
         <v>1595</v>
       </c>
       <c r="B832" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C832" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="D832">
         <v>1</v>
       </c>
       <c r="E832" s="1" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="833" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20009,16 +20013,16 @@
         <v>1595</v>
       </c>
       <c r="B833" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C833" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="D833">
         <v>1</v>
       </c>
       <c r="E833" s="1" t="s">
-        <v>1602</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="834" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20026,16 +20030,16 @@
         <v>1595</v>
       </c>
       <c r="B834" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="C834" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="D834">
         <v>1</v>
       </c>
       <c r="E834" s="1" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="835" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20043,33 +20047,33 @@
         <v>1595</v>
       </c>
       <c r="B835" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="C835" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="D835">
         <v>1</v>
       </c>
       <c r="E835" s="1" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="836" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A836" t="s">
-        <v>1608</v>
+        <v>1595</v>
       </c>
       <c r="B836" t="s">
-        <v>1596</v>
+        <v>1606</v>
       </c>
       <c r="C836" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
       <c r="D836">
         <v>1</v>
       </c>
       <c r="E836" s="1" t="s">
-        <v>1612</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="837" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20077,16 +20081,16 @@
         <v>1608</v>
       </c>
       <c r="B837" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C837" t="s">
-        <v>1599</v>
+        <v>1614</v>
       </c>
       <c r="D837">
         <v>1</v>
       </c>
       <c r="E837" s="1" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="838" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20094,16 +20098,16 @@
         <v>1608</v>
       </c>
       <c r="B838" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C838" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="D838">
         <v>1</v>
       </c>
       <c r="E838" s="1" t="s">
-        <v>1602</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="839" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20111,16 +20115,16 @@
         <v>1608</v>
       </c>
       <c r="B839" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="C839" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="D839">
         <v>1</v>
       </c>
       <c r="E839" s="1" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="840" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20128,33 +20132,33 @@
         <v>1608</v>
       </c>
       <c r="B840" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="C840" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="D840">
         <v>1</v>
       </c>
       <c r="E840" s="1" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="841" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A841" t="s">
-        <v>1615</v>
+        <v>1608</v>
       </c>
       <c r="B841" t="s">
-        <v>1616</v>
+        <v>1606</v>
       </c>
       <c r="C841" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
       <c r="D841">
         <v>1</v>
       </c>
       <c r="E841" s="1" t="s">
-        <v>1618</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="842" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20162,16 +20166,16 @@
         <v>1615</v>
       </c>
       <c r="B842" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="C842" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="D842">
         <v>1</v>
       </c>
       <c r="E842" s="1" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="843" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20179,33 +20183,33 @@
         <v>1615</v>
       </c>
       <c r="B843" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="C843" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="D843">
         <v>1</v>
       </c>
       <c r="E843" s="1" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="844" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A844" t="s">
-        <v>1635</v>
+        <v>1615</v>
       </c>
       <c r="B844" t="s">
-        <v>1636</v>
+        <v>1622</v>
       </c>
       <c r="C844" t="s">
-        <v>1637</v>
+        <v>1623</v>
       </c>
       <c r="D844">
         <v>1</v>
       </c>
       <c r="E844" s="1" t="s">
-        <v>1638</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="845" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20213,16 +20217,16 @@
         <v>1635</v>
       </c>
       <c r="B845" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="C845" t="s">
-        <v>1450</v>
+        <v>1637</v>
       </c>
       <c r="D845">
         <v>1</v>
       </c>
       <c r="E845" s="1" t="s">
-        <v>1436</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="846" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20230,16 +20234,16 @@
         <v>1635</v>
       </c>
       <c r="B846" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="C846" t="s">
-        <v>1641</v>
+        <v>1450</v>
       </c>
       <c r="D846">
         <v>1</v>
       </c>
       <c r="E846" s="1" t="s">
-        <v>1642</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="847" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20247,33 +20251,33 @@
         <v>1635</v>
       </c>
       <c r="B847" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="C847" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="D847">
         <v>1</v>
       </c>
       <c r="E847" s="1" t="s">
-        <v>1440</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="848" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A848" t="s">
-        <v>1646</v>
+        <v>1635</v>
       </c>
       <c r="B848" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="C848" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="D848">
         <v>1</v>
       </c>
       <c r="E848" s="1" t="s">
-        <v>1649</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="849" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20281,16 +20285,16 @@
         <v>1646</v>
       </c>
       <c r="B849" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="C849" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="D849">
         <v>1</v>
       </c>
       <c r="E849" s="1" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="850" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20298,16 +20302,16 @@
         <v>1646</v>
       </c>
       <c r="B850" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="C850" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="D850">
         <v>1</v>
       </c>
       <c r="E850" s="1" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="851" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20315,16 +20319,16 @@
         <v>1646</v>
       </c>
       <c r="B851" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="C851" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="D851">
         <v>1</v>
       </c>
       <c r="E851" s="1" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="852" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20332,16 +20336,16 @@
         <v>1646</v>
       </c>
       <c r="B852" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="C852" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="D852">
         <v>1</v>
       </c>
       <c r="E852" s="1" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="853" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20349,33 +20353,33 @@
         <v>1646</v>
       </c>
       <c r="B853" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="C853" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D853">
         <v>1</v>
       </c>
       <c r="E853" s="1" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="854" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A854" t="s">
-        <v>1666</v>
+        <v>1646</v>
       </c>
       <c r="B854" t="s">
-        <v>1667</v>
+        <v>1662</v>
       </c>
       <c r="C854" t="s">
-        <v>1614</v>
+        <v>1663</v>
       </c>
       <c r="D854">
         <v>1</v>
       </c>
       <c r="E854" s="1" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="855" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20383,16 +20387,16 @@
         <v>1666</v>
       </c>
       <c r="B855" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="C855" t="s">
-        <v>1670</v>
+        <v>1614</v>
       </c>
       <c r="D855">
         <v>1</v>
       </c>
       <c r="E855" s="1" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="856" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20400,16 +20404,16 @@
         <v>1666</v>
       </c>
       <c r="B856" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="C856" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="D856">
         <v>1</v>
       </c>
       <c r="E856" s="1" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="857" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20417,16 +20421,16 @@
         <v>1666</v>
       </c>
       <c r="B857" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="C857" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="D857">
         <v>1</v>
       </c>
       <c r="E857" s="1" t="s">
-        <v>1683</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="858" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20434,16 +20438,16 @@
         <v>1666</v>
       </c>
       <c r="B858" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="C858" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="D858">
         <v>1</v>
       </c>
       <c r="E858" s="1" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="859" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20451,16 +20455,16 @@
         <v>1666</v>
       </c>
       <c r="B859" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="C859" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="D859">
         <v>1</v>
       </c>
       <c r="E859" s="1" t="s">
-        <v>1681</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="860" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20468,33 +20472,33 @@
         <v>1666</v>
       </c>
       <c r="B860" t="s">
-        <v>1713</v>
+        <v>1680</v>
       </c>
       <c r="C860" t="s">
-        <v>1714</v>
+        <v>1681</v>
       </c>
       <c r="D860">
         <v>1</v>
       </c>
       <c r="E860" s="1" t="s">
-        <v>1715</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="861" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A861" t="s">
-        <v>1686</v>
+        <v>1666</v>
       </c>
       <c r="B861" t="s">
-        <v>1667</v>
+        <v>1713</v>
       </c>
       <c r="C861" t="s">
-        <v>1687</v>
+        <v>1714</v>
       </c>
       <c r="D861">
         <v>1</v>
       </c>
       <c r="E861" s="1" t="s">
-        <v>1668</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="862" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20502,16 +20506,16 @@
         <v>1686</v>
       </c>
       <c r="B862" t="s">
-        <v>1688</v>
+        <v>1667</v>
       </c>
       <c r="C862" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D862">
         <v>1</v>
       </c>
       <c r="E862" s="1" t="s">
-        <v>1690</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="863" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20519,16 +20523,16 @@
         <v>1686</v>
       </c>
       <c r="B863" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="C863" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="D863">
         <v>1</v>
       </c>
       <c r="E863" s="1" t="s">
-        <v>1602</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="864" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20536,16 +20540,16 @@
         <v>1686</v>
       </c>
       <c r="B864" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C864" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D864">
         <v>1</v>
       </c>
       <c r="E864" s="1" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="865" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20553,33 +20557,33 @@
         <v>1686</v>
       </c>
       <c r="B865" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="C865" t="s">
-        <v>1607</v>
+        <v>1694</v>
       </c>
       <c r="D865">
         <v>1</v>
       </c>
       <c r="E865" s="1" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="866" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A866" t="s">
-        <v>1697</v>
+        <v>1686</v>
       </c>
       <c r="B866" t="s">
-        <v>1445</v>
+        <v>1695</v>
       </c>
       <c r="C866" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
       <c r="D866">
         <v>1</v>
       </c>
       <c r="E866" s="1" t="s">
-        <v>1668</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="867" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20587,16 +20591,16 @@
         <v>1697</v>
       </c>
       <c r="B867" t="s">
-        <v>1692</v>
+        <v>1445</v>
       </c>
       <c r="C867" t="s">
-        <v>1698</v>
+        <v>1614</v>
       </c>
       <c r="D867">
         <v>1</v>
       </c>
       <c r="E867" s="1" t="s">
-        <v>1699</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="868" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20604,16 +20608,16 @@
         <v>1697</v>
       </c>
       <c r="B868" t="s">
-        <v>1700</v>
+        <v>1692</v>
       </c>
       <c r="C868" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="D868">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E868" s="1" t="s">
-        <v>1677</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="869" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -20621,10 +20625,10 @@
         <v>1697</v>
       </c>
       <c r="B869" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="C869" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="D869">
         <v>0</v>
@@ -20638,10 +20642,10 @@
         <v>1697</v>
       </c>
       <c r="B870" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="C870" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D870">
         <v>0</v>
@@ -20655,10 +20659,10 @@
         <v>1697</v>
       </c>
       <c r="B871" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="C871" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="D871">
         <v>0</v>
@@ -20672,10 +20676,10 @@
         <v>1697</v>
       </c>
       <c r="B872" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="C872" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D872">
         <v>0</v>
@@ -20689,20 +20693,34 @@
         <v>1697</v>
       </c>
       <c r="B873" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C873" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D873">
+        <v>0</v>
+      </c>
+      <c r="E873" s="1" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A874" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B874" t="s">
         <v>1431</v>
       </c>
-      <c r="C873" t="s">
+      <c r="C874" t="s">
         <v>1432</v>
       </c>
-      <c r="D873">
-        <v>0</v>
-      </c>
-      <c r="E873" s="1" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="874" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E874" s="1"/>
+      <c r="D874">
+        <v>0</v>
+      </c>
+      <c r="E874" s="1" t="s">
+        <v>1437</v>
+      </c>
     </row>
     <row r="875" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E875" s="1"/>
@@ -20710,8 +20728,11 @@
     <row r="876" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E876" s="1"/>
     </row>
+    <row r="877" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E877" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C873" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C874" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/FactorLib/resource/wind_tableinfo.xlsx
+++ b/FactorLib/resource/wind_tableinfo.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9DC56EDC-7474-40C1-AE79-DF0C93E344E4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EEEBB7AF-0FAF-4D53-9A95-FCB5EFE6BE21}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3569" uniqueCount="1717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3636" uniqueCount="1753">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5449,6 +5449,150 @@
   </si>
   <si>
     <t>报告类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国共同基金股票持仓明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金Wind代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有股票Wind代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_stockwindcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有股票市值(元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_prt_stkvalue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有股票数量(股)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_prt_stkquantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有股票市值占基金净值比例(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_prt_stkvaluetonav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积极投资持有股票市值(元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_prt_posstkvalue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_prt_posstkquantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积极投资持有股数(股)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积极投资持有股票市值占净资产比例(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_prt_posstktonav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数投资持有股票市值(元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数投资持有股数(股)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_prt_passtkquantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数投资持有股票市值占净资产比例(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_prt_passtktonav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占股票市值比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占流通股本比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock_per</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float_shr_per</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChinaMutualFundStockPortfolio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_prt_enddate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ann_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_prt_passtkevalue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5847,11 +5991,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E877"/>
+  <dimension ref="A1:E890"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A434" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C449" sqref="C449"/>
+      <pane ySplit="1" topLeftCell="A866" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C887" sqref="C887"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20723,13 +20867,276 @@
       </c>
     </row>
     <row r="875" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E875" s="1"/>
+      <c r="A875" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B875" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C875" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D875">
+        <v>0</v>
+      </c>
+      <c r="E875" s="1" t="s">
+        <v>1437</v>
+      </c>
     </row>
     <row r="876" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E876" s="1"/>
+      <c r="A876" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B876" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C876" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D876">
+        <v>1</v>
+      </c>
+      <c r="E876" s="1" t="s">
+        <v>1720</v>
+      </c>
     </row>
     <row r="877" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E877" s="1"/>
+      <c r="A877" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B877" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C877" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D877">
+        <v>1</v>
+      </c>
+      <c r="E877" s="1" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A878" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B878" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C878" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D878">
+        <v>1</v>
+      </c>
+      <c r="E878" s="1" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A879" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B879" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C879" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D879">
+        <v>1</v>
+      </c>
+      <c r="E879" s="1" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A880" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C880" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D880">
+        <v>0</v>
+      </c>
+      <c r="E880" s="1" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="881" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A881" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C881" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D881">
+        <v>0</v>
+      </c>
+      <c r="E881" s="1" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="882" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A882" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C882" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D882">
+        <v>0</v>
+      </c>
+      <c r="E882" s="1" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A883" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C883" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D883">
+        <v>0</v>
+      </c>
+      <c r="E883" s="1" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A884" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B884" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C884" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D884">
+        <v>0</v>
+      </c>
+      <c r="E884" s="1" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A885" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B885" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C885" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D885">
+        <v>0</v>
+      </c>
+      <c r="E885" s="1" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="886" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A886" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B886" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C886" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D886">
+        <v>0</v>
+      </c>
+      <c r="E886" s="1" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="887" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A887" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B887" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C887" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D887">
+        <v>0</v>
+      </c>
+      <c r="E887" s="1" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A888" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C888" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D888">
+        <v>0</v>
+      </c>
+      <c r="E888" s="1" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="889" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A889" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C889" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D889">
+        <v>0</v>
+      </c>
+      <c r="E889" s="1" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="890" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A890" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B890" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C890" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D890">
+        <v>0</v>
+      </c>
+      <c r="E890" s="1" t="s">
+        <v>1728</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C874" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -20742,10 +21149,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21030,6 +21437,17 @@
         <v>1682</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1749</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FactorLib/resource/wind_tableinfo.xlsx
+++ b/FactorLib/resource/wind_tableinfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EEEBB7AF-0FAF-4D53-9A95-FCB5EFE6BE21}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C41E8B89-22A2-42D1-BF3A-8B226D9D10D2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3636" uniqueCount="1753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3659" uniqueCount="1765">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5593,6 +5593,54 @@
   </si>
   <si>
     <t>f_prt_passtkevalue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股特别处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entry_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤销日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股特别处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AShareST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特别处理类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_type_st</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5991,11 +6039,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E890"/>
+  <dimension ref="A1:E895"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A866" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C887" sqref="C887"/>
+      <pane ySplit="1" topLeftCell="A881" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E896" sqref="E896"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21138,6 +21186,91 @@
         <v>1728</v>
       </c>
     </row>
+    <row r="891" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A891" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C891" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D891">
+        <v>0</v>
+      </c>
+      <c r="E891" s="1" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="892" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A892" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B892" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C892" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D892">
+        <v>1</v>
+      </c>
+      <c r="E892" s="1" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="893" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A893" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C893" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D893">
+        <v>1</v>
+      </c>
+      <c r="E893" s="1" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="894" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A894" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B894" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C894" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D894">
+        <v>1</v>
+      </c>
+      <c r="E894" s="1" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="895" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A895" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B895" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C895" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D895">
+        <v>1</v>
+      </c>
+      <c r="E895" s="1" t="s">
+        <v>1439</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C874" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -21149,10 +21282,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21448,6 +21581,17 @@
         <v>1749</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1762</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FactorLib/resource/wind_tableinfo.xlsx
+++ b/FactorLib/resource/wind_tableinfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C41E8B89-22A2-42D1-BF3A-8B226D9D10D2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3D0DCB17-898C-4668-A5E0-E5270077467C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3659" uniqueCount="1765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3678" uniqueCount="1777">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5641,6 +5641,54 @@
   </si>
   <si>
     <t>s_type_st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股审计意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report_period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ann_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审计结果类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AShareAuditOpinion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_stmnote_audit_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6039,11 +6087,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E895"/>
+  <dimension ref="A1:E899"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A881" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E896" sqref="E896"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A890" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B895" sqref="B895"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6052,7 +6100,7 @@
     <col min="2" max="2" width="57.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.25" customWidth="1"/>
     <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
     <col min="6" max="6" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21269,6 +21317,74 @@
       </c>
       <c r="E895" s="1" t="s">
         <v>1439</v>
+      </c>
+    </row>
+    <row r="896" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A896" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B896" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C896" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D896">
+        <v>1</v>
+      </c>
+      <c r="E896" s="1" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="897" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A897" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B897" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C897" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D897">
+        <v>1</v>
+      </c>
+      <c r="E897" s="1" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="898" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A898" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B898" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C898" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D898">
+        <v>1</v>
+      </c>
+      <c r="E898" s="1" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="899" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A899" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B899" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C899" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D899">
+        <v>0</v>
+      </c>
+      <c r="E899" s="1" t="s">
+        <v>1776</v>
       </c>
     </row>
   </sheetData>
@@ -21282,10 +21398,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21592,6 +21708,17 @@
         <v>1762</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1774</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
